--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -585,16 +585,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44059</v>
+        <v>44066</v>
       </c>
       <c r="B14">
-        <v>72.70999999999999</v>
+        <v>102.27</v>
       </c>
       <c r="C14">
         <v>86.42</v>
       </c>
       <c r="D14">
-        <v>-15.87</v>
+        <v>18.34</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5977,6 +5977,104 @@
         <v>57.77</v>
       </c>
     </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B384">
+        <v>136.22</v>
+      </c>
+      <c r="C384">
+        <v>86.42</v>
+      </c>
+      <c r="D384">
+        <v>57.62</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B385">
+        <v>146.75</v>
+      </c>
+      <c r="C385">
+        <v>86.42</v>
+      </c>
+      <c r="D385">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B386">
+        <v>171.51</v>
+      </c>
+      <c r="C386">
+        <v>86.42</v>
+      </c>
+      <c r="D386">
+        <v>98.45</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B387">
+        <v>189.24</v>
+      </c>
+      <c r="C387">
+        <v>86.42</v>
+      </c>
+      <c r="D387">
+        <v>118.97</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B388">
+        <v>187.72</v>
+      </c>
+      <c r="C388">
+        <v>86.42</v>
+      </c>
+      <c r="D388">
+        <v>117.21</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B389">
+        <v>179.81</v>
+      </c>
+      <c r="C389">
+        <v>86.42</v>
+      </c>
+      <c r="D389">
+        <v>108.06</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B390">
+        <v>177.59</v>
+      </c>
+      <c r="C390">
+        <v>86.42</v>
+      </c>
+      <c r="D390">
+        <v>105.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -417,184 +417,184 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B2">
-        <v>83.20999999999999</v>
+        <v>120.4</v>
       </c>
       <c r="C2">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D2">
-        <v>-3.72</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B3">
-        <v>120.4</v>
+        <v>116.23</v>
       </c>
       <c r="C3">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D3">
-        <v>27.43</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B4">
-        <v>116.23</v>
+        <v>122.39</v>
       </c>
       <c r="C4">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D4">
-        <v>-1.83</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B5">
-        <v>122.39</v>
+        <v>107.31</v>
       </c>
       <c r="C5">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D5">
-        <v>10.66</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B6">
-        <v>107.31</v>
+        <v>93.59</v>
       </c>
       <c r="C6">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D6">
-        <v>-6</v>
+        <v>-29.18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B7">
-        <v>93.59</v>
+        <v>116</v>
       </c>
       <c r="C7">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D7">
-        <v>-29.18</v>
+        <v>-13.2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B8">
-        <v>116</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C8">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D8">
-        <v>-13.2</v>
+        <v>-18.82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B9">
-        <v>92.34999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C9">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D9">
-        <v>-18.82</v>
+        <v>-32.79</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B10">
-        <v>66.51000000000001</v>
+        <v>57.27</v>
       </c>
       <c r="C10">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D10">
-        <v>-32.79</v>
+        <v>-42.69</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B11">
-        <v>57.27</v>
+        <v>83.84</v>
       </c>
       <c r="C11">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D11">
-        <v>-42.69</v>
+        <v>-37.18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B12">
-        <v>83.84</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C12">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D12">
-        <v>-37.18</v>
+        <v>-30.45</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B13">
-        <v>72.43000000000001</v>
+        <v>103.78</v>
       </c>
       <c r="C13">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D13">
-        <v>-30.45</v>
+        <v>20.08</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44066</v>
+        <v>44082</v>
       </c>
       <c r="B14">
-        <v>102.27</v>
+        <v>88.95999999999999</v>
       </c>
       <c r="C14">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D14">
-        <v>18.34</v>
+        <v>-5.85</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D390"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -631,4773 +631,4773 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B2">
-        <v>78.45</v>
+        <v>118.4</v>
       </c>
       <c r="C2">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D2">
-        <v>-9.23</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43679</v>
+        <v>43710</v>
       </c>
       <c r="B3">
-        <v>77.5</v>
+        <v>155.54</v>
       </c>
       <c r="C3">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D3">
-        <v>-10.33</v>
+        <v>64.62</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43680</v>
+        <v>43711</v>
       </c>
       <c r="B4">
-        <v>79.84999999999999</v>
+        <v>143.59</v>
       </c>
       <c r="C4">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D4">
-        <v>-7.6</v>
+        <v>51.97</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43681</v>
+        <v>43712</v>
       </c>
       <c r="B5">
-        <v>82.72</v>
+        <v>138.09</v>
       </c>
       <c r="C5">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D5">
-        <v>-4.29</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43682</v>
+        <v>43713</v>
       </c>
       <c r="B6">
-        <v>80.25</v>
+        <v>136.31</v>
       </c>
       <c r="C6">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D6">
-        <v>-7.14</v>
+        <v>44.27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43683</v>
+        <v>43714</v>
       </c>
       <c r="B7">
-        <v>78.91</v>
+        <v>110.69</v>
       </c>
       <c r="C7">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D7">
-        <v>-8.699999999999999</v>
+        <v>17.15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43684</v>
+        <v>43715</v>
       </c>
       <c r="B8">
-        <v>76.56999999999999</v>
+        <v>106.57</v>
       </c>
       <c r="C8">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D8">
-        <v>-11.4</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43685</v>
+        <v>43716</v>
       </c>
       <c r="B9">
-        <v>76.98</v>
+        <v>104.94</v>
       </c>
       <c r="C9">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D9">
-        <v>-10.93</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43686</v>
+        <v>43717</v>
       </c>
       <c r="B10">
-        <v>76.93000000000001</v>
+        <v>97.12</v>
       </c>
       <c r="C10">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D10">
-        <v>-10.99</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43687</v>
+        <v>43718</v>
       </c>
       <c r="B11">
-        <v>74.91</v>
+        <v>88.98</v>
       </c>
       <c r="C11">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D11">
-        <v>-13.33</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43688</v>
+        <v>43719</v>
       </c>
       <c r="B12">
-        <v>73.45999999999999</v>
+        <v>83.69</v>
       </c>
       <c r="C12">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D12">
-        <v>-15</v>
+        <v>-11.43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43689</v>
+        <v>43720</v>
       </c>
       <c r="B13">
-        <v>72.72</v>
+        <v>80.69</v>
       </c>
       <c r="C13">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D13">
-        <v>-15.86</v>
+        <v>-14.61</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43690</v>
+        <v>43721</v>
       </c>
       <c r="B14">
-        <v>72.19</v>
+        <v>80.18000000000001</v>
       </c>
       <c r="C14">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D14">
-        <v>-16.47</v>
+        <v>-15.15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43691</v>
+        <v>43722</v>
       </c>
       <c r="B15">
-        <v>72.83</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="C15">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D15">
-        <v>-15.72</v>
+        <v>-16.91</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43692</v>
+        <v>43723</v>
       </c>
       <c r="B16">
-        <v>73.58</v>
+        <v>82.53</v>
       </c>
       <c r="C16">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D16">
-        <v>-14.86</v>
+        <v>-12.65</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43693</v>
+        <v>43724</v>
       </c>
       <c r="B17">
-        <v>75.53</v>
+        <v>88</v>
       </c>
       <c r="C17">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D17">
-        <v>-12.6</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43694</v>
+        <v>43725</v>
       </c>
       <c r="B18">
-        <v>73.97</v>
+        <v>83.48999999999999</v>
       </c>
       <c r="C18">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D18">
-        <v>-14.41</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43695</v>
+        <v>43726</v>
       </c>
       <c r="B19">
-        <v>73</v>
+        <v>81.73999999999999</v>
       </c>
       <c r="C19">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D19">
-        <v>-15.53</v>
+        <v>-13.49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43696</v>
+        <v>43727</v>
       </c>
       <c r="B20">
-        <v>96.98999999999999</v>
+        <v>125.24</v>
       </c>
       <c r="C20">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D20">
-        <v>12.23</v>
+        <v>32.55</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43697</v>
+        <v>43728</v>
       </c>
       <c r="B21">
-        <v>117.26</v>
+        <v>175.18</v>
       </c>
       <c r="C21">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D21">
-        <v>35.68</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43698</v>
+        <v>43729</v>
       </c>
       <c r="B22">
-        <v>120.92</v>
+        <v>178.03</v>
       </c>
       <c r="C22">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D22">
-        <v>39.91</v>
+        <v>88.42</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43699</v>
+        <v>43730</v>
       </c>
       <c r="B23">
-        <v>123.77</v>
+        <v>179.59</v>
       </c>
       <c r="C23">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D23">
-        <v>43.21</v>
+        <v>90.06999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43700</v>
+        <v>43731</v>
       </c>
       <c r="B24">
-        <v>105.34</v>
+        <v>195.58</v>
       </c>
       <c r="C24">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D24">
-        <v>21.89</v>
+        <v>106.99</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43701</v>
+        <v>43732</v>
       </c>
       <c r="B25">
-        <v>90.64</v>
+        <v>179.25</v>
       </c>
       <c r="C25">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D25">
-        <v>4.87</v>
+        <v>89.70999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43702</v>
+        <v>43733</v>
       </c>
       <c r="B26">
-        <v>84.81</v>
+        <v>156.85</v>
       </c>
       <c r="C26">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D26">
-        <v>-1.86</v>
+        <v>66.01000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43703</v>
+        <v>43734</v>
       </c>
       <c r="B27">
-        <v>80.64</v>
+        <v>126.1</v>
       </c>
       <c r="C27">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D27">
-        <v>-6.7</v>
+        <v>33.46</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43704</v>
+        <v>43735</v>
       </c>
       <c r="B28">
-        <v>77.91</v>
+        <v>117.68</v>
       </c>
       <c r="C28">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D28">
-        <v>-9.859999999999999</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43705</v>
+        <v>43736</v>
       </c>
       <c r="B29">
-        <v>77.70999999999999</v>
+        <v>116.15</v>
       </c>
       <c r="C29">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D29">
-        <v>-10.08</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43706</v>
+        <v>43737</v>
       </c>
       <c r="B30">
-        <v>78.84</v>
+        <v>105.85</v>
       </c>
       <c r="C30">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D30">
-        <v>-8.77</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43707</v>
+        <v>43738</v>
       </c>
       <c r="B31">
-        <v>75.73</v>
+        <v>97.55</v>
       </c>
       <c r="C31">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D31">
-        <v>-12.37</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43708</v>
+        <v>43739</v>
       </c>
       <c r="B32">
-        <v>78.55</v>
+        <v>91.67</v>
       </c>
       <c r="C32">
-        <v>86.42</v>
+        <v>118.4</v>
       </c>
       <c r="D32">
-        <v>-9.109999999999999</v>
+        <v>-22.58</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43709</v>
+        <v>43740</v>
       </c>
       <c r="B33">
+        <v>89.51000000000001</v>
+      </c>
+      <c r="C33">
         <v>118.4</v>
       </c>
-      <c r="C33">
-        <v>94.48999999999999</v>
-      </c>
       <c r="D33">
-        <v>25.3</v>
+        <v>-24.4</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43710</v>
+        <v>43741</v>
       </c>
       <c r="B34">
-        <v>155.54</v>
+        <v>86.25</v>
       </c>
       <c r="C34">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D34">
-        <v>64.62</v>
+        <v>-27.15</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43711</v>
+        <v>43742</v>
       </c>
       <c r="B35">
-        <v>143.59</v>
+        <v>83.41</v>
       </c>
       <c r="C35">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D35">
-        <v>51.97</v>
+        <v>-29.56</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43712</v>
+        <v>43743</v>
       </c>
       <c r="B36">
-        <v>138.09</v>
+        <v>81.75</v>
       </c>
       <c r="C36">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D36">
-        <v>46.15</v>
+        <v>-30.95</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43713</v>
+        <v>43744</v>
       </c>
       <c r="B37">
-        <v>136.31</v>
+        <v>95.89</v>
       </c>
       <c r="C37">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D37">
-        <v>44.27</v>
+        <v>-19.02</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43714</v>
+        <v>43745</v>
       </c>
       <c r="B38">
-        <v>110.69</v>
+        <v>127.65</v>
       </c>
       <c r="C38">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D38">
-        <v>17.15</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43715</v>
+        <v>43746</v>
       </c>
       <c r="B39">
-        <v>106.57</v>
+        <v>125.98</v>
       </c>
       <c r="C39">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D39">
-        <v>12.79</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43716</v>
+        <v>43747</v>
       </c>
       <c r="B40">
-        <v>104.94</v>
+        <v>122.92</v>
       </c>
       <c r="C40">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D40">
-        <v>11.06</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43717</v>
+        <v>43748</v>
       </c>
       <c r="B41">
-        <v>97.12</v>
+        <v>115.44</v>
       </c>
       <c r="C41">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D41">
-        <v>2.79</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43718</v>
+        <v>43749</v>
       </c>
       <c r="B42">
-        <v>88.98</v>
+        <v>97.95</v>
       </c>
       <c r="C42">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D42">
-        <v>-5.83</v>
+        <v>-17.27</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43719</v>
+        <v>43750</v>
       </c>
       <c r="B43">
-        <v>83.69</v>
+        <v>90.53</v>
       </c>
       <c r="C43">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D43">
-        <v>-11.43</v>
+        <v>-23.54</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43720</v>
+        <v>43751</v>
       </c>
       <c r="B44">
-        <v>80.69</v>
+        <v>86.73</v>
       </c>
       <c r="C44">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D44">
-        <v>-14.61</v>
+        <v>-26.75</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43721</v>
+        <v>43752</v>
       </c>
       <c r="B45">
-        <v>80.18000000000001</v>
+        <v>85.47</v>
       </c>
       <c r="C45">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D45">
-        <v>-15.15</v>
+        <v>-27.81</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43722</v>
+        <v>43753</v>
       </c>
       <c r="B46">
-        <v>78.51000000000001</v>
+        <v>120.55</v>
       </c>
       <c r="C46">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D46">
-        <v>-16.91</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43723</v>
+        <v>43754</v>
       </c>
       <c r="B47">
-        <v>82.53</v>
+        <v>114.18</v>
       </c>
       <c r="C47">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D47">
-        <v>-12.65</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43724</v>
+        <v>43755</v>
       </c>
       <c r="B48">
-        <v>88</v>
+        <v>107.01</v>
       </c>
       <c r="C48">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D48">
-        <v>-6.87</v>
+        <v>-9.619999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43725</v>
+        <v>43756</v>
       </c>
       <c r="B49">
-        <v>83.48999999999999</v>
+        <v>98.92</v>
       </c>
       <c r="C49">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D49">
-        <v>-11.64</v>
+        <v>-16.45</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43726</v>
+        <v>43757</v>
       </c>
       <c r="B50">
-        <v>81.73999999999999</v>
+        <v>113.08</v>
       </c>
       <c r="C50">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D50">
-        <v>-13.49</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43727</v>
+        <v>43758</v>
       </c>
       <c r="B51">
-        <v>125.24</v>
+        <v>122.45</v>
       </c>
       <c r="C51">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D51">
-        <v>32.55</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43728</v>
+        <v>43759</v>
       </c>
       <c r="B52">
-        <v>175.18</v>
+        <v>207.07</v>
       </c>
       <c r="C52">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D52">
-        <v>85.40000000000001</v>
+        <v>74.89</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43729</v>
+        <v>43760</v>
       </c>
       <c r="B53">
-        <v>178.03</v>
+        <v>201.94</v>
       </c>
       <c r="C53">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D53">
-        <v>88.42</v>
+        <v>70.56</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43730</v>
+        <v>43761</v>
       </c>
       <c r="B54">
-        <v>179.59</v>
+        <v>170.23</v>
       </c>
       <c r="C54">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D54">
-        <v>90.06999999999999</v>
+        <v>43.78</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43731</v>
+        <v>43762</v>
       </c>
       <c r="B55">
-        <v>195.58</v>
+        <v>136.73</v>
       </c>
       <c r="C55">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D55">
-        <v>106.99</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43732</v>
+        <v>43763</v>
       </c>
       <c r="B56">
-        <v>179.25</v>
+        <v>112.85</v>
       </c>
       <c r="C56">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D56">
-        <v>89.70999999999999</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43733</v>
+        <v>43764</v>
       </c>
       <c r="B57">
-        <v>156.85</v>
+        <v>117.48</v>
       </c>
       <c r="C57">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D57">
-        <v>66.01000000000001</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43734</v>
+        <v>43765</v>
       </c>
       <c r="B58">
-        <v>126.1</v>
+        <v>103.66</v>
       </c>
       <c r="C58">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D58">
-        <v>33.46</v>
+        <v>-12.45</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43735</v>
+        <v>43766</v>
       </c>
       <c r="B59">
-        <v>117.68</v>
+        <v>142.94</v>
       </c>
       <c r="C59">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D59">
-        <v>24.54</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43736</v>
+        <v>43767</v>
       </c>
       <c r="B60">
-        <v>116.15</v>
+        <v>123.18</v>
       </c>
       <c r="C60">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D60">
-        <v>22.92</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43737</v>
+        <v>43768</v>
       </c>
       <c r="B61">
-        <v>105.85</v>
+        <v>118.36</v>
       </c>
       <c r="C61">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D61">
-        <v>12.03</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B62">
-        <v>97.55</v>
+        <v>111.33</v>
       </c>
       <c r="C62">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D62">
-        <v>3.24</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B63">
-        <v>91.67</v>
+        <v>99.62</v>
       </c>
       <c r="C63">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D63">
-        <v>-22.58</v>
+        <v>-9.92</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43740</v>
+        <v>43771</v>
       </c>
       <c r="B64">
-        <v>89.51000000000001</v>
+        <v>95.17</v>
       </c>
       <c r="C64">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D64">
-        <v>-24.4</v>
+        <v>-13.95</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43741</v>
+        <v>43772</v>
       </c>
       <c r="B65">
-        <v>86.25</v>
+        <v>95.33</v>
       </c>
       <c r="C65">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D65">
-        <v>-27.15</v>
+        <v>-13.81</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43742</v>
+        <v>43773</v>
       </c>
       <c r="B66">
-        <v>83.41</v>
+        <v>101.25</v>
       </c>
       <c r="C66">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D66">
-        <v>-29.56</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43743</v>
+        <v>43774</v>
       </c>
       <c r="B67">
-        <v>81.75</v>
+        <v>99.97</v>
       </c>
       <c r="C67">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D67">
-        <v>-30.95</v>
+        <v>-9.609999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43744</v>
+        <v>43775</v>
       </c>
       <c r="B68">
-        <v>95.89</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="C68">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D68">
-        <v>-19.02</v>
+        <v>-9.710000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43745</v>
+        <v>43776</v>
       </c>
       <c r="B69">
-        <v>127.65</v>
+        <v>102.92</v>
       </c>
       <c r="C69">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D69">
-        <v>7.81</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43746</v>
+        <v>43777</v>
       </c>
       <c r="B70">
-        <v>125.98</v>
+        <v>104.06</v>
       </c>
       <c r="C70">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D70">
-        <v>6.4</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43747</v>
+        <v>43778</v>
       </c>
       <c r="B71">
-        <v>122.92</v>
+        <v>101.43</v>
       </c>
       <c r="C71">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D71">
-        <v>3.82</v>
+        <v>-8.289999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43748</v>
+        <v>43779</v>
       </c>
       <c r="B72">
-        <v>115.44</v>
+        <v>122.75</v>
       </c>
       <c r="C72">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D72">
-        <v>-2.5</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43749</v>
+        <v>43780</v>
       </c>
       <c r="B73">
-        <v>97.95</v>
+        <v>130.19</v>
       </c>
       <c r="C73">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D73">
-        <v>-17.27</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43750</v>
+        <v>43781</v>
       </c>
       <c r="B74">
-        <v>90.53</v>
+        <v>135.04</v>
       </c>
       <c r="C74">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D74">
-        <v>-23.54</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43751</v>
+        <v>43782</v>
       </c>
       <c r="B75">
-        <v>86.73</v>
+        <v>149.71</v>
       </c>
       <c r="C75">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D75">
-        <v>-26.75</v>
+        <v>35.37</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43752</v>
+        <v>43783</v>
       </c>
       <c r="B76">
-        <v>85.47</v>
+        <v>172.26</v>
       </c>
       <c r="C76">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D76">
-        <v>-27.81</v>
+        <v>55.76</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43753</v>
+        <v>43784</v>
       </c>
       <c r="B77">
-        <v>120.55</v>
+        <v>179.38</v>
       </c>
       <c r="C77">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D77">
-        <v>1.82</v>
+        <v>62.19</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43754</v>
+        <v>43785</v>
       </c>
       <c r="B78">
-        <v>114.18</v>
+        <v>173.57</v>
       </c>
       <c r="C78">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D78">
-        <v>-3.57</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43755</v>
+        <v>43786</v>
       </c>
       <c r="B79">
-        <v>107.01</v>
+        <v>159.01</v>
       </c>
       <c r="C79">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D79">
-        <v>-9.619999999999999</v>
+        <v>43.78</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43756</v>
+        <v>43787</v>
       </c>
       <c r="B80">
-        <v>98.92</v>
+        <v>144.47</v>
       </c>
       <c r="C80">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D80">
-        <v>-16.45</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43757</v>
+        <v>43788</v>
       </c>
       <c r="B81">
-        <v>113.08</v>
+        <v>125.69</v>
       </c>
       <c r="C81">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D81">
-        <v>-4.49</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43758</v>
+        <v>43789</v>
       </c>
       <c r="B82">
-        <v>122.45</v>
+        <v>112.94</v>
       </c>
       <c r="C82">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D82">
-        <v>3.42</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43759</v>
+        <v>43790</v>
       </c>
       <c r="B83">
-        <v>207.07</v>
+        <v>106.53</v>
       </c>
       <c r="C83">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D83">
-        <v>74.89</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43760</v>
+        <v>43791</v>
       </c>
       <c r="B84">
-        <v>201.94</v>
+        <v>102.96</v>
       </c>
       <c r="C84">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D84">
-        <v>70.56</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43761</v>
+        <v>43792</v>
       </c>
       <c r="B85">
-        <v>170.23</v>
+        <v>101.7</v>
       </c>
       <c r="C85">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D85">
-        <v>43.78</v>
+        <v>-8.050000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43762</v>
+        <v>43793</v>
       </c>
       <c r="B86">
-        <v>136.73</v>
+        <v>103.09</v>
       </c>
       <c r="C86">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D86">
-        <v>15.48</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43763</v>
+        <v>43794</v>
       </c>
       <c r="B87">
-        <v>112.85</v>
+        <v>101.76</v>
       </c>
       <c r="C87">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D87">
-        <v>-4.68</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43764</v>
+        <v>43795</v>
       </c>
       <c r="B88">
-        <v>117.48</v>
+        <v>100.58</v>
       </c>
       <c r="C88">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D88">
-        <v>-0.78</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43765</v>
+        <v>43796</v>
       </c>
       <c r="B89">
-        <v>103.66</v>
+        <v>128.99</v>
       </c>
       <c r="C89">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D89">
-        <v>-12.45</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43766</v>
+        <v>43797</v>
       </c>
       <c r="B90">
-        <v>142.94</v>
+        <v>141.04</v>
       </c>
       <c r="C90">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D90">
-        <v>20.73</v>
+        <v>27.53</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43767</v>
+        <v>43798</v>
       </c>
       <c r="B91">
-        <v>123.18</v>
+        <v>137.55</v>
       </c>
       <c r="C91">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D91">
-        <v>4.04</v>
+        <v>24.37</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43768</v>
+        <v>43799</v>
       </c>
       <c r="B92">
-        <v>118.36</v>
+        <v>142.78</v>
       </c>
       <c r="C92">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D92">
-        <v>-0.03</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43769</v>
+        <v>43800</v>
       </c>
       <c r="B93">
-        <v>111.33</v>
+        <v>146.27</v>
       </c>
       <c r="C93">
-        <v>118.4</v>
+        <v>114.17</v>
       </c>
       <c r="D93">
-        <v>-5.97</v>
+        <v>28.12</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43770</v>
+        <v>43801</v>
       </c>
       <c r="B94">
-        <v>99.62</v>
+        <v>138.06</v>
       </c>
       <c r="C94">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D94">
-        <v>-9.92</v>
+        <v>20.93</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43771</v>
+        <v>43802</v>
       </c>
       <c r="B95">
-        <v>95.17</v>
+        <v>118.82</v>
       </c>
       <c r="C95">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D95">
-        <v>-13.95</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43772</v>
+        <v>43803</v>
       </c>
       <c r="B96">
-        <v>95.33</v>
+        <v>113.58</v>
       </c>
       <c r="C96">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D96">
-        <v>-13.81</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43773</v>
+        <v>43804</v>
       </c>
       <c r="B97">
-        <v>101.25</v>
+        <v>114.81</v>
       </c>
       <c r="C97">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D97">
-        <v>-8.449999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43774</v>
+        <v>43805</v>
       </c>
       <c r="B98">
-        <v>99.97</v>
+        <v>120.68</v>
       </c>
       <c r="C98">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D98">
-        <v>-9.609999999999999</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43775</v>
+        <v>43806</v>
       </c>
       <c r="B99">
-        <v>99.84999999999999</v>
+        <v>114.73</v>
       </c>
       <c r="C99">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D99">
-        <v>-9.710000000000001</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43776</v>
+        <v>43807</v>
       </c>
       <c r="B100">
-        <v>102.92</v>
+        <v>109.88</v>
       </c>
       <c r="C100">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D100">
-        <v>-6.94</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43777</v>
+        <v>43808</v>
       </c>
       <c r="B101">
-        <v>104.06</v>
+        <v>105.36</v>
       </c>
       <c r="C101">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D101">
-        <v>-5.91</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43778</v>
+        <v>43809</v>
       </c>
       <c r="B102">
-        <v>101.43</v>
+        <v>102.39</v>
       </c>
       <c r="C102">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D102">
-        <v>-8.289999999999999</v>
+        <v>-10.32</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43779</v>
+        <v>43810</v>
       </c>
       <c r="B103">
-        <v>122.75</v>
+        <v>100.2</v>
       </c>
       <c r="C103">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D103">
-        <v>10.99</v>
+        <v>-12.23</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43780</v>
+        <v>43811</v>
       </c>
       <c r="B104">
-        <v>130.19</v>
+        <v>97.54000000000001</v>
       </c>
       <c r="C104">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D104">
-        <v>17.71</v>
+        <v>-14.56</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43781</v>
+        <v>43812</v>
       </c>
       <c r="B105">
-        <v>135.04</v>
+        <v>95.92</v>
       </c>
       <c r="C105">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D105">
-        <v>22.1</v>
+        <v>-15.98</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43782</v>
+        <v>43813</v>
       </c>
       <c r="B106">
-        <v>149.71</v>
+        <v>95.41</v>
       </c>
       <c r="C106">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D106">
-        <v>35.37</v>
+        <v>-16.43</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43783</v>
+        <v>43814</v>
       </c>
       <c r="B107">
-        <v>172.26</v>
+        <v>94.86</v>
       </c>
       <c r="C107">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D107">
-        <v>55.76</v>
+        <v>-16.91</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43784</v>
+        <v>43815</v>
       </c>
       <c r="B108">
-        <v>179.38</v>
+        <v>102.03</v>
       </c>
       <c r="C108">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D108">
-        <v>62.19</v>
+        <v>-10.63</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43785</v>
+        <v>43816</v>
       </c>
       <c r="B109">
-        <v>173.57</v>
+        <v>106.15</v>
       </c>
       <c r="C109">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D109">
-        <v>56.94</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43786</v>
+        <v>43817</v>
       </c>
       <c r="B110">
-        <v>159.01</v>
+        <v>106.03</v>
       </c>
       <c r="C110">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D110">
-        <v>43.78</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43787</v>
+        <v>43818</v>
       </c>
       <c r="B111">
-        <v>144.47</v>
+        <v>104.99</v>
       </c>
       <c r="C111">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D111">
-        <v>30.63</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43788</v>
+        <v>43819</v>
       </c>
       <c r="B112">
-        <v>125.69</v>
+        <v>104.95</v>
       </c>
       <c r="C112">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D112">
-        <v>13.65</v>
+        <v>-8.07</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43789</v>
+        <v>43820</v>
       </c>
       <c r="B113">
-        <v>112.94</v>
+        <v>114.27</v>
       </c>
       <c r="C113">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D113">
-        <v>2.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43790</v>
+        <v>43821</v>
       </c>
       <c r="B114">
-        <v>106.53</v>
+        <v>126.04</v>
       </c>
       <c r="C114">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D114">
-        <v>-3.68</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43791</v>
+        <v>43822</v>
       </c>
       <c r="B115">
-        <v>102.96</v>
+        <v>129.5</v>
       </c>
       <c r="C115">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D115">
-        <v>-6.91</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43792</v>
+        <v>43823</v>
       </c>
       <c r="B116">
-        <v>101.7</v>
+        <v>120</v>
       </c>
       <c r="C116">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D116">
-        <v>-8.050000000000001</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43793</v>
+        <v>43824</v>
       </c>
       <c r="B117">
-        <v>103.09</v>
+        <v>106.85</v>
       </c>
       <c r="C117">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D117">
-        <v>-6.78</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43794</v>
+        <v>43825</v>
       </c>
       <c r="B118">
-        <v>101.76</v>
+        <v>97.69</v>
       </c>
       <c r="C118">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D118">
-        <v>-7.99</v>
+        <v>-14.43</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43795</v>
+        <v>43826</v>
       </c>
       <c r="B119">
-        <v>100.58</v>
+        <v>93.48</v>
       </c>
       <c r="C119">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D119">
-        <v>-9.050000000000001</v>
+        <v>-18.12</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43796</v>
+        <v>43827</v>
       </c>
       <c r="B120">
-        <v>128.99</v>
+        <v>90.31</v>
       </c>
       <c r="C120">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D120">
-        <v>16.63</v>
+        <v>-20.89</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43797</v>
+        <v>43828</v>
       </c>
       <c r="B121">
-        <v>141.04</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="C121">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D121">
-        <v>27.53</v>
+        <v>-23.51</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43798</v>
+        <v>43829</v>
       </c>
       <c r="B122">
-        <v>137.55</v>
+        <v>85.11</v>
       </c>
       <c r="C122">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D122">
-        <v>24.37</v>
+        <v>-25.45</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B123">
-        <v>142.78</v>
+        <v>83.39</v>
       </c>
       <c r="C123">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D123">
-        <v>29.1</v>
+        <v>-26.96</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B124">
-        <v>146.27</v>
+        <v>82.44</v>
       </c>
       <c r="C124">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D124">
-        <v>28.12</v>
+        <v>-37.62</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43801</v>
+        <v>43832</v>
       </c>
       <c r="B125">
-        <v>138.06</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="C125">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D125">
-        <v>20.93</v>
+        <v>-24.74</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43802</v>
+        <v>43833</v>
       </c>
       <c r="B126">
-        <v>118.82</v>
+        <v>94.8</v>
       </c>
       <c r="C126">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D126">
-        <v>4.08</v>
+        <v>-28.26</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43803</v>
+        <v>43834</v>
       </c>
       <c r="B127">
-        <v>113.58</v>
+        <v>95.92</v>
       </c>
       <c r="C127">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D127">
-        <v>-0.51</v>
+        <v>-27.42</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43804</v>
+        <v>43835</v>
       </c>
       <c r="B128">
-        <v>114.81</v>
+        <v>94.88</v>
       </c>
       <c r="C128">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D128">
-        <v>0.57</v>
+        <v>-28.21</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43805</v>
+        <v>43836</v>
       </c>
       <c r="B129">
-        <v>120.68</v>
+        <v>98.77</v>
       </c>
       <c r="C129">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D129">
-        <v>5.7</v>
+        <v>-25.26</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43806</v>
+        <v>43837</v>
       </c>
       <c r="B130">
-        <v>114.73</v>
+        <v>106.38</v>
       </c>
       <c r="C130">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D130">
-        <v>0.49</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43807</v>
+        <v>43838</v>
       </c>
       <c r="B131">
-        <v>109.88</v>
+        <v>96.95</v>
       </c>
       <c r="C131">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D131">
-        <v>-3.76</v>
+        <v>-26.64</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43808</v>
+        <v>43839</v>
       </c>
       <c r="B132">
-        <v>105.36</v>
+        <v>88.92</v>
       </c>
       <c r="C132">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D132">
-        <v>-7.71</v>
+        <v>-32.72</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B133">
-        <v>102.39</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="C133">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D133">
-        <v>-10.32</v>
+        <v>-32.85</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43810</v>
+        <v>43841</v>
       </c>
       <c r="B134">
-        <v>100.2</v>
+        <v>104.72</v>
       </c>
       <c r="C134">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D134">
-        <v>-12.23</v>
+        <v>-20.76</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43811</v>
+        <v>43842</v>
       </c>
       <c r="B135">
-        <v>97.54000000000001</v>
+        <v>95.23</v>
       </c>
       <c r="C135">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D135">
-        <v>-14.56</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43812</v>
+        <v>43843</v>
       </c>
       <c r="B136">
-        <v>95.92</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="C136">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D136">
-        <v>-15.98</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43813</v>
+        <v>43844</v>
       </c>
       <c r="B137">
-        <v>95.41</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="C137">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D137">
-        <v>-16.43</v>
+        <v>-27.39</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B138">
-        <v>94.86</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="C138">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D138">
-        <v>-16.91</v>
+        <v>-33.63</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43815</v>
+        <v>43846</v>
       </c>
       <c r="B139">
-        <v>102.03</v>
+        <v>91.67</v>
       </c>
       <c r="C139">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D139">
-        <v>-10.63</v>
+        <v>-30.63</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43816</v>
+        <v>43847</v>
       </c>
       <c r="B140">
-        <v>106.15</v>
+        <v>107.67</v>
       </c>
       <c r="C140">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D140">
-        <v>-7.02</v>
+        <v>-18.53</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43817</v>
+        <v>43848</v>
       </c>
       <c r="B141">
-        <v>106.03</v>
+        <v>99.84</v>
       </c>
       <c r="C141">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D141">
-        <v>-7.12</v>
+        <v>-24.45</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43818</v>
+        <v>43849</v>
       </c>
       <c r="B142">
-        <v>104.99</v>
+        <v>106.68</v>
       </c>
       <c r="C142">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D142">
-        <v>-8.039999999999999</v>
+        <v>-19.28</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B143">
-        <v>104.95</v>
+        <v>99.88</v>
       </c>
       <c r="C143">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D143">
-        <v>-8.07</v>
+        <v>-24.42</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43820</v>
+        <v>43851</v>
       </c>
       <c r="B144">
-        <v>114.27</v>
+        <v>95.33</v>
       </c>
       <c r="C144">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D144">
-        <v>0.09</v>
+        <v>-27.86</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43821</v>
+        <v>43852</v>
       </c>
       <c r="B145">
-        <v>126.04</v>
+        <v>101.73</v>
       </c>
       <c r="C145">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D145">
-        <v>10.4</v>
+        <v>-23.02</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43822</v>
+        <v>43853</v>
       </c>
       <c r="B146">
-        <v>129.5</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="C146">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D146">
-        <v>13.43</v>
+        <v>-25.9</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43823</v>
+        <v>43854</v>
       </c>
       <c r="B147">
-        <v>120</v>
+        <v>90.48</v>
       </c>
       <c r="C147">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D147">
-        <v>5.11</v>
+        <v>-31.53</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43824</v>
+        <v>43855</v>
       </c>
       <c r="B148">
-        <v>106.85</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C148">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D148">
-        <v>-6.4</v>
+        <v>-28.88</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43825</v>
+        <v>43856</v>
       </c>
       <c r="B149">
-        <v>97.69</v>
+        <v>92.36</v>
       </c>
       <c r="C149">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D149">
-        <v>-14.43</v>
+        <v>-30.11</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43826</v>
+        <v>43857</v>
       </c>
       <c r="B150">
-        <v>93.48</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="C150">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D150">
-        <v>-18.12</v>
+        <v>-34.39</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43827</v>
+        <v>43858</v>
       </c>
       <c r="B151">
-        <v>90.31</v>
+        <v>79.81</v>
       </c>
       <c r="C151">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D151">
-        <v>-20.89</v>
+        <v>-39.6</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43828</v>
+        <v>43859</v>
       </c>
       <c r="B152">
-        <v>87.31999999999999</v>
+        <v>78.02</v>
       </c>
       <c r="C152">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D152">
-        <v>-23.51</v>
+        <v>-40.96</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="B153">
-        <v>85.11</v>
+        <v>76.23</v>
       </c>
       <c r="C153">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D153">
-        <v>-25.45</v>
+        <v>-42.32</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B154">
-        <v>83.39</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="C154">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D154">
-        <v>-26.96</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B155">
-        <v>82.44</v>
+        <v>73.39</v>
       </c>
       <c r="C155">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D155">
-        <v>-37.62</v>
+        <v>-45.09</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43832</v>
+        <v>43863</v>
       </c>
       <c r="B156">
-        <v>99.45999999999999</v>
+        <v>76.36</v>
       </c>
       <c r="C156">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D156">
-        <v>-24.74</v>
+        <v>-42.86</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B157">
-        <v>94.8</v>
+        <v>80.23</v>
       </c>
       <c r="C157">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D157">
-        <v>-28.26</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B158">
-        <v>95.92</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="C158">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D158">
-        <v>-27.42</v>
+        <v>-35.64</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B159">
-        <v>94.88</v>
+        <v>97.08</v>
       </c>
       <c r="C159">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D159">
-        <v>-28.21</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B160">
-        <v>98.77</v>
+        <v>91.31</v>
       </c>
       <c r="C160">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D160">
-        <v>-25.26</v>
+        <v>-31.67</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B161">
-        <v>106.38</v>
+        <v>104.2</v>
       </c>
       <c r="C161">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D161">
-        <v>-19.5</v>
+        <v>-22.03</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43838</v>
+        <v>43869</v>
       </c>
       <c r="B162">
-        <v>96.95</v>
+        <v>116.15</v>
       </c>
       <c r="C162">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D162">
-        <v>-26.64</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B163">
-        <v>88.92</v>
+        <v>128.33</v>
       </c>
       <c r="C163">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D163">
-        <v>-32.72</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B164">
-        <v>88.73999999999999</v>
+        <v>174.02</v>
       </c>
       <c r="C164">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D164">
-        <v>-32.85</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B165">
-        <v>104.72</v>
+        <v>210.61</v>
       </c>
       <c r="C165">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D165">
-        <v>-20.76</v>
+        <v>57.59</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B166">
-        <v>95.23</v>
+        <v>199.88</v>
       </c>
       <c r="C166">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D166">
-        <v>-27.94</v>
+        <v>49.56</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B167">
-        <v>95.98999999999999</v>
+        <v>187.34</v>
       </c>
       <c r="C167">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D167">
-        <v>-27.36</v>
+        <v>40.18</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B168">
-        <v>95.95999999999999</v>
+        <v>170.34</v>
       </c>
       <c r="C168">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D168">
-        <v>-27.39</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B169">
-        <v>87.70999999999999</v>
+        <v>140.86</v>
       </c>
       <c r="C169">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D169">
-        <v>-33.63</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B170">
-        <v>91.67</v>
+        <v>114.7</v>
       </c>
       <c r="C170">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D170">
-        <v>-30.63</v>
+        <v>-14.18</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B171">
-        <v>107.67</v>
+        <v>103</v>
       </c>
       <c r="C171">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D171">
-        <v>-18.53</v>
+        <v>-22.93</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B172">
-        <v>99.84</v>
+        <v>95.69</v>
       </c>
       <c r="C172">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D172">
-        <v>-24.45</v>
+        <v>-28.4</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B173">
-        <v>106.68</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="C173">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D173">
-        <v>-19.28</v>
+        <v>-29.3</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B174">
-        <v>99.88</v>
+        <v>92.72</v>
       </c>
       <c r="C174">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D174">
-        <v>-24.42</v>
+        <v>-30.62</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B175">
-        <v>95.33</v>
+        <v>90.38</v>
       </c>
       <c r="C175">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D175">
-        <v>-27.86</v>
+        <v>-32.38</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B176">
-        <v>101.73</v>
+        <v>88.64</v>
       </c>
       <c r="C176">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D176">
-        <v>-23.02</v>
+        <v>-33.68</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B177">
-        <v>97.93000000000001</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="C177">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D177">
-        <v>-25.9</v>
+        <v>-30.82</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B178">
-        <v>90.48</v>
+        <v>93.72</v>
       </c>
       <c r="C178">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D178">
-        <v>-31.53</v>
+        <v>-29.87</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B179">
-        <v>93.98999999999999</v>
+        <v>92.88</v>
       </c>
       <c r="C179">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D179">
-        <v>-28.88</v>
+        <v>-30.51</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B180">
-        <v>92.36</v>
+        <v>106.78</v>
       </c>
       <c r="C180">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D180">
-        <v>-30.11</v>
+        <v>-20.1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B181">
-        <v>86.70999999999999</v>
+        <v>123.67</v>
       </c>
       <c r="C181">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D181">
-        <v>-34.39</v>
+        <v>-7.47</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B182">
-        <v>79.81</v>
+        <v>119.95</v>
       </c>
       <c r="C182">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D182">
-        <v>-39.6</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B183">
-        <v>78.02</v>
+        <v>118.88</v>
       </c>
       <c r="C183">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D183">
-        <v>-40.96</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B184">
-        <v>76.23</v>
+        <v>106.98</v>
       </c>
       <c r="C184">
-        <v>132.15</v>
+        <v>113.77</v>
       </c>
       <c r="D184">
-        <v>-42.32</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B185">
-        <v>76.06999999999999</v>
+        <v>96.73</v>
       </c>
       <c r="C185">
-        <v>132.15</v>
+        <v>113.77</v>
       </c>
       <c r="D185">
-        <v>-42.43</v>
+        <v>-14.98</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B186">
-        <v>73.39</v>
+        <v>98.62</v>
       </c>
       <c r="C186">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D186">
-        <v>-45.09</v>
+        <v>-13.31</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B187">
-        <v>76.36</v>
+        <v>106.85</v>
       </c>
       <c r="C187">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D187">
-        <v>-42.86</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B188">
-        <v>80.23</v>
+        <v>114.51</v>
       </c>
       <c r="C188">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D188">
-        <v>-39.97</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B189">
-        <v>86.01000000000001</v>
+        <v>114.11</v>
       </c>
       <c r="C189">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D189">
-        <v>-35.64</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B190">
-        <v>97.08</v>
+        <v>98.8</v>
       </c>
       <c r="C190">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D190">
-        <v>-27.36</v>
+        <v>-13.15</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B191">
-        <v>91.31</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="C191">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D191">
-        <v>-31.67</v>
+        <v>-18.98</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B192">
-        <v>104.2</v>
+        <v>88.88</v>
       </c>
       <c r="C192">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D192">
-        <v>-22.03</v>
+        <v>-21.88</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B193">
-        <v>116.15</v>
+        <v>85.89</v>
       </c>
       <c r="C193">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D193">
-        <v>-13.09</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B194">
-        <v>128.33</v>
+        <v>83.27</v>
       </c>
       <c r="C194">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D194">
-        <v>-3.97</v>
+        <v>-26.81</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B195">
-        <v>174.02</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C195">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D195">
-        <v>30.21</v>
+        <v>-29.23</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B196">
-        <v>210.61</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="C196">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D196">
-        <v>57.59</v>
+        <v>-31.87</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B197">
-        <v>199.88</v>
+        <v>74.27</v>
       </c>
       <c r="C197">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D197">
-        <v>49.56</v>
+        <v>-34.72</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B198">
-        <v>187.34</v>
+        <v>75.94</v>
       </c>
       <c r="C198">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D198">
-        <v>40.18</v>
+        <v>-33.25</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B199">
-        <v>170.34</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C199">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D199">
-        <v>27.46</v>
+        <v>-18.16</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B200">
-        <v>140.86</v>
+        <v>109.04</v>
       </c>
       <c r="C200">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D200">
-        <v>5.4</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B201">
-        <v>114.7</v>
+        <v>92.52</v>
       </c>
       <c r="C201">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D201">
-        <v>-14.18</v>
+        <v>-18.68</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B202">
-        <v>103</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C202">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D202">
-        <v>-22.93</v>
+        <v>-19.92</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B203">
-        <v>95.69</v>
+        <v>93.03</v>
       </c>
       <c r="C203">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D203">
-        <v>-28.4</v>
+        <v>-18.23</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B204">
-        <v>94.48999999999999</v>
+        <v>107.64</v>
       </c>
       <c r="C204">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D204">
-        <v>-29.3</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B205">
-        <v>92.72</v>
+        <v>104.73</v>
       </c>
       <c r="C205">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D205">
-        <v>-30.62</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B206">
-        <v>90.38</v>
+        <v>90.55</v>
       </c>
       <c r="C206">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D206">
-        <v>-32.38</v>
+        <v>-20.41</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B207">
-        <v>88.64</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="C207">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D207">
-        <v>-33.68</v>
+        <v>-25.44</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B208">
-        <v>92.45999999999999</v>
+        <v>87.22</v>
       </c>
       <c r="C208">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D208">
-        <v>-30.82</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B209">
-        <v>93.72</v>
+        <v>100.01</v>
       </c>
       <c r="C209">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D209">
-        <v>-29.87</v>
+        <v>-12.09</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B210">
-        <v>92.88</v>
+        <v>96.25</v>
       </c>
       <c r="C210">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D210">
-        <v>-30.51</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B211">
-        <v>106.78</v>
+        <v>83.8</v>
       </c>
       <c r="C211">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D211">
-        <v>-20.1</v>
+        <v>-26.34</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B212">
-        <v>123.67</v>
+        <v>79.14</v>
       </c>
       <c r="C212">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D212">
-        <v>-7.47</v>
+        <v>-30.44</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B213">
-        <v>119.95</v>
+        <v>78.02</v>
       </c>
       <c r="C213">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D213">
-        <v>-10.25</v>
+        <v>-31.42</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B214">
-        <v>118.88</v>
+        <v>76.94</v>
       </c>
       <c r="C214">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D214">
-        <v>-11.05</v>
+        <v>-32.37</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B215">
-        <v>106.98</v>
+        <v>75.02</v>
       </c>
       <c r="C215">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D215">
-        <v>-5.97</v>
+        <v>-24.19</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B216">
-        <v>96.73</v>
+        <v>73.72</v>
       </c>
       <c r="C216">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D216">
-        <v>-14.98</v>
+        <v>-25.5</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B217">
-        <v>98.62</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="C217">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D217">
-        <v>-13.31</v>
+        <v>-27.99</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B218">
-        <v>106.85</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C218">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D218">
-        <v>-6.08</v>
+        <v>-31.89</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B219">
-        <v>114.51</v>
+        <v>66.39</v>
       </c>
       <c r="C219">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D219">
-        <v>0.65</v>
+        <v>-32.91</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="B220">
-        <v>114.11</v>
+        <v>66.22</v>
       </c>
       <c r="C220">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D220">
-        <v>0.31</v>
+        <v>-33.08</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B221">
-        <v>98.8</v>
+        <v>78.78</v>
       </c>
       <c r="C221">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D221">
-        <v>-13.15</v>
+        <v>-20.39</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B222">
-        <v>92.18000000000001</v>
+        <v>78.77</v>
       </c>
       <c r="C222">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D222">
-        <v>-18.98</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B223">
-        <v>88.88</v>
+        <v>77.78</v>
       </c>
       <c r="C223">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D223">
-        <v>-21.88</v>
+        <v>-21.4</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B224">
-        <v>85.89</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="C224">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D224">
-        <v>-24.51</v>
+        <v>-25.55</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B225">
-        <v>83.27</v>
+        <v>69.62</v>
       </c>
       <c r="C225">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D225">
-        <v>-26.81</v>
+        <v>-29.64</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B226">
-        <v>80.51000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C226">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D226">
-        <v>-29.23</v>
+        <v>-33.29</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B227">
-        <v>77.51000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="C227">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D227">
-        <v>-31.87</v>
+        <v>-34.19</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B228">
-        <v>74.27</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C228">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D228">
-        <v>-34.72</v>
+        <v>-33.2</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B229">
-        <v>75.94</v>
+        <v>65.27</v>
       </c>
       <c r="C229">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D229">
-        <v>-33.25</v>
+        <v>-34.04</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B230">
-        <v>93.09999999999999</v>
+        <v>64.78</v>
       </c>
       <c r="C230">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D230">
-        <v>-18.16</v>
+        <v>-34.54</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B231">
-        <v>109.04</v>
+        <v>63.42</v>
       </c>
       <c r="C231">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D231">
-        <v>-4.15</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B232">
-        <v>92.52</v>
+        <v>62.1</v>
       </c>
       <c r="C232">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D232">
-        <v>-18.68</v>
+        <v>-37.24</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B233">
-        <v>91.09999999999999</v>
+        <v>61.06</v>
       </c>
       <c r="C233">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D233">
-        <v>-19.92</v>
+        <v>-38.29</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B234">
-        <v>93.03</v>
+        <v>62.04</v>
       </c>
       <c r="C234">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D234">
-        <v>-18.23</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B235">
-        <v>107.64</v>
+        <v>63.03</v>
       </c>
       <c r="C235">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D235">
-        <v>-5.39</v>
+        <v>-36.3</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B236">
-        <v>104.73</v>
+        <v>62.84</v>
       </c>
       <c r="C236">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D236">
-        <v>-7.94</v>
+        <v>-36.49</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B237">
-        <v>90.55</v>
+        <v>62.5</v>
       </c>
       <c r="C237">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D237">
-        <v>-20.41</v>
+        <v>-36.84</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B238">
-        <v>84.81999999999999</v>
+        <v>62.88</v>
       </c>
       <c r="C238">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D238">
-        <v>-25.44</v>
+        <v>-36.46</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B239">
-        <v>87.22</v>
+        <v>63.01</v>
       </c>
       <c r="C239">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D239">
-        <v>-23.34</v>
+        <v>-36.32</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B240">
-        <v>100.01</v>
+        <v>62.89</v>
       </c>
       <c r="C240">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D240">
-        <v>-12.09</v>
+        <v>-36.45</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B241">
-        <v>96.25</v>
+        <v>62.24</v>
       </c>
       <c r="C241">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D241">
-        <v>-15.4</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B242">
-        <v>83.8</v>
+        <v>60.33</v>
       </c>
       <c r="C242">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D242">
-        <v>-26.34</v>
+        <v>-39.03</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="B243">
-        <v>79.14</v>
+        <v>60.25</v>
       </c>
       <c r="C243">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D243">
-        <v>-30.44</v>
+        <v>-39.11</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="B244">
-        <v>78.02</v>
+        <v>60.76</v>
       </c>
       <c r="C244">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D244">
-        <v>-31.42</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B245">
-        <v>76.94</v>
+        <v>61.01</v>
       </c>
       <c r="C245">
-        <v>113.77</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D245">
-        <v>-32.37</v>
+        <v>-38.95</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="B246">
-        <v>75.02</v>
+        <v>57.79</v>
       </c>
       <c r="C246">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D246">
-        <v>-24.19</v>
+        <v>-42.17</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="B247">
-        <v>73.72</v>
+        <v>57.7</v>
       </c>
       <c r="C247">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D247">
-        <v>-25.5</v>
+        <v>-42.26</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="B248">
-        <v>71.26000000000001</v>
+        <v>59.51</v>
       </c>
       <c r="C248">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D248">
-        <v>-27.99</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B249">
-        <v>67.40000000000001</v>
+        <v>58.09</v>
       </c>
       <c r="C249">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D249">
-        <v>-31.89</v>
+        <v>-41.87</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B250">
-        <v>66.39</v>
+        <v>55.98</v>
       </c>
       <c r="C250">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D250">
-        <v>-32.91</v>
+        <v>-43.98</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="B251">
-        <v>66.22</v>
+        <v>56.29</v>
       </c>
       <c r="C251">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D251">
-        <v>-33.08</v>
+        <v>-43.67</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B252">
-        <v>78.78</v>
+        <v>56.21</v>
       </c>
       <c r="C252">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D252">
-        <v>-20.39</v>
+        <v>-43.75</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B253">
-        <v>78.77</v>
+        <v>58.1</v>
       </c>
       <c r="C253">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D253">
-        <v>-20.4</v>
+        <v>-41.86</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B254">
-        <v>77.78</v>
+        <v>57.23</v>
       </c>
       <c r="C254">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D254">
-        <v>-21.4</v>
+        <v>-42.73</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B255">
-        <v>73.68000000000001</v>
+        <v>58.09</v>
       </c>
       <c r="C255">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D255">
-        <v>-25.55</v>
+        <v>-41.87</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B256">
-        <v>69.62</v>
+        <v>61.28</v>
       </c>
       <c r="C256">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D256">
-        <v>-29.64</v>
+        <v>-38.68</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B257">
-        <v>66.01000000000001</v>
+        <v>57</v>
       </c>
       <c r="C257">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D257">
-        <v>-33.29</v>
+        <v>-42.96</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B258">
-        <v>65.12</v>
+        <v>54.61</v>
       </c>
       <c r="C258">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D258">
-        <v>-34.19</v>
+        <v>-45.35</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B259">
-        <v>66.09999999999999</v>
+        <v>55.86</v>
       </c>
       <c r="C259">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D259">
-        <v>-33.2</v>
+        <v>-44.1</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B260">
-        <v>65.27</v>
+        <v>56.19</v>
       </c>
       <c r="C260">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D260">
-        <v>-34.04</v>
+        <v>-43.77</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B261">
-        <v>64.78</v>
+        <v>57.18</v>
       </c>
       <c r="C261">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D261">
-        <v>-34.54</v>
+        <v>-42.78</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B262">
-        <v>63.42</v>
+        <v>58.31</v>
       </c>
       <c r="C262">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D262">
-        <v>-35.91</v>
+        <v>-41.65</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B263">
-        <v>62.1</v>
+        <v>58.54</v>
       </c>
       <c r="C263">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D263">
-        <v>-37.24</v>
+        <v>-41.42</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B264">
-        <v>61.06</v>
+        <v>59.84</v>
       </c>
       <c r="C264">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D264">
-        <v>-38.29</v>
+        <v>-40.12</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B265">
-        <v>62.04</v>
+        <v>59.3</v>
       </c>
       <c r="C265">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D265">
-        <v>-37.3</v>
+        <v>-40.66</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B266">
-        <v>63.03</v>
+        <v>59.99</v>
       </c>
       <c r="C266">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D266">
-        <v>-36.3</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B267">
-        <v>62.84</v>
+        <v>61.25</v>
       </c>
       <c r="C267">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D267">
-        <v>-36.49</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B268">
-        <v>62.5</v>
+        <v>57.84</v>
       </c>
       <c r="C268">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D268">
-        <v>-36.84</v>
+        <v>-42.12</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B269">
-        <v>62.88</v>
+        <v>57.57</v>
       </c>
       <c r="C269">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D269">
-        <v>-36.46</v>
+        <v>-42.39</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B270">
-        <v>63.01</v>
+        <v>55.24</v>
       </c>
       <c r="C270">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D270">
-        <v>-36.32</v>
+        <v>-44.72</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B271">
-        <v>62.89</v>
+        <v>54.03</v>
       </c>
       <c r="C271">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D271">
-        <v>-36.45</v>
+        <v>-45.93</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B272">
-        <v>62.24</v>
+        <v>54.66</v>
       </c>
       <c r="C272">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D272">
-        <v>-37.1</v>
+        <v>-45.31</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B273">
-        <v>60.33</v>
+        <v>53.75</v>
       </c>
       <c r="C273">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D273">
-        <v>-39.03</v>
+        <v>-46.21</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B274">
-        <v>60.25</v>
+        <v>54.85</v>
       </c>
       <c r="C274">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D274">
-        <v>-39.11</v>
+        <v>-45.11</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B275">
-        <v>60.76</v>
+        <v>52.05</v>
       </c>
       <c r="C275">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D275">
-        <v>-38.6</v>
+        <v>-47.91</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B276">
-        <v>61.01</v>
+        <v>56.27</v>
       </c>
       <c r="C276">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D276">
-        <v>-38.95</v>
+        <v>-57.84</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B277">
-        <v>57.79</v>
+        <v>58.61</v>
       </c>
       <c r="C277">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D277">
-        <v>-42.17</v>
+        <v>-56.09</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B278">
-        <v>57.7</v>
+        <v>59.44</v>
       </c>
       <c r="C278">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D278">
-        <v>-42.26</v>
+        <v>-55.47</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B279">
-        <v>59.51</v>
+        <v>63.27</v>
       </c>
       <c r="C279">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D279">
-        <v>-40.45</v>
+        <v>-52.59</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B280">
-        <v>58.09</v>
+        <v>62.44</v>
       </c>
       <c r="C280">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D280">
-        <v>-41.87</v>
+        <v>-53.22</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B281">
-        <v>55.98</v>
+        <v>64.95</v>
       </c>
       <c r="C281">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D281">
-        <v>-43.98</v>
+        <v>-51.34</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B282">
-        <v>56.29</v>
+        <v>67.59</v>
       </c>
       <c r="C282">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D282">
-        <v>-43.67</v>
+        <v>-49.35</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B283">
-        <v>56.21</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="C283">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D283">
-        <v>-43.75</v>
+        <v>-46.23</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B284">
-        <v>58.1</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C284">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D284">
-        <v>-41.86</v>
+        <v>-48.75</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B285">
-        <v>57.23</v>
+        <v>120</v>
       </c>
       <c r="C285">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D285">
-        <v>-42.73</v>
+        <v>-10.09</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B286">
-        <v>58.09</v>
+        <v>142.68</v>
       </c>
       <c r="C286">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D286">
-        <v>-41.87</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B287">
-        <v>61.28</v>
+        <v>133.88</v>
       </c>
       <c r="C287">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D287">
-        <v>-38.68</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B288">
-        <v>57</v>
+        <v>135.25</v>
       </c>
       <c r="C288">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D288">
-        <v>-42.96</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B289">
-        <v>54.61</v>
+        <v>128.03</v>
       </c>
       <c r="C289">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D289">
-        <v>-45.35</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B290">
-        <v>55.86</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C290">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D290">
-        <v>-44.1</v>
+        <v>-32.27</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B291">
-        <v>56.19</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="C291">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D291">
-        <v>-43.77</v>
+        <v>-37.86</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B292">
-        <v>57.18</v>
+        <v>84.55</v>
       </c>
       <c r="C292">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D292">
-        <v>-42.78</v>
+        <v>-36.65</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B293">
-        <v>58.31</v>
+        <v>81.66</v>
       </c>
       <c r="C293">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D293">
-        <v>-41.65</v>
+        <v>-38.82</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B294">
-        <v>58.54</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C294">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D294">
-        <v>-41.42</v>
+        <v>-38.34</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B295">
-        <v>59.84</v>
+        <v>73.42</v>
       </c>
       <c r="C295">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D295">
-        <v>-40.12</v>
+        <v>-44.99</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B296">
-        <v>59.3</v>
+        <v>68.16</v>
       </c>
       <c r="C296">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D296">
-        <v>-40.66</v>
+        <v>-48.93</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B297">
-        <v>59.99</v>
+        <v>66.17</v>
       </c>
       <c r="C297">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D297">
-        <v>-39.97</v>
+        <v>-50.42</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B298">
-        <v>61.25</v>
+        <v>63.94</v>
       </c>
       <c r="C298">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D298">
-        <v>-38.71</v>
+        <v>-52.09</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B299">
-        <v>57.84</v>
+        <v>61.98</v>
       </c>
       <c r="C299">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D299">
-        <v>-42.12</v>
+        <v>-53.56</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B300">
-        <v>57.57</v>
+        <v>61.42</v>
       </c>
       <c r="C300">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D300">
-        <v>-42.39</v>
+        <v>-53.98</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B301">
-        <v>55.24</v>
+        <v>67.02</v>
       </c>
       <c r="C301">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D301">
-        <v>-44.72</v>
+        <v>-49.78</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B302">
-        <v>54.03</v>
+        <v>90.2</v>
       </c>
       <c r="C302">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D302">
-        <v>-45.93</v>
+        <v>-32.42</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B303">
-        <v>54.66</v>
+        <v>99.55</v>
       </c>
       <c r="C303">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D303">
-        <v>-45.31</v>
+        <v>-25.41</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B304">
-        <v>53.75</v>
+        <v>109.58</v>
       </c>
       <c r="C304">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D304">
-        <v>-46.21</v>
+        <v>-17.89</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B305">
-        <v>54.85</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="C305">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D305">
-        <v>-45.11</v>
+        <v>-25.63</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B306">
-        <v>52.05</v>
+        <v>112.51</v>
       </c>
       <c r="C306">
-        <v>99.93000000000001</v>
+        <v>104.15</v>
       </c>
       <c r="D306">
-        <v>-47.91</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B307">
-        <v>56.27</v>
+        <v>112.53</v>
       </c>
       <c r="C307">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D307">
-        <v>-57.84</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B308">
-        <v>58.61</v>
+        <v>107.51</v>
       </c>
       <c r="C308">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D308">
-        <v>-56.09</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B309">
-        <v>59.44</v>
+        <v>86.86</v>
       </c>
       <c r="C309">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D309">
-        <v>-55.47</v>
+        <v>-16.59</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B310">
-        <v>63.27</v>
+        <v>78.66</v>
       </c>
       <c r="C310">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D310">
-        <v>-52.59</v>
+        <v>-24.47</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B311">
-        <v>62.44</v>
+        <v>74.89</v>
       </c>
       <c r="C311">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D311">
-        <v>-53.22</v>
+        <v>-28.1</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B312">
-        <v>64.95</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C312">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D312">
-        <v>-51.34</v>
+        <v>-28.61</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B313">
-        <v>67.59</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="C313">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D313">
-        <v>-49.35</v>
+        <v>-28.75</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B314">
-        <v>71.76000000000001</v>
+        <v>73.75</v>
       </c>
       <c r="C314">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D314">
-        <v>-46.23</v>
+        <v>-29.19</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B315">
-        <v>68.40000000000001</v>
+        <v>69.58</v>
       </c>
       <c r="C315">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D315">
-        <v>-48.75</v>
+        <v>-33.19</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B316">
-        <v>120</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="C316">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D316">
-        <v>-10.09</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B317">
-        <v>142.68</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="C317">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D317">
-        <v>6.9</v>
+        <v>-36.19</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B318">
-        <v>133.88</v>
+        <v>65.17</v>
       </c>
       <c r="C318">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D318">
-        <v>0.31</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B319">
-        <v>135.25</v>
+        <v>64.09</v>
       </c>
       <c r="C319">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D319">
-        <v>1.34</v>
+        <v>-38.46</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B320">
-        <v>128.03</v>
+        <v>61.68</v>
       </c>
       <c r="C320">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D320">
-        <v>-4.07</v>
+        <v>-40.78</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B321">
-        <v>90.40000000000001</v>
+        <v>61.67</v>
       </c>
       <c r="C321">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D321">
-        <v>-32.27</v>
+        <v>-40.79</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B322">
-        <v>82.93000000000001</v>
+        <v>61.74</v>
       </c>
       <c r="C322">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D322">
-        <v>-37.86</v>
+        <v>-40.72</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B323">
-        <v>84.55</v>
+        <v>62.24</v>
       </c>
       <c r="C323">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D323">
-        <v>-36.65</v>
+        <v>-40.24</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B324">
-        <v>81.66</v>
+        <v>64.3</v>
       </c>
       <c r="C324">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D324">
-        <v>-38.82</v>
+        <v>-38.26</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B325">
-        <v>82.29000000000001</v>
+        <v>62.84</v>
       </c>
       <c r="C325">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D325">
-        <v>-38.34</v>
+        <v>-39.66</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B326">
-        <v>73.42</v>
+        <v>63.38</v>
       </c>
       <c r="C326">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D326">
-        <v>-44.99</v>
+        <v>-39.15</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B327">
-        <v>68.16</v>
+        <v>60.21</v>
       </c>
       <c r="C327">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D327">
-        <v>-48.93</v>
+        <v>-42.19</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B328">
-        <v>66.17</v>
+        <v>59.35</v>
       </c>
       <c r="C328">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D328">
-        <v>-50.42</v>
+        <v>-43.01</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B329">
-        <v>63.94</v>
+        <v>57.93</v>
       </c>
       <c r="C329">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D329">
-        <v>-52.09</v>
+        <v>-44.38</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B330">
-        <v>61.98</v>
+        <v>58.49</v>
       </c>
       <c r="C330">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D330">
-        <v>-53.56</v>
+        <v>-43.84</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B331">
-        <v>61.42</v>
+        <v>59.67</v>
       </c>
       <c r="C331">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D331">
-        <v>-53.98</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B332">
-        <v>67.02</v>
+        <v>59.74</v>
       </c>
       <c r="C332">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D332">
-        <v>-49.78</v>
+        <v>-42.64</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B333">
-        <v>90.2</v>
+        <v>57.93</v>
       </c>
       <c r="C333">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D333">
-        <v>-32.42</v>
+        <v>-44.38</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B334">
-        <v>99.55</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="C334">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D334">
-        <v>-25.41</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B335">
-        <v>109.58</v>
+        <v>90.17</v>
       </c>
       <c r="C335">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D335">
-        <v>-17.89</v>
+        <v>-13.42</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B336">
-        <v>99.26000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="C336">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D336">
-        <v>-25.63</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B337">
-        <v>112.51</v>
+        <v>87.05</v>
       </c>
       <c r="C337">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D337">
-        <v>8.029999999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B338">
-        <v>112.53</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="C338">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D338">
-        <v>8.050000000000001</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B339">
-        <v>107.51</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C339">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D339">
-        <v>3.23</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B340">
-        <v>86.86</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C340">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D340">
-        <v>-16.59</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B341">
-        <v>78.66</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C341">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D341">
-        <v>-24.47</v>
+        <v>-23.75</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44018</v>
+        <v>44049</v>
       </c>
       <c r="B342">
-        <v>74.89</v>
+        <v>62.14</v>
       </c>
       <c r="C342">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D342">
         <v>-28.1</v>
@@ -5405,674 +5405,464 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44019</v>
+        <v>44050</v>
       </c>
       <c r="B343">
-        <v>74.34999999999999</v>
+        <v>60.75</v>
       </c>
       <c r="C343">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D343">
-        <v>-28.61</v>
+        <v>-29.71</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44020</v>
+        <v>44051</v>
       </c>
       <c r="B344">
-        <v>74.20999999999999</v>
+        <v>55.95</v>
       </c>
       <c r="C344">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D344">
-        <v>-28.75</v>
+        <v>-35.26</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44021</v>
+        <v>44052</v>
       </c>
       <c r="B345">
-        <v>73.75</v>
+        <v>57.49</v>
       </c>
       <c r="C345">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D345">
-        <v>-29.19</v>
+        <v>-33.48</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="B346">
-        <v>69.58</v>
+        <v>58.94</v>
       </c>
       <c r="C346">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D346">
-        <v>-33.19</v>
+        <v>-31.8</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44023</v>
+        <v>44054</v>
       </c>
       <c r="B347">
-        <v>67.18000000000001</v>
+        <v>58.05</v>
       </c>
       <c r="C347">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D347">
-        <v>-35.5</v>
+        <v>-32.83</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44024</v>
+        <v>44055</v>
       </c>
       <c r="B348">
-        <v>66.45999999999999</v>
+        <v>60.51</v>
       </c>
       <c r="C348">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D348">
-        <v>-36.19</v>
+        <v>-29.98</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44025</v>
+        <v>44056</v>
       </c>
       <c r="B349">
-        <v>65.17</v>
+        <v>58.93</v>
       </c>
       <c r="C349">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D349">
-        <v>-37.43</v>
+        <v>-31.82</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44026</v>
+        <v>44057</v>
       </c>
       <c r="B350">
-        <v>64.09</v>
+        <v>61.29</v>
       </c>
       <c r="C350">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D350">
-        <v>-38.46</v>
+        <v>-29.08</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44027</v>
+        <v>44058</v>
       </c>
       <c r="B351">
-        <v>61.68</v>
+        <v>87.75</v>
       </c>
       <c r="C351">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D351">
-        <v>-40.78</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44028</v>
+        <v>44059</v>
       </c>
       <c r="B352">
-        <v>61.67</v>
+        <v>136.35</v>
       </c>
       <c r="C352">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D352">
-        <v>-40.79</v>
+        <v>57.77</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="B353">
-        <v>61.74</v>
+        <v>136.22</v>
       </c>
       <c r="C353">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D353">
-        <v>-40.72</v>
+        <v>57.62</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44030</v>
+        <v>44061</v>
       </c>
       <c r="B354">
-        <v>62.24</v>
+        <v>146.75</v>
       </c>
       <c r="C354">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D354">
-        <v>-40.24</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44031</v>
+        <v>44062</v>
       </c>
       <c r="B355">
-        <v>64.3</v>
+        <v>171.51</v>
       </c>
       <c r="C355">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D355">
-        <v>-38.26</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B356">
-        <v>62.84</v>
+        <v>189.24</v>
       </c>
       <c r="C356">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D356">
-        <v>-39.66</v>
+        <v>118.97</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44033</v>
+        <v>44064</v>
       </c>
       <c r="B357">
-        <v>63.38</v>
+        <v>187.72</v>
       </c>
       <c r="C357">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D357">
-        <v>-39.15</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44034</v>
+        <v>44065</v>
       </c>
       <c r="B358">
-        <v>60.21</v>
+        <v>179.81</v>
       </c>
       <c r="C358">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D358">
-        <v>-42.19</v>
+        <v>108.06</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44035</v>
+        <v>44066</v>
       </c>
       <c r="B359">
-        <v>59.35</v>
+        <v>177.59</v>
       </c>
       <c r="C359">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D359">
-        <v>-43.01</v>
+        <v>105.49</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B360">
-        <v>57.93</v>
+        <v>175.65</v>
       </c>
       <c r="C360">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D360">
-        <v>-44.38</v>
+        <v>103.24</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B361">
-        <v>58.49</v>
+        <v>153.39</v>
       </c>
       <c r="C361">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D361">
-        <v>-43.84</v>
+        <v>77.48</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B362">
-        <v>59.67</v>
+        <v>108.41</v>
       </c>
       <c r="C362">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D362">
-        <v>-42.71</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B363">
-        <v>59.74</v>
+        <v>95.28</v>
       </c>
       <c r="C363">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D363">
-        <v>-42.64</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B364">
-        <v>57.93</v>
+        <v>88.06</v>
       </c>
       <c r="C364">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D364">
-        <v>-44.38</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B365">
-        <v>75.65000000000001</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="C365">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D365">
-        <v>-27.37</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B366">
-        <v>90.17</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="C366">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D366">
-        <v>-13.42</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B367">
-        <v>100.6</v>
+        <v>79.75</v>
       </c>
       <c r="C367">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D367">
-        <v>-3.4</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B368">
-        <v>87.05</v>
+        <v>77.47</v>
       </c>
       <c r="C368">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D368">
-        <v>0.73</v>
+        <v>-18.01</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B369">
-        <v>89.98999999999999</v>
+        <v>80.83</v>
       </c>
       <c r="C369">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D369">
-        <v>4.13</v>
+        <v>-14.45</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B370">
-        <v>87.93000000000001</v>
+        <v>89.98</v>
       </c>
       <c r="C370">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D370">
-        <v>1.74</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B371">
-        <v>74.34999999999999</v>
+        <v>105.27</v>
       </c>
       <c r="C371">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D371">
-        <v>-13.97</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B372">
-        <v>65.90000000000001</v>
+        <v>108.68</v>
       </c>
       <c r="C372">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D372">
-        <v>-23.75</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>44049</v>
+        <v>44080</v>
       </c>
       <c r="B373">
-        <v>62.14</v>
+        <v>89.03</v>
       </c>
       <c r="C373">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D373">
-        <v>-28.1</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>44050</v>
+        <v>44081</v>
       </c>
       <c r="B374">
-        <v>60.75</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="C374">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D374">
-        <v>-29.71</v>
+        <v>-13.06</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>44051</v>
+        <v>44082</v>
       </c>
       <c r="B375">
-        <v>55.95</v>
+        <v>78.23999999999999</v>
       </c>
       <c r="C375">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D375">
-        <v>-35.26</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B376">
-        <v>57.49</v>
-      </c>
-      <c r="C376">
-        <v>86.42</v>
-      </c>
-      <c r="D376">
-        <v>-33.48</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B377">
-        <v>58.94</v>
-      </c>
-      <c r="C377">
-        <v>86.42</v>
-      </c>
-      <c r="D377">
-        <v>-31.8</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B378">
-        <v>58.05</v>
-      </c>
-      <c r="C378">
-        <v>86.42</v>
-      </c>
-      <c r="D378">
-        <v>-32.83</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B379">
-        <v>60.51</v>
-      </c>
-      <c r="C379">
-        <v>86.42</v>
-      </c>
-      <c r="D379">
-        <v>-29.98</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B380">
-        <v>58.93</v>
-      </c>
-      <c r="C380">
-        <v>86.42</v>
-      </c>
-      <c r="D380">
-        <v>-31.82</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B381">
-        <v>61.29</v>
-      </c>
-      <c r="C381">
-        <v>86.42</v>
-      </c>
-      <c r="D381">
-        <v>-29.08</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B382">
-        <v>87.75</v>
-      </c>
-      <c r="C382">
-        <v>86.42</v>
-      </c>
-      <c r="D382">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B383">
-        <v>136.35</v>
-      </c>
-      <c r="C383">
-        <v>86.42</v>
-      </c>
-      <c r="D383">
-        <v>57.77</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B384">
-        <v>136.22</v>
-      </c>
-      <c r="C384">
-        <v>86.42</v>
-      </c>
-      <c r="D384">
-        <v>57.62</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B385">
-        <v>146.75</v>
-      </c>
-      <c r="C385">
-        <v>86.42</v>
-      </c>
-      <c r="D385">
-        <v>69.8</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B386">
-        <v>171.51</v>
-      </c>
-      <c r="C386">
-        <v>86.42</v>
-      </c>
-      <c r="D386">
-        <v>98.45</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B387">
-        <v>189.24</v>
-      </c>
-      <c r="C387">
-        <v>86.42</v>
-      </c>
-      <c r="D387">
-        <v>118.97</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B388">
-        <v>187.72</v>
-      </c>
-      <c r="C388">
-        <v>86.42</v>
-      </c>
-      <c r="D388">
-        <v>117.21</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B389">
-        <v>179.81</v>
-      </c>
-      <c r="C389">
-        <v>86.42</v>
-      </c>
-      <c r="D389">
-        <v>108.06</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B390">
-        <v>177.59</v>
-      </c>
-      <c r="C390">
-        <v>86.42</v>
-      </c>
-      <c r="D390">
-        <v>105.49</v>
+        <v>-17.2</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -585,16 +585,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44082</v>
+        <v>44089</v>
       </c>
       <c r="B14">
-        <v>88.95999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="C14">
         <v>94.48999999999999</v>
       </c>
       <c r="D14">
-        <v>-5.85</v>
+        <v>-15.12</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5865,6 +5865,104 @@
         <v>-17.2</v>
       </c>
     </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B376">
+        <v>77.16</v>
+      </c>
+      <c r="C376">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D376">
+        <v>-18.34</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B377">
+        <v>72.83</v>
+      </c>
+      <c r="C377">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D377">
+        <v>-22.92</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B378">
+        <v>70.70999999999999</v>
+      </c>
+      <c r="C378">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D378">
+        <v>-25.17</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B379">
+        <v>68.56</v>
+      </c>
+      <c r="C379">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D379">
+        <v>-27.44</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B380">
+        <v>67.04000000000001</v>
+      </c>
+      <c r="C380">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D380">
+        <v>-29.05</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B381">
+        <v>68.45999999999999</v>
+      </c>
+      <c r="C381">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D381">
+        <v>-27.55</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B382">
+        <v>66.65000000000001</v>
+      </c>
+      <c r="C382">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D382">
+        <v>-29.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -585,16 +585,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44089</v>
+        <v>44095</v>
       </c>
       <c r="B14">
-        <v>80.2</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="C14">
         <v>94.48999999999999</v>
       </c>
       <c r="D14">
-        <v>-15.12</v>
+        <v>-20.17</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5963,6 +5963,90 @@
         <v>-29.47</v>
       </c>
     </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B383">
+        <v>62.72</v>
+      </c>
+      <c r="C383">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D383">
+        <v>-33.62</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B384">
+        <v>64.26000000000001</v>
+      </c>
+      <c r="C384">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D384">
+        <v>-31.99</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B385">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="C385">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D385">
+        <v>-31.52</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B386">
+        <v>64.34</v>
+      </c>
+      <c r="C386">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D386">
+        <v>-31.9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B387">
+        <v>63.18</v>
+      </c>
+      <c r="C387">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D387">
+        <v>-33.14</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B388">
+        <v>61.76</v>
+      </c>
+      <c r="C388">
+        <v>94.48999999999999</v>
+      </c>
+      <c r="D388">
+        <v>-34.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -417,184 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B2">
-        <v>120.4</v>
+        <v>116.23</v>
       </c>
       <c r="C2">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D2">
-        <v>27.43</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B3">
-        <v>116.23</v>
+        <v>122.39</v>
       </c>
       <c r="C3">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D3">
-        <v>-1.83</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B4">
-        <v>122.39</v>
+        <v>107.31</v>
       </c>
       <c r="C4">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D4">
-        <v>10.66</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B5">
-        <v>107.31</v>
+        <v>93.59</v>
       </c>
       <c r="C5">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D5">
-        <v>-6</v>
+        <v>-29.18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B6">
-        <v>93.59</v>
+        <v>116</v>
       </c>
       <c r="C6">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D6">
-        <v>-29.18</v>
+        <v>-13.2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B7">
-        <v>116</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C7">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D7">
-        <v>-13.2</v>
+        <v>-18.82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B8">
-        <v>92.34999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C8">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D8">
-        <v>-18.82</v>
+        <v>-32.79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B9">
-        <v>66.51000000000001</v>
+        <v>57.27</v>
       </c>
       <c r="C9">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D9">
-        <v>-32.79</v>
+        <v>-42.69</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B10">
-        <v>57.27</v>
+        <v>83.84</v>
       </c>
       <c r="C10">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D10">
-        <v>-42.69</v>
+        <v>-37.18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B11">
-        <v>83.84</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C11">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D11">
-        <v>-37.18</v>
+        <v>-30.45</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B12">
-        <v>72.43000000000001</v>
+        <v>103.78</v>
       </c>
       <c r="C12">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D12">
-        <v>-30.45</v>
+        <v>20.08</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B13">
-        <v>103.78</v>
+        <v>75.97</v>
       </c>
       <c r="C13">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D13">
-        <v>20.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44095</v>
-      </c>
-      <c r="B14">
-        <v>75.43000000000001</v>
-      </c>
-      <c r="C14">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D14">
-        <v>-20.17</v>
+        <v>-19.6</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -631,5420 +617,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B2">
+        <v>91.67</v>
+      </c>
+      <c r="C2">
         <v>118.4</v>
       </c>
-      <c r="C2">
-        <v>94.48999999999999</v>
-      </c>
       <c r="D2">
-        <v>25.3</v>
+        <v>-22.58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43710</v>
+        <v>43740</v>
       </c>
       <c r="B3">
-        <v>155.54</v>
+        <v>89.51000000000001</v>
       </c>
       <c r="C3">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D3">
-        <v>64.62</v>
+        <v>-24.4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43711</v>
+        <v>43741</v>
       </c>
       <c r="B4">
-        <v>143.59</v>
+        <v>86.25</v>
       </c>
       <c r="C4">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D4">
-        <v>51.97</v>
+        <v>-27.15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43712</v>
+        <v>43742</v>
       </c>
       <c r="B5">
-        <v>138.09</v>
+        <v>83.41</v>
       </c>
       <c r="C5">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D5">
-        <v>46.15</v>
+        <v>-29.56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43713</v>
+        <v>43743</v>
       </c>
       <c r="B6">
-        <v>136.31</v>
+        <v>81.75</v>
       </c>
       <c r="C6">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D6">
-        <v>44.27</v>
+        <v>-30.95</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43714</v>
+        <v>43744</v>
       </c>
       <c r="B7">
-        <v>110.69</v>
+        <v>95.89</v>
       </c>
       <c r="C7">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D7">
-        <v>17.15</v>
+        <v>-19.02</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43715</v>
+        <v>43745</v>
       </c>
       <c r="B8">
-        <v>106.57</v>
+        <v>127.65</v>
       </c>
       <c r="C8">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D8">
-        <v>12.79</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43716</v>
+        <v>43746</v>
       </c>
       <c r="B9">
-        <v>104.94</v>
+        <v>125.98</v>
       </c>
       <c r="C9">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D9">
-        <v>11.06</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43717</v>
+        <v>43747</v>
       </c>
       <c r="B10">
-        <v>97.12</v>
+        <v>122.92</v>
       </c>
       <c r="C10">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D10">
-        <v>2.79</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43718</v>
+        <v>43748</v>
       </c>
       <c r="B11">
-        <v>88.98</v>
+        <v>115.44</v>
       </c>
       <c r="C11">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D11">
-        <v>-5.83</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43719</v>
+        <v>43749</v>
       </c>
       <c r="B12">
-        <v>83.69</v>
+        <v>97.95</v>
       </c>
       <c r="C12">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D12">
-        <v>-11.43</v>
+        <v>-17.27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43720</v>
+        <v>43750</v>
       </c>
       <c r="B13">
-        <v>80.69</v>
+        <v>90.53</v>
       </c>
       <c r="C13">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D13">
-        <v>-14.61</v>
+        <v>-23.54</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43721</v>
+        <v>43751</v>
       </c>
       <c r="B14">
-        <v>80.18000000000001</v>
+        <v>86.73</v>
       </c>
       <c r="C14">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D14">
-        <v>-15.15</v>
+        <v>-26.75</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43722</v>
+        <v>43752</v>
       </c>
       <c r="B15">
-        <v>78.51000000000001</v>
+        <v>85.47</v>
       </c>
       <c r="C15">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D15">
-        <v>-16.91</v>
+        <v>-27.81</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43723</v>
+        <v>43753</v>
       </c>
       <c r="B16">
-        <v>82.53</v>
+        <v>120.55</v>
       </c>
       <c r="C16">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D16">
-        <v>-12.65</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43724</v>
+        <v>43754</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>114.18</v>
       </c>
       <c r="C17">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D17">
-        <v>-6.87</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43725</v>
+        <v>43755</v>
       </c>
       <c r="B18">
-        <v>83.48999999999999</v>
+        <v>107.01</v>
       </c>
       <c r="C18">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D18">
-        <v>-11.64</v>
+        <v>-9.619999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43726</v>
+        <v>43756</v>
       </c>
       <c r="B19">
-        <v>81.73999999999999</v>
+        <v>98.92</v>
       </c>
       <c r="C19">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D19">
-        <v>-13.49</v>
+        <v>-16.45</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43727</v>
+        <v>43757</v>
       </c>
       <c r="B20">
-        <v>125.24</v>
+        <v>113.08</v>
       </c>
       <c r="C20">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D20">
-        <v>32.55</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43728</v>
+        <v>43758</v>
       </c>
       <c r="B21">
-        <v>175.18</v>
+        <v>122.45</v>
       </c>
       <c r="C21">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D21">
-        <v>85.40000000000001</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43729</v>
+        <v>43759</v>
       </c>
       <c r="B22">
-        <v>178.03</v>
+        <v>207.07</v>
       </c>
       <c r="C22">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D22">
-        <v>88.42</v>
+        <v>74.89</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43730</v>
+        <v>43760</v>
       </c>
       <c r="B23">
-        <v>179.59</v>
+        <v>201.94</v>
       </c>
       <c r="C23">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D23">
-        <v>90.06999999999999</v>
+        <v>70.56</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43731</v>
+        <v>43761</v>
       </c>
       <c r="B24">
-        <v>195.58</v>
+        <v>170.23</v>
       </c>
       <c r="C24">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D24">
-        <v>106.99</v>
+        <v>43.78</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43732</v>
+        <v>43762</v>
       </c>
       <c r="B25">
-        <v>179.25</v>
+        <v>136.73</v>
       </c>
       <c r="C25">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D25">
-        <v>89.70999999999999</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43733</v>
+        <v>43763</v>
       </c>
       <c r="B26">
-        <v>156.85</v>
+        <v>112.85</v>
       </c>
       <c r="C26">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D26">
-        <v>66.01000000000001</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43734</v>
+        <v>43764</v>
       </c>
       <c r="B27">
-        <v>126.1</v>
+        <v>117.48</v>
       </c>
       <c r="C27">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D27">
-        <v>33.46</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43735</v>
+        <v>43765</v>
       </c>
       <c r="B28">
-        <v>117.68</v>
+        <v>103.66</v>
       </c>
       <c r="C28">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D28">
-        <v>24.54</v>
+        <v>-12.45</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43736</v>
+        <v>43766</v>
       </c>
       <c r="B29">
-        <v>116.15</v>
+        <v>142.94</v>
       </c>
       <c r="C29">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D29">
-        <v>22.92</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43737</v>
+        <v>43767</v>
       </c>
       <c r="B30">
-        <v>105.85</v>
+        <v>123.18</v>
       </c>
       <c r="C30">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D30">
-        <v>12.03</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43738</v>
+        <v>43768</v>
       </c>
       <c r="B31">
-        <v>97.55</v>
+        <v>118.36</v>
       </c>
       <c r="C31">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D31">
-        <v>3.24</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B32">
-        <v>91.67</v>
+        <v>111.33</v>
       </c>
       <c r="C32">
         <v>118.4</v>
       </c>
       <c r="D32">
-        <v>-22.58</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43740</v>
+        <v>43770</v>
       </c>
       <c r="B33">
-        <v>89.51000000000001</v>
+        <v>99.62</v>
       </c>
       <c r="C33">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D33">
-        <v>-24.4</v>
+        <v>-9.92</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43741</v>
+        <v>43771</v>
       </c>
       <c r="B34">
-        <v>86.25</v>
+        <v>95.17</v>
       </c>
       <c r="C34">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D34">
-        <v>-27.15</v>
+        <v>-13.95</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43742</v>
+        <v>43772</v>
       </c>
       <c r="B35">
-        <v>83.41</v>
+        <v>95.33</v>
       </c>
       <c r="C35">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D35">
-        <v>-29.56</v>
+        <v>-13.81</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43743</v>
+        <v>43773</v>
       </c>
       <c r="B36">
-        <v>81.75</v>
+        <v>101.25</v>
       </c>
       <c r="C36">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D36">
-        <v>-30.95</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43744</v>
+        <v>43774</v>
       </c>
       <c r="B37">
-        <v>95.89</v>
+        <v>99.97</v>
       </c>
       <c r="C37">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D37">
-        <v>-19.02</v>
+        <v>-9.609999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43745</v>
+        <v>43775</v>
       </c>
       <c r="B38">
-        <v>127.65</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="C38">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D38">
-        <v>7.81</v>
+        <v>-9.710000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43746</v>
+        <v>43776</v>
       </c>
       <c r="B39">
-        <v>125.98</v>
+        <v>102.92</v>
       </c>
       <c r="C39">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D39">
-        <v>6.4</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43747</v>
+        <v>43777</v>
       </c>
       <c r="B40">
-        <v>122.92</v>
+        <v>104.06</v>
       </c>
       <c r="C40">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D40">
-        <v>3.82</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43748</v>
+        <v>43778</v>
       </c>
       <c r="B41">
-        <v>115.44</v>
+        <v>101.43</v>
       </c>
       <c r="C41">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D41">
-        <v>-2.5</v>
+        <v>-8.289999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43749</v>
+        <v>43779</v>
       </c>
       <c r="B42">
-        <v>97.95</v>
+        <v>122.75</v>
       </c>
       <c r="C42">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D42">
-        <v>-17.27</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43750</v>
+        <v>43780</v>
       </c>
       <c r="B43">
-        <v>90.53</v>
+        <v>130.19</v>
       </c>
       <c r="C43">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D43">
-        <v>-23.54</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43751</v>
+        <v>43781</v>
       </c>
       <c r="B44">
-        <v>86.73</v>
+        <v>135.04</v>
       </c>
       <c r="C44">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D44">
-        <v>-26.75</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43752</v>
+        <v>43782</v>
       </c>
       <c r="B45">
-        <v>85.47</v>
+        <v>149.71</v>
       </c>
       <c r="C45">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D45">
-        <v>-27.81</v>
+        <v>35.37</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43753</v>
+        <v>43783</v>
       </c>
       <c r="B46">
-        <v>120.55</v>
+        <v>172.26</v>
       </c>
       <c r="C46">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D46">
-        <v>1.82</v>
+        <v>55.76</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43754</v>
+        <v>43784</v>
       </c>
       <c r="B47">
-        <v>114.18</v>
+        <v>179.38</v>
       </c>
       <c r="C47">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D47">
-        <v>-3.57</v>
+        <v>62.19</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43755</v>
+        <v>43785</v>
       </c>
       <c r="B48">
-        <v>107.01</v>
+        <v>173.57</v>
       </c>
       <c r="C48">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D48">
-        <v>-9.619999999999999</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43756</v>
+        <v>43786</v>
       </c>
       <c r="B49">
-        <v>98.92</v>
+        <v>159.01</v>
       </c>
       <c r="C49">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D49">
-        <v>-16.45</v>
+        <v>43.78</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43757</v>
+        <v>43787</v>
       </c>
       <c r="B50">
-        <v>113.08</v>
+        <v>144.47</v>
       </c>
       <c r="C50">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D50">
-        <v>-4.49</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43758</v>
+        <v>43788</v>
       </c>
       <c r="B51">
-        <v>122.45</v>
+        <v>125.69</v>
       </c>
       <c r="C51">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D51">
-        <v>3.42</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43759</v>
+        <v>43789</v>
       </c>
       <c r="B52">
-        <v>207.07</v>
+        <v>112.94</v>
       </c>
       <c r="C52">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D52">
-        <v>74.89</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43760</v>
+        <v>43790</v>
       </c>
       <c r="B53">
-        <v>201.94</v>
+        <v>106.53</v>
       </c>
       <c r="C53">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D53">
-        <v>70.56</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43761</v>
+        <v>43791</v>
       </c>
       <c r="B54">
-        <v>170.23</v>
+        <v>102.96</v>
       </c>
       <c r="C54">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D54">
-        <v>43.78</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43762</v>
+        <v>43792</v>
       </c>
       <c r="B55">
-        <v>136.73</v>
+        <v>101.7</v>
       </c>
       <c r="C55">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D55">
-        <v>15.48</v>
+        <v>-8.050000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43763</v>
+        <v>43793</v>
       </c>
       <c r="B56">
-        <v>112.85</v>
+        <v>103.09</v>
       </c>
       <c r="C56">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D56">
-        <v>-4.68</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43764</v>
+        <v>43794</v>
       </c>
       <c r="B57">
-        <v>117.48</v>
+        <v>101.76</v>
       </c>
       <c r="C57">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D57">
-        <v>-0.78</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43765</v>
+        <v>43795</v>
       </c>
       <c r="B58">
-        <v>103.66</v>
+        <v>100.58</v>
       </c>
       <c r="C58">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D58">
-        <v>-12.45</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43766</v>
+        <v>43796</v>
       </c>
       <c r="B59">
-        <v>142.94</v>
+        <v>128.99</v>
       </c>
       <c r="C59">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D59">
-        <v>20.73</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43767</v>
+        <v>43797</v>
       </c>
       <c r="B60">
-        <v>123.18</v>
+        <v>141.04</v>
       </c>
       <c r="C60">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D60">
-        <v>4.04</v>
+        <v>27.53</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43768</v>
+        <v>43798</v>
       </c>
       <c r="B61">
-        <v>118.36</v>
+        <v>137.55</v>
       </c>
       <c r="C61">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D61">
-        <v>-0.03</v>
+        <v>24.37</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B62">
-        <v>111.33</v>
+        <v>142.78</v>
       </c>
       <c r="C62">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D62">
-        <v>-5.97</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B63">
-        <v>99.62</v>
+        <v>146.27</v>
       </c>
       <c r="C63">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D63">
-        <v>-9.92</v>
+        <v>28.12</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43771</v>
+        <v>43801</v>
       </c>
       <c r="B64">
-        <v>95.17</v>
+        <v>138.06</v>
       </c>
       <c r="C64">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D64">
-        <v>-13.95</v>
+        <v>20.93</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43772</v>
+        <v>43802</v>
       </c>
       <c r="B65">
-        <v>95.33</v>
+        <v>118.82</v>
       </c>
       <c r="C65">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D65">
-        <v>-13.81</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43773</v>
+        <v>43803</v>
       </c>
       <c r="B66">
-        <v>101.25</v>
+        <v>113.58</v>
       </c>
       <c r="C66">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D66">
-        <v>-8.449999999999999</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43774</v>
+        <v>43804</v>
       </c>
       <c r="B67">
-        <v>99.97</v>
+        <v>114.81</v>
       </c>
       <c r="C67">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D67">
-        <v>-9.609999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43775</v>
+        <v>43805</v>
       </c>
       <c r="B68">
-        <v>99.84999999999999</v>
+        <v>120.68</v>
       </c>
       <c r="C68">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D68">
-        <v>-9.710000000000001</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43776</v>
+        <v>43806</v>
       </c>
       <c r="B69">
-        <v>102.92</v>
+        <v>114.73</v>
       </c>
       <c r="C69">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D69">
-        <v>-6.94</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43777</v>
+        <v>43807</v>
       </c>
       <c r="B70">
-        <v>104.06</v>
+        <v>109.88</v>
       </c>
       <c r="C70">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D70">
-        <v>-5.91</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43778</v>
+        <v>43808</v>
       </c>
       <c r="B71">
-        <v>101.43</v>
+        <v>105.36</v>
       </c>
       <c r="C71">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D71">
-        <v>-8.289999999999999</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43779</v>
+        <v>43809</v>
       </c>
       <c r="B72">
-        <v>122.75</v>
+        <v>102.39</v>
       </c>
       <c r="C72">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D72">
-        <v>10.99</v>
+        <v>-10.32</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43780</v>
+        <v>43810</v>
       </c>
       <c r="B73">
-        <v>130.19</v>
+        <v>100.2</v>
       </c>
       <c r="C73">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D73">
-        <v>17.71</v>
+        <v>-12.23</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43781</v>
+        <v>43811</v>
       </c>
       <c r="B74">
-        <v>135.04</v>
+        <v>97.54000000000001</v>
       </c>
       <c r="C74">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D74">
-        <v>22.1</v>
+        <v>-14.56</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43782</v>
+        <v>43812</v>
       </c>
       <c r="B75">
-        <v>149.71</v>
+        <v>95.92</v>
       </c>
       <c r="C75">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D75">
-        <v>35.37</v>
+        <v>-15.98</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43783</v>
+        <v>43813</v>
       </c>
       <c r="B76">
-        <v>172.26</v>
+        <v>95.41</v>
       </c>
       <c r="C76">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D76">
-        <v>55.76</v>
+        <v>-16.43</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43784</v>
+        <v>43814</v>
       </c>
       <c r="B77">
-        <v>179.38</v>
+        <v>94.86</v>
       </c>
       <c r="C77">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D77">
-        <v>62.19</v>
+        <v>-16.91</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43785</v>
+        <v>43815</v>
       </c>
       <c r="B78">
-        <v>173.57</v>
+        <v>102.03</v>
       </c>
       <c r="C78">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D78">
-        <v>56.94</v>
+        <v>-10.63</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43786</v>
+        <v>43816</v>
       </c>
       <c r="B79">
-        <v>159.01</v>
+        <v>106.15</v>
       </c>
       <c r="C79">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D79">
-        <v>43.78</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43787</v>
+        <v>43817</v>
       </c>
       <c r="B80">
-        <v>144.47</v>
+        <v>106.03</v>
       </c>
       <c r="C80">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D80">
-        <v>30.63</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43788</v>
+        <v>43818</v>
       </c>
       <c r="B81">
-        <v>125.69</v>
+        <v>104.99</v>
       </c>
       <c r="C81">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D81">
-        <v>13.65</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43789</v>
+        <v>43819</v>
       </c>
       <c r="B82">
-        <v>112.94</v>
+        <v>104.95</v>
       </c>
       <c r="C82">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D82">
-        <v>2.12</v>
+        <v>-8.07</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43790</v>
+        <v>43820</v>
       </c>
       <c r="B83">
-        <v>106.53</v>
+        <v>114.27</v>
       </c>
       <c r="C83">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D83">
-        <v>-3.68</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43791</v>
+        <v>43821</v>
       </c>
       <c r="B84">
-        <v>102.96</v>
+        <v>126.04</v>
       </c>
       <c r="C84">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D84">
-        <v>-6.91</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43792</v>
+        <v>43822</v>
       </c>
       <c r="B85">
-        <v>101.7</v>
+        <v>129.5</v>
       </c>
       <c r="C85">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D85">
-        <v>-8.050000000000001</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43793</v>
+        <v>43823</v>
       </c>
       <c r="B86">
-        <v>103.09</v>
+        <v>120</v>
       </c>
       <c r="C86">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D86">
-        <v>-6.78</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43794</v>
+        <v>43824</v>
       </c>
       <c r="B87">
-        <v>101.76</v>
+        <v>106.85</v>
       </c>
       <c r="C87">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D87">
-        <v>-7.99</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43795</v>
+        <v>43825</v>
       </c>
       <c r="B88">
-        <v>100.58</v>
+        <v>97.69</v>
       </c>
       <c r="C88">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D88">
-        <v>-9.050000000000001</v>
+        <v>-14.43</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43796</v>
+        <v>43826</v>
       </c>
       <c r="B89">
-        <v>128.99</v>
+        <v>93.48</v>
       </c>
       <c r="C89">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D89">
-        <v>16.63</v>
+        <v>-18.12</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43797</v>
+        <v>43827</v>
       </c>
       <c r="B90">
-        <v>141.04</v>
+        <v>90.31</v>
       </c>
       <c r="C90">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D90">
-        <v>27.53</v>
+        <v>-20.89</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43798</v>
+        <v>43828</v>
       </c>
       <c r="B91">
-        <v>137.55</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="C91">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D91">
-        <v>24.37</v>
+        <v>-23.51</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43799</v>
+        <v>43829</v>
       </c>
       <c r="B92">
-        <v>142.78</v>
+        <v>85.11</v>
       </c>
       <c r="C92">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D92">
-        <v>29.1</v>
+        <v>-25.45</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43800</v>
+        <v>43830</v>
       </c>
       <c r="B93">
-        <v>146.27</v>
+        <v>83.39</v>
       </c>
       <c r="C93">
         <v>114.17</v>
       </c>
       <c r="D93">
-        <v>28.12</v>
+        <v>-26.96</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43801</v>
+        <v>43831</v>
       </c>
       <c r="B94">
-        <v>138.06</v>
+        <v>82.44</v>
       </c>
       <c r="C94">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D94">
-        <v>20.93</v>
+        <v>-37.62</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43802</v>
+        <v>43832</v>
       </c>
       <c r="B95">
-        <v>118.82</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="C95">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D95">
-        <v>4.08</v>
+        <v>-24.74</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43803</v>
+        <v>43833</v>
       </c>
       <c r="B96">
-        <v>113.58</v>
+        <v>94.8</v>
       </c>
       <c r="C96">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D96">
-        <v>-0.51</v>
+        <v>-28.26</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43804</v>
+        <v>43834</v>
       </c>
       <c r="B97">
-        <v>114.81</v>
+        <v>95.92</v>
       </c>
       <c r="C97">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D97">
-        <v>0.57</v>
+        <v>-27.42</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43805</v>
+        <v>43835</v>
       </c>
       <c r="B98">
-        <v>120.68</v>
+        <v>94.88</v>
       </c>
       <c r="C98">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D98">
-        <v>5.7</v>
+        <v>-28.21</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43806</v>
+        <v>43836</v>
       </c>
       <c r="B99">
-        <v>114.73</v>
+        <v>98.77</v>
       </c>
       <c r="C99">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D99">
-        <v>0.49</v>
+        <v>-25.26</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43807</v>
+        <v>43837</v>
       </c>
       <c r="B100">
-        <v>109.88</v>
+        <v>106.38</v>
       </c>
       <c r="C100">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D100">
-        <v>-3.76</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43808</v>
+        <v>43838</v>
       </c>
       <c r="B101">
-        <v>105.36</v>
+        <v>96.95</v>
       </c>
       <c r="C101">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D101">
-        <v>-7.71</v>
+        <v>-26.64</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43809</v>
+        <v>43839</v>
       </c>
       <c r="B102">
-        <v>102.39</v>
+        <v>88.92</v>
       </c>
       <c r="C102">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D102">
-        <v>-10.32</v>
+        <v>-32.72</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43810</v>
+        <v>43840</v>
       </c>
       <c r="B103">
-        <v>100.2</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="C103">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D103">
-        <v>-12.23</v>
+        <v>-32.85</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43811</v>
+        <v>43841</v>
       </c>
       <c r="B104">
-        <v>97.54000000000001</v>
+        <v>104.72</v>
       </c>
       <c r="C104">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D104">
-        <v>-14.56</v>
+        <v>-20.76</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43812</v>
+        <v>43842</v>
       </c>
       <c r="B105">
-        <v>95.92</v>
+        <v>95.23</v>
       </c>
       <c r="C105">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D105">
-        <v>-15.98</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43813</v>
+        <v>43843</v>
       </c>
       <c r="B106">
-        <v>95.41</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="C106">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D106">
-        <v>-16.43</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43814</v>
+        <v>43844</v>
       </c>
       <c r="B107">
-        <v>94.86</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="C107">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D107">
-        <v>-16.91</v>
+        <v>-27.39</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43815</v>
+        <v>43845</v>
       </c>
       <c r="B108">
-        <v>102.03</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="C108">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D108">
-        <v>-10.63</v>
+        <v>-33.63</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43816</v>
+        <v>43846</v>
       </c>
       <c r="B109">
-        <v>106.15</v>
+        <v>91.67</v>
       </c>
       <c r="C109">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D109">
-        <v>-7.02</v>
+        <v>-30.63</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43817</v>
+        <v>43847</v>
       </c>
       <c r="B110">
-        <v>106.03</v>
+        <v>107.67</v>
       </c>
       <c r="C110">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D110">
-        <v>-7.12</v>
+        <v>-18.53</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43818</v>
+        <v>43848</v>
       </c>
       <c r="B111">
-        <v>104.99</v>
+        <v>99.84</v>
       </c>
       <c r="C111">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D111">
-        <v>-8.039999999999999</v>
+        <v>-24.45</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43819</v>
+        <v>43849</v>
       </c>
       <c r="B112">
-        <v>104.95</v>
+        <v>106.68</v>
       </c>
       <c r="C112">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D112">
-        <v>-8.07</v>
+        <v>-19.28</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43820</v>
+        <v>43850</v>
       </c>
       <c r="B113">
-        <v>114.27</v>
+        <v>99.88</v>
       </c>
       <c r="C113">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D113">
-        <v>0.09</v>
+        <v>-24.42</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43821</v>
+        <v>43851</v>
       </c>
       <c r="B114">
-        <v>126.04</v>
+        <v>95.33</v>
       </c>
       <c r="C114">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D114">
-        <v>10.4</v>
+        <v>-27.86</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43822</v>
+        <v>43852</v>
       </c>
       <c r="B115">
-        <v>129.5</v>
+        <v>101.73</v>
       </c>
       <c r="C115">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D115">
-        <v>13.43</v>
+        <v>-23.02</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43823</v>
+        <v>43853</v>
       </c>
       <c r="B116">
-        <v>120</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="C116">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D116">
-        <v>5.11</v>
+        <v>-25.9</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43824</v>
+        <v>43854</v>
       </c>
       <c r="B117">
-        <v>106.85</v>
+        <v>90.48</v>
       </c>
       <c r="C117">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D117">
-        <v>-6.4</v>
+        <v>-31.53</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43825</v>
+        <v>43855</v>
       </c>
       <c r="B118">
-        <v>97.69</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C118">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D118">
-        <v>-14.43</v>
+        <v>-28.88</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43826</v>
+        <v>43856</v>
       </c>
       <c r="B119">
-        <v>93.48</v>
+        <v>92.36</v>
       </c>
       <c r="C119">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D119">
-        <v>-18.12</v>
+        <v>-30.11</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43827</v>
+        <v>43857</v>
       </c>
       <c r="B120">
-        <v>90.31</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="C120">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D120">
-        <v>-20.89</v>
+        <v>-34.39</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43828</v>
+        <v>43858</v>
       </c>
       <c r="B121">
-        <v>87.31999999999999</v>
+        <v>79.81</v>
       </c>
       <c r="C121">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D121">
-        <v>-23.51</v>
+        <v>-39.6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43829</v>
+        <v>43859</v>
       </c>
       <c r="B122">
-        <v>85.11</v>
+        <v>78.02</v>
       </c>
       <c r="C122">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D122">
-        <v>-25.45</v>
+        <v>-40.96</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43830</v>
+        <v>43860</v>
       </c>
       <c r="B123">
-        <v>83.39</v>
+        <v>76.23</v>
       </c>
       <c r="C123">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D123">
-        <v>-26.96</v>
+        <v>-42.32</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B124">
-        <v>82.44</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="C124">
         <v>132.15</v>
       </c>
       <c r="D124">
-        <v>-37.62</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43832</v>
+        <v>43862</v>
       </c>
       <c r="B125">
-        <v>99.45999999999999</v>
+        <v>73.39</v>
       </c>
       <c r="C125">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D125">
-        <v>-24.74</v>
+        <v>-45.09</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43833</v>
+        <v>43863</v>
       </c>
       <c r="B126">
-        <v>94.8</v>
+        <v>76.36</v>
       </c>
       <c r="C126">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D126">
-        <v>-28.26</v>
+        <v>-42.86</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43834</v>
+        <v>43864</v>
       </c>
       <c r="B127">
-        <v>95.92</v>
+        <v>80.23</v>
       </c>
       <c r="C127">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D127">
-        <v>-27.42</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43835</v>
+        <v>43865</v>
       </c>
       <c r="B128">
-        <v>94.88</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="C128">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D128">
-        <v>-28.21</v>
+        <v>-35.64</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43836</v>
+        <v>43866</v>
       </c>
       <c r="B129">
-        <v>98.77</v>
+        <v>97.08</v>
       </c>
       <c r="C129">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D129">
-        <v>-25.26</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43837</v>
+        <v>43867</v>
       </c>
       <c r="B130">
-        <v>106.38</v>
+        <v>91.31</v>
       </c>
       <c r="C130">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D130">
-        <v>-19.5</v>
+        <v>-31.67</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43838</v>
+        <v>43868</v>
       </c>
       <c r="B131">
-        <v>96.95</v>
+        <v>104.2</v>
       </c>
       <c r="C131">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D131">
-        <v>-26.64</v>
+        <v>-22.03</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43839</v>
+        <v>43869</v>
       </c>
       <c r="B132">
-        <v>88.92</v>
+        <v>116.15</v>
       </c>
       <c r="C132">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D132">
-        <v>-32.72</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43840</v>
+        <v>43870</v>
       </c>
       <c r="B133">
-        <v>88.73999999999999</v>
+        <v>128.33</v>
       </c>
       <c r="C133">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D133">
-        <v>-32.85</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43841</v>
+        <v>43871</v>
       </c>
       <c r="B134">
-        <v>104.72</v>
+        <v>174.02</v>
       </c>
       <c r="C134">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D134">
-        <v>-20.76</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43842</v>
+        <v>43872</v>
       </c>
       <c r="B135">
-        <v>95.23</v>
+        <v>210.61</v>
       </c>
       <c r="C135">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D135">
-        <v>-27.94</v>
+        <v>57.59</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43843</v>
+        <v>43873</v>
       </c>
       <c r="B136">
-        <v>95.98999999999999</v>
+        <v>199.88</v>
       </c>
       <c r="C136">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D136">
-        <v>-27.36</v>
+        <v>49.56</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43844</v>
+        <v>43874</v>
       </c>
       <c r="B137">
-        <v>95.95999999999999</v>
+        <v>187.34</v>
       </c>
       <c r="C137">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D137">
-        <v>-27.39</v>
+        <v>40.18</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43845</v>
+        <v>43875</v>
       </c>
       <c r="B138">
-        <v>87.70999999999999</v>
+        <v>170.34</v>
       </c>
       <c r="C138">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D138">
-        <v>-33.63</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43846</v>
+        <v>43876</v>
       </c>
       <c r="B139">
-        <v>91.67</v>
+        <v>140.86</v>
       </c>
       <c r="C139">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D139">
-        <v>-30.63</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43847</v>
+        <v>43877</v>
       </c>
       <c r="B140">
-        <v>107.67</v>
+        <v>114.7</v>
       </c>
       <c r="C140">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D140">
-        <v>-18.53</v>
+        <v>-14.18</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43848</v>
+        <v>43878</v>
       </c>
       <c r="B141">
-        <v>99.84</v>
+        <v>103</v>
       </c>
       <c r="C141">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D141">
-        <v>-24.45</v>
+        <v>-22.93</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43849</v>
+        <v>43879</v>
       </c>
       <c r="B142">
-        <v>106.68</v>
+        <v>95.69</v>
       </c>
       <c r="C142">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D142">
-        <v>-19.28</v>
+        <v>-28.4</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43850</v>
+        <v>43880</v>
       </c>
       <c r="B143">
-        <v>99.88</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="C143">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D143">
-        <v>-24.42</v>
+        <v>-29.3</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43851</v>
+        <v>43881</v>
       </c>
       <c r="B144">
-        <v>95.33</v>
+        <v>92.72</v>
       </c>
       <c r="C144">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D144">
-        <v>-27.86</v>
+        <v>-30.62</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43852</v>
+        <v>43882</v>
       </c>
       <c r="B145">
-        <v>101.73</v>
+        <v>90.38</v>
       </c>
       <c r="C145">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D145">
-        <v>-23.02</v>
+        <v>-32.38</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43853</v>
+        <v>43883</v>
       </c>
       <c r="B146">
-        <v>97.93000000000001</v>
+        <v>88.64</v>
       </c>
       <c r="C146">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D146">
-        <v>-25.9</v>
+        <v>-33.68</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43854</v>
+        <v>43884</v>
       </c>
       <c r="B147">
-        <v>90.48</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="C147">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D147">
-        <v>-31.53</v>
+        <v>-30.82</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43855</v>
+        <v>43885</v>
       </c>
       <c r="B148">
-        <v>93.98999999999999</v>
+        <v>93.72</v>
       </c>
       <c r="C148">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D148">
-        <v>-28.88</v>
+        <v>-29.87</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43856</v>
+        <v>43886</v>
       </c>
       <c r="B149">
-        <v>92.36</v>
+        <v>92.88</v>
       </c>
       <c r="C149">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D149">
-        <v>-30.11</v>
+        <v>-30.51</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43857</v>
+        <v>43887</v>
       </c>
       <c r="B150">
-        <v>86.70999999999999</v>
+        <v>106.78</v>
       </c>
       <c r="C150">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D150">
-        <v>-34.39</v>
+        <v>-20.1</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43858</v>
+        <v>43888</v>
       </c>
       <c r="B151">
-        <v>79.81</v>
+        <v>123.67</v>
       </c>
       <c r="C151">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D151">
-        <v>-39.6</v>
+        <v>-7.47</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43859</v>
+        <v>43889</v>
       </c>
       <c r="B152">
-        <v>78.02</v>
+        <v>119.95</v>
       </c>
       <c r="C152">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D152">
-        <v>-40.96</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43860</v>
+        <v>43890</v>
       </c>
       <c r="B153">
-        <v>76.23</v>
+        <v>118.88</v>
       </c>
       <c r="C153">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D153">
-        <v>-42.32</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43861</v>
+        <v>43891</v>
       </c>
       <c r="B154">
-        <v>76.06999999999999</v>
+        <v>106.98</v>
       </c>
       <c r="C154">
-        <v>132.15</v>
+        <v>113.77</v>
       </c>
       <c r="D154">
-        <v>-42.43</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43862</v>
+        <v>43892</v>
       </c>
       <c r="B155">
-        <v>73.39</v>
+        <v>96.73</v>
       </c>
       <c r="C155">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D155">
-        <v>-45.09</v>
+        <v>-14.98</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43863</v>
+        <v>43893</v>
       </c>
       <c r="B156">
-        <v>76.36</v>
+        <v>98.62</v>
       </c>
       <c r="C156">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D156">
-        <v>-42.86</v>
+        <v>-13.31</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43864</v>
+        <v>43894</v>
       </c>
       <c r="B157">
-        <v>80.23</v>
+        <v>106.85</v>
       </c>
       <c r="C157">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D157">
-        <v>-39.97</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43865</v>
+        <v>43895</v>
       </c>
       <c r="B158">
-        <v>86.01000000000001</v>
+        <v>114.51</v>
       </c>
       <c r="C158">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D158">
-        <v>-35.64</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43866</v>
+        <v>43896</v>
       </c>
       <c r="B159">
-        <v>97.08</v>
+        <v>114.11</v>
       </c>
       <c r="C159">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D159">
-        <v>-27.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43867</v>
+        <v>43897</v>
       </c>
       <c r="B160">
-        <v>91.31</v>
+        <v>98.8</v>
       </c>
       <c r="C160">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D160">
-        <v>-31.67</v>
+        <v>-13.15</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43868</v>
+        <v>43898</v>
       </c>
       <c r="B161">
-        <v>104.2</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="C161">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D161">
-        <v>-22.03</v>
+        <v>-18.98</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43869</v>
+        <v>43899</v>
       </c>
       <c r="B162">
-        <v>116.15</v>
+        <v>88.88</v>
       </c>
       <c r="C162">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D162">
-        <v>-13.09</v>
+        <v>-21.88</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43870</v>
+        <v>43900</v>
       </c>
       <c r="B163">
-        <v>128.33</v>
+        <v>85.89</v>
       </c>
       <c r="C163">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D163">
-        <v>-3.97</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="B164">
-        <v>174.02</v>
+        <v>83.27</v>
       </c>
       <c r="C164">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D164">
-        <v>30.21</v>
+        <v>-26.81</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43872</v>
+        <v>43902</v>
       </c>
       <c r="B165">
-        <v>210.61</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C165">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D165">
-        <v>57.59</v>
+        <v>-29.23</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43873</v>
+        <v>43903</v>
       </c>
       <c r="B166">
-        <v>199.88</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="C166">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D166">
-        <v>49.56</v>
+        <v>-31.87</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43874</v>
+        <v>43904</v>
       </c>
       <c r="B167">
-        <v>187.34</v>
+        <v>74.27</v>
       </c>
       <c r="C167">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D167">
-        <v>40.18</v>
+        <v>-34.72</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43875</v>
+        <v>43905</v>
       </c>
       <c r="B168">
-        <v>170.34</v>
+        <v>75.94</v>
       </c>
       <c r="C168">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D168">
-        <v>27.46</v>
+        <v>-33.25</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43876</v>
+        <v>43906</v>
       </c>
       <c r="B169">
-        <v>140.86</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C169">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D169">
-        <v>5.4</v>
+        <v>-18.16</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43877</v>
+        <v>43907</v>
       </c>
       <c r="B170">
-        <v>114.7</v>
+        <v>109.04</v>
       </c>
       <c r="C170">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D170">
-        <v>-14.18</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43878</v>
+        <v>43908</v>
       </c>
       <c r="B171">
-        <v>103</v>
+        <v>92.52</v>
       </c>
       <c r="C171">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D171">
-        <v>-22.93</v>
+        <v>-18.68</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43879</v>
+        <v>43909</v>
       </c>
       <c r="B172">
-        <v>95.69</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C172">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D172">
-        <v>-28.4</v>
+        <v>-19.92</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43880</v>
+        <v>43910</v>
       </c>
       <c r="B173">
-        <v>94.48999999999999</v>
+        <v>93.03</v>
       </c>
       <c r="C173">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D173">
-        <v>-29.3</v>
+        <v>-18.23</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43881</v>
+        <v>43911</v>
       </c>
       <c r="B174">
-        <v>92.72</v>
+        <v>107.64</v>
       </c>
       <c r="C174">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D174">
-        <v>-30.62</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43882</v>
+        <v>43912</v>
       </c>
       <c r="B175">
-        <v>90.38</v>
+        <v>104.73</v>
       </c>
       <c r="C175">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D175">
-        <v>-32.38</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43883</v>
+        <v>43913</v>
       </c>
       <c r="B176">
-        <v>88.64</v>
+        <v>90.55</v>
       </c>
       <c r="C176">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D176">
-        <v>-33.68</v>
+        <v>-20.41</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43884</v>
+        <v>43914</v>
       </c>
       <c r="B177">
-        <v>92.45999999999999</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="C177">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D177">
-        <v>-30.82</v>
+        <v>-25.44</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43885</v>
+        <v>43915</v>
       </c>
       <c r="B178">
-        <v>93.72</v>
+        <v>87.22</v>
       </c>
       <c r="C178">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D178">
-        <v>-29.87</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43886</v>
+        <v>43916</v>
       </c>
       <c r="B179">
-        <v>92.88</v>
+        <v>100.01</v>
       </c>
       <c r="C179">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D179">
-        <v>-30.51</v>
+        <v>-12.09</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43887</v>
+        <v>43917</v>
       </c>
       <c r="B180">
-        <v>106.78</v>
+        <v>96.25</v>
       </c>
       <c r="C180">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D180">
-        <v>-20.1</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43888</v>
+        <v>43918</v>
       </c>
       <c r="B181">
-        <v>123.67</v>
+        <v>83.8</v>
       </c>
       <c r="C181">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D181">
-        <v>-7.47</v>
+        <v>-26.34</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43889</v>
+        <v>43919</v>
       </c>
       <c r="B182">
-        <v>119.95</v>
+        <v>79.14</v>
       </c>
       <c r="C182">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D182">
-        <v>-10.25</v>
+        <v>-30.44</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43890</v>
+        <v>43920</v>
       </c>
       <c r="B183">
-        <v>118.88</v>
+        <v>78.02</v>
       </c>
       <c r="C183">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D183">
-        <v>-11.05</v>
+        <v>-31.42</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43891</v>
+        <v>43921</v>
       </c>
       <c r="B184">
-        <v>106.98</v>
+        <v>76.94</v>
       </c>
       <c r="C184">
         <v>113.77</v>
       </c>
       <c r="D184">
-        <v>-5.97</v>
+        <v>-32.37</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43892</v>
+        <v>43922</v>
       </c>
       <c r="B185">
-        <v>96.73</v>
+        <v>75.02</v>
       </c>
       <c r="C185">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D185">
-        <v>-14.98</v>
+        <v>-24.19</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43893</v>
+        <v>43923</v>
       </c>
       <c r="B186">
-        <v>98.62</v>
+        <v>73.72</v>
       </c>
       <c r="C186">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D186">
-        <v>-13.31</v>
+        <v>-25.5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43894</v>
+        <v>43924</v>
       </c>
       <c r="B187">
-        <v>106.85</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="C187">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D187">
-        <v>-6.08</v>
+        <v>-27.99</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43895</v>
+        <v>43925</v>
       </c>
       <c r="B188">
-        <v>114.51</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C188">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D188">
-        <v>0.65</v>
+        <v>-31.89</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43896</v>
+        <v>43926</v>
       </c>
       <c r="B189">
-        <v>114.11</v>
+        <v>66.39</v>
       </c>
       <c r="C189">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D189">
-        <v>0.31</v>
+        <v>-32.91</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43897</v>
+        <v>43927</v>
       </c>
       <c r="B190">
-        <v>98.8</v>
+        <v>66.22</v>
       </c>
       <c r="C190">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D190">
-        <v>-13.15</v>
+        <v>-33.08</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43898</v>
+        <v>43928</v>
       </c>
       <c r="B191">
-        <v>92.18000000000001</v>
+        <v>78.78</v>
       </c>
       <c r="C191">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D191">
-        <v>-18.98</v>
+        <v>-20.39</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43899</v>
+        <v>43929</v>
       </c>
       <c r="B192">
-        <v>88.88</v>
+        <v>78.77</v>
       </c>
       <c r="C192">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D192">
-        <v>-21.88</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43900</v>
+        <v>43930</v>
       </c>
       <c r="B193">
-        <v>85.89</v>
+        <v>77.78</v>
       </c>
       <c r="C193">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D193">
-        <v>-24.51</v>
+        <v>-21.4</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43901</v>
+        <v>43931</v>
       </c>
       <c r="B194">
-        <v>83.27</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="C194">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D194">
-        <v>-26.81</v>
+        <v>-25.55</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43902</v>
+        <v>43932</v>
       </c>
       <c r="B195">
-        <v>80.51000000000001</v>
+        <v>69.62</v>
       </c>
       <c r="C195">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D195">
-        <v>-29.23</v>
+        <v>-29.64</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43903</v>
+        <v>43933</v>
       </c>
       <c r="B196">
-        <v>77.51000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C196">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D196">
-        <v>-31.87</v>
+        <v>-33.29</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43904</v>
+        <v>43934</v>
       </c>
       <c r="B197">
-        <v>74.27</v>
+        <v>65.12</v>
       </c>
       <c r="C197">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D197">
-        <v>-34.72</v>
+        <v>-34.19</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43905</v>
+        <v>43935</v>
       </c>
       <c r="B198">
-        <v>75.94</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C198">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D198">
-        <v>-33.25</v>
+        <v>-33.2</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43906</v>
+        <v>43936</v>
       </c>
       <c r="B199">
-        <v>93.09999999999999</v>
+        <v>65.27</v>
       </c>
       <c r="C199">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D199">
-        <v>-18.16</v>
+        <v>-34.04</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43907</v>
+        <v>43937</v>
       </c>
       <c r="B200">
-        <v>109.04</v>
+        <v>64.78</v>
       </c>
       <c r="C200">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D200">
-        <v>-4.15</v>
+        <v>-34.54</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43908</v>
+        <v>43938</v>
       </c>
       <c r="B201">
-        <v>92.52</v>
+        <v>63.42</v>
       </c>
       <c r="C201">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D201">
-        <v>-18.68</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43909</v>
+        <v>43939</v>
       </c>
       <c r="B202">
-        <v>91.09999999999999</v>
+        <v>62.1</v>
       </c>
       <c r="C202">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D202">
-        <v>-19.92</v>
+        <v>-37.24</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43910</v>
+        <v>43940</v>
       </c>
       <c r="B203">
-        <v>93.03</v>
+        <v>61.06</v>
       </c>
       <c r="C203">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D203">
-        <v>-18.23</v>
+        <v>-38.29</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43911</v>
+        <v>43941</v>
       </c>
       <c r="B204">
-        <v>107.64</v>
+        <v>62.04</v>
       </c>
       <c r="C204">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D204">
-        <v>-5.39</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43912</v>
+        <v>43942</v>
       </c>
       <c r="B205">
-        <v>104.73</v>
+        <v>63.03</v>
       </c>
       <c r="C205">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D205">
-        <v>-7.94</v>
+        <v>-36.3</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43913</v>
+        <v>43943</v>
       </c>
       <c r="B206">
-        <v>90.55</v>
+        <v>62.84</v>
       </c>
       <c r="C206">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D206">
-        <v>-20.41</v>
+        <v>-36.49</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43914</v>
+        <v>43944</v>
       </c>
       <c r="B207">
-        <v>84.81999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="C207">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D207">
-        <v>-25.44</v>
+        <v>-36.84</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43915</v>
+        <v>43945</v>
       </c>
       <c r="B208">
-        <v>87.22</v>
+        <v>62.88</v>
       </c>
       <c r="C208">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D208">
-        <v>-23.34</v>
+        <v>-36.46</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43916</v>
+        <v>43946</v>
       </c>
       <c r="B209">
-        <v>100.01</v>
+        <v>63.01</v>
       </c>
       <c r="C209">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D209">
-        <v>-12.09</v>
+        <v>-36.32</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43917</v>
+        <v>43947</v>
       </c>
       <c r="B210">
-        <v>96.25</v>
+        <v>62.89</v>
       </c>
       <c r="C210">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D210">
-        <v>-15.4</v>
+        <v>-36.45</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43918</v>
+        <v>43948</v>
       </c>
       <c r="B211">
-        <v>83.8</v>
+        <v>62.24</v>
       </c>
       <c r="C211">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D211">
-        <v>-26.34</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43919</v>
+        <v>43949</v>
       </c>
       <c r="B212">
-        <v>79.14</v>
+        <v>60.33</v>
       </c>
       <c r="C212">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D212">
-        <v>-30.44</v>
+        <v>-39.03</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43920</v>
+        <v>43950</v>
       </c>
       <c r="B213">
-        <v>78.02</v>
+        <v>60.25</v>
       </c>
       <c r="C213">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D213">
-        <v>-31.42</v>
+        <v>-39.11</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B214">
-        <v>76.94</v>
+        <v>60.76</v>
       </c>
       <c r="C214">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D214">
-        <v>-32.37</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B215">
-        <v>75.02</v>
+        <v>61.01</v>
       </c>
       <c r="C215">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D215">
-        <v>-24.19</v>
+        <v>-38.95</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43923</v>
+        <v>43953</v>
       </c>
       <c r="B216">
-        <v>73.72</v>
+        <v>57.79</v>
       </c>
       <c r="C216">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D216">
-        <v>-25.5</v>
+        <v>-42.17</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43924</v>
+        <v>43954</v>
       </c>
       <c r="B217">
-        <v>71.26000000000001</v>
+        <v>57.7</v>
       </c>
       <c r="C217">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D217">
-        <v>-27.99</v>
+        <v>-42.26</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43925</v>
+        <v>43955</v>
       </c>
       <c r="B218">
-        <v>67.40000000000001</v>
+        <v>59.51</v>
       </c>
       <c r="C218">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D218">
-        <v>-31.89</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43926</v>
+        <v>43956</v>
       </c>
       <c r="B219">
-        <v>66.39</v>
+        <v>58.09</v>
       </c>
       <c r="C219">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D219">
-        <v>-32.91</v>
+        <v>-41.87</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43927</v>
+        <v>43957</v>
       </c>
       <c r="B220">
-        <v>66.22</v>
+        <v>55.98</v>
       </c>
       <c r="C220">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D220">
-        <v>-33.08</v>
+        <v>-43.98</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43928</v>
+        <v>43958</v>
       </c>
       <c r="B221">
-        <v>78.78</v>
+        <v>56.29</v>
       </c>
       <c r="C221">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D221">
-        <v>-20.39</v>
+        <v>-43.67</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43929</v>
+        <v>43959</v>
       </c>
       <c r="B222">
-        <v>78.77</v>
+        <v>56.21</v>
       </c>
       <c r="C222">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D222">
-        <v>-20.4</v>
+        <v>-43.75</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43930</v>
+        <v>43960</v>
       </c>
       <c r="B223">
-        <v>77.78</v>
+        <v>58.1</v>
       </c>
       <c r="C223">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D223">
-        <v>-21.4</v>
+        <v>-41.86</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43931</v>
+        <v>43961</v>
       </c>
       <c r="B224">
-        <v>73.68000000000001</v>
+        <v>57.23</v>
       </c>
       <c r="C224">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D224">
-        <v>-25.55</v>
+        <v>-42.73</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43932</v>
+        <v>43962</v>
       </c>
       <c r="B225">
-        <v>69.62</v>
+        <v>58.09</v>
       </c>
       <c r="C225">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D225">
-        <v>-29.64</v>
+        <v>-41.87</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43933</v>
+        <v>43963</v>
       </c>
       <c r="B226">
-        <v>66.01000000000001</v>
+        <v>61.28</v>
       </c>
       <c r="C226">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D226">
-        <v>-33.29</v>
+        <v>-38.68</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43934</v>
+        <v>43964</v>
       </c>
       <c r="B227">
-        <v>65.12</v>
+        <v>57</v>
       </c>
       <c r="C227">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D227">
-        <v>-34.19</v>
+        <v>-42.96</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43935</v>
+        <v>43965</v>
       </c>
       <c r="B228">
-        <v>66.09999999999999</v>
+        <v>54.61</v>
       </c>
       <c r="C228">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D228">
-        <v>-33.2</v>
+        <v>-45.35</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43936</v>
+        <v>43966</v>
       </c>
       <c r="B229">
-        <v>65.27</v>
+        <v>55.86</v>
       </c>
       <c r="C229">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D229">
-        <v>-34.04</v>
+        <v>-44.1</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43937</v>
+        <v>43967</v>
       </c>
       <c r="B230">
-        <v>64.78</v>
+        <v>56.19</v>
       </c>
       <c r="C230">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D230">
-        <v>-34.54</v>
+        <v>-43.77</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43938</v>
+        <v>43968</v>
       </c>
       <c r="B231">
-        <v>63.42</v>
+        <v>57.18</v>
       </c>
       <c r="C231">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D231">
-        <v>-35.91</v>
+        <v>-42.78</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43939</v>
+        <v>43969</v>
       </c>
       <c r="B232">
-        <v>62.1</v>
+        <v>58.31</v>
       </c>
       <c r="C232">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D232">
-        <v>-37.24</v>
+        <v>-41.65</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43940</v>
+        <v>43970</v>
       </c>
       <c r="B233">
-        <v>61.06</v>
+        <v>58.54</v>
       </c>
       <c r="C233">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D233">
-        <v>-38.29</v>
+        <v>-41.42</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="B234">
-        <v>62.04</v>
+        <v>59.84</v>
       </c>
       <c r="C234">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D234">
-        <v>-37.3</v>
+        <v>-40.12</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43942</v>
+        <v>43972</v>
       </c>
       <c r="B235">
-        <v>63.03</v>
+        <v>59.3</v>
       </c>
       <c r="C235">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D235">
-        <v>-36.3</v>
+        <v>-40.66</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43943</v>
+        <v>43973</v>
       </c>
       <c r="B236">
-        <v>62.84</v>
+        <v>59.99</v>
       </c>
       <c r="C236">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D236">
-        <v>-36.49</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43944</v>
+        <v>43974</v>
       </c>
       <c r="B237">
-        <v>62.5</v>
+        <v>61.25</v>
       </c>
       <c r="C237">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D237">
-        <v>-36.84</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43945</v>
+        <v>43975</v>
       </c>
       <c r="B238">
-        <v>62.88</v>
+        <v>57.84</v>
       </c>
       <c r="C238">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D238">
-        <v>-36.46</v>
+        <v>-42.12</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43946</v>
+        <v>43976</v>
       </c>
       <c r="B239">
-        <v>63.01</v>
+        <v>57.57</v>
       </c>
       <c r="C239">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D239">
-        <v>-36.32</v>
+        <v>-42.39</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43947</v>
+        <v>43977</v>
       </c>
       <c r="B240">
-        <v>62.89</v>
+        <v>55.24</v>
       </c>
       <c r="C240">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D240">
-        <v>-36.45</v>
+        <v>-44.72</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43948</v>
+        <v>43978</v>
       </c>
       <c r="B241">
-        <v>62.24</v>
+        <v>54.03</v>
       </c>
       <c r="C241">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D241">
-        <v>-37.1</v>
+        <v>-45.93</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43949</v>
+        <v>43979</v>
       </c>
       <c r="B242">
-        <v>60.33</v>
+        <v>54.66</v>
       </c>
       <c r="C242">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D242">
-        <v>-39.03</v>
+        <v>-45.31</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43950</v>
+        <v>43980</v>
       </c>
       <c r="B243">
-        <v>60.25</v>
+        <v>53.75</v>
       </c>
       <c r="C243">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D243">
-        <v>-39.11</v>
+        <v>-46.21</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43951</v>
+        <v>43981</v>
       </c>
       <c r="B244">
-        <v>60.76</v>
+        <v>54.85</v>
       </c>
       <c r="C244">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D244">
-        <v>-38.6</v>
+        <v>-45.11</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43952</v>
+        <v>43982</v>
       </c>
       <c r="B245">
-        <v>61.01</v>
+        <v>52.05</v>
       </c>
       <c r="C245">
         <v>99.93000000000001</v>
       </c>
       <c r="D245">
-        <v>-38.95</v>
+        <v>-47.91</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43953</v>
+        <v>43983</v>
       </c>
       <c r="B246">
-        <v>57.79</v>
+        <v>56.27</v>
       </c>
       <c r="C246">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D246">
-        <v>-42.17</v>
+        <v>-57.84</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43954</v>
+        <v>43984</v>
       </c>
       <c r="B247">
-        <v>57.7</v>
+        <v>58.61</v>
       </c>
       <c r="C247">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D247">
-        <v>-42.26</v>
+        <v>-56.09</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43955</v>
+        <v>43985</v>
       </c>
       <c r="B248">
-        <v>59.51</v>
+        <v>59.44</v>
       </c>
       <c r="C248">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D248">
-        <v>-40.45</v>
+        <v>-55.47</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43956</v>
+        <v>43986</v>
       </c>
       <c r="B249">
-        <v>58.09</v>
+        <v>63.27</v>
       </c>
       <c r="C249">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D249">
-        <v>-41.87</v>
+        <v>-52.59</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43957</v>
+        <v>43987</v>
       </c>
       <c r="B250">
-        <v>55.98</v>
+        <v>62.44</v>
       </c>
       <c r="C250">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D250">
-        <v>-43.98</v>
+        <v>-53.22</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43958</v>
+        <v>43988</v>
       </c>
       <c r="B251">
-        <v>56.29</v>
+        <v>64.95</v>
       </c>
       <c r="C251">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D251">
-        <v>-43.67</v>
+        <v>-51.34</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43959</v>
+        <v>43989</v>
       </c>
       <c r="B252">
-        <v>56.21</v>
+        <v>67.59</v>
       </c>
       <c r="C252">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D252">
-        <v>-43.75</v>
+        <v>-49.35</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43960</v>
+        <v>43990</v>
       </c>
       <c r="B253">
-        <v>58.1</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="C253">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D253">
-        <v>-41.86</v>
+        <v>-46.23</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43961</v>
+        <v>43991</v>
       </c>
       <c r="B254">
-        <v>57.23</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C254">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D254">
-        <v>-42.73</v>
+        <v>-48.75</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43962</v>
+        <v>43992</v>
       </c>
       <c r="B255">
-        <v>58.09</v>
+        <v>120</v>
       </c>
       <c r="C255">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D255">
-        <v>-41.87</v>
+        <v>-10.09</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43963</v>
+        <v>43993</v>
       </c>
       <c r="B256">
-        <v>61.28</v>
+        <v>142.68</v>
       </c>
       <c r="C256">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D256">
-        <v>-38.68</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43964</v>
+        <v>43994</v>
       </c>
       <c r="B257">
-        <v>57</v>
+        <v>133.88</v>
       </c>
       <c r="C257">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D257">
-        <v>-42.96</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43965</v>
+        <v>43995</v>
       </c>
       <c r="B258">
-        <v>54.61</v>
+        <v>135.25</v>
       </c>
       <c r="C258">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D258">
-        <v>-45.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43966</v>
+        <v>43996</v>
       </c>
       <c r="B259">
-        <v>55.86</v>
+        <v>128.03</v>
       </c>
       <c r="C259">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D259">
-        <v>-44.1</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43967</v>
+        <v>43997</v>
       </c>
       <c r="B260">
-        <v>56.19</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C260">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D260">
-        <v>-43.77</v>
+        <v>-32.27</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43968</v>
+        <v>43998</v>
       </c>
       <c r="B261">
-        <v>57.18</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="C261">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D261">
-        <v>-42.78</v>
+        <v>-37.86</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43969</v>
+        <v>43999</v>
       </c>
       <c r="B262">
-        <v>58.31</v>
+        <v>84.55</v>
       </c>
       <c r="C262">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D262">
-        <v>-41.65</v>
+        <v>-36.65</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>43970</v>
+        <v>44000</v>
       </c>
       <c r="B263">
-        <v>58.54</v>
+        <v>81.66</v>
       </c>
       <c r="C263">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D263">
-        <v>-41.42</v>
+        <v>-38.82</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>43971</v>
+        <v>44001</v>
       </c>
       <c r="B264">
-        <v>59.84</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C264">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D264">
-        <v>-40.12</v>
+        <v>-38.34</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>43972</v>
+        <v>44002</v>
       </c>
       <c r="B265">
-        <v>59.3</v>
+        <v>73.42</v>
       </c>
       <c r="C265">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D265">
-        <v>-40.66</v>
+        <v>-44.99</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>43973</v>
+        <v>44003</v>
       </c>
       <c r="B266">
-        <v>59.99</v>
+        <v>68.16</v>
       </c>
       <c r="C266">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D266">
-        <v>-39.97</v>
+        <v>-48.93</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>43974</v>
+        <v>44004</v>
       </c>
       <c r="B267">
-        <v>61.25</v>
+        <v>66.17</v>
       </c>
       <c r="C267">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D267">
-        <v>-38.71</v>
+        <v>-50.42</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>43975</v>
+        <v>44005</v>
       </c>
       <c r="B268">
-        <v>57.84</v>
+        <v>63.94</v>
       </c>
       <c r="C268">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D268">
-        <v>-42.12</v>
+        <v>-52.09</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>43976</v>
+        <v>44006</v>
       </c>
       <c r="B269">
-        <v>57.57</v>
+        <v>61.98</v>
       </c>
       <c r="C269">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D269">
-        <v>-42.39</v>
+        <v>-53.56</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>43977</v>
+        <v>44007</v>
       </c>
       <c r="B270">
-        <v>55.24</v>
+        <v>61.42</v>
       </c>
       <c r="C270">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D270">
-        <v>-44.72</v>
+        <v>-53.98</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>43978</v>
+        <v>44008</v>
       </c>
       <c r="B271">
-        <v>54.03</v>
+        <v>67.02</v>
       </c>
       <c r="C271">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D271">
-        <v>-45.93</v>
+        <v>-49.78</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>43979</v>
+        <v>44009</v>
       </c>
       <c r="B272">
-        <v>54.66</v>
+        <v>90.2</v>
       </c>
       <c r="C272">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D272">
-        <v>-45.31</v>
+        <v>-32.42</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>43980</v>
+        <v>44010</v>
       </c>
       <c r="B273">
-        <v>53.75</v>
+        <v>99.55</v>
       </c>
       <c r="C273">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D273">
-        <v>-46.21</v>
+        <v>-25.41</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>43981</v>
+        <v>44011</v>
       </c>
       <c r="B274">
-        <v>54.85</v>
+        <v>109.58</v>
       </c>
       <c r="C274">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D274">
-        <v>-45.11</v>
+        <v>-17.89</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B275">
-        <v>52.05</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="C275">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D275">
-        <v>-47.91</v>
+        <v>-25.63</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B276">
-        <v>56.27</v>
+        <v>112.51</v>
       </c>
       <c r="C276">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D276">
-        <v>-57.84</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B277">
-        <v>58.61</v>
+        <v>112.53</v>
       </c>
       <c r="C277">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D277">
-        <v>-56.09</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B278">
-        <v>59.44</v>
+        <v>107.51</v>
       </c>
       <c r="C278">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D278">
-        <v>-55.47</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B279">
-        <v>63.27</v>
+        <v>86.86</v>
       </c>
       <c r="C279">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D279">
-        <v>-52.59</v>
+        <v>-16.59</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B280">
-        <v>62.44</v>
+        <v>78.66</v>
       </c>
       <c r="C280">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D280">
-        <v>-53.22</v>
+        <v>-24.47</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B281">
-        <v>64.95</v>
+        <v>74.89</v>
       </c>
       <c r="C281">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D281">
-        <v>-51.34</v>
+        <v>-28.1</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B282">
-        <v>67.59</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C282">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D282">
-        <v>-49.35</v>
+        <v>-28.61</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B283">
-        <v>71.76000000000001</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="C283">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D283">
-        <v>-46.23</v>
+        <v>-28.75</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B284">
-        <v>68.40000000000001</v>
+        <v>73.75</v>
       </c>
       <c r="C284">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D284">
-        <v>-48.75</v>
+        <v>-29.19</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B285">
-        <v>120</v>
+        <v>69.58</v>
       </c>
       <c r="C285">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D285">
-        <v>-10.09</v>
+        <v>-33.19</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B286">
-        <v>142.68</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="C286">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D286">
-        <v>6.9</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B287">
-        <v>133.88</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="C287">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D287">
-        <v>0.31</v>
+        <v>-36.19</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B288">
-        <v>135.25</v>
+        <v>65.17</v>
       </c>
       <c r="C288">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D288">
-        <v>1.34</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B289">
-        <v>128.03</v>
+        <v>64.09</v>
       </c>
       <c r="C289">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D289">
-        <v>-4.07</v>
+        <v>-38.46</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B290">
-        <v>90.40000000000001</v>
+        <v>61.68</v>
       </c>
       <c r="C290">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D290">
-        <v>-32.27</v>
+        <v>-40.78</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B291">
-        <v>82.93000000000001</v>
+        <v>61.67</v>
       </c>
       <c r="C291">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D291">
-        <v>-37.86</v>
+        <v>-40.79</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B292">
-        <v>84.55</v>
+        <v>61.74</v>
       </c>
       <c r="C292">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D292">
-        <v>-36.65</v>
+        <v>-40.72</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B293">
-        <v>81.66</v>
+        <v>62.24</v>
       </c>
       <c r="C293">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D293">
-        <v>-38.82</v>
+        <v>-40.24</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B294">
-        <v>82.29000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="C294">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D294">
-        <v>-38.34</v>
+        <v>-38.26</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B295">
-        <v>73.42</v>
+        <v>62.84</v>
       </c>
       <c r="C295">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D295">
-        <v>-44.99</v>
+        <v>-39.66</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B296">
-        <v>68.16</v>
+        <v>63.38</v>
       </c>
       <c r="C296">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D296">
-        <v>-48.93</v>
+        <v>-39.15</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B297">
-        <v>66.17</v>
+        <v>60.21</v>
       </c>
       <c r="C297">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D297">
-        <v>-50.42</v>
+        <v>-42.19</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B298">
-        <v>63.94</v>
+        <v>59.35</v>
       </c>
       <c r="C298">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D298">
-        <v>-52.09</v>
+        <v>-43.01</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B299">
-        <v>61.98</v>
+        <v>57.93</v>
       </c>
       <c r="C299">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D299">
-        <v>-53.56</v>
+        <v>-44.38</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B300">
-        <v>61.42</v>
+        <v>58.49</v>
       </c>
       <c r="C300">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D300">
-        <v>-53.98</v>
+        <v>-43.84</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B301">
-        <v>67.02</v>
+        <v>59.67</v>
       </c>
       <c r="C301">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D301">
-        <v>-49.78</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B302">
-        <v>90.2</v>
+        <v>59.74</v>
       </c>
       <c r="C302">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D302">
-        <v>-32.42</v>
+        <v>-42.64</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B303">
-        <v>99.55</v>
+        <v>57.93</v>
       </c>
       <c r="C303">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D303">
-        <v>-25.41</v>
+        <v>-44.38</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B304">
-        <v>109.58</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="C304">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D304">
-        <v>-17.89</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B305">
-        <v>99.26000000000001</v>
+        <v>90.17</v>
       </c>
       <c r="C305">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D305">
-        <v>-25.63</v>
+        <v>-13.42</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B306">
-        <v>112.51</v>
+        <v>100.6</v>
       </c>
       <c r="C306">
         <v>104.15</v>
       </c>
       <c r="D306">
-        <v>8.029999999999999</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B307">
-        <v>112.53</v>
+        <v>87.05</v>
       </c>
       <c r="C307">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D307">
-        <v>8.050000000000001</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B308">
-        <v>107.51</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="C308">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D308">
-        <v>3.23</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B309">
-        <v>86.86</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C309">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D309">
-        <v>-16.59</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44017</v>
+        <v>44047</v>
       </c>
       <c r="B310">
-        <v>78.66</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C310">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D310">
-        <v>-24.47</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44018</v>
+        <v>44048</v>
       </c>
       <c r="B311">
-        <v>74.89</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C311">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D311">
-        <v>-28.1</v>
+        <v>-23.75</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44019</v>
+        <v>44049</v>
       </c>
       <c r="B312">
-        <v>74.34999999999999</v>
+        <v>62.14</v>
       </c>
       <c r="C312">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D312">
-        <v>-28.61</v>
+        <v>-28.1</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44020</v>
+        <v>44050</v>
       </c>
       <c r="B313">
-        <v>74.20999999999999</v>
+        <v>60.75</v>
       </c>
       <c r="C313">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D313">
-        <v>-28.75</v>
+        <v>-29.71</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44021</v>
+        <v>44051</v>
       </c>
       <c r="B314">
-        <v>73.75</v>
+        <v>55.95</v>
       </c>
       <c r="C314">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D314">
-        <v>-29.19</v>
+        <v>-35.26</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44022</v>
+        <v>44052</v>
       </c>
       <c r="B315">
-        <v>69.58</v>
+        <v>57.49</v>
       </c>
       <c r="C315">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D315">
-        <v>-33.19</v>
+        <v>-33.48</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44023</v>
+        <v>44053</v>
       </c>
       <c r="B316">
-        <v>67.18000000000001</v>
+        <v>58.94</v>
       </c>
       <c r="C316">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D316">
-        <v>-35.5</v>
+        <v>-31.8</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44024</v>
+        <v>44054</v>
       </c>
       <c r="B317">
-        <v>66.45999999999999</v>
+        <v>58.05</v>
       </c>
       <c r="C317">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D317">
-        <v>-36.19</v>
+        <v>-32.83</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44025</v>
+        <v>44055</v>
       </c>
       <c r="B318">
-        <v>65.17</v>
+        <v>60.51</v>
       </c>
       <c r="C318">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D318">
-        <v>-37.43</v>
+        <v>-29.98</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44026</v>
+        <v>44056</v>
       </c>
       <c r="B319">
-        <v>64.09</v>
+        <v>58.93</v>
       </c>
       <c r="C319">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D319">
-        <v>-38.46</v>
+        <v>-31.82</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44027</v>
+        <v>44057</v>
       </c>
       <c r="B320">
-        <v>61.68</v>
+        <v>61.29</v>
       </c>
       <c r="C320">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D320">
-        <v>-40.78</v>
+        <v>-29.08</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44028</v>
+        <v>44058</v>
       </c>
       <c r="B321">
-        <v>61.67</v>
+        <v>87.75</v>
       </c>
       <c r="C321">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D321">
-        <v>-40.79</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44029</v>
+        <v>44059</v>
       </c>
       <c r="B322">
-        <v>61.74</v>
+        <v>136.35</v>
       </c>
       <c r="C322">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D322">
-        <v>-40.72</v>
+        <v>57.77</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44030</v>
+        <v>44060</v>
       </c>
       <c r="B323">
-        <v>62.24</v>
+        <v>136.22</v>
       </c>
       <c r="C323">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D323">
-        <v>-40.24</v>
+        <v>57.62</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44031</v>
+        <v>44061</v>
       </c>
       <c r="B324">
-        <v>64.3</v>
+        <v>146.75</v>
       </c>
       <c r="C324">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D324">
-        <v>-38.26</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44032</v>
+        <v>44062</v>
       </c>
       <c r="B325">
-        <v>62.84</v>
+        <v>171.51</v>
       </c>
       <c r="C325">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D325">
-        <v>-39.66</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44033</v>
+        <v>44063</v>
       </c>
       <c r="B326">
-        <v>63.38</v>
+        <v>189.24</v>
       </c>
       <c r="C326">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D326">
-        <v>-39.15</v>
+        <v>118.97</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44034</v>
+        <v>44064</v>
       </c>
       <c r="B327">
-        <v>60.21</v>
+        <v>187.72</v>
       </c>
       <c r="C327">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D327">
-        <v>-42.19</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44035</v>
+        <v>44065</v>
       </c>
       <c r="B328">
-        <v>59.35</v>
+        <v>179.81</v>
       </c>
       <c r="C328">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D328">
-        <v>-43.01</v>
+        <v>108.06</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44036</v>
+        <v>44066</v>
       </c>
       <c r="B329">
-        <v>57.93</v>
+        <v>177.59</v>
       </c>
       <c r="C329">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D329">
-        <v>-44.38</v>
+        <v>105.49</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44037</v>
+        <v>44067</v>
       </c>
       <c r="B330">
-        <v>58.49</v>
+        <v>175.65</v>
       </c>
       <c r="C330">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D330">
-        <v>-43.84</v>
+        <v>103.24</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44038</v>
+        <v>44068</v>
       </c>
       <c r="B331">
-        <v>59.67</v>
+        <v>153.39</v>
       </c>
       <c r="C331">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D331">
-        <v>-42.71</v>
+        <v>77.48</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44039</v>
+        <v>44069</v>
       </c>
       <c r="B332">
-        <v>59.74</v>
+        <v>108.41</v>
       </c>
       <c r="C332">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D332">
-        <v>-42.64</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B333">
-        <v>57.93</v>
+        <v>95.28</v>
       </c>
       <c r="C333">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D333">
-        <v>-44.38</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B334">
-        <v>75.65000000000001</v>
+        <v>88.06</v>
       </c>
       <c r="C334">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D334">
-        <v>-27.37</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B335">
-        <v>90.17</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="C335">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D335">
-        <v>-13.42</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B336">
-        <v>100.6</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="C336">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D336">
-        <v>-3.4</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B337">
-        <v>87.05</v>
+        <v>79.75</v>
       </c>
       <c r="C337">
         <v>86.42</v>
       </c>
       <c r="D337">
-        <v>0.73</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B338">
-        <v>89.98999999999999</v>
+        <v>77.47</v>
       </c>
       <c r="C338">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D338">
-        <v>4.13</v>
+        <v>-18.01</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B339">
-        <v>87.93000000000001</v>
+        <v>80.83</v>
       </c>
       <c r="C339">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D339">
-        <v>1.74</v>
+        <v>-14.45</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44047</v>
+        <v>44077</v>
       </c>
       <c r="B340">
-        <v>74.34999999999999</v>
+        <v>89.98</v>
       </c>
       <c r="C340">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D340">
-        <v>-13.97</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44048</v>
+        <v>44078</v>
       </c>
       <c r="B341">
-        <v>65.90000000000001</v>
+        <v>105.27</v>
       </c>
       <c r="C341">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D341">
-        <v>-23.75</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44049</v>
+        <v>44079</v>
       </c>
       <c r="B342">
-        <v>62.14</v>
+        <v>108.68</v>
       </c>
       <c r="C342">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D342">
-        <v>-28.1</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44050</v>
+        <v>44080</v>
       </c>
       <c r="B343">
-        <v>60.75</v>
+        <v>89.03</v>
       </c>
       <c r="C343">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D343">
-        <v>-29.71</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44051</v>
+        <v>44081</v>
       </c>
       <c r="B344">
-        <v>55.95</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="C344">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D344">
-        <v>-35.26</v>
+        <v>-13.06</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44052</v>
+        <v>44082</v>
       </c>
       <c r="B345">
-        <v>57.49</v>
+        <v>78.23999999999999</v>
       </c>
       <c r="C345">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D345">
-        <v>-33.48</v>
+        <v>-17.2</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44053</v>
+        <v>44083</v>
       </c>
       <c r="B346">
-        <v>58.94</v>
+        <v>77.16</v>
       </c>
       <c r="C346">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D346">
-        <v>-31.8</v>
+        <v>-18.34</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44054</v>
+        <v>44084</v>
       </c>
       <c r="B347">
-        <v>58.05</v>
+        <v>72.83</v>
       </c>
       <c r="C347">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D347">
-        <v>-32.83</v>
+        <v>-22.92</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44055</v>
+        <v>44085</v>
       </c>
       <c r="B348">
-        <v>60.51</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="C348">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D348">
-        <v>-29.98</v>
+        <v>-25.17</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44056</v>
+        <v>44086</v>
       </c>
       <c r="B349">
-        <v>58.93</v>
+        <v>68.56</v>
       </c>
       <c r="C349">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D349">
-        <v>-31.82</v>
+        <v>-27.44</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44057</v>
+        <v>44087</v>
       </c>
       <c r="B350">
-        <v>61.29</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="C350">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D350">
-        <v>-29.08</v>
+        <v>-29.05</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44058</v>
+        <v>44088</v>
       </c>
       <c r="B351">
-        <v>87.75</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="C351">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D351">
-        <v>1.54</v>
+        <v>-27.55</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44059</v>
+        <v>44089</v>
       </c>
       <c r="B352">
-        <v>136.35</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="C352">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D352">
-        <v>57.77</v>
+        <v>-29.47</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44060</v>
+        <v>44090</v>
       </c>
       <c r="B353">
-        <v>136.22</v>
+        <v>62.72</v>
       </c>
       <c r="C353">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D353">
-        <v>57.62</v>
+        <v>-33.62</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44061</v>
+        <v>44091</v>
       </c>
       <c r="B354">
-        <v>146.75</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="C354">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D354">
-        <v>69.8</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44062</v>
+        <v>44092</v>
       </c>
       <c r="B355">
-        <v>171.51</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="C355">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D355">
-        <v>98.45</v>
+        <v>-31.52</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44063</v>
+        <v>44093</v>
       </c>
       <c r="B356">
-        <v>189.24</v>
+        <v>64.34</v>
       </c>
       <c r="C356">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D356">
-        <v>118.97</v>
+        <v>-31.9</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44064</v>
+        <v>44094</v>
       </c>
       <c r="B357">
-        <v>187.72</v>
+        <v>63.18</v>
       </c>
       <c r="C357">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D357">
-        <v>117.21</v>
+        <v>-33.14</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44065</v>
+        <v>44095</v>
       </c>
       <c r="B358">
-        <v>179.81</v>
+        <v>61.76</v>
       </c>
       <c r="C358">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D358">
-        <v>108.06</v>
+        <v>-34.64</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44066</v>
+        <v>44096</v>
       </c>
       <c r="B359">
-        <v>177.59</v>
+        <v>61.42</v>
       </c>
       <c r="C359">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D359">
-        <v>105.49</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44067</v>
+        <v>44097</v>
       </c>
       <c r="B360">
-        <v>175.65</v>
+        <v>65.12</v>
       </c>
       <c r="C360">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D360">
-        <v>103.24</v>
+        <v>-31.08</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44068</v>
+        <v>44098</v>
       </c>
       <c r="B361">
-        <v>153.39</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C361">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D361">
-        <v>77.48</v>
+        <v>-30.04</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44069</v>
+        <v>44099</v>
       </c>
       <c r="B362">
-        <v>108.41</v>
+        <v>63.39</v>
       </c>
       <c r="C362">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D362">
-        <v>25.44</v>
+        <v>-32.92</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B363">
-        <v>95.28</v>
+        <v>64.53</v>
       </c>
       <c r="C363">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D363">
-        <v>10.25</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B364">
-        <v>88.06</v>
+        <v>62.86</v>
       </c>
       <c r="C364">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D364">
-        <v>1.9</v>
+        <v>-33.47</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B365">
-        <v>84.15000000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C365">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D365">
-        <v>-2.64</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B366">
-        <v>80.31999999999999</v>
+        <v>108.79</v>
       </c>
       <c r="C366">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D366">
-        <v>-7.06</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B367">
-        <v>79.75</v>
+        <v>115.88</v>
       </c>
       <c r="C367">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D367">
-        <v>-7.72</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B368">
-        <v>77.47</v>
-      </c>
-      <c r="C368">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D368">
-        <v>-18.01</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44076</v>
-      </c>
-      <c r="B369">
-        <v>80.83</v>
-      </c>
-      <c r="C369">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D369">
-        <v>-14.45</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44077</v>
-      </c>
-      <c r="B370">
-        <v>89.98</v>
-      </c>
-      <c r="C370">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D370">
-        <v>-4.77</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44078</v>
-      </c>
-      <c r="B371">
-        <v>105.27</v>
-      </c>
-      <c r="C371">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D371">
-        <v>11.41</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44079</v>
-      </c>
-      <c r="B372">
-        <v>108.68</v>
-      </c>
-      <c r="C372">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D372">
-        <v>15.02</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44080</v>
-      </c>
-      <c r="B373">
-        <v>89.03</v>
-      </c>
-      <c r="C373">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D373">
-        <v>-5.77</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44081</v>
-      </c>
-      <c r="B374">
-        <v>82.15000000000001</v>
-      </c>
-      <c r="C374">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D374">
-        <v>-13.06</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44082</v>
-      </c>
-      <c r="B375">
-        <v>78.23999999999999</v>
-      </c>
-      <c r="C375">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D375">
-        <v>-17.2</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44083</v>
-      </c>
-      <c r="B376">
-        <v>77.16</v>
-      </c>
-      <c r="C376">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D376">
-        <v>-18.34</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44084</v>
-      </c>
-      <c r="B377">
-        <v>72.83</v>
-      </c>
-      <c r="C377">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D377">
-        <v>-22.92</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44085</v>
-      </c>
-      <c r="B378">
-        <v>70.70999999999999</v>
-      </c>
-      <c r="C378">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D378">
-        <v>-25.17</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44086</v>
-      </c>
-      <c r="B379">
-        <v>68.56</v>
-      </c>
-      <c r="C379">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D379">
-        <v>-27.44</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44087</v>
-      </c>
-      <c r="B380">
-        <v>67.04000000000001</v>
-      </c>
-      <c r="C380">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D380">
-        <v>-29.05</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44088</v>
-      </c>
-      <c r="B381">
-        <v>68.45999999999999</v>
-      </c>
-      <c r="C381">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D381">
-        <v>-27.55</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44089</v>
-      </c>
-      <c r="B382">
-        <v>66.65000000000001</v>
-      </c>
-      <c r="C382">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D382">
-        <v>-29.47</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44090</v>
-      </c>
-      <c r="B383">
-        <v>62.72</v>
-      </c>
-      <c r="C383">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D383">
-        <v>-33.62</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44091</v>
-      </c>
-      <c r="B384">
-        <v>64.26000000000001</v>
-      </c>
-      <c r="C384">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D384">
-        <v>-31.99</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44092</v>
-      </c>
-      <c r="B385">
-        <v>64.70999999999999</v>
-      </c>
-      <c r="C385">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D385">
-        <v>-31.52</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44093</v>
-      </c>
-      <c r="B386">
-        <v>64.34</v>
-      </c>
-      <c r="C386">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D386">
-        <v>-31.9</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44094</v>
-      </c>
-      <c r="B387">
-        <v>63.18</v>
-      </c>
-      <c r="C387">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D387">
-        <v>-33.14</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44095</v>
-      </c>
-      <c r="B388">
-        <v>61.76</v>
-      </c>
-      <c r="C388">
-        <v>94.48999999999999</v>
-      </c>
-      <c r="D388">
-        <v>-34.64</v>
+        <v>22.64</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -583,6 +583,20 @@
         <v>-19.6</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B14">
+        <v>100.11</v>
+      </c>
+      <c r="C14">
+        <v>118.4</v>
+      </c>
+      <c r="D14">
+        <v>-15.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -590,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5739,6 +5753,146 @@
         <v>22.64</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B368">
+        <v>113.98</v>
+      </c>
+      <c r="C368">
+        <v>118.4</v>
+      </c>
+      <c r="D368">
+        <v>-3.73</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B369">
+        <v>94.22</v>
+      </c>
+      <c r="C369">
+        <v>118.4</v>
+      </c>
+      <c r="D369">
+        <v>-20.42</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B370">
+        <v>90.77</v>
+      </c>
+      <c r="C370">
+        <v>118.4</v>
+      </c>
+      <c r="D370">
+        <v>-23.33</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B371">
+        <v>83.73999999999999</v>
+      </c>
+      <c r="C371">
+        <v>118.4</v>
+      </c>
+      <c r="D371">
+        <v>-29.27</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B372">
+        <v>83.88</v>
+      </c>
+      <c r="C372">
+        <v>118.4</v>
+      </c>
+      <c r="D372">
+        <v>-29.16</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B373">
+        <v>86.06999999999999</v>
+      </c>
+      <c r="C373">
+        <v>118.4</v>
+      </c>
+      <c r="D373">
+        <v>-27.3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B374">
+        <v>98.58</v>
+      </c>
+      <c r="C374">
+        <v>118.4</v>
+      </c>
+      <c r="D374">
+        <v>-16.74</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B375">
+        <v>101.55</v>
+      </c>
+      <c r="C375">
+        <v>118.4</v>
+      </c>
+      <c r="D375">
+        <v>-14.23</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B376">
+        <v>119.76</v>
+      </c>
+      <c r="C376">
+        <v>118.4</v>
+      </c>
+      <c r="D376">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B377">
+        <v>128.5</v>
+      </c>
+      <c r="C377">
+        <v>118.4</v>
+      </c>
+      <c r="D377">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -585,16 +585,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44114</v>
+        <v>44124</v>
       </c>
       <c r="B14">
-        <v>100.11</v>
+        <v>94.8</v>
       </c>
       <c r="C14">
         <v>118.4</v>
       </c>
       <c r="D14">
-        <v>-15.45</v>
+        <v>-19.93</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D377"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5893,6 +5893,146 @@
         <v>8.529999999999999</v>
       </c>
     </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44115</v>
+      </c>
+      <c r="B378">
+        <v>125.06</v>
+      </c>
+      <c r="C378">
+        <v>118.4</v>
+      </c>
+      <c r="D378">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B379">
+        <v>122.17</v>
+      </c>
+      <c r="C379">
+        <v>118.4</v>
+      </c>
+      <c r="D379">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B380">
+        <v>102.91</v>
+      </c>
+      <c r="C380">
+        <v>118.4</v>
+      </c>
+      <c r="D380">
+        <v>-13.09</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B381">
+        <v>88.7</v>
+      </c>
+      <c r="C381">
+        <v>118.4</v>
+      </c>
+      <c r="D381">
+        <v>-25.09</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B382">
+        <v>81.51000000000001</v>
+      </c>
+      <c r="C382">
+        <v>118.4</v>
+      </c>
+      <c r="D382">
+        <v>-31.16</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B383">
+        <v>76.84</v>
+      </c>
+      <c r="C383">
+        <v>118.4</v>
+      </c>
+      <c r="D383">
+        <v>-35.1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B384">
+        <v>75.27</v>
+      </c>
+      <c r="C384">
+        <v>118.4</v>
+      </c>
+      <c r="D384">
+        <v>-36.43</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B385">
+        <v>74.72</v>
+      </c>
+      <c r="C385">
+        <v>118.4</v>
+      </c>
+      <c r="D385">
+        <v>-36.89</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B386">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="C386">
+        <v>118.4</v>
+      </c>
+      <c r="D386">
+        <v>-36.83</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B387">
+        <v>73.02</v>
+      </c>
+      <c r="C387">
+        <v>118.4</v>
+      </c>
+      <c r="D387">
+        <v>-38.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -585,16 +585,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44124</v>
+        <v>44129</v>
       </c>
       <c r="B14">
-        <v>94.8</v>
+        <v>91.31</v>
       </c>
       <c r="C14">
         <v>118.4</v>
       </c>
       <c r="D14">
-        <v>-19.93</v>
+        <v>-22.88</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -6033,6 +6033,76 @@
         <v>-38.33</v>
       </c>
     </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B388">
+        <v>71.81999999999999</v>
+      </c>
+      <c r="C388">
+        <v>118.4</v>
+      </c>
+      <c r="D388">
+        <v>-39.34</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B389">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="C389">
+        <v>118.4</v>
+      </c>
+      <c r="D389">
+        <v>-38.26</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B390">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="C390">
+        <v>118.4</v>
+      </c>
+      <c r="D390">
+        <v>-38.43</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
+        <v>44128</v>
+      </c>
+      <c r="B391">
+        <v>76.45</v>
+      </c>
+      <c r="C391">
+        <v>118.4</v>
+      </c>
+      <c r="D391">
+        <v>-35.43</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B392">
+        <v>92.34</v>
+      </c>
+      <c r="C392">
+        <v>118.4</v>
+      </c>
+      <c r="D392">
+        <v>-22.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -417,184 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B2">
-        <v>116.23</v>
+        <v>122.39</v>
       </c>
       <c r="C2">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D2">
-        <v>-1.83</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B3">
-        <v>122.39</v>
+        <v>107.31</v>
       </c>
       <c r="C3">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D3">
-        <v>10.66</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B4">
-        <v>107.31</v>
+        <v>93.59</v>
       </c>
       <c r="C4">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D4">
-        <v>-6</v>
+        <v>-29.18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B5">
-        <v>93.59</v>
+        <v>116</v>
       </c>
       <c r="C5">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D5">
-        <v>-29.18</v>
+        <v>-13.2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B6">
-        <v>116</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C6">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D6">
-        <v>-13.2</v>
+        <v>-18.82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B7">
-        <v>92.34999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C7">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D7">
-        <v>-18.82</v>
+        <v>-32.79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B8">
-        <v>66.51000000000001</v>
+        <v>57.27</v>
       </c>
       <c r="C8">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D8">
-        <v>-32.79</v>
+        <v>-42.69</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B9">
-        <v>57.27</v>
+        <v>83.84</v>
       </c>
       <c r="C9">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D9">
-        <v>-42.69</v>
+        <v>-37.18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B10">
-        <v>83.84</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C10">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D10">
-        <v>-37.18</v>
+        <v>-30.45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B11">
-        <v>72.43000000000001</v>
+        <v>103.78</v>
       </c>
       <c r="C11">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D11">
-        <v>-30.45</v>
+        <v>20.08</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B12">
-        <v>103.78</v>
+        <v>75.97</v>
       </c>
       <c r="C12">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D12">
-        <v>20.08</v>
+        <v>-19.6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B13">
-        <v>75.97</v>
+        <v>88.95</v>
       </c>
       <c r="C13">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D13">
-        <v>-19.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B14">
-        <v>91.31</v>
-      </c>
-      <c r="C14">
-        <v>118.4</v>
-      </c>
-      <c r="D14">
-        <v>-22.88</v>
+        <v>-24.87</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -631,3919 +617,3919 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B2">
-        <v>91.67</v>
+        <v>99.62</v>
       </c>
       <c r="C2">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D2">
-        <v>-22.58</v>
+        <v>-9.92</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43740</v>
+        <v>43771</v>
       </c>
       <c r="B3">
-        <v>89.51000000000001</v>
+        <v>95.17</v>
       </c>
       <c r="C3">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D3">
-        <v>-24.4</v>
+        <v>-13.95</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43741</v>
+        <v>43772</v>
       </c>
       <c r="B4">
-        <v>86.25</v>
+        <v>95.33</v>
       </c>
       <c r="C4">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D4">
-        <v>-27.15</v>
+        <v>-13.81</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43742</v>
+        <v>43773</v>
       </c>
       <c r="B5">
-        <v>83.41</v>
+        <v>101.25</v>
       </c>
       <c r="C5">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D5">
-        <v>-29.56</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43743</v>
+        <v>43774</v>
       </c>
       <c r="B6">
-        <v>81.75</v>
+        <v>99.97</v>
       </c>
       <c r="C6">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D6">
-        <v>-30.95</v>
+        <v>-9.609999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43744</v>
+        <v>43775</v>
       </c>
       <c r="B7">
-        <v>95.89</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="C7">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D7">
-        <v>-19.02</v>
+        <v>-9.710000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43745</v>
+        <v>43776</v>
       </c>
       <c r="B8">
-        <v>127.65</v>
+        <v>102.92</v>
       </c>
       <c r="C8">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D8">
-        <v>7.81</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43746</v>
+        <v>43777</v>
       </c>
       <c r="B9">
-        <v>125.98</v>
+        <v>104.06</v>
       </c>
       <c r="C9">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D9">
-        <v>6.4</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43747</v>
+        <v>43778</v>
       </c>
       <c r="B10">
-        <v>122.92</v>
+        <v>101.43</v>
       </c>
       <c r="C10">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D10">
-        <v>3.82</v>
+        <v>-8.289999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43748</v>
+        <v>43779</v>
       </c>
       <c r="B11">
-        <v>115.44</v>
+        <v>122.75</v>
       </c>
       <c r="C11">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D11">
-        <v>-2.5</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43749</v>
+        <v>43780</v>
       </c>
       <c r="B12">
-        <v>97.95</v>
+        <v>130.19</v>
       </c>
       <c r="C12">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D12">
-        <v>-17.27</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43750</v>
+        <v>43781</v>
       </c>
       <c r="B13">
-        <v>90.53</v>
+        <v>135.04</v>
       </c>
       <c r="C13">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D13">
-        <v>-23.54</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43751</v>
+        <v>43782</v>
       </c>
       <c r="B14">
-        <v>86.73</v>
+        <v>149.71</v>
       </c>
       <c r="C14">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D14">
-        <v>-26.75</v>
+        <v>35.37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43752</v>
+        <v>43783</v>
       </c>
       <c r="B15">
-        <v>85.47</v>
+        <v>172.26</v>
       </c>
       <c r="C15">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D15">
-        <v>-27.81</v>
+        <v>55.76</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43753</v>
+        <v>43784</v>
       </c>
       <c r="B16">
-        <v>120.55</v>
+        <v>179.38</v>
       </c>
       <c r="C16">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D16">
-        <v>1.82</v>
+        <v>62.19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43754</v>
+        <v>43785</v>
       </c>
       <c r="B17">
-        <v>114.18</v>
+        <v>173.57</v>
       </c>
       <c r="C17">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D17">
-        <v>-3.57</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43755</v>
+        <v>43786</v>
       </c>
       <c r="B18">
-        <v>107.01</v>
+        <v>159.01</v>
       </c>
       <c r="C18">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D18">
-        <v>-9.619999999999999</v>
+        <v>43.78</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43756</v>
+        <v>43787</v>
       </c>
       <c r="B19">
-        <v>98.92</v>
+        <v>144.47</v>
       </c>
       <c r="C19">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D19">
-        <v>-16.45</v>
+        <v>30.63</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43757</v>
+        <v>43788</v>
       </c>
       <c r="B20">
-        <v>113.08</v>
+        <v>125.69</v>
       </c>
       <c r="C20">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D20">
-        <v>-4.49</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43758</v>
+        <v>43789</v>
       </c>
       <c r="B21">
-        <v>122.45</v>
+        <v>112.94</v>
       </c>
       <c r="C21">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D21">
-        <v>3.42</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43759</v>
+        <v>43790</v>
       </c>
       <c r="B22">
-        <v>207.07</v>
+        <v>106.53</v>
       </c>
       <c r="C22">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D22">
-        <v>74.89</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43760</v>
+        <v>43791</v>
       </c>
       <c r="B23">
-        <v>201.94</v>
+        <v>102.96</v>
       </c>
       <c r="C23">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D23">
-        <v>70.56</v>
+        <v>-6.91</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43761</v>
+        <v>43792</v>
       </c>
       <c r="B24">
-        <v>170.23</v>
+        <v>101.7</v>
       </c>
       <c r="C24">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D24">
-        <v>43.78</v>
+        <v>-8.050000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43762</v>
+        <v>43793</v>
       </c>
       <c r="B25">
-        <v>136.73</v>
+        <v>103.09</v>
       </c>
       <c r="C25">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D25">
-        <v>15.48</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43763</v>
+        <v>43794</v>
       </c>
       <c r="B26">
-        <v>112.85</v>
+        <v>101.76</v>
       </c>
       <c r="C26">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D26">
-        <v>-4.68</v>
+        <v>-7.99</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43764</v>
+        <v>43795</v>
       </c>
       <c r="B27">
-        <v>117.48</v>
+        <v>100.58</v>
       </c>
       <c r="C27">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D27">
-        <v>-0.78</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43765</v>
+        <v>43796</v>
       </c>
       <c r="B28">
-        <v>103.66</v>
+        <v>128.99</v>
       </c>
       <c r="C28">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D28">
-        <v>-12.45</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43766</v>
+        <v>43797</v>
       </c>
       <c r="B29">
-        <v>142.94</v>
+        <v>141.04</v>
       </c>
       <c r="C29">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D29">
-        <v>20.73</v>
+        <v>27.53</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43767</v>
+        <v>43798</v>
       </c>
       <c r="B30">
-        <v>123.18</v>
+        <v>137.55</v>
       </c>
       <c r="C30">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D30">
-        <v>4.04</v>
+        <v>24.37</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43768</v>
+        <v>43799</v>
       </c>
       <c r="B31">
-        <v>118.36</v>
+        <v>142.78</v>
       </c>
       <c r="C31">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D31">
-        <v>-0.03</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43769</v>
+        <v>43800</v>
       </c>
       <c r="B32">
-        <v>111.33</v>
+        <v>146.27</v>
       </c>
       <c r="C32">
-        <v>118.4</v>
+        <v>114.17</v>
       </c>
       <c r="D32">
-        <v>-5.97</v>
+        <v>28.12</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43770</v>
+        <v>43801</v>
       </c>
       <c r="B33">
-        <v>99.62</v>
+        <v>138.06</v>
       </c>
       <c r="C33">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D33">
-        <v>-9.92</v>
+        <v>20.93</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43771</v>
+        <v>43802</v>
       </c>
       <c r="B34">
-        <v>95.17</v>
+        <v>118.82</v>
       </c>
       <c r="C34">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D34">
-        <v>-13.95</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43772</v>
+        <v>43803</v>
       </c>
       <c r="B35">
-        <v>95.33</v>
+        <v>113.58</v>
       </c>
       <c r="C35">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D35">
-        <v>-13.81</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43773</v>
+        <v>43804</v>
       </c>
       <c r="B36">
-        <v>101.25</v>
+        <v>114.81</v>
       </c>
       <c r="C36">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D36">
-        <v>-8.449999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43774</v>
+        <v>43805</v>
       </c>
       <c r="B37">
-        <v>99.97</v>
+        <v>120.68</v>
       </c>
       <c r="C37">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D37">
-        <v>-9.609999999999999</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43775</v>
+        <v>43806</v>
       </c>
       <c r="B38">
-        <v>99.84999999999999</v>
+        <v>114.73</v>
       </c>
       <c r="C38">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D38">
-        <v>-9.710000000000001</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43776</v>
+        <v>43807</v>
       </c>
       <c r="B39">
-        <v>102.92</v>
+        <v>109.88</v>
       </c>
       <c r="C39">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D39">
-        <v>-6.94</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43777</v>
+        <v>43808</v>
       </c>
       <c r="B40">
-        <v>104.06</v>
+        <v>105.36</v>
       </c>
       <c r="C40">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D40">
-        <v>-5.91</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43778</v>
+        <v>43809</v>
       </c>
       <c r="B41">
-        <v>101.43</v>
+        <v>102.39</v>
       </c>
       <c r="C41">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D41">
-        <v>-8.289999999999999</v>
+        <v>-10.32</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43779</v>
+        <v>43810</v>
       </c>
       <c r="B42">
-        <v>122.75</v>
+        <v>100.2</v>
       </c>
       <c r="C42">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D42">
-        <v>10.99</v>
+        <v>-12.23</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43780</v>
+        <v>43811</v>
       </c>
       <c r="B43">
-        <v>130.19</v>
+        <v>97.54000000000001</v>
       </c>
       <c r="C43">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D43">
-        <v>17.71</v>
+        <v>-14.56</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43781</v>
+        <v>43812</v>
       </c>
       <c r="B44">
-        <v>135.04</v>
+        <v>95.92</v>
       </c>
       <c r="C44">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D44">
-        <v>22.1</v>
+        <v>-15.98</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43782</v>
+        <v>43813</v>
       </c>
       <c r="B45">
-        <v>149.71</v>
+        <v>95.41</v>
       </c>
       <c r="C45">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D45">
-        <v>35.37</v>
+        <v>-16.43</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43783</v>
+        <v>43814</v>
       </c>
       <c r="B46">
-        <v>172.26</v>
+        <v>94.86</v>
       </c>
       <c r="C46">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D46">
-        <v>55.76</v>
+        <v>-16.91</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43784</v>
+        <v>43815</v>
       </c>
       <c r="B47">
-        <v>179.38</v>
+        <v>102.03</v>
       </c>
       <c r="C47">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D47">
-        <v>62.19</v>
+        <v>-10.63</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43785</v>
+        <v>43816</v>
       </c>
       <c r="B48">
-        <v>173.57</v>
+        <v>106.15</v>
       </c>
       <c r="C48">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D48">
-        <v>56.94</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43786</v>
+        <v>43817</v>
       </c>
       <c r="B49">
-        <v>159.01</v>
+        <v>106.03</v>
       </c>
       <c r="C49">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D49">
-        <v>43.78</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43787</v>
+        <v>43818</v>
       </c>
       <c r="B50">
-        <v>144.47</v>
+        <v>104.99</v>
       </c>
       <c r="C50">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D50">
-        <v>30.63</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43788</v>
+        <v>43819</v>
       </c>
       <c r="B51">
-        <v>125.69</v>
+        <v>104.95</v>
       </c>
       <c r="C51">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D51">
-        <v>13.65</v>
+        <v>-8.07</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43789</v>
+        <v>43820</v>
       </c>
       <c r="B52">
-        <v>112.94</v>
+        <v>114.27</v>
       </c>
       <c r="C52">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D52">
-        <v>2.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43790</v>
+        <v>43821</v>
       </c>
       <c r="B53">
-        <v>106.53</v>
+        <v>126.04</v>
       </c>
       <c r="C53">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D53">
-        <v>-3.68</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43791</v>
+        <v>43822</v>
       </c>
       <c r="B54">
-        <v>102.96</v>
+        <v>129.5</v>
       </c>
       <c r="C54">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D54">
-        <v>-6.91</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43792</v>
+        <v>43823</v>
       </c>
       <c r="B55">
-        <v>101.7</v>
+        <v>120</v>
       </c>
       <c r="C55">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D55">
-        <v>-8.050000000000001</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43793</v>
+        <v>43824</v>
       </c>
       <c r="B56">
-        <v>103.09</v>
+        <v>106.85</v>
       </c>
       <c r="C56">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D56">
-        <v>-6.78</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43794</v>
+        <v>43825</v>
       </c>
       <c r="B57">
-        <v>101.76</v>
+        <v>97.69</v>
       </c>
       <c r="C57">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D57">
-        <v>-7.99</v>
+        <v>-14.43</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43795</v>
+        <v>43826</v>
       </c>
       <c r="B58">
-        <v>100.58</v>
+        <v>93.48</v>
       </c>
       <c r="C58">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D58">
-        <v>-9.050000000000001</v>
+        <v>-18.12</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43796</v>
+        <v>43827</v>
       </c>
       <c r="B59">
-        <v>128.99</v>
+        <v>90.31</v>
       </c>
       <c r="C59">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D59">
-        <v>16.63</v>
+        <v>-20.89</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43797</v>
+        <v>43828</v>
       </c>
       <c r="B60">
-        <v>141.04</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="C60">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D60">
-        <v>27.53</v>
+        <v>-23.51</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43798</v>
+        <v>43829</v>
       </c>
       <c r="B61">
-        <v>137.55</v>
+        <v>85.11</v>
       </c>
       <c r="C61">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D61">
-        <v>24.37</v>
+        <v>-25.45</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B62">
-        <v>142.78</v>
+        <v>83.39</v>
       </c>
       <c r="C62">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D62">
-        <v>29.1</v>
+        <v>-26.96</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B63">
-        <v>146.27</v>
+        <v>82.44</v>
       </c>
       <c r="C63">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D63">
-        <v>28.12</v>
+        <v>-37.62</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43801</v>
+        <v>43832</v>
       </c>
       <c r="B64">
-        <v>138.06</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="C64">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D64">
-        <v>20.93</v>
+        <v>-24.74</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43802</v>
+        <v>43833</v>
       </c>
       <c r="B65">
-        <v>118.82</v>
+        <v>94.8</v>
       </c>
       <c r="C65">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D65">
-        <v>4.08</v>
+        <v>-28.26</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43803</v>
+        <v>43834</v>
       </c>
       <c r="B66">
-        <v>113.58</v>
+        <v>95.92</v>
       </c>
       <c r="C66">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D66">
-        <v>-0.51</v>
+        <v>-27.42</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43804</v>
+        <v>43835</v>
       </c>
       <c r="B67">
-        <v>114.81</v>
+        <v>94.88</v>
       </c>
       <c r="C67">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D67">
-        <v>0.57</v>
+        <v>-28.21</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43805</v>
+        <v>43836</v>
       </c>
       <c r="B68">
-        <v>120.68</v>
+        <v>98.77</v>
       </c>
       <c r="C68">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D68">
-        <v>5.7</v>
+        <v>-25.26</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43806</v>
+        <v>43837</v>
       </c>
       <c r="B69">
-        <v>114.73</v>
+        <v>106.38</v>
       </c>
       <c r="C69">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D69">
-        <v>0.49</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43807</v>
+        <v>43838</v>
       </c>
       <c r="B70">
-        <v>109.88</v>
+        <v>96.95</v>
       </c>
       <c r="C70">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D70">
-        <v>-3.76</v>
+        <v>-26.64</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43808</v>
+        <v>43839</v>
       </c>
       <c r="B71">
-        <v>105.36</v>
+        <v>88.92</v>
       </c>
       <c r="C71">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D71">
-        <v>-7.71</v>
+        <v>-32.72</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B72">
-        <v>102.39</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="C72">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D72">
-        <v>-10.32</v>
+        <v>-32.85</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43810</v>
+        <v>43841</v>
       </c>
       <c r="B73">
-        <v>100.2</v>
+        <v>104.72</v>
       </c>
       <c r="C73">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D73">
-        <v>-12.23</v>
+        <v>-20.76</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43811</v>
+        <v>43842</v>
       </c>
       <c r="B74">
-        <v>97.54000000000001</v>
+        <v>95.23</v>
       </c>
       <c r="C74">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D74">
-        <v>-14.56</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43812</v>
+        <v>43843</v>
       </c>
       <c r="B75">
-        <v>95.92</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="C75">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D75">
-        <v>-15.98</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43813</v>
+        <v>43844</v>
       </c>
       <c r="B76">
-        <v>95.41</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="C76">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D76">
-        <v>-16.43</v>
+        <v>-27.39</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B77">
-        <v>94.86</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="C77">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D77">
-        <v>-16.91</v>
+        <v>-33.63</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43815</v>
+        <v>43846</v>
       </c>
       <c r="B78">
-        <v>102.03</v>
+        <v>91.67</v>
       </c>
       <c r="C78">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D78">
-        <v>-10.63</v>
+        <v>-30.63</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43816</v>
+        <v>43847</v>
       </c>
       <c r="B79">
-        <v>106.15</v>
+        <v>107.67</v>
       </c>
       <c r="C79">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D79">
-        <v>-7.02</v>
+        <v>-18.53</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43817</v>
+        <v>43848</v>
       </c>
       <c r="B80">
-        <v>106.03</v>
+        <v>99.84</v>
       </c>
       <c r="C80">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D80">
-        <v>-7.12</v>
+        <v>-24.45</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43818</v>
+        <v>43849</v>
       </c>
       <c r="B81">
-        <v>104.99</v>
+        <v>106.68</v>
       </c>
       <c r="C81">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D81">
-        <v>-8.039999999999999</v>
+        <v>-19.28</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B82">
-        <v>104.95</v>
+        <v>99.88</v>
       </c>
       <c r="C82">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D82">
-        <v>-8.07</v>
+        <v>-24.42</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43820</v>
+        <v>43851</v>
       </c>
       <c r="B83">
-        <v>114.27</v>
+        <v>95.33</v>
       </c>
       <c r="C83">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D83">
-        <v>0.09</v>
+        <v>-27.86</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43821</v>
+        <v>43852</v>
       </c>
       <c r="B84">
-        <v>126.04</v>
+        <v>101.73</v>
       </c>
       <c r="C84">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D84">
-        <v>10.4</v>
+        <v>-23.02</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43822</v>
+        <v>43853</v>
       </c>
       <c r="B85">
-        <v>129.5</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="C85">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D85">
-        <v>13.43</v>
+        <v>-25.9</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43823</v>
+        <v>43854</v>
       </c>
       <c r="B86">
-        <v>120</v>
+        <v>90.48</v>
       </c>
       <c r="C86">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D86">
-        <v>5.11</v>
+        <v>-31.53</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43824</v>
+        <v>43855</v>
       </c>
       <c r="B87">
-        <v>106.85</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C87">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D87">
-        <v>-6.4</v>
+        <v>-28.88</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43825</v>
+        <v>43856</v>
       </c>
       <c r="B88">
-        <v>97.69</v>
+        <v>92.36</v>
       </c>
       <c r="C88">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D88">
-        <v>-14.43</v>
+        <v>-30.11</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43826</v>
+        <v>43857</v>
       </c>
       <c r="B89">
-        <v>93.48</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="C89">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D89">
-        <v>-18.12</v>
+        <v>-34.39</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43827</v>
+        <v>43858</v>
       </c>
       <c r="B90">
-        <v>90.31</v>
+        <v>79.81</v>
       </c>
       <c r="C90">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D90">
-        <v>-20.89</v>
+        <v>-39.6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43828</v>
+        <v>43859</v>
       </c>
       <c r="B91">
-        <v>87.31999999999999</v>
+        <v>78.02</v>
       </c>
       <c r="C91">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D91">
-        <v>-23.51</v>
+        <v>-40.96</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="B92">
-        <v>85.11</v>
+        <v>76.23</v>
       </c>
       <c r="C92">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D92">
-        <v>-25.45</v>
+        <v>-42.32</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B93">
-        <v>83.39</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="C93">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D93">
-        <v>-26.96</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B94">
-        <v>82.44</v>
+        <v>73.39</v>
       </c>
       <c r="C94">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D94">
-        <v>-37.62</v>
+        <v>-45.09</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43832</v>
+        <v>43863</v>
       </c>
       <c r="B95">
-        <v>99.45999999999999</v>
+        <v>76.36</v>
       </c>
       <c r="C95">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D95">
-        <v>-24.74</v>
+        <v>-42.86</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B96">
-        <v>94.8</v>
+        <v>80.23</v>
       </c>
       <c r="C96">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D96">
-        <v>-28.26</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B97">
-        <v>95.92</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="C97">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D97">
-        <v>-27.42</v>
+        <v>-35.64</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B98">
-        <v>94.88</v>
+        <v>97.08</v>
       </c>
       <c r="C98">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D98">
-        <v>-28.21</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B99">
-        <v>98.77</v>
+        <v>91.31</v>
       </c>
       <c r="C99">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D99">
-        <v>-25.26</v>
+        <v>-31.67</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B100">
-        <v>106.38</v>
+        <v>104.2</v>
       </c>
       <c r="C100">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D100">
-        <v>-19.5</v>
+        <v>-22.03</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43838</v>
+        <v>43869</v>
       </c>
       <c r="B101">
-        <v>96.95</v>
+        <v>116.15</v>
       </c>
       <c r="C101">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D101">
-        <v>-26.64</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B102">
-        <v>88.92</v>
+        <v>128.33</v>
       </c>
       <c r="C102">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D102">
-        <v>-32.72</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B103">
-        <v>88.73999999999999</v>
+        <v>174.02</v>
       </c>
       <c r="C103">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D103">
-        <v>-32.85</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B104">
-        <v>104.72</v>
+        <v>210.61</v>
       </c>
       <c r="C104">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D104">
-        <v>-20.76</v>
+        <v>57.59</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B105">
-        <v>95.23</v>
+        <v>199.88</v>
       </c>
       <c r="C105">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D105">
-        <v>-27.94</v>
+        <v>49.56</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B106">
-        <v>95.98999999999999</v>
+        <v>187.34</v>
       </c>
       <c r="C106">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D106">
-        <v>-27.36</v>
+        <v>40.18</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B107">
-        <v>95.95999999999999</v>
+        <v>170.34</v>
       </c>
       <c r="C107">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D107">
-        <v>-27.39</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B108">
-        <v>87.70999999999999</v>
+        <v>140.86</v>
       </c>
       <c r="C108">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D108">
-        <v>-33.63</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B109">
-        <v>91.67</v>
+        <v>114.7</v>
       </c>
       <c r="C109">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D109">
-        <v>-30.63</v>
+        <v>-14.18</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B110">
-        <v>107.67</v>
+        <v>103</v>
       </c>
       <c r="C110">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D110">
-        <v>-18.53</v>
+        <v>-22.93</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B111">
-        <v>99.84</v>
+        <v>95.69</v>
       </c>
       <c r="C111">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D111">
-        <v>-24.45</v>
+        <v>-28.4</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B112">
-        <v>106.68</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="C112">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D112">
-        <v>-19.28</v>
+        <v>-29.3</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B113">
-        <v>99.88</v>
+        <v>92.72</v>
       </c>
       <c r="C113">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D113">
-        <v>-24.42</v>
+        <v>-30.62</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B114">
-        <v>95.33</v>
+        <v>90.38</v>
       </c>
       <c r="C114">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D114">
-        <v>-27.86</v>
+        <v>-32.38</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B115">
-        <v>101.73</v>
+        <v>88.64</v>
       </c>
       <c r="C115">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D115">
-        <v>-23.02</v>
+        <v>-33.68</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B116">
-        <v>97.93000000000001</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="C116">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D116">
-        <v>-25.9</v>
+        <v>-30.82</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B117">
-        <v>90.48</v>
+        <v>93.72</v>
       </c>
       <c r="C117">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D117">
-        <v>-31.53</v>
+        <v>-29.87</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B118">
-        <v>93.98999999999999</v>
+        <v>92.88</v>
       </c>
       <c r="C118">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D118">
-        <v>-28.88</v>
+        <v>-30.51</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B119">
-        <v>92.36</v>
+        <v>106.78</v>
       </c>
       <c r="C119">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D119">
-        <v>-30.11</v>
+        <v>-20.1</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B120">
-        <v>86.70999999999999</v>
+        <v>123.67</v>
       </c>
       <c r="C120">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D120">
-        <v>-34.39</v>
+        <v>-7.47</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B121">
-        <v>79.81</v>
+        <v>119.95</v>
       </c>
       <c r="C121">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D121">
-        <v>-39.6</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B122">
-        <v>78.02</v>
+        <v>118.88</v>
       </c>
       <c r="C122">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D122">
-        <v>-40.96</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B123">
-        <v>76.23</v>
+        <v>106.98</v>
       </c>
       <c r="C123">
-        <v>132.15</v>
+        <v>113.77</v>
       </c>
       <c r="D123">
-        <v>-42.32</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B124">
-        <v>76.06999999999999</v>
+        <v>96.73</v>
       </c>
       <c r="C124">
-        <v>132.15</v>
+        <v>113.77</v>
       </c>
       <c r="D124">
-        <v>-42.43</v>
+        <v>-14.98</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B125">
-        <v>73.39</v>
+        <v>98.62</v>
       </c>
       <c r="C125">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D125">
-        <v>-45.09</v>
+        <v>-13.31</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B126">
-        <v>76.36</v>
+        <v>106.85</v>
       </c>
       <c r="C126">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D126">
-        <v>-42.86</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B127">
-        <v>80.23</v>
+        <v>114.51</v>
       </c>
       <c r="C127">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D127">
-        <v>-39.97</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B128">
-        <v>86.01000000000001</v>
+        <v>114.11</v>
       </c>
       <c r="C128">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D128">
-        <v>-35.64</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B129">
-        <v>97.08</v>
+        <v>98.8</v>
       </c>
       <c r="C129">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D129">
-        <v>-27.36</v>
+        <v>-13.15</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B130">
-        <v>91.31</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="C130">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D130">
-        <v>-31.67</v>
+        <v>-18.98</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B131">
-        <v>104.2</v>
+        <v>88.88</v>
       </c>
       <c r="C131">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D131">
-        <v>-22.03</v>
+        <v>-21.88</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B132">
-        <v>116.15</v>
+        <v>85.89</v>
       </c>
       <c r="C132">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D132">
-        <v>-13.09</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B133">
-        <v>128.33</v>
+        <v>83.27</v>
       </c>
       <c r="C133">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D133">
-        <v>-3.97</v>
+        <v>-26.81</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B134">
-        <v>174.02</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C134">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D134">
-        <v>30.21</v>
+        <v>-29.23</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B135">
-        <v>210.61</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="C135">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D135">
-        <v>57.59</v>
+        <v>-31.87</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B136">
-        <v>199.88</v>
+        <v>74.27</v>
       </c>
       <c r="C136">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D136">
-        <v>49.56</v>
+        <v>-34.72</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B137">
-        <v>187.34</v>
+        <v>75.94</v>
       </c>
       <c r="C137">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D137">
-        <v>40.18</v>
+        <v>-33.25</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B138">
-        <v>170.34</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C138">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D138">
-        <v>27.46</v>
+        <v>-18.16</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B139">
-        <v>140.86</v>
+        <v>109.04</v>
       </c>
       <c r="C139">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D139">
-        <v>5.4</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B140">
-        <v>114.7</v>
+        <v>92.52</v>
       </c>
       <c r="C140">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D140">
-        <v>-14.18</v>
+        <v>-18.68</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B141">
-        <v>103</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C141">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D141">
-        <v>-22.93</v>
+        <v>-19.92</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B142">
-        <v>95.69</v>
+        <v>93.03</v>
       </c>
       <c r="C142">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D142">
-        <v>-28.4</v>
+        <v>-18.23</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B143">
-        <v>94.48999999999999</v>
+        <v>107.64</v>
       </c>
       <c r="C143">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D143">
-        <v>-29.3</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B144">
-        <v>92.72</v>
+        <v>104.73</v>
       </c>
       <c r="C144">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D144">
-        <v>-30.62</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B145">
-        <v>90.38</v>
+        <v>90.55</v>
       </c>
       <c r="C145">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D145">
-        <v>-32.38</v>
+        <v>-20.41</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B146">
-        <v>88.64</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="C146">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D146">
-        <v>-33.68</v>
+        <v>-25.44</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B147">
-        <v>92.45999999999999</v>
+        <v>87.22</v>
       </c>
       <c r="C147">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D147">
-        <v>-30.82</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B148">
-        <v>93.72</v>
+        <v>100.01</v>
       </c>
       <c r="C148">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D148">
-        <v>-29.87</v>
+        <v>-12.09</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B149">
-        <v>92.88</v>
+        <v>96.25</v>
       </c>
       <c r="C149">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D149">
-        <v>-30.51</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B150">
-        <v>106.78</v>
+        <v>83.8</v>
       </c>
       <c r="C150">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D150">
-        <v>-20.1</v>
+        <v>-26.34</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B151">
-        <v>123.67</v>
+        <v>79.14</v>
       </c>
       <c r="C151">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D151">
-        <v>-7.47</v>
+        <v>-30.44</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B152">
-        <v>119.95</v>
+        <v>78.02</v>
       </c>
       <c r="C152">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D152">
-        <v>-10.25</v>
+        <v>-31.42</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B153">
-        <v>118.88</v>
+        <v>76.94</v>
       </c>
       <c r="C153">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D153">
-        <v>-11.05</v>
+        <v>-32.37</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B154">
-        <v>106.98</v>
+        <v>75.02</v>
       </c>
       <c r="C154">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D154">
-        <v>-5.97</v>
+        <v>-24.19</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B155">
-        <v>96.73</v>
+        <v>73.72</v>
       </c>
       <c r="C155">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D155">
-        <v>-14.98</v>
+        <v>-25.5</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B156">
-        <v>98.62</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="C156">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D156">
-        <v>-13.31</v>
+        <v>-27.99</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B157">
-        <v>106.85</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C157">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D157">
-        <v>-6.08</v>
+        <v>-31.89</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B158">
-        <v>114.51</v>
+        <v>66.39</v>
       </c>
       <c r="C158">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D158">
-        <v>0.65</v>
+        <v>-32.91</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="B159">
-        <v>114.11</v>
+        <v>66.22</v>
       </c>
       <c r="C159">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D159">
-        <v>0.31</v>
+        <v>-33.08</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B160">
-        <v>98.8</v>
+        <v>78.78</v>
       </c>
       <c r="C160">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D160">
-        <v>-13.15</v>
+        <v>-20.39</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B161">
-        <v>92.18000000000001</v>
+        <v>78.77</v>
       </c>
       <c r="C161">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D161">
-        <v>-18.98</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B162">
-        <v>88.88</v>
+        <v>77.78</v>
       </c>
       <c r="C162">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D162">
-        <v>-21.88</v>
+        <v>-21.4</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B163">
-        <v>85.89</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="C163">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D163">
-        <v>-24.51</v>
+        <v>-25.55</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B164">
-        <v>83.27</v>
+        <v>69.62</v>
       </c>
       <c r="C164">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D164">
-        <v>-26.81</v>
+        <v>-29.64</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B165">
-        <v>80.51000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C165">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D165">
-        <v>-29.23</v>
+        <v>-33.29</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B166">
-        <v>77.51000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="C166">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D166">
-        <v>-31.87</v>
+        <v>-34.19</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B167">
-        <v>74.27</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C167">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D167">
-        <v>-34.72</v>
+        <v>-33.2</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B168">
-        <v>75.94</v>
+        <v>65.27</v>
       </c>
       <c r="C168">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D168">
-        <v>-33.25</v>
+        <v>-34.04</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B169">
-        <v>93.09999999999999</v>
+        <v>64.78</v>
       </c>
       <c r="C169">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D169">
-        <v>-18.16</v>
+        <v>-34.54</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B170">
-        <v>109.04</v>
+        <v>63.42</v>
       </c>
       <c r="C170">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D170">
-        <v>-4.15</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B171">
-        <v>92.52</v>
+        <v>62.1</v>
       </c>
       <c r="C171">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D171">
-        <v>-18.68</v>
+        <v>-37.24</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B172">
-        <v>91.09999999999999</v>
+        <v>61.06</v>
       </c>
       <c r="C172">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D172">
-        <v>-19.92</v>
+        <v>-38.29</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B173">
-        <v>93.03</v>
+        <v>62.04</v>
       </c>
       <c r="C173">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D173">
-        <v>-18.23</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B174">
-        <v>107.64</v>
+        <v>63.03</v>
       </c>
       <c r="C174">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D174">
-        <v>-5.39</v>
+        <v>-36.3</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B175">
-        <v>104.73</v>
+        <v>62.84</v>
       </c>
       <c r="C175">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D175">
-        <v>-7.94</v>
+        <v>-36.49</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B176">
-        <v>90.55</v>
+        <v>62.5</v>
       </c>
       <c r="C176">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D176">
-        <v>-20.41</v>
+        <v>-36.84</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B177">
-        <v>84.81999999999999</v>
+        <v>62.88</v>
       </c>
       <c r="C177">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D177">
-        <v>-25.44</v>
+        <v>-36.46</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B178">
-        <v>87.22</v>
+        <v>63.01</v>
       </c>
       <c r="C178">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D178">
-        <v>-23.34</v>
+        <v>-36.32</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B179">
-        <v>100.01</v>
+        <v>62.89</v>
       </c>
       <c r="C179">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D179">
-        <v>-12.09</v>
+        <v>-36.45</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B180">
-        <v>96.25</v>
+        <v>62.24</v>
       </c>
       <c r="C180">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D180">
-        <v>-15.4</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B181">
-        <v>83.8</v>
+        <v>60.33</v>
       </c>
       <c r="C181">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D181">
-        <v>-26.34</v>
+        <v>-39.03</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="B182">
-        <v>79.14</v>
+        <v>60.25</v>
       </c>
       <c r="C182">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D182">
-        <v>-30.44</v>
+        <v>-39.11</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="B183">
-        <v>78.02</v>
+        <v>60.76</v>
       </c>
       <c r="C183">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D183">
-        <v>-31.42</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B184">
-        <v>76.94</v>
+        <v>61.01</v>
       </c>
       <c r="C184">
-        <v>113.77</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D184">
-        <v>-32.37</v>
+        <v>-38.95</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="B185">
-        <v>75.02</v>
+        <v>57.79</v>
       </c>
       <c r="C185">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D185">
-        <v>-24.19</v>
+        <v>-42.17</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="B186">
-        <v>73.72</v>
+        <v>57.7</v>
       </c>
       <c r="C186">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D186">
-        <v>-25.5</v>
+        <v>-42.26</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="B187">
-        <v>71.26000000000001</v>
+        <v>59.51</v>
       </c>
       <c r="C187">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D187">
-        <v>-27.99</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B188">
-        <v>67.40000000000001</v>
+        <v>58.09</v>
       </c>
       <c r="C188">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D188">
-        <v>-31.89</v>
+        <v>-41.87</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B189">
-        <v>66.39</v>
+        <v>55.98</v>
       </c>
       <c r="C189">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D189">
-        <v>-32.91</v>
+        <v>-43.98</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="B190">
-        <v>66.22</v>
+        <v>56.29</v>
       </c>
       <c r="C190">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D190">
-        <v>-33.08</v>
+        <v>-43.67</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B191">
-        <v>78.78</v>
+        <v>56.21</v>
       </c>
       <c r="C191">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D191">
-        <v>-20.39</v>
+        <v>-43.75</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B192">
-        <v>78.77</v>
+        <v>58.1</v>
       </c>
       <c r="C192">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D192">
-        <v>-20.4</v>
+        <v>-41.86</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B193">
-        <v>77.78</v>
+        <v>57.23</v>
       </c>
       <c r="C193">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D193">
-        <v>-21.4</v>
+        <v>-42.73</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B194">
-        <v>73.68000000000001</v>
+        <v>58.09</v>
       </c>
       <c r="C194">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D194">
-        <v>-25.55</v>
+        <v>-41.87</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B195">
-        <v>69.62</v>
+        <v>61.28</v>
       </c>
       <c r="C195">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D195">
-        <v>-29.64</v>
+        <v>-38.68</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B196">
-        <v>66.01000000000001</v>
+        <v>57</v>
       </c>
       <c r="C196">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D196">
-        <v>-33.29</v>
+        <v>-42.96</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B197">
-        <v>65.12</v>
+        <v>54.61</v>
       </c>
       <c r="C197">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D197">
-        <v>-34.19</v>
+        <v>-45.35</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B198">
-        <v>66.09999999999999</v>
+        <v>55.86</v>
       </c>
       <c r="C198">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D198">
-        <v>-33.2</v>
+        <v>-44.1</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B199">
-        <v>65.27</v>
+        <v>56.19</v>
       </c>
       <c r="C199">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D199">
-        <v>-34.04</v>
+        <v>-43.77</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B200">
-        <v>64.78</v>
+        <v>57.18</v>
       </c>
       <c r="C200">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D200">
-        <v>-34.54</v>
+        <v>-42.78</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B201">
-        <v>63.42</v>
+        <v>58.31</v>
       </c>
       <c r="C201">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D201">
-        <v>-35.91</v>
+        <v>-41.65</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B202">
-        <v>62.1</v>
+        <v>58.54</v>
       </c>
       <c r="C202">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D202">
-        <v>-37.24</v>
+        <v>-41.42</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B203">
-        <v>61.06</v>
+        <v>59.84</v>
       </c>
       <c r="C203">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D203">
-        <v>-38.29</v>
+        <v>-40.12</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B204">
-        <v>62.04</v>
+        <v>59.3</v>
       </c>
       <c r="C204">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D204">
-        <v>-37.3</v>
+        <v>-40.66</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B205">
-        <v>63.03</v>
+        <v>59.99</v>
       </c>
       <c r="C205">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D205">
-        <v>-36.3</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B206">
-        <v>62.84</v>
+        <v>61.25</v>
       </c>
       <c r="C206">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D206">
-        <v>-36.49</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B207">
-        <v>62.5</v>
+        <v>57.84</v>
       </c>
       <c r="C207">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D207">
-        <v>-36.84</v>
+        <v>-42.12</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B208">
-        <v>62.88</v>
+        <v>57.57</v>
       </c>
       <c r="C208">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D208">
-        <v>-36.46</v>
+        <v>-42.39</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B209">
-        <v>63.01</v>
+        <v>55.24</v>
       </c>
       <c r="C209">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D209">
-        <v>-36.32</v>
+        <v>-44.72</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B210">
-        <v>62.89</v>
+        <v>54.03</v>
       </c>
       <c r="C210">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D210">
-        <v>-36.45</v>
+        <v>-45.93</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B211">
-        <v>62.24</v>
+        <v>54.66</v>
       </c>
       <c r="C211">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D211">
-        <v>-37.1</v>
+        <v>-45.31</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B212">
-        <v>60.33</v>
+        <v>53.75</v>
       </c>
       <c r="C212">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D212">
-        <v>-39.03</v>
+        <v>-46.21</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B213">
-        <v>60.25</v>
+        <v>54.85</v>
       </c>
       <c r="C213">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D213">
-        <v>-39.11</v>
+        <v>-45.11</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B214">
-        <v>60.76</v>
+        <v>52.05</v>
       </c>
       <c r="C214">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D214">
-        <v>-38.6</v>
+        <v>-47.91</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B215">
-        <v>61.01</v>
+        <v>56.27</v>
       </c>
       <c r="C215">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D215">
-        <v>-38.95</v>
+        <v>-57.84</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B216">
-        <v>57.79</v>
+        <v>58.61</v>
       </c>
       <c r="C216">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D216">
-        <v>-42.17</v>
+        <v>-56.09</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B217">
-        <v>57.7</v>
+        <v>59.44</v>
       </c>
       <c r="C217">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D217">
-        <v>-42.26</v>
+        <v>-55.47</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B218">
-        <v>59.51</v>
+        <v>63.27</v>
       </c>
       <c r="C218">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D218">
-        <v>-40.45</v>
+        <v>-52.59</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B219">
-        <v>58.09</v>
+        <v>62.44</v>
       </c>
       <c r="C219">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D219">
-        <v>-41.87</v>
+        <v>-53.22</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B220">
-        <v>55.98</v>
+        <v>64.95</v>
       </c>
       <c r="C220">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D220">
-        <v>-43.98</v>
+        <v>-51.34</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B221">
-        <v>56.29</v>
+        <v>67.59</v>
       </c>
       <c r="C221">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D221">
-        <v>-43.67</v>
+        <v>-49.35</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B222">
-        <v>56.21</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="C222">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D222">
-        <v>-43.75</v>
+        <v>-46.23</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B223">
-        <v>58.1</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C223">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D223">
-        <v>-41.86</v>
+        <v>-48.75</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B224">
-        <v>57.23</v>
+        <v>120</v>
       </c>
       <c r="C224">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D224">
-        <v>-42.73</v>
+        <v>-10.09</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B225">
-        <v>58.09</v>
+        <v>142.68</v>
       </c>
       <c r="C225">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D225">
-        <v>-41.87</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B226">
-        <v>61.28</v>
+        <v>133.88</v>
       </c>
       <c r="C226">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D226">
-        <v>-38.68</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B227">
-        <v>57</v>
+        <v>135.25</v>
       </c>
       <c r="C227">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D227">
-        <v>-42.96</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B228">
-        <v>54.61</v>
+        <v>128.03</v>
       </c>
       <c r="C228">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D228">
-        <v>-45.35</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B229">
-        <v>55.86</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C229">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D229">
-        <v>-44.1</v>
+        <v>-32.27</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B230">
-        <v>56.19</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="C230">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D230">
-        <v>-43.77</v>
+        <v>-37.86</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B231">
-        <v>57.18</v>
+        <v>84.55</v>
       </c>
       <c r="C231">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D231">
-        <v>-42.78</v>
+        <v>-36.65</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B232">
-        <v>58.31</v>
+        <v>81.66</v>
       </c>
       <c r="C232">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D232">
-        <v>-41.65</v>
+        <v>-38.82</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B233">
-        <v>58.54</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C233">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D233">
-        <v>-41.42</v>
+        <v>-38.34</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B234">
-        <v>59.84</v>
+        <v>73.42</v>
       </c>
       <c r="C234">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D234">
-        <v>-40.12</v>
+        <v>-44.99</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B235">
-        <v>59.3</v>
+        <v>68.16</v>
       </c>
       <c r="C235">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D235">
-        <v>-40.66</v>
+        <v>-48.93</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B236">
-        <v>59.99</v>
+        <v>66.17</v>
       </c>
       <c r="C236">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D236">
-        <v>-39.97</v>
+        <v>-50.42</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B237">
-        <v>61.25</v>
+        <v>63.94</v>
       </c>
       <c r="C237">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D237">
-        <v>-38.71</v>
+        <v>-52.09</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B238">
-        <v>57.84</v>
+        <v>61.98</v>
       </c>
       <c r="C238">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D238">
-        <v>-42.12</v>
+        <v>-53.56</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B239">
-        <v>57.57</v>
+        <v>61.42</v>
       </c>
       <c r="C239">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D239">
-        <v>-42.39</v>
+        <v>-53.98</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B240">
-        <v>55.24</v>
+        <v>67.02</v>
       </c>
       <c r="C240">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D240">
-        <v>-44.72</v>
+        <v>-49.78</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B241">
-        <v>54.03</v>
+        <v>90.2</v>
       </c>
       <c r="C241">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D241">
-        <v>-45.93</v>
+        <v>-32.42</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B242">
-        <v>54.66</v>
+        <v>99.55</v>
       </c>
       <c r="C242">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D242">
-        <v>-45.31</v>
+        <v>-25.41</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B243">
-        <v>53.75</v>
+        <v>109.58</v>
       </c>
       <c r="C243">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D243">
-        <v>-46.21</v>
+        <v>-17.89</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B244">
-        <v>54.85</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="C244">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D244">
-        <v>-45.11</v>
+        <v>-25.63</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B245">
-        <v>52.05</v>
+        <v>112.51</v>
       </c>
       <c r="C245">
-        <v>99.93000000000001</v>
+        <v>104.15</v>
       </c>
       <c r="D245">
-        <v>-47.91</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B246">
-        <v>56.27</v>
+        <v>112.53</v>
       </c>
       <c r="C246">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D246">
-        <v>-57.84</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B247">
-        <v>58.61</v>
+        <v>107.51</v>
       </c>
       <c r="C247">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D247">
-        <v>-56.09</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B248">
-        <v>59.44</v>
+        <v>86.86</v>
       </c>
       <c r="C248">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D248">
-        <v>-55.47</v>
+        <v>-16.59</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B249">
-        <v>63.27</v>
+        <v>78.66</v>
       </c>
       <c r="C249">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D249">
-        <v>-52.59</v>
+        <v>-24.47</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B250">
-        <v>62.44</v>
+        <v>74.89</v>
       </c>
       <c r="C250">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D250">
-        <v>-53.22</v>
+        <v>-28.1</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B251">
-        <v>64.95</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C251">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D251">
-        <v>-51.34</v>
+        <v>-28.61</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B252">
-        <v>67.59</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="C252">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D252">
-        <v>-49.35</v>
+        <v>-28.75</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B253">
-        <v>71.76000000000001</v>
+        <v>73.75</v>
       </c>
       <c r="C253">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D253">
-        <v>-46.23</v>
+        <v>-29.19</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B254">
-        <v>68.40000000000001</v>
+        <v>69.58</v>
       </c>
       <c r="C254">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D254">
-        <v>-48.75</v>
+        <v>-33.19</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B255">
-        <v>120</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="C255">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D255">
-        <v>-10.09</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B256">
-        <v>142.68</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="C256">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D256">
-        <v>6.9</v>
+        <v>-36.19</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B257">
-        <v>133.88</v>
+        <v>65.17</v>
       </c>
       <c r="C257">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D257">
-        <v>0.31</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B258">
-        <v>135.25</v>
+        <v>64.09</v>
       </c>
       <c r="C258">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D258">
-        <v>1.34</v>
+        <v>-38.46</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B259">
-        <v>128.03</v>
+        <v>61.68</v>
       </c>
       <c r="C259">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D259">
-        <v>-4.07</v>
+        <v>-40.78</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B260">
-        <v>90.40000000000001</v>
+        <v>61.67</v>
       </c>
       <c r="C260">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D260">
-        <v>-32.27</v>
+        <v>-40.79</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B261">
-        <v>82.93000000000001</v>
+        <v>61.74</v>
       </c>
       <c r="C261">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D261">
-        <v>-37.86</v>
+        <v>-40.72</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B262">
-        <v>84.55</v>
+        <v>62.24</v>
       </c>
       <c r="C262">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D262">
-        <v>-36.65</v>
+        <v>-40.24</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B263">
-        <v>81.66</v>
+        <v>64.3</v>
       </c>
       <c r="C263">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D263">
-        <v>-38.82</v>
+        <v>-38.26</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B264">
-        <v>82.29000000000001</v>
+        <v>62.84</v>
       </c>
       <c r="C264">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D264">
-        <v>-38.34</v>
+        <v>-39.66</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B265">
-        <v>73.42</v>
+        <v>63.38</v>
       </c>
       <c r="C265">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D265">
-        <v>-44.99</v>
+        <v>-39.15</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B266">
-        <v>68.16</v>
+        <v>60.21</v>
       </c>
       <c r="C266">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D266">
-        <v>-48.93</v>
+        <v>-42.19</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B267">
-        <v>66.17</v>
+        <v>59.35</v>
       </c>
       <c r="C267">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D267">
-        <v>-50.42</v>
+        <v>-43.01</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B268">
-        <v>63.94</v>
+        <v>57.93</v>
       </c>
       <c r="C268">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D268">
-        <v>-52.09</v>
+        <v>-44.38</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B269">
-        <v>61.98</v>
+        <v>58.49</v>
       </c>
       <c r="C269">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D269">
-        <v>-53.56</v>
+        <v>-43.84</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B270">
-        <v>61.42</v>
+        <v>59.67</v>
       </c>
       <c r="C270">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D270">
-        <v>-53.98</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B271">
-        <v>67.02</v>
+        <v>59.74</v>
       </c>
       <c r="C271">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D271">
-        <v>-49.78</v>
+        <v>-42.64</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B272">
-        <v>90.2</v>
+        <v>57.93</v>
       </c>
       <c r="C272">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D272">
-        <v>-32.42</v>
+        <v>-44.38</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B273">
-        <v>99.55</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="C273">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D273">
-        <v>-25.41</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B274">
-        <v>109.58</v>
+        <v>90.17</v>
       </c>
       <c r="C274">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D274">
-        <v>-17.89</v>
+        <v>-13.42</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B275">
-        <v>99.26000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="C275">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D275">
-        <v>-25.63</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B276">
-        <v>112.51</v>
+        <v>87.05</v>
       </c>
       <c r="C276">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D276">
-        <v>8.029999999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B277">
-        <v>112.53</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="C277">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D277">
-        <v>8.050000000000001</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B278">
-        <v>107.51</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C278">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D278">
-        <v>3.23</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B279">
-        <v>86.86</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C279">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D279">
-        <v>-16.59</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B280">
-        <v>78.66</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C280">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D280">
-        <v>-24.47</v>
+        <v>-23.75</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44018</v>
+        <v>44049</v>
       </c>
       <c r="B281">
-        <v>74.89</v>
+        <v>62.14</v>
       </c>
       <c r="C281">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D281">
         <v>-28.1</v>
@@ -4551,1556 +4537,1206 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44019</v>
+        <v>44050</v>
       </c>
       <c r="B282">
-        <v>74.34999999999999</v>
+        <v>60.75</v>
       </c>
       <c r="C282">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D282">
-        <v>-28.61</v>
+        <v>-29.71</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44020</v>
+        <v>44051</v>
       </c>
       <c r="B283">
-        <v>74.20999999999999</v>
+        <v>55.95</v>
       </c>
       <c r="C283">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D283">
-        <v>-28.75</v>
+        <v>-35.26</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44021</v>
+        <v>44052</v>
       </c>
       <c r="B284">
-        <v>73.75</v>
+        <v>57.49</v>
       </c>
       <c r="C284">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D284">
-        <v>-29.19</v>
+        <v>-33.48</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="B285">
-        <v>69.58</v>
+        <v>58.94</v>
       </c>
       <c r="C285">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D285">
-        <v>-33.19</v>
+        <v>-31.8</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44023</v>
+        <v>44054</v>
       </c>
       <c r="B286">
-        <v>67.18000000000001</v>
+        <v>58.05</v>
       </c>
       <c r="C286">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D286">
-        <v>-35.5</v>
+        <v>-32.83</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44024</v>
+        <v>44055</v>
       </c>
       <c r="B287">
-        <v>66.45999999999999</v>
+        <v>60.51</v>
       </c>
       <c r="C287">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D287">
-        <v>-36.19</v>
+        <v>-29.98</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44025</v>
+        <v>44056</v>
       </c>
       <c r="B288">
-        <v>65.17</v>
+        <v>58.93</v>
       </c>
       <c r="C288">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D288">
-        <v>-37.43</v>
+        <v>-31.82</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44026</v>
+        <v>44057</v>
       </c>
       <c r="B289">
-        <v>64.09</v>
+        <v>61.29</v>
       </c>
       <c r="C289">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D289">
-        <v>-38.46</v>
+        <v>-29.08</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44027</v>
+        <v>44058</v>
       </c>
       <c r="B290">
-        <v>61.68</v>
+        <v>87.75</v>
       </c>
       <c r="C290">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D290">
-        <v>-40.78</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44028</v>
+        <v>44059</v>
       </c>
       <c r="B291">
-        <v>61.67</v>
+        <v>136.35</v>
       </c>
       <c r="C291">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D291">
-        <v>-40.79</v>
+        <v>57.77</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="B292">
-        <v>61.74</v>
+        <v>136.22</v>
       </c>
       <c r="C292">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D292">
-        <v>-40.72</v>
+        <v>57.62</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44030</v>
+        <v>44061</v>
       </c>
       <c r="B293">
-        <v>62.24</v>
+        <v>146.75</v>
       </c>
       <c r="C293">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D293">
-        <v>-40.24</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44031</v>
+        <v>44062</v>
       </c>
       <c r="B294">
-        <v>64.3</v>
+        <v>171.51</v>
       </c>
       <c r="C294">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D294">
-        <v>-38.26</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B295">
-        <v>62.84</v>
+        <v>189.24</v>
       </c>
       <c r="C295">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D295">
-        <v>-39.66</v>
+        <v>118.97</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44033</v>
+        <v>44064</v>
       </c>
       <c r="B296">
-        <v>63.38</v>
+        <v>187.72</v>
       </c>
       <c r="C296">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D296">
-        <v>-39.15</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44034</v>
+        <v>44065</v>
       </c>
       <c r="B297">
-        <v>60.21</v>
+        <v>179.81</v>
       </c>
       <c r="C297">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D297">
-        <v>-42.19</v>
+        <v>108.06</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44035</v>
+        <v>44066</v>
       </c>
       <c r="B298">
-        <v>59.35</v>
+        <v>177.59</v>
       </c>
       <c r="C298">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D298">
-        <v>-43.01</v>
+        <v>105.49</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B299">
-        <v>57.93</v>
+        <v>175.65</v>
       </c>
       <c r="C299">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D299">
-        <v>-44.38</v>
+        <v>103.24</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B300">
-        <v>58.49</v>
+        <v>153.39</v>
       </c>
       <c r="C300">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D300">
-        <v>-43.84</v>
+        <v>77.48</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B301">
-        <v>59.67</v>
+        <v>108.41</v>
       </c>
       <c r="C301">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D301">
-        <v>-42.71</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B302">
-        <v>59.74</v>
+        <v>95.28</v>
       </c>
       <c r="C302">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D302">
-        <v>-42.64</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B303">
-        <v>57.93</v>
+        <v>88.06</v>
       </c>
       <c r="C303">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D303">
-        <v>-44.38</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B304">
-        <v>75.65000000000001</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="C304">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D304">
-        <v>-27.37</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B305">
-        <v>90.17</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="C305">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D305">
-        <v>-13.42</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B306">
-        <v>100.6</v>
+        <v>79.75</v>
       </c>
       <c r="C306">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D306">
-        <v>-3.4</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B307">
-        <v>87.05</v>
+        <v>77.47</v>
       </c>
       <c r="C307">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D307">
-        <v>0.73</v>
+        <v>-18.01</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B308">
-        <v>89.98999999999999</v>
+        <v>80.83</v>
       </c>
       <c r="C308">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D308">
-        <v>4.13</v>
+        <v>-14.45</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B309">
-        <v>87.93000000000001</v>
+        <v>89.98</v>
       </c>
       <c r="C309">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D309">
-        <v>1.74</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B310">
-        <v>74.34999999999999</v>
+        <v>105.27</v>
       </c>
       <c r="C310">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D310">
-        <v>-13.97</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B311">
-        <v>65.90000000000001</v>
+        <v>108.68</v>
       </c>
       <c r="C311">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D311">
-        <v>-23.75</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44049</v>
+        <v>44080</v>
       </c>
       <c r="B312">
-        <v>62.14</v>
+        <v>89.03</v>
       </c>
       <c r="C312">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D312">
-        <v>-28.1</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44050</v>
+        <v>44081</v>
       </c>
       <c r="B313">
-        <v>60.75</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="C313">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D313">
-        <v>-29.71</v>
+        <v>-13.06</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44051</v>
+        <v>44082</v>
       </c>
       <c r="B314">
-        <v>55.95</v>
+        <v>78.23999999999999</v>
       </c>
       <c r="C314">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D314">
-        <v>-35.26</v>
+        <v>-17.2</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44052</v>
+        <v>44083</v>
       </c>
       <c r="B315">
-        <v>57.49</v>
+        <v>77.16</v>
       </c>
       <c r="C315">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D315">
-        <v>-33.48</v>
+        <v>-18.34</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44053</v>
+        <v>44084</v>
       </c>
       <c r="B316">
-        <v>58.94</v>
+        <v>72.83</v>
       </c>
       <c r="C316">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D316">
-        <v>-31.8</v>
+        <v>-22.92</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44054</v>
+        <v>44085</v>
       </c>
       <c r="B317">
-        <v>58.05</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="C317">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D317">
-        <v>-32.83</v>
+        <v>-25.17</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44055</v>
+        <v>44086</v>
       </c>
       <c r="B318">
-        <v>60.51</v>
+        <v>68.56</v>
       </c>
       <c r="C318">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D318">
-        <v>-29.98</v>
+        <v>-27.44</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44056</v>
+        <v>44087</v>
       </c>
       <c r="B319">
-        <v>58.93</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="C319">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D319">
-        <v>-31.82</v>
+        <v>-29.05</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44057</v>
+        <v>44088</v>
       </c>
       <c r="B320">
-        <v>61.29</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="C320">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D320">
-        <v>-29.08</v>
+        <v>-27.55</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44058</v>
+        <v>44089</v>
       </c>
       <c r="B321">
-        <v>87.75</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="C321">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D321">
-        <v>1.54</v>
+        <v>-29.47</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44059</v>
+        <v>44090</v>
       </c>
       <c r="B322">
-        <v>136.35</v>
+        <v>62.72</v>
       </c>
       <c r="C322">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D322">
-        <v>57.77</v>
+        <v>-33.62</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44060</v>
+        <v>44091</v>
       </c>
       <c r="B323">
-        <v>136.22</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="C323">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D323">
-        <v>57.62</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44061</v>
+        <v>44092</v>
       </c>
       <c r="B324">
-        <v>146.75</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="C324">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D324">
-        <v>69.8</v>
+        <v>-31.52</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44062</v>
+        <v>44093</v>
       </c>
       <c r="B325">
-        <v>171.51</v>
+        <v>64.34</v>
       </c>
       <c r="C325">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D325">
-        <v>98.45</v>
+        <v>-31.9</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44063</v>
+        <v>44094</v>
       </c>
       <c r="B326">
-        <v>189.24</v>
+        <v>63.18</v>
       </c>
       <c r="C326">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D326">
-        <v>118.97</v>
+        <v>-33.14</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44064</v>
+        <v>44095</v>
       </c>
       <c r="B327">
-        <v>187.72</v>
+        <v>61.76</v>
       </c>
       <c r="C327">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D327">
-        <v>117.21</v>
+        <v>-34.64</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44065</v>
+        <v>44096</v>
       </c>
       <c r="B328">
-        <v>179.81</v>
+        <v>61.42</v>
       </c>
       <c r="C328">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D328">
-        <v>108.06</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44066</v>
+        <v>44097</v>
       </c>
       <c r="B329">
-        <v>177.59</v>
+        <v>65.12</v>
       </c>
       <c r="C329">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D329">
-        <v>105.49</v>
+        <v>-31.08</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44067</v>
+        <v>44098</v>
       </c>
       <c r="B330">
-        <v>175.65</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C330">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D330">
-        <v>103.24</v>
+        <v>-30.04</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44068</v>
+        <v>44099</v>
       </c>
       <c r="B331">
-        <v>153.39</v>
+        <v>63.39</v>
       </c>
       <c r="C331">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D331">
-        <v>77.48</v>
+        <v>-32.92</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44069</v>
+        <v>44100</v>
       </c>
       <c r="B332">
-        <v>108.41</v>
+        <v>64.53</v>
       </c>
       <c r="C332">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D332">
-        <v>25.44</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44070</v>
+        <v>44101</v>
       </c>
       <c r="B333">
-        <v>95.28</v>
+        <v>62.86</v>
       </c>
       <c r="C333">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D333">
-        <v>10.25</v>
+        <v>-33.47</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B334">
-        <v>88.06</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C334">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D334">
-        <v>1.9</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B335">
-        <v>84.15000000000001</v>
+        <v>108.79</v>
       </c>
       <c r="C335">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D335">
-        <v>-2.64</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B336">
-        <v>80.31999999999999</v>
+        <v>115.88</v>
       </c>
       <c r="C336">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D336">
-        <v>-7.06</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B337">
-        <v>79.75</v>
+        <v>113.98</v>
       </c>
       <c r="C337">
-        <v>86.42</v>
+        <v>118.4</v>
       </c>
       <c r="D337">
-        <v>-7.72</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B338">
-        <v>77.47</v>
+        <v>94.22</v>
       </c>
       <c r="C338">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D338">
-        <v>-18.01</v>
+        <v>-20.42</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B339">
-        <v>80.83</v>
+        <v>90.77</v>
       </c>
       <c r="C339">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D339">
-        <v>-14.45</v>
+        <v>-23.33</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B340">
-        <v>89.98</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="C340">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D340">
-        <v>-4.77</v>
+        <v>-29.27</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B341">
-        <v>105.27</v>
+        <v>83.88</v>
       </c>
       <c r="C341">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D341">
-        <v>11.41</v>
+        <v>-29.16</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B342">
-        <v>108.68</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="C342">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D342">
-        <v>15.02</v>
+        <v>-27.3</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B343">
-        <v>89.03</v>
+        <v>98.58</v>
       </c>
       <c r="C343">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D343">
-        <v>-5.77</v>
+        <v>-16.74</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B344">
-        <v>82.15000000000001</v>
+        <v>101.55</v>
       </c>
       <c r="C344">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D344">
-        <v>-13.06</v>
+        <v>-14.23</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B345">
-        <v>78.23999999999999</v>
+        <v>119.76</v>
       </c>
       <c r="C345">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D345">
-        <v>-17.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B346">
-        <v>77.16</v>
+        <v>128.5</v>
       </c>
       <c r="C346">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D346">
-        <v>-18.34</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B347">
-        <v>72.83</v>
+        <v>125.06</v>
       </c>
       <c r="C347">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D347">
-        <v>-22.92</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B348">
-        <v>70.70999999999999</v>
+        <v>122.17</v>
       </c>
       <c r="C348">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D348">
-        <v>-25.17</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B349">
-        <v>68.56</v>
+        <v>102.91</v>
       </c>
       <c r="C349">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D349">
-        <v>-27.44</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B350">
-        <v>67.04000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="C350">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D350">
-        <v>-29.05</v>
+        <v>-25.09</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B351">
-        <v>68.45999999999999</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="C351">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D351">
-        <v>-27.55</v>
+        <v>-31.16</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B352">
-        <v>66.65000000000001</v>
+        <v>76.84</v>
       </c>
       <c r="C352">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D352">
-        <v>-29.47</v>
+        <v>-35.1</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B353">
-        <v>62.72</v>
+        <v>75.27</v>
       </c>
       <c r="C353">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D353">
-        <v>-33.62</v>
+        <v>-36.43</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B354">
-        <v>64.26000000000001</v>
+        <v>74.72</v>
       </c>
       <c r="C354">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D354">
-        <v>-31.99</v>
+        <v>-36.89</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B355">
-        <v>64.70999999999999</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="C355">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D355">
-        <v>-31.52</v>
+        <v>-36.83</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B356">
-        <v>64.34</v>
+        <v>73.02</v>
       </c>
       <c r="C356">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D356">
-        <v>-31.9</v>
+        <v>-38.33</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B357">
-        <v>63.18</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C357">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D357">
-        <v>-33.14</v>
+        <v>-39.34</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B358">
-        <v>61.76</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C358">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D358">
-        <v>-34.64</v>
+        <v>-38.26</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B359">
-        <v>61.42</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C359">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D359">
-        <v>-35</v>
+        <v>-38.43</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B360">
-        <v>65.12</v>
+        <v>76.45</v>
       </c>
       <c r="C360">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D360">
-        <v>-31.08</v>
+        <v>-35.43</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B361">
-        <v>66.09999999999999</v>
+        <v>92.34</v>
       </c>
       <c r="C361">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D361">
-        <v>-30.04</v>
+        <v>-22.01</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B362">
-        <v>63.39</v>
+        <v>84.8</v>
       </c>
       <c r="C362">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D362">
-        <v>-32.92</v>
+        <v>-28.38</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B363">
-        <v>64.53</v>
+        <v>81.98</v>
       </c>
       <c r="C363">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D363">
-        <v>-31.7</v>
+        <v>-30.76</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B364">
-        <v>62.86</v>
+        <v>74.09</v>
       </c>
       <c r="C364">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D364">
-        <v>-33.47</v>
+        <v>-37.42</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B365">
-        <v>86.90000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="C365">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D365">
-        <v>-8.029999999999999</v>
+        <v>-41.47</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B366">
-        <v>108.79</v>
+        <v>82.94</v>
       </c>
       <c r="C366">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D366">
-        <v>15.14</v>
+        <v>-29.95</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B367">
-        <v>115.88</v>
+        <v>81.73</v>
       </c>
       <c r="C367">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D367">
-        <v>22.64</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B368">
-        <v>113.98</v>
-      </c>
-      <c r="C368">
-        <v>118.4</v>
-      </c>
-      <c r="D368">
-        <v>-3.73</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44106</v>
-      </c>
-      <c r="B369">
-        <v>94.22</v>
-      </c>
-      <c r="C369">
-        <v>118.4</v>
-      </c>
-      <c r="D369">
-        <v>-20.42</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44107</v>
-      </c>
-      <c r="B370">
-        <v>90.77</v>
-      </c>
-      <c r="C370">
-        <v>118.4</v>
-      </c>
-      <c r="D370">
-        <v>-23.33</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B371">
-        <v>83.73999999999999</v>
-      </c>
-      <c r="C371">
-        <v>118.4</v>
-      </c>
-      <c r="D371">
-        <v>-29.27</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44109</v>
-      </c>
-      <c r="B372">
-        <v>83.88</v>
-      </c>
-      <c r="C372">
-        <v>118.4</v>
-      </c>
-      <c r="D372">
-        <v>-29.16</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44110</v>
-      </c>
-      <c r="B373">
-        <v>86.06999999999999</v>
-      </c>
-      <c r="C373">
-        <v>118.4</v>
-      </c>
-      <c r="D373">
-        <v>-27.3</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44111</v>
-      </c>
-      <c r="B374">
-        <v>98.58</v>
-      </c>
-      <c r="C374">
-        <v>118.4</v>
-      </c>
-      <c r="D374">
-        <v>-16.74</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44112</v>
-      </c>
-      <c r="B375">
-        <v>101.55</v>
-      </c>
-      <c r="C375">
-        <v>118.4</v>
-      </c>
-      <c r="D375">
-        <v>-14.23</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44113</v>
-      </c>
-      <c r="B376">
-        <v>119.76</v>
-      </c>
-      <c r="C376">
-        <v>118.4</v>
-      </c>
-      <c r="D376">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44114</v>
-      </c>
-      <c r="B377">
-        <v>128.5</v>
-      </c>
-      <c r="C377">
-        <v>118.4</v>
-      </c>
-      <c r="D377">
-        <v>8.529999999999999</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44115</v>
-      </c>
-      <c r="B378">
-        <v>125.06</v>
-      </c>
-      <c r="C378">
-        <v>118.4</v>
-      </c>
-      <c r="D378">
-        <v>5.63</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44116</v>
-      </c>
-      <c r="B379">
-        <v>122.17</v>
-      </c>
-      <c r="C379">
-        <v>118.4</v>
-      </c>
-      <c r="D379">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44117</v>
-      </c>
-      <c r="B380">
-        <v>102.91</v>
-      </c>
-      <c r="C380">
-        <v>118.4</v>
-      </c>
-      <c r="D380">
-        <v>-13.09</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44118</v>
-      </c>
-      <c r="B381">
-        <v>88.7</v>
-      </c>
-      <c r="C381">
-        <v>118.4</v>
-      </c>
-      <c r="D381">
-        <v>-25.09</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44119</v>
-      </c>
-      <c r="B382">
-        <v>81.51000000000001</v>
-      </c>
-      <c r="C382">
-        <v>118.4</v>
-      </c>
-      <c r="D382">
-        <v>-31.16</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44120</v>
-      </c>
-      <c r="B383">
-        <v>76.84</v>
-      </c>
-      <c r="C383">
-        <v>118.4</v>
-      </c>
-      <c r="D383">
-        <v>-35.1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44121</v>
-      </c>
-      <c r="B384">
-        <v>75.27</v>
-      </c>
-      <c r="C384">
-        <v>118.4</v>
-      </c>
-      <c r="D384">
-        <v>-36.43</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44122</v>
-      </c>
-      <c r="B385">
-        <v>74.72</v>
-      </c>
-      <c r="C385">
-        <v>118.4</v>
-      </c>
-      <c r="D385">
-        <v>-36.89</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44123</v>
-      </c>
-      <c r="B386">
-        <v>74.79000000000001</v>
-      </c>
-      <c r="C386">
-        <v>118.4</v>
-      </c>
-      <c r="D386">
-        <v>-36.83</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44124</v>
-      </c>
-      <c r="B387">
-        <v>73.02</v>
-      </c>
-      <c r="C387">
-        <v>118.4</v>
-      </c>
-      <c r="D387">
-        <v>-38.33</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B388">
-        <v>71.81999999999999</v>
-      </c>
-      <c r="C388">
-        <v>118.4</v>
-      </c>
-      <c r="D388">
-        <v>-39.34</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44126</v>
-      </c>
-      <c r="B389">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="C389">
-        <v>118.4</v>
-      </c>
-      <c r="D389">
-        <v>-38.26</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
-        <v>44127</v>
-      </c>
-      <c r="B390">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="C390">
-        <v>118.4</v>
-      </c>
-      <c r="D390">
-        <v>-38.43</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
-        <v>44128</v>
-      </c>
-      <c r="B391">
-        <v>76.45</v>
-      </c>
-      <c r="C391">
-        <v>118.4</v>
-      </c>
-      <c r="D391">
-        <v>-35.43</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B392">
-        <v>92.34</v>
-      </c>
-      <c r="C392">
-        <v>118.4</v>
-      </c>
-      <c r="D392">
-        <v>-22.01</v>
+        <v>-30.97</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -583,6 +583,20 @@
         <v>-24.87</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B14">
+        <v>95.28</v>
+      </c>
+      <c r="C14">
+        <v>110.6</v>
+      </c>
+      <c r="D14">
+        <v>-13.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -590,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5739,6 +5753,216 @@
         <v>-30.97</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B368">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="C368">
+        <v>110.6</v>
+      </c>
+      <c r="D368">
+        <v>-12.48</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B369">
+        <v>97.72</v>
+      </c>
+      <c r="C369">
+        <v>110.6</v>
+      </c>
+      <c r="D369">
+        <v>-11.64</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B370">
+        <v>85.7</v>
+      </c>
+      <c r="C370">
+        <v>110.6</v>
+      </c>
+      <c r="D370">
+        <v>-22.51</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B371">
+        <v>89.31999999999999</v>
+      </c>
+      <c r="C371">
+        <v>110.6</v>
+      </c>
+      <c r="D371">
+        <v>-19.23</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B372">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="C372">
+        <v>110.6</v>
+      </c>
+      <c r="D372">
+        <v>-20.79</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B373">
+        <v>82.11</v>
+      </c>
+      <c r="C373">
+        <v>110.6</v>
+      </c>
+      <c r="D373">
+        <v>-25.75</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44142</v>
+      </c>
+      <c r="B374">
+        <v>74.14</v>
+      </c>
+      <c r="C374">
+        <v>110.6</v>
+      </c>
+      <c r="D374">
+        <v>-32.97</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44143</v>
+      </c>
+      <c r="B375">
+        <v>71.15000000000001</v>
+      </c>
+      <c r="C375">
+        <v>110.6</v>
+      </c>
+      <c r="D375">
+        <v>-35.67</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B376">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="C376">
+        <v>110.6</v>
+      </c>
+      <c r="D376">
+        <v>-37.06</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B377">
+        <v>71.44</v>
+      </c>
+      <c r="C377">
+        <v>110.6</v>
+      </c>
+      <c r="D377">
+        <v>-35.41</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B378">
+        <v>92.51000000000001</v>
+      </c>
+      <c r="C378">
+        <v>110.6</v>
+      </c>
+      <c r="D378">
+        <v>-16.35</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B379">
+        <v>126.58</v>
+      </c>
+      <c r="C379">
+        <v>110.6</v>
+      </c>
+      <c r="D379">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B380">
+        <v>120</v>
+      </c>
+      <c r="C380">
+        <v>110.6</v>
+      </c>
+      <c r="D380">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B381">
+        <v>130.98</v>
+      </c>
+      <c r="C381">
+        <v>110.6</v>
+      </c>
+      <c r="D381">
+        <v>18.43</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B382">
+        <v>133.53</v>
+      </c>
+      <c r="C382">
+        <v>110.6</v>
+      </c>
+      <c r="D382">
+        <v>20.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -585,16 +585,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44150</v>
+        <v>44157</v>
       </c>
       <c r="B14">
-        <v>95.28</v>
+        <v>114.27</v>
       </c>
       <c r="C14">
         <v>110.6</v>
       </c>
       <c r="D14">
-        <v>-13.85</v>
+        <v>3.33</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5963,6 +5963,104 @@
         <v>20.74</v>
       </c>
     </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B383">
+        <v>129.96</v>
+      </c>
+      <c r="C383">
+        <v>110.6</v>
+      </c>
+      <c r="D383">
+        <v>17.51</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B384">
+        <v>135.84</v>
+      </c>
+      <c r="C384">
+        <v>110.6</v>
+      </c>
+      <c r="D384">
+        <v>22.82</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B385">
+        <v>147.3</v>
+      </c>
+      <c r="C385">
+        <v>110.6</v>
+      </c>
+      <c r="D385">
+        <v>33.19</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B386">
+        <v>170.91</v>
+      </c>
+      <c r="C386">
+        <v>110.6</v>
+      </c>
+      <c r="D386">
+        <v>54.53</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B387">
+        <v>179.05</v>
+      </c>
+      <c r="C387">
+        <v>110.6</v>
+      </c>
+      <c r="D387">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B388">
+        <v>165.27</v>
+      </c>
+      <c r="C388">
+        <v>110.6</v>
+      </c>
+      <c r="D388">
+        <v>49.44</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44157</v>
+      </c>
+      <c r="B389">
+        <v>156.52</v>
+      </c>
+      <c r="C389">
+        <v>110.6</v>
+      </c>
+      <c r="D389">
+        <v>41.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -417,184 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B2">
-        <v>122.39</v>
+        <v>107.31</v>
       </c>
       <c r="C2">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D2">
-        <v>10.66</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B3">
-        <v>107.31</v>
+        <v>93.59</v>
       </c>
       <c r="C3">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D3">
-        <v>-6</v>
+        <v>-29.18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B4">
-        <v>93.59</v>
+        <v>116</v>
       </c>
       <c r="C4">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D4">
-        <v>-29.18</v>
+        <v>-13.2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B5">
-        <v>116</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C5">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D5">
-        <v>-13.2</v>
+        <v>-18.82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B6">
-        <v>92.34999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C6">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D6">
-        <v>-18.82</v>
+        <v>-32.79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B7">
-        <v>66.51000000000001</v>
+        <v>57.27</v>
       </c>
       <c r="C7">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D7">
-        <v>-32.79</v>
+        <v>-42.69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B8">
-        <v>57.27</v>
+        <v>83.84</v>
       </c>
       <c r="C8">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D8">
-        <v>-42.69</v>
+        <v>-37.18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B9">
-        <v>83.84</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C9">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D9">
-        <v>-37.18</v>
+        <v>-30.45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B10">
-        <v>72.43000000000001</v>
+        <v>103.78</v>
       </c>
       <c r="C10">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D10">
-        <v>-30.45</v>
+        <v>20.08</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B11">
-        <v>103.78</v>
+        <v>75.97</v>
       </c>
       <c r="C11">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D11">
-        <v>20.08</v>
+        <v>-19.6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B12">
-        <v>75.97</v>
+        <v>88.95</v>
       </c>
       <c r="C12">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D12">
-        <v>-19.6</v>
+        <v>-24.87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B13">
-        <v>88.95</v>
+        <v>118</v>
       </c>
       <c r="C13">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D13">
-        <v>-24.87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B14">
-        <v>114.27</v>
-      </c>
-      <c r="C14">
-        <v>110.6</v>
-      </c>
-      <c r="D14">
-        <v>3.33</v>
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D389"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -631,5434 +617,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B2">
-        <v>99.62</v>
+        <v>146.27</v>
       </c>
       <c r="C2">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D2">
-        <v>-9.92</v>
+        <v>28.12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43771</v>
+        <v>43801</v>
       </c>
       <c r="B3">
-        <v>95.17</v>
+        <v>138.06</v>
       </c>
       <c r="C3">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D3">
-        <v>-13.95</v>
+        <v>20.93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43772</v>
+        <v>43802</v>
       </c>
       <c r="B4">
-        <v>95.33</v>
+        <v>118.82</v>
       </c>
       <c r="C4">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D4">
-        <v>-13.81</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43773</v>
+        <v>43803</v>
       </c>
       <c r="B5">
-        <v>101.25</v>
+        <v>113.58</v>
       </c>
       <c r="C5">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D5">
-        <v>-8.449999999999999</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43774</v>
+        <v>43804</v>
       </c>
       <c r="B6">
-        <v>99.97</v>
+        <v>114.81</v>
       </c>
       <c r="C6">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D6">
-        <v>-9.609999999999999</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43775</v>
+        <v>43805</v>
       </c>
       <c r="B7">
-        <v>99.84999999999999</v>
+        <v>120.68</v>
       </c>
       <c r="C7">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D7">
-        <v>-9.710000000000001</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43776</v>
+        <v>43806</v>
       </c>
       <c r="B8">
-        <v>102.92</v>
+        <v>114.73</v>
       </c>
       <c r="C8">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D8">
-        <v>-6.94</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43777</v>
+        <v>43807</v>
       </c>
       <c r="B9">
-        <v>104.06</v>
+        <v>109.88</v>
       </c>
       <c r="C9">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D9">
-        <v>-5.91</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43778</v>
+        <v>43808</v>
       </c>
       <c r="B10">
-        <v>101.43</v>
+        <v>105.36</v>
       </c>
       <c r="C10">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D10">
-        <v>-8.289999999999999</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43779</v>
+        <v>43809</v>
       </c>
       <c r="B11">
-        <v>122.75</v>
+        <v>102.39</v>
       </c>
       <c r="C11">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D11">
-        <v>10.99</v>
+        <v>-10.32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43780</v>
+        <v>43810</v>
       </c>
       <c r="B12">
-        <v>130.19</v>
+        <v>100.2</v>
       </c>
       <c r="C12">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D12">
-        <v>17.71</v>
+        <v>-12.23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43781</v>
+        <v>43811</v>
       </c>
       <c r="B13">
-        <v>135.04</v>
+        <v>97.54000000000001</v>
       </c>
       <c r="C13">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D13">
-        <v>22.1</v>
+        <v>-14.56</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43782</v>
+        <v>43812</v>
       </c>
       <c r="B14">
-        <v>149.71</v>
+        <v>95.92</v>
       </c>
       <c r="C14">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D14">
-        <v>35.37</v>
+        <v>-15.98</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43783</v>
+        <v>43813</v>
       </c>
       <c r="B15">
-        <v>172.26</v>
+        <v>95.41</v>
       </c>
       <c r="C15">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D15">
-        <v>55.76</v>
+        <v>-16.43</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43784</v>
+        <v>43814</v>
       </c>
       <c r="B16">
-        <v>179.38</v>
+        <v>94.86</v>
       </c>
       <c r="C16">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D16">
-        <v>62.19</v>
+        <v>-16.91</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43785</v>
+        <v>43815</v>
       </c>
       <c r="B17">
-        <v>173.57</v>
+        <v>102.03</v>
       </c>
       <c r="C17">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D17">
-        <v>56.94</v>
+        <v>-10.63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43786</v>
+        <v>43816</v>
       </c>
       <c r="B18">
-        <v>159.01</v>
+        <v>106.15</v>
       </c>
       <c r="C18">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D18">
-        <v>43.78</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43787</v>
+        <v>43817</v>
       </c>
       <c r="B19">
-        <v>144.47</v>
+        <v>106.03</v>
       </c>
       <c r="C19">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D19">
-        <v>30.63</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43788</v>
+        <v>43818</v>
       </c>
       <c r="B20">
-        <v>125.69</v>
+        <v>104.99</v>
       </c>
       <c r="C20">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D20">
-        <v>13.65</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43789</v>
+        <v>43819</v>
       </c>
       <c r="B21">
-        <v>112.94</v>
+        <v>104.95</v>
       </c>
       <c r="C21">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D21">
-        <v>2.12</v>
+        <v>-8.07</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43790</v>
+        <v>43820</v>
       </c>
       <c r="B22">
-        <v>106.53</v>
+        <v>114.27</v>
       </c>
       <c r="C22">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D22">
-        <v>-3.68</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43791</v>
+        <v>43821</v>
       </c>
       <c r="B23">
-        <v>102.96</v>
+        <v>126.04</v>
       </c>
       <c r="C23">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D23">
-        <v>-6.91</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43792</v>
+        <v>43822</v>
       </c>
       <c r="B24">
-        <v>101.7</v>
+        <v>129.5</v>
       </c>
       <c r="C24">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D24">
-        <v>-8.050000000000001</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43793</v>
+        <v>43823</v>
       </c>
       <c r="B25">
-        <v>103.09</v>
+        <v>120</v>
       </c>
       <c r="C25">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D25">
-        <v>-6.78</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43794</v>
+        <v>43824</v>
       </c>
       <c r="B26">
-        <v>101.76</v>
+        <v>106.85</v>
       </c>
       <c r="C26">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D26">
-        <v>-7.99</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43795</v>
+        <v>43825</v>
       </c>
       <c r="B27">
-        <v>100.58</v>
+        <v>97.69</v>
       </c>
       <c r="C27">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D27">
-        <v>-9.050000000000001</v>
+        <v>-14.43</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43796</v>
+        <v>43826</v>
       </c>
       <c r="B28">
-        <v>128.99</v>
+        <v>93.48</v>
       </c>
       <c r="C28">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D28">
-        <v>16.63</v>
+        <v>-18.12</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43797</v>
+        <v>43827</v>
       </c>
       <c r="B29">
-        <v>141.04</v>
+        <v>90.31</v>
       </c>
       <c r="C29">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D29">
-        <v>27.53</v>
+        <v>-20.89</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43798</v>
+        <v>43828</v>
       </c>
       <c r="B30">
-        <v>137.55</v>
+        <v>87.31999999999999</v>
       </c>
       <c r="C30">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D30">
-        <v>24.37</v>
+        <v>-23.51</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43799</v>
+        <v>43829</v>
       </c>
       <c r="B31">
-        <v>142.78</v>
+        <v>85.11</v>
       </c>
       <c r="C31">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D31">
-        <v>29.1</v>
+        <v>-25.45</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43800</v>
+        <v>43830</v>
       </c>
       <c r="B32">
-        <v>146.27</v>
+        <v>83.39</v>
       </c>
       <c r="C32">
         <v>114.17</v>
       </c>
       <c r="D32">
-        <v>28.12</v>
+        <v>-26.96</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43801</v>
+        <v>43831</v>
       </c>
       <c r="B33">
-        <v>138.06</v>
+        <v>82.44</v>
       </c>
       <c r="C33">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D33">
-        <v>20.93</v>
+        <v>-37.62</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43802</v>
+        <v>43832</v>
       </c>
       <c r="B34">
-        <v>118.82</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="C34">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D34">
-        <v>4.08</v>
+        <v>-24.74</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43803</v>
+        <v>43833</v>
       </c>
       <c r="B35">
-        <v>113.58</v>
+        <v>94.8</v>
       </c>
       <c r="C35">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D35">
-        <v>-0.51</v>
+        <v>-28.26</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43804</v>
+        <v>43834</v>
       </c>
       <c r="B36">
-        <v>114.81</v>
+        <v>95.92</v>
       </c>
       <c r="C36">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D36">
-        <v>0.57</v>
+        <v>-27.42</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43805</v>
+        <v>43835</v>
       </c>
       <c r="B37">
-        <v>120.68</v>
+        <v>94.88</v>
       </c>
       <c r="C37">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D37">
-        <v>5.7</v>
+        <v>-28.21</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43806</v>
+        <v>43836</v>
       </c>
       <c r="B38">
-        <v>114.73</v>
+        <v>98.77</v>
       </c>
       <c r="C38">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D38">
-        <v>0.49</v>
+        <v>-25.26</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43807</v>
+        <v>43837</v>
       </c>
       <c r="B39">
-        <v>109.88</v>
+        <v>106.38</v>
       </c>
       <c r="C39">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D39">
-        <v>-3.76</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43808</v>
+        <v>43838</v>
       </c>
       <c r="B40">
-        <v>105.36</v>
+        <v>96.95</v>
       </c>
       <c r="C40">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D40">
-        <v>-7.71</v>
+        <v>-26.64</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43809</v>
+        <v>43839</v>
       </c>
       <c r="B41">
-        <v>102.39</v>
+        <v>88.92</v>
       </c>
       <c r="C41">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D41">
-        <v>-10.32</v>
+        <v>-32.72</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43810</v>
+        <v>43840</v>
       </c>
       <c r="B42">
-        <v>100.2</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="C42">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D42">
-        <v>-12.23</v>
+        <v>-32.85</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43811</v>
+        <v>43841</v>
       </c>
       <c r="B43">
-        <v>97.54000000000001</v>
+        <v>104.72</v>
       </c>
       <c r="C43">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D43">
-        <v>-14.56</v>
+        <v>-20.76</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43812</v>
+        <v>43842</v>
       </c>
       <c r="B44">
-        <v>95.92</v>
+        <v>95.23</v>
       </c>
       <c r="C44">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D44">
-        <v>-15.98</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43813</v>
+        <v>43843</v>
       </c>
       <c r="B45">
-        <v>95.41</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="C45">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D45">
-        <v>-16.43</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43814</v>
+        <v>43844</v>
       </c>
       <c r="B46">
-        <v>94.86</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="C46">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D46">
-        <v>-16.91</v>
+        <v>-27.39</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43815</v>
+        <v>43845</v>
       </c>
       <c r="B47">
-        <v>102.03</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="C47">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D47">
-        <v>-10.63</v>
+        <v>-33.63</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43816</v>
+        <v>43846</v>
       </c>
       <c r="B48">
-        <v>106.15</v>
+        <v>91.67</v>
       </c>
       <c r="C48">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D48">
-        <v>-7.02</v>
+        <v>-30.63</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43817</v>
+        <v>43847</v>
       </c>
       <c r="B49">
-        <v>106.03</v>
+        <v>107.67</v>
       </c>
       <c r="C49">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D49">
-        <v>-7.12</v>
+        <v>-18.53</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43818</v>
+        <v>43848</v>
       </c>
       <c r="B50">
-        <v>104.99</v>
+        <v>99.84</v>
       </c>
       <c r="C50">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D50">
-        <v>-8.039999999999999</v>
+        <v>-24.45</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43819</v>
+        <v>43849</v>
       </c>
       <c r="B51">
-        <v>104.95</v>
+        <v>106.68</v>
       </c>
       <c r="C51">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D51">
-        <v>-8.07</v>
+        <v>-19.28</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43820</v>
+        <v>43850</v>
       </c>
       <c r="B52">
-        <v>114.27</v>
+        <v>99.88</v>
       </c>
       <c r="C52">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D52">
-        <v>0.09</v>
+        <v>-24.42</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43821</v>
+        <v>43851</v>
       </c>
       <c r="B53">
-        <v>126.04</v>
+        <v>95.33</v>
       </c>
       <c r="C53">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D53">
-        <v>10.4</v>
+        <v>-27.86</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43822</v>
+        <v>43852</v>
       </c>
       <c r="B54">
-        <v>129.5</v>
+        <v>101.73</v>
       </c>
       <c r="C54">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D54">
-        <v>13.43</v>
+        <v>-23.02</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43823</v>
+        <v>43853</v>
       </c>
       <c r="B55">
-        <v>120</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="C55">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D55">
-        <v>5.11</v>
+        <v>-25.9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43824</v>
+        <v>43854</v>
       </c>
       <c r="B56">
-        <v>106.85</v>
+        <v>90.48</v>
       </c>
       <c r="C56">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D56">
-        <v>-6.4</v>
+        <v>-31.53</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43825</v>
+        <v>43855</v>
       </c>
       <c r="B57">
-        <v>97.69</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C57">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D57">
-        <v>-14.43</v>
+        <v>-28.88</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43826</v>
+        <v>43856</v>
       </c>
       <c r="B58">
-        <v>93.48</v>
+        <v>92.36</v>
       </c>
       <c r="C58">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D58">
-        <v>-18.12</v>
+        <v>-30.11</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43827</v>
+        <v>43857</v>
       </c>
       <c r="B59">
-        <v>90.31</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="C59">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D59">
-        <v>-20.89</v>
+        <v>-34.39</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43828</v>
+        <v>43858</v>
       </c>
       <c r="B60">
-        <v>87.31999999999999</v>
+        <v>79.81</v>
       </c>
       <c r="C60">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D60">
-        <v>-23.51</v>
+        <v>-39.6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43829</v>
+        <v>43859</v>
       </c>
       <c r="B61">
-        <v>85.11</v>
+        <v>78.02</v>
       </c>
       <c r="C61">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D61">
-        <v>-25.45</v>
+        <v>-40.96</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43830</v>
+        <v>43860</v>
       </c>
       <c r="B62">
-        <v>83.39</v>
+        <v>76.23</v>
       </c>
       <c r="C62">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D62">
-        <v>-26.96</v>
+        <v>-42.32</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B63">
-        <v>82.44</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="C63">
         <v>132.15</v>
       </c>
       <c r="D63">
-        <v>-37.62</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43832</v>
+        <v>43862</v>
       </c>
       <c r="B64">
-        <v>99.45999999999999</v>
+        <v>73.39</v>
       </c>
       <c r="C64">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D64">
-        <v>-24.74</v>
+        <v>-45.09</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43833</v>
+        <v>43863</v>
       </c>
       <c r="B65">
-        <v>94.8</v>
+        <v>76.36</v>
       </c>
       <c r="C65">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D65">
-        <v>-28.26</v>
+        <v>-42.86</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43834</v>
+        <v>43864</v>
       </c>
       <c r="B66">
-        <v>95.92</v>
+        <v>80.23</v>
       </c>
       <c r="C66">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D66">
-        <v>-27.42</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43835</v>
+        <v>43865</v>
       </c>
       <c r="B67">
-        <v>94.88</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="C67">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D67">
-        <v>-28.21</v>
+        <v>-35.64</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43836</v>
+        <v>43866</v>
       </c>
       <c r="B68">
-        <v>98.77</v>
+        <v>97.08</v>
       </c>
       <c r="C68">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D68">
-        <v>-25.26</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43837</v>
+        <v>43867</v>
       </c>
       <c r="B69">
-        <v>106.38</v>
+        <v>91.31</v>
       </c>
       <c r="C69">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D69">
-        <v>-19.5</v>
+        <v>-31.67</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43838</v>
+        <v>43868</v>
       </c>
       <c r="B70">
-        <v>96.95</v>
+        <v>104.2</v>
       </c>
       <c r="C70">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D70">
-        <v>-26.64</v>
+        <v>-22.03</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43839</v>
+        <v>43869</v>
       </c>
       <c r="B71">
-        <v>88.92</v>
+        <v>116.15</v>
       </c>
       <c r="C71">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D71">
-        <v>-32.72</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43840</v>
+        <v>43870</v>
       </c>
       <c r="B72">
-        <v>88.73999999999999</v>
+        <v>128.33</v>
       </c>
       <c r="C72">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D72">
-        <v>-32.85</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43841</v>
+        <v>43871</v>
       </c>
       <c r="B73">
-        <v>104.72</v>
+        <v>174.02</v>
       </c>
       <c r="C73">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D73">
-        <v>-20.76</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43842</v>
+        <v>43872</v>
       </c>
       <c r="B74">
-        <v>95.23</v>
+        <v>210.61</v>
       </c>
       <c r="C74">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D74">
-        <v>-27.94</v>
+        <v>57.59</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43843</v>
+        <v>43873</v>
       </c>
       <c r="B75">
-        <v>95.98999999999999</v>
+        <v>199.88</v>
       </c>
       <c r="C75">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D75">
-        <v>-27.36</v>
+        <v>49.56</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43844</v>
+        <v>43874</v>
       </c>
       <c r="B76">
-        <v>95.95999999999999</v>
+        <v>187.34</v>
       </c>
       <c r="C76">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D76">
-        <v>-27.39</v>
+        <v>40.18</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43845</v>
+        <v>43875</v>
       </c>
       <c r="B77">
-        <v>87.70999999999999</v>
+        <v>170.34</v>
       </c>
       <c r="C77">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D77">
-        <v>-33.63</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43846</v>
+        <v>43876</v>
       </c>
       <c r="B78">
-        <v>91.67</v>
+        <v>140.86</v>
       </c>
       <c r="C78">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D78">
-        <v>-30.63</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43847</v>
+        <v>43877</v>
       </c>
       <c r="B79">
-        <v>107.67</v>
+        <v>114.7</v>
       </c>
       <c r="C79">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D79">
-        <v>-18.53</v>
+        <v>-14.18</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43848</v>
+        <v>43878</v>
       </c>
       <c r="B80">
-        <v>99.84</v>
+        <v>103</v>
       </c>
       <c r="C80">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D80">
-        <v>-24.45</v>
+        <v>-22.93</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43849</v>
+        <v>43879</v>
       </c>
       <c r="B81">
-        <v>106.68</v>
+        <v>95.69</v>
       </c>
       <c r="C81">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D81">
-        <v>-19.28</v>
+        <v>-28.4</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43850</v>
+        <v>43880</v>
       </c>
       <c r="B82">
-        <v>99.88</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="C82">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D82">
-        <v>-24.42</v>
+        <v>-29.3</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43851</v>
+        <v>43881</v>
       </c>
       <c r="B83">
-        <v>95.33</v>
+        <v>92.72</v>
       </c>
       <c r="C83">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D83">
-        <v>-27.86</v>
+        <v>-30.62</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43852</v>
+        <v>43882</v>
       </c>
       <c r="B84">
-        <v>101.73</v>
+        <v>90.38</v>
       </c>
       <c r="C84">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D84">
-        <v>-23.02</v>
+        <v>-32.38</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43853</v>
+        <v>43883</v>
       </c>
       <c r="B85">
-        <v>97.93000000000001</v>
+        <v>88.64</v>
       </c>
       <c r="C85">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D85">
-        <v>-25.9</v>
+        <v>-33.68</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43854</v>
+        <v>43884</v>
       </c>
       <c r="B86">
-        <v>90.48</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="C86">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D86">
-        <v>-31.53</v>
+        <v>-30.82</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43855</v>
+        <v>43885</v>
       </c>
       <c r="B87">
-        <v>93.98999999999999</v>
+        <v>93.72</v>
       </c>
       <c r="C87">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D87">
-        <v>-28.88</v>
+        <v>-29.87</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43856</v>
+        <v>43886</v>
       </c>
       <c r="B88">
-        <v>92.36</v>
+        <v>92.88</v>
       </c>
       <c r="C88">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D88">
-        <v>-30.11</v>
+        <v>-30.51</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43857</v>
+        <v>43887</v>
       </c>
       <c r="B89">
-        <v>86.70999999999999</v>
+        <v>106.78</v>
       </c>
       <c r="C89">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D89">
-        <v>-34.39</v>
+        <v>-20.1</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43858</v>
+        <v>43888</v>
       </c>
       <c r="B90">
-        <v>79.81</v>
+        <v>123.67</v>
       </c>
       <c r="C90">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D90">
-        <v>-39.6</v>
+        <v>-7.47</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43859</v>
+        <v>43889</v>
       </c>
       <c r="B91">
-        <v>78.02</v>
+        <v>119.95</v>
       </c>
       <c r="C91">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D91">
-        <v>-40.96</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43860</v>
+        <v>43890</v>
       </c>
       <c r="B92">
-        <v>76.23</v>
+        <v>118.88</v>
       </c>
       <c r="C92">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D92">
-        <v>-42.32</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43861</v>
+        <v>43891</v>
       </c>
       <c r="B93">
-        <v>76.06999999999999</v>
+        <v>106.98</v>
       </c>
       <c r="C93">
-        <v>132.15</v>
+        <v>113.77</v>
       </c>
       <c r="D93">
-        <v>-42.43</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43862</v>
+        <v>43892</v>
       </c>
       <c r="B94">
-        <v>73.39</v>
+        <v>96.73</v>
       </c>
       <c r="C94">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D94">
-        <v>-45.09</v>
+        <v>-14.98</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43863</v>
+        <v>43893</v>
       </c>
       <c r="B95">
-        <v>76.36</v>
+        <v>98.62</v>
       </c>
       <c r="C95">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D95">
-        <v>-42.86</v>
+        <v>-13.31</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43864</v>
+        <v>43894</v>
       </c>
       <c r="B96">
-        <v>80.23</v>
+        <v>106.85</v>
       </c>
       <c r="C96">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D96">
-        <v>-39.97</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43865</v>
+        <v>43895</v>
       </c>
       <c r="B97">
-        <v>86.01000000000001</v>
+        <v>114.51</v>
       </c>
       <c r="C97">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D97">
-        <v>-35.64</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43866</v>
+        <v>43896</v>
       </c>
       <c r="B98">
-        <v>97.08</v>
+        <v>114.11</v>
       </c>
       <c r="C98">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D98">
-        <v>-27.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43867</v>
+        <v>43897</v>
       </c>
       <c r="B99">
-        <v>91.31</v>
+        <v>98.8</v>
       </c>
       <c r="C99">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D99">
-        <v>-31.67</v>
+        <v>-13.15</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43868</v>
+        <v>43898</v>
       </c>
       <c r="B100">
-        <v>104.2</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="C100">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D100">
-        <v>-22.03</v>
+        <v>-18.98</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43869</v>
+        <v>43899</v>
       </c>
       <c r="B101">
-        <v>116.15</v>
+        <v>88.88</v>
       </c>
       <c r="C101">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D101">
-        <v>-13.09</v>
+        <v>-21.88</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43870</v>
+        <v>43900</v>
       </c>
       <c r="B102">
-        <v>128.33</v>
+        <v>85.89</v>
       </c>
       <c r="C102">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D102">
-        <v>-3.97</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="B103">
-        <v>174.02</v>
+        <v>83.27</v>
       </c>
       <c r="C103">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D103">
-        <v>30.21</v>
+        <v>-26.81</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43872</v>
+        <v>43902</v>
       </c>
       <c r="B104">
-        <v>210.61</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C104">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D104">
-        <v>57.59</v>
+        <v>-29.23</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43873</v>
+        <v>43903</v>
       </c>
       <c r="B105">
-        <v>199.88</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="C105">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D105">
-        <v>49.56</v>
+        <v>-31.87</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43874</v>
+        <v>43904</v>
       </c>
       <c r="B106">
-        <v>187.34</v>
+        <v>74.27</v>
       </c>
       <c r="C106">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D106">
-        <v>40.18</v>
+        <v>-34.72</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43875</v>
+        <v>43905</v>
       </c>
       <c r="B107">
-        <v>170.34</v>
+        <v>75.94</v>
       </c>
       <c r="C107">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D107">
-        <v>27.46</v>
+        <v>-33.25</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43876</v>
+        <v>43906</v>
       </c>
       <c r="B108">
-        <v>140.86</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C108">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D108">
-        <v>5.4</v>
+        <v>-18.16</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43877</v>
+        <v>43907</v>
       </c>
       <c r="B109">
-        <v>114.7</v>
+        <v>109.04</v>
       </c>
       <c r="C109">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D109">
-        <v>-14.18</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43878</v>
+        <v>43908</v>
       </c>
       <c r="B110">
-        <v>103</v>
+        <v>92.52</v>
       </c>
       <c r="C110">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D110">
-        <v>-22.93</v>
+        <v>-18.68</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43879</v>
+        <v>43909</v>
       </c>
       <c r="B111">
-        <v>95.69</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C111">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D111">
-        <v>-28.4</v>
+        <v>-19.92</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43880</v>
+        <v>43910</v>
       </c>
       <c r="B112">
-        <v>94.48999999999999</v>
+        <v>93.03</v>
       </c>
       <c r="C112">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D112">
-        <v>-29.3</v>
+        <v>-18.23</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43881</v>
+        <v>43911</v>
       </c>
       <c r="B113">
-        <v>92.72</v>
+        <v>107.64</v>
       </c>
       <c r="C113">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D113">
-        <v>-30.62</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43882</v>
+        <v>43912</v>
       </c>
       <c r="B114">
-        <v>90.38</v>
+        <v>104.73</v>
       </c>
       <c r="C114">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D114">
-        <v>-32.38</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43883</v>
+        <v>43913</v>
       </c>
       <c r="B115">
-        <v>88.64</v>
+        <v>90.55</v>
       </c>
       <c r="C115">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D115">
-        <v>-33.68</v>
+        <v>-20.41</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43884</v>
+        <v>43914</v>
       </c>
       <c r="B116">
-        <v>92.45999999999999</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="C116">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D116">
-        <v>-30.82</v>
+        <v>-25.44</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43885</v>
+        <v>43915</v>
       </c>
       <c r="B117">
-        <v>93.72</v>
+        <v>87.22</v>
       </c>
       <c r="C117">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D117">
-        <v>-29.87</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43886</v>
+        <v>43916</v>
       </c>
       <c r="B118">
-        <v>92.88</v>
+        <v>100.01</v>
       </c>
       <c r="C118">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D118">
-        <v>-30.51</v>
+        <v>-12.09</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43887</v>
+        <v>43917</v>
       </c>
       <c r="B119">
-        <v>106.78</v>
+        <v>96.25</v>
       </c>
       <c r="C119">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D119">
-        <v>-20.1</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43888</v>
+        <v>43918</v>
       </c>
       <c r="B120">
-        <v>123.67</v>
+        <v>83.8</v>
       </c>
       <c r="C120">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D120">
-        <v>-7.47</v>
+        <v>-26.34</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43889</v>
+        <v>43919</v>
       </c>
       <c r="B121">
-        <v>119.95</v>
+        <v>79.14</v>
       </c>
       <c r="C121">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D121">
-        <v>-10.25</v>
+        <v>-30.44</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43890</v>
+        <v>43920</v>
       </c>
       <c r="B122">
-        <v>118.88</v>
+        <v>78.02</v>
       </c>
       <c r="C122">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D122">
-        <v>-11.05</v>
+        <v>-31.42</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43891</v>
+        <v>43921</v>
       </c>
       <c r="B123">
-        <v>106.98</v>
+        <v>76.94</v>
       </c>
       <c r="C123">
         <v>113.77</v>
       </c>
       <c r="D123">
-        <v>-5.97</v>
+        <v>-32.37</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43892</v>
+        <v>43922</v>
       </c>
       <c r="B124">
-        <v>96.73</v>
+        <v>75.02</v>
       </c>
       <c r="C124">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D124">
-        <v>-14.98</v>
+        <v>-24.19</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43893</v>
+        <v>43923</v>
       </c>
       <c r="B125">
-        <v>98.62</v>
+        <v>73.72</v>
       </c>
       <c r="C125">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D125">
-        <v>-13.31</v>
+        <v>-25.5</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43894</v>
+        <v>43924</v>
       </c>
       <c r="B126">
-        <v>106.85</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="C126">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D126">
-        <v>-6.08</v>
+        <v>-27.99</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43895</v>
+        <v>43925</v>
       </c>
       <c r="B127">
-        <v>114.51</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C127">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D127">
-        <v>0.65</v>
+        <v>-31.89</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43896</v>
+        <v>43926</v>
       </c>
       <c r="B128">
-        <v>114.11</v>
+        <v>66.39</v>
       </c>
       <c r="C128">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D128">
-        <v>0.31</v>
+        <v>-32.91</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43897</v>
+        <v>43927</v>
       </c>
       <c r="B129">
-        <v>98.8</v>
+        <v>66.22</v>
       </c>
       <c r="C129">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D129">
-        <v>-13.15</v>
+        <v>-33.08</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43898</v>
+        <v>43928</v>
       </c>
       <c r="B130">
-        <v>92.18000000000001</v>
+        <v>78.78</v>
       </c>
       <c r="C130">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D130">
-        <v>-18.98</v>
+        <v>-20.39</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43899</v>
+        <v>43929</v>
       </c>
       <c r="B131">
-        <v>88.88</v>
+        <v>78.77</v>
       </c>
       <c r="C131">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D131">
-        <v>-21.88</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43900</v>
+        <v>43930</v>
       </c>
       <c r="B132">
-        <v>85.89</v>
+        <v>77.78</v>
       </c>
       <c r="C132">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D132">
-        <v>-24.51</v>
+        <v>-21.4</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43901</v>
+        <v>43931</v>
       </c>
       <c r="B133">
-        <v>83.27</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="C133">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D133">
-        <v>-26.81</v>
+        <v>-25.55</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43902</v>
+        <v>43932</v>
       </c>
       <c r="B134">
-        <v>80.51000000000001</v>
+        <v>69.62</v>
       </c>
       <c r="C134">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D134">
-        <v>-29.23</v>
+        <v>-29.64</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43903</v>
+        <v>43933</v>
       </c>
       <c r="B135">
-        <v>77.51000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C135">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D135">
-        <v>-31.87</v>
+        <v>-33.29</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43904</v>
+        <v>43934</v>
       </c>
       <c r="B136">
-        <v>74.27</v>
+        <v>65.12</v>
       </c>
       <c r="C136">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D136">
-        <v>-34.72</v>
+        <v>-34.19</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43905</v>
+        <v>43935</v>
       </c>
       <c r="B137">
-        <v>75.94</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C137">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D137">
-        <v>-33.25</v>
+        <v>-33.2</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43906</v>
+        <v>43936</v>
       </c>
       <c r="B138">
-        <v>93.09999999999999</v>
+        <v>65.27</v>
       </c>
       <c r="C138">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D138">
-        <v>-18.16</v>
+        <v>-34.04</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43907</v>
+        <v>43937</v>
       </c>
       <c r="B139">
-        <v>109.04</v>
+        <v>64.78</v>
       </c>
       <c r="C139">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D139">
-        <v>-4.15</v>
+        <v>-34.54</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43908</v>
+        <v>43938</v>
       </c>
       <c r="B140">
-        <v>92.52</v>
+        <v>63.42</v>
       </c>
       <c r="C140">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D140">
-        <v>-18.68</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43909</v>
+        <v>43939</v>
       </c>
       <c r="B141">
-        <v>91.09999999999999</v>
+        <v>62.1</v>
       </c>
       <c r="C141">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D141">
-        <v>-19.92</v>
+        <v>-37.24</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43910</v>
+        <v>43940</v>
       </c>
       <c r="B142">
-        <v>93.03</v>
+        <v>61.06</v>
       </c>
       <c r="C142">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D142">
-        <v>-18.23</v>
+        <v>-38.29</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43911</v>
+        <v>43941</v>
       </c>
       <c r="B143">
-        <v>107.64</v>
+        <v>62.04</v>
       </c>
       <c r="C143">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D143">
-        <v>-5.39</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43912</v>
+        <v>43942</v>
       </c>
       <c r="B144">
-        <v>104.73</v>
+        <v>63.03</v>
       </c>
       <c r="C144">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D144">
-        <v>-7.94</v>
+        <v>-36.3</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43913</v>
+        <v>43943</v>
       </c>
       <c r="B145">
-        <v>90.55</v>
+        <v>62.84</v>
       </c>
       <c r="C145">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D145">
-        <v>-20.41</v>
+        <v>-36.49</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43914</v>
+        <v>43944</v>
       </c>
       <c r="B146">
-        <v>84.81999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="C146">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D146">
-        <v>-25.44</v>
+        <v>-36.84</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43915</v>
+        <v>43945</v>
       </c>
       <c r="B147">
-        <v>87.22</v>
+        <v>62.88</v>
       </c>
       <c r="C147">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D147">
-        <v>-23.34</v>
+        <v>-36.46</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43916</v>
+        <v>43946</v>
       </c>
       <c r="B148">
-        <v>100.01</v>
+        <v>63.01</v>
       </c>
       <c r="C148">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D148">
-        <v>-12.09</v>
+        <v>-36.32</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43917</v>
+        <v>43947</v>
       </c>
       <c r="B149">
-        <v>96.25</v>
+        <v>62.89</v>
       </c>
       <c r="C149">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D149">
-        <v>-15.4</v>
+        <v>-36.45</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43918</v>
+        <v>43948</v>
       </c>
       <c r="B150">
-        <v>83.8</v>
+        <v>62.24</v>
       </c>
       <c r="C150">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D150">
-        <v>-26.34</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43919</v>
+        <v>43949</v>
       </c>
       <c r="B151">
-        <v>79.14</v>
+        <v>60.33</v>
       </c>
       <c r="C151">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D151">
-        <v>-30.44</v>
+        <v>-39.03</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43920</v>
+        <v>43950</v>
       </c>
       <c r="B152">
-        <v>78.02</v>
+        <v>60.25</v>
       </c>
       <c r="C152">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D152">
-        <v>-31.42</v>
+        <v>-39.11</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B153">
-        <v>76.94</v>
+        <v>60.76</v>
       </c>
       <c r="C153">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D153">
-        <v>-32.37</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B154">
-        <v>75.02</v>
+        <v>61.01</v>
       </c>
       <c r="C154">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D154">
-        <v>-24.19</v>
+        <v>-38.95</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43923</v>
+        <v>43953</v>
       </c>
       <c r="B155">
-        <v>73.72</v>
+        <v>57.79</v>
       </c>
       <c r="C155">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D155">
-        <v>-25.5</v>
+        <v>-42.17</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43924</v>
+        <v>43954</v>
       </c>
       <c r="B156">
-        <v>71.26000000000001</v>
+        <v>57.7</v>
       </c>
       <c r="C156">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D156">
-        <v>-27.99</v>
+        <v>-42.26</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43925</v>
+        <v>43955</v>
       </c>
       <c r="B157">
-        <v>67.40000000000001</v>
+        <v>59.51</v>
       </c>
       <c r="C157">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D157">
-        <v>-31.89</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43926</v>
+        <v>43956</v>
       </c>
       <c r="B158">
-        <v>66.39</v>
+        <v>58.09</v>
       </c>
       <c r="C158">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D158">
-        <v>-32.91</v>
+        <v>-41.87</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43927</v>
+        <v>43957</v>
       </c>
       <c r="B159">
-        <v>66.22</v>
+        <v>55.98</v>
       </c>
       <c r="C159">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D159">
-        <v>-33.08</v>
+        <v>-43.98</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43928</v>
+        <v>43958</v>
       </c>
       <c r="B160">
-        <v>78.78</v>
+        <v>56.29</v>
       </c>
       <c r="C160">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D160">
-        <v>-20.39</v>
+        <v>-43.67</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43929</v>
+        <v>43959</v>
       </c>
       <c r="B161">
-        <v>78.77</v>
+        <v>56.21</v>
       </c>
       <c r="C161">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D161">
-        <v>-20.4</v>
+        <v>-43.75</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43930</v>
+        <v>43960</v>
       </c>
       <c r="B162">
-        <v>77.78</v>
+        <v>58.1</v>
       </c>
       <c r="C162">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D162">
-        <v>-21.4</v>
+        <v>-41.86</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43931</v>
+        <v>43961</v>
       </c>
       <c r="B163">
-        <v>73.68000000000001</v>
+        <v>57.23</v>
       </c>
       <c r="C163">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D163">
-        <v>-25.55</v>
+        <v>-42.73</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43932</v>
+        <v>43962</v>
       </c>
       <c r="B164">
-        <v>69.62</v>
+        <v>58.09</v>
       </c>
       <c r="C164">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D164">
-        <v>-29.64</v>
+        <v>-41.87</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43933</v>
+        <v>43963</v>
       </c>
       <c r="B165">
-        <v>66.01000000000001</v>
+        <v>61.28</v>
       </c>
       <c r="C165">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D165">
-        <v>-33.29</v>
+        <v>-38.68</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43934</v>
+        <v>43964</v>
       </c>
       <c r="B166">
-        <v>65.12</v>
+        <v>57</v>
       </c>
       <c r="C166">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D166">
-        <v>-34.19</v>
+        <v>-42.96</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43935</v>
+        <v>43965</v>
       </c>
       <c r="B167">
-        <v>66.09999999999999</v>
+        <v>54.61</v>
       </c>
       <c r="C167">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D167">
-        <v>-33.2</v>
+        <v>-45.35</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43936</v>
+        <v>43966</v>
       </c>
       <c r="B168">
-        <v>65.27</v>
+        <v>55.86</v>
       </c>
       <c r="C168">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D168">
-        <v>-34.04</v>
+        <v>-44.1</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43937</v>
+        <v>43967</v>
       </c>
       <c r="B169">
-        <v>64.78</v>
+        <v>56.19</v>
       </c>
       <c r="C169">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D169">
-        <v>-34.54</v>
+        <v>-43.77</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43938</v>
+        <v>43968</v>
       </c>
       <c r="B170">
-        <v>63.42</v>
+        <v>57.18</v>
       </c>
       <c r="C170">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D170">
-        <v>-35.91</v>
+        <v>-42.78</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43939</v>
+        <v>43969</v>
       </c>
       <c r="B171">
-        <v>62.1</v>
+        <v>58.31</v>
       </c>
       <c r="C171">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D171">
-        <v>-37.24</v>
+        <v>-41.65</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43940</v>
+        <v>43970</v>
       </c>
       <c r="B172">
-        <v>61.06</v>
+        <v>58.54</v>
       </c>
       <c r="C172">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D172">
-        <v>-38.29</v>
+        <v>-41.42</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="B173">
-        <v>62.04</v>
+        <v>59.84</v>
       </c>
       <c r="C173">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D173">
-        <v>-37.3</v>
+        <v>-40.12</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43942</v>
+        <v>43972</v>
       </c>
       <c r="B174">
-        <v>63.03</v>
+        <v>59.3</v>
       </c>
       <c r="C174">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D174">
-        <v>-36.3</v>
+        <v>-40.66</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43943</v>
+        <v>43973</v>
       </c>
       <c r="B175">
-        <v>62.84</v>
+        <v>59.99</v>
       </c>
       <c r="C175">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D175">
-        <v>-36.49</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43944</v>
+        <v>43974</v>
       </c>
       <c r="B176">
-        <v>62.5</v>
+        <v>61.25</v>
       </c>
       <c r="C176">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D176">
-        <v>-36.84</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43945</v>
+        <v>43975</v>
       </c>
       <c r="B177">
-        <v>62.88</v>
+        <v>57.84</v>
       </c>
       <c r="C177">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D177">
-        <v>-36.46</v>
+        <v>-42.12</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43946</v>
+        <v>43976</v>
       </c>
       <c r="B178">
-        <v>63.01</v>
+        <v>57.57</v>
       </c>
       <c r="C178">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D178">
-        <v>-36.32</v>
+        <v>-42.39</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43947</v>
+        <v>43977</v>
       </c>
       <c r="B179">
-        <v>62.89</v>
+        <v>55.24</v>
       </c>
       <c r="C179">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D179">
-        <v>-36.45</v>
+        <v>-44.72</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43948</v>
+        <v>43978</v>
       </c>
       <c r="B180">
-        <v>62.24</v>
+        <v>54.03</v>
       </c>
       <c r="C180">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D180">
-        <v>-37.1</v>
+        <v>-45.93</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43949</v>
+        <v>43979</v>
       </c>
       <c r="B181">
-        <v>60.33</v>
+        <v>54.66</v>
       </c>
       <c r="C181">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D181">
-        <v>-39.03</v>
+        <v>-45.31</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43950</v>
+        <v>43980</v>
       </c>
       <c r="B182">
-        <v>60.25</v>
+        <v>53.75</v>
       </c>
       <c r="C182">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D182">
-        <v>-39.11</v>
+        <v>-46.21</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43951</v>
+        <v>43981</v>
       </c>
       <c r="B183">
-        <v>60.76</v>
+        <v>54.85</v>
       </c>
       <c r="C183">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D183">
-        <v>-38.6</v>
+        <v>-45.11</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43952</v>
+        <v>43982</v>
       </c>
       <c r="B184">
-        <v>61.01</v>
+        <v>52.05</v>
       </c>
       <c r="C184">
         <v>99.93000000000001</v>
       </c>
       <c r="D184">
-        <v>-38.95</v>
+        <v>-47.91</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43953</v>
+        <v>43983</v>
       </c>
       <c r="B185">
-        <v>57.79</v>
+        <v>56.27</v>
       </c>
       <c r="C185">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D185">
-        <v>-42.17</v>
+        <v>-57.84</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43954</v>
+        <v>43984</v>
       </c>
       <c r="B186">
-        <v>57.7</v>
+        <v>58.61</v>
       </c>
       <c r="C186">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D186">
-        <v>-42.26</v>
+        <v>-56.09</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43955</v>
+        <v>43985</v>
       </c>
       <c r="B187">
-        <v>59.51</v>
+        <v>59.44</v>
       </c>
       <c r="C187">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D187">
-        <v>-40.45</v>
+        <v>-55.47</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43956</v>
+        <v>43986</v>
       </c>
       <c r="B188">
-        <v>58.09</v>
+        <v>63.27</v>
       </c>
       <c r="C188">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D188">
-        <v>-41.87</v>
+        <v>-52.59</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43957</v>
+        <v>43987</v>
       </c>
       <c r="B189">
-        <v>55.98</v>
+        <v>62.44</v>
       </c>
       <c r="C189">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D189">
-        <v>-43.98</v>
+        <v>-53.22</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43958</v>
+        <v>43988</v>
       </c>
       <c r="B190">
-        <v>56.29</v>
+        <v>64.95</v>
       </c>
       <c r="C190">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D190">
-        <v>-43.67</v>
+        <v>-51.34</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43959</v>
+        <v>43989</v>
       </c>
       <c r="B191">
-        <v>56.21</v>
+        <v>67.59</v>
       </c>
       <c r="C191">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D191">
-        <v>-43.75</v>
+        <v>-49.35</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43960</v>
+        <v>43990</v>
       </c>
       <c r="B192">
-        <v>58.1</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="C192">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D192">
-        <v>-41.86</v>
+        <v>-46.23</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43961</v>
+        <v>43991</v>
       </c>
       <c r="B193">
-        <v>57.23</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C193">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D193">
-        <v>-42.73</v>
+        <v>-48.75</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43962</v>
+        <v>43992</v>
       </c>
       <c r="B194">
-        <v>58.09</v>
+        <v>120</v>
       </c>
       <c r="C194">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D194">
-        <v>-41.87</v>
+        <v>-10.09</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43963</v>
+        <v>43993</v>
       </c>
       <c r="B195">
-        <v>61.28</v>
+        <v>142.68</v>
       </c>
       <c r="C195">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D195">
-        <v>-38.68</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43964</v>
+        <v>43994</v>
       </c>
       <c r="B196">
-        <v>57</v>
+        <v>133.88</v>
       </c>
       <c r="C196">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D196">
-        <v>-42.96</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43965</v>
+        <v>43995</v>
       </c>
       <c r="B197">
-        <v>54.61</v>
+        <v>135.25</v>
       </c>
       <c r="C197">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D197">
-        <v>-45.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43966</v>
+        <v>43996</v>
       </c>
       <c r="B198">
-        <v>55.86</v>
+        <v>128.03</v>
       </c>
       <c r="C198">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D198">
-        <v>-44.1</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43967</v>
+        <v>43997</v>
       </c>
       <c r="B199">
-        <v>56.19</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C199">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D199">
-        <v>-43.77</v>
+        <v>-32.27</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43968</v>
+        <v>43998</v>
       </c>
       <c r="B200">
-        <v>57.18</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="C200">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D200">
-        <v>-42.78</v>
+        <v>-37.86</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43969</v>
+        <v>43999</v>
       </c>
       <c r="B201">
-        <v>58.31</v>
+        <v>84.55</v>
       </c>
       <c r="C201">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D201">
-        <v>-41.65</v>
+        <v>-36.65</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43970</v>
+        <v>44000</v>
       </c>
       <c r="B202">
-        <v>58.54</v>
+        <v>81.66</v>
       </c>
       <c r="C202">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D202">
-        <v>-41.42</v>
+        <v>-38.82</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43971</v>
+        <v>44001</v>
       </c>
       <c r="B203">
-        <v>59.84</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C203">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D203">
-        <v>-40.12</v>
+        <v>-38.34</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43972</v>
+        <v>44002</v>
       </c>
       <c r="B204">
-        <v>59.3</v>
+        <v>73.42</v>
       </c>
       <c r="C204">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D204">
-        <v>-40.66</v>
+        <v>-44.99</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43973</v>
+        <v>44003</v>
       </c>
       <c r="B205">
-        <v>59.99</v>
+        <v>68.16</v>
       </c>
       <c r="C205">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D205">
-        <v>-39.97</v>
+        <v>-48.93</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43974</v>
+        <v>44004</v>
       </c>
       <c r="B206">
-        <v>61.25</v>
+        <v>66.17</v>
       </c>
       <c r="C206">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D206">
-        <v>-38.71</v>
+        <v>-50.42</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43975</v>
+        <v>44005</v>
       </c>
       <c r="B207">
-        <v>57.84</v>
+        <v>63.94</v>
       </c>
       <c r="C207">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D207">
-        <v>-42.12</v>
+        <v>-52.09</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43976</v>
+        <v>44006</v>
       </c>
       <c r="B208">
-        <v>57.57</v>
+        <v>61.98</v>
       </c>
       <c r="C208">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D208">
-        <v>-42.39</v>
+        <v>-53.56</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43977</v>
+        <v>44007</v>
       </c>
       <c r="B209">
-        <v>55.24</v>
+        <v>61.42</v>
       </c>
       <c r="C209">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D209">
-        <v>-44.72</v>
+        <v>-53.98</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43978</v>
+        <v>44008</v>
       </c>
       <c r="B210">
-        <v>54.03</v>
+        <v>67.02</v>
       </c>
       <c r="C210">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D210">
-        <v>-45.93</v>
+        <v>-49.78</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43979</v>
+        <v>44009</v>
       </c>
       <c r="B211">
-        <v>54.66</v>
+        <v>90.2</v>
       </c>
       <c r="C211">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D211">
-        <v>-45.31</v>
+        <v>-32.42</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43980</v>
+        <v>44010</v>
       </c>
       <c r="B212">
-        <v>53.75</v>
+        <v>99.55</v>
       </c>
       <c r="C212">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D212">
-        <v>-46.21</v>
+        <v>-25.41</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43981</v>
+        <v>44011</v>
       </c>
       <c r="B213">
-        <v>54.85</v>
+        <v>109.58</v>
       </c>
       <c r="C213">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D213">
-        <v>-45.11</v>
+        <v>-17.89</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B214">
-        <v>52.05</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="C214">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D214">
-        <v>-47.91</v>
+        <v>-25.63</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B215">
-        <v>56.27</v>
+        <v>112.51</v>
       </c>
       <c r="C215">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D215">
-        <v>-57.84</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B216">
-        <v>58.61</v>
+        <v>112.53</v>
       </c>
       <c r="C216">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D216">
-        <v>-56.09</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B217">
-        <v>59.44</v>
+        <v>107.51</v>
       </c>
       <c r="C217">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D217">
-        <v>-55.47</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B218">
-        <v>63.27</v>
+        <v>86.86</v>
       </c>
       <c r="C218">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D218">
-        <v>-52.59</v>
+        <v>-16.59</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B219">
-        <v>62.44</v>
+        <v>78.66</v>
       </c>
       <c r="C219">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D219">
-        <v>-53.22</v>
+        <v>-24.47</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B220">
-        <v>64.95</v>
+        <v>74.89</v>
       </c>
       <c r="C220">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D220">
-        <v>-51.34</v>
+        <v>-28.1</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B221">
-        <v>67.59</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C221">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D221">
-        <v>-49.35</v>
+        <v>-28.61</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B222">
-        <v>71.76000000000001</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="C222">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D222">
-        <v>-46.23</v>
+        <v>-28.75</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B223">
-        <v>68.40000000000001</v>
+        <v>73.75</v>
       </c>
       <c r="C223">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D223">
-        <v>-48.75</v>
+        <v>-29.19</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B224">
-        <v>120</v>
+        <v>69.58</v>
       </c>
       <c r="C224">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D224">
-        <v>-10.09</v>
+        <v>-33.19</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B225">
-        <v>142.68</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="C225">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D225">
-        <v>6.9</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B226">
-        <v>133.88</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="C226">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D226">
-        <v>0.31</v>
+        <v>-36.19</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B227">
-        <v>135.25</v>
+        <v>65.17</v>
       </c>
       <c r="C227">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D227">
-        <v>1.34</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B228">
-        <v>128.03</v>
+        <v>64.09</v>
       </c>
       <c r="C228">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D228">
-        <v>-4.07</v>
+        <v>-38.46</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B229">
-        <v>90.40000000000001</v>
+        <v>61.68</v>
       </c>
       <c r="C229">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D229">
-        <v>-32.27</v>
+        <v>-40.78</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B230">
-        <v>82.93000000000001</v>
+        <v>61.67</v>
       </c>
       <c r="C230">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D230">
-        <v>-37.86</v>
+        <v>-40.79</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B231">
-        <v>84.55</v>
+        <v>61.74</v>
       </c>
       <c r="C231">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D231">
-        <v>-36.65</v>
+        <v>-40.72</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B232">
-        <v>81.66</v>
+        <v>62.24</v>
       </c>
       <c r="C232">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D232">
-        <v>-38.82</v>
+        <v>-40.24</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B233">
-        <v>82.29000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="C233">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D233">
-        <v>-38.34</v>
+        <v>-38.26</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B234">
-        <v>73.42</v>
+        <v>62.84</v>
       </c>
       <c r="C234">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D234">
-        <v>-44.99</v>
+        <v>-39.66</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B235">
-        <v>68.16</v>
+        <v>63.38</v>
       </c>
       <c r="C235">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D235">
-        <v>-48.93</v>
+        <v>-39.15</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B236">
-        <v>66.17</v>
+        <v>60.21</v>
       </c>
       <c r="C236">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D236">
-        <v>-50.42</v>
+        <v>-42.19</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B237">
-        <v>63.94</v>
+        <v>59.35</v>
       </c>
       <c r="C237">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D237">
-        <v>-52.09</v>
+        <v>-43.01</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B238">
-        <v>61.98</v>
+        <v>57.93</v>
       </c>
       <c r="C238">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D238">
-        <v>-53.56</v>
+        <v>-44.38</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B239">
-        <v>61.42</v>
+        <v>58.49</v>
       </c>
       <c r="C239">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D239">
-        <v>-53.98</v>
+        <v>-43.84</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B240">
-        <v>67.02</v>
+        <v>59.67</v>
       </c>
       <c r="C240">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D240">
-        <v>-49.78</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B241">
-        <v>90.2</v>
+        <v>59.74</v>
       </c>
       <c r="C241">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D241">
-        <v>-32.42</v>
+        <v>-42.64</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B242">
-        <v>99.55</v>
+        <v>57.93</v>
       </c>
       <c r="C242">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D242">
-        <v>-25.41</v>
+        <v>-44.38</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B243">
-        <v>109.58</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="C243">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D243">
-        <v>-17.89</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B244">
-        <v>99.26000000000001</v>
+        <v>90.17</v>
       </c>
       <c r="C244">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D244">
-        <v>-25.63</v>
+        <v>-13.42</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B245">
-        <v>112.51</v>
+        <v>100.6</v>
       </c>
       <c r="C245">
         <v>104.15</v>
       </c>
       <c r="D245">
-        <v>8.029999999999999</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B246">
-        <v>112.53</v>
+        <v>87.05</v>
       </c>
       <c r="C246">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D246">
-        <v>8.050000000000001</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B247">
-        <v>107.51</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="C247">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D247">
-        <v>3.23</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B248">
-        <v>86.86</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C248">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D248">
-        <v>-16.59</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44017</v>
+        <v>44047</v>
       </c>
       <c r="B249">
-        <v>78.66</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C249">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D249">
-        <v>-24.47</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44018</v>
+        <v>44048</v>
       </c>
       <c r="B250">
-        <v>74.89</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C250">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D250">
-        <v>-28.1</v>
+        <v>-23.75</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44019</v>
+        <v>44049</v>
       </c>
       <c r="B251">
-        <v>74.34999999999999</v>
+        <v>62.14</v>
       </c>
       <c r="C251">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D251">
-        <v>-28.61</v>
+        <v>-28.1</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44020</v>
+        <v>44050</v>
       </c>
       <c r="B252">
-        <v>74.20999999999999</v>
+        <v>60.75</v>
       </c>
       <c r="C252">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D252">
-        <v>-28.75</v>
+        <v>-29.71</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44021</v>
+        <v>44051</v>
       </c>
       <c r="B253">
-        <v>73.75</v>
+        <v>55.95</v>
       </c>
       <c r="C253">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D253">
-        <v>-29.19</v>
+        <v>-35.26</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44022</v>
+        <v>44052</v>
       </c>
       <c r="B254">
-        <v>69.58</v>
+        <v>57.49</v>
       </c>
       <c r="C254">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D254">
-        <v>-33.19</v>
+        <v>-33.48</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44023</v>
+        <v>44053</v>
       </c>
       <c r="B255">
-        <v>67.18000000000001</v>
+        <v>58.94</v>
       </c>
       <c r="C255">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D255">
-        <v>-35.5</v>
+        <v>-31.8</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44024</v>
+        <v>44054</v>
       </c>
       <c r="B256">
-        <v>66.45999999999999</v>
+        <v>58.05</v>
       </c>
       <c r="C256">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D256">
-        <v>-36.19</v>
+        <v>-32.83</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44025</v>
+        <v>44055</v>
       </c>
       <c r="B257">
-        <v>65.17</v>
+        <v>60.51</v>
       </c>
       <c r="C257">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D257">
-        <v>-37.43</v>
+        <v>-29.98</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44026</v>
+        <v>44056</v>
       </c>
       <c r="B258">
-        <v>64.09</v>
+        <v>58.93</v>
       </c>
       <c r="C258">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D258">
-        <v>-38.46</v>
+        <v>-31.82</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44027</v>
+        <v>44057</v>
       </c>
       <c r="B259">
-        <v>61.68</v>
+        <v>61.29</v>
       </c>
       <c r="C259">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D259">
-        <v>-40.78</v>
+        <v>-29.08</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44028</v>
+        <v>44058</v>
       </c>
       <c r="B260">
-        <v>61.67</v>
+        <v>87.75</v>
       </c>
       <c r="C260">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D260">
-        <v>-40.79</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44029</v>
+        <v>44059</v>
       </c>
       <c r="B261">
-        <v>61.74</v>
+        <v>136.35</v>
       </c>
       <c r="C261">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D261">
-        <v>-40.72</v>
+        <v>57.77</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44030</v>
+        <v>44060</v>
       </c>
       <c r="B262">
-        <v>62.24</v>
+        <v>136.22</v>
       </c>
       <c r="C262">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D262">
-        <v>-40.24</v>
+        <v>57.62</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44031</v>
+        <v>44061</v>
       </c>
       <c r="B263">
-        <v>64.3</v>
+        <v>146.75</v>
       </c>
       <c r="C263">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D263">
-        <v>-38.26</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44032</v>
+        <v>44062</v>
       </c>
       <c r="B264">
-        <v>62.84</v>
+        <v>171.51</v>
       </c>
       <c r="C264">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D264">
-        <v>-39.66</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44033</v>
+        <v>44063</v>
       </c>
       <c r="B265">
-        <v>63.38</v>
+        <v>189.24</v>
       </c>
       <c r="C265">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D265">
-        <v>-39.15</v>
+        <v>118.97</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44034</v>
+        <v>44064</v>
       </c>
       <c r="B266">
-        <v>60.21</v>
+        <v>187.72</v>
       </c>
       <c r="C266">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D266">
-        <v>-42.19</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44035</v>
+        <v>44065</v>
       </c>
       <c r="B267">
-        <v>59.35</v>
+        <v>179.81</v>
       </c>
       <c r="C267">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D267">
-        <v>-43.01</v>
+        <v>108.06</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44036</v>
+        <v>44066</v>
       </c>
       <c r="B268">
-        <v>57.93</v>
+        <v>177.59</v>
       </c>
       <c r="C268">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D268">
-        <v>-44.38</v>
+        <v>105.49</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44037</v>
+        <v>44067</v>
       </c>
       <c r="B269">
-        <v>58.49</v>
+        <v>175.65</v>
       </c>
       <c r="C269">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D269">
-        <v>-43.84</v>
+        <v>103.24</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44038</v>
+        <v>44068</v>
       </c>
       <c r="B270">
-        <v>59.67</v>
+        <v>153.39</v>
       </c>
       <c r="C270">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D270">
-        <v>-42.71</v>
+        <v>77.48</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44039</v>
+        <v>44069</v>
       </c>
       <c r="B271">
-        <v>59.74</v>
+        <v>108.41</v>
       </c>
       <c r="C271">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D271">
-        <v>-42.64</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B272">
-        <v>57.93</v>
+        <v>95.28</v>
       </c>
       <c r="C272">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D272">
-        <v>-44.38</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B273">
-        <v>75.65000000000001</v>
+        <v>88.06</v>
       </c>
       <c r="C273">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D273">
-        <v>-27.37</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B274">
-        <v>90.17</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="C274">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D274">
-        <v>-13.42</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B275">
-        <v>100.6</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="C275">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D275">
-        <v>-3.4</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B276">
-        <v>87.05</v>
+        <v>79.75</v>
       </c>
       <c r="C276">
         <v>86.42</v>
       </c>
       <c r="D276">
-        <v>0.73</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B277">
-        <v>89.98999999999999</v>
+        <v>77.47</v>
       </c>
       <c r="C277">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D277">
-        <v>4.13</v>
+        <v>-18.01</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B278">
-        <v>87.93000000000001</v>
+        <v>80.83</v>
       </c>
       <c r="C278">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D278">
-        <v>1.74</v>
+        <v>-14.45</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44047</v>
+        <v>44077</v>
       </c>
       <c r="B279">
-        <v>74.34999999999999</v>
+        <v>89.98</v>
       </c>
       <c r="C279">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D279">
-        <v>-13.97</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44048</v>
+        <v>44078</v>
       </c>
       <c r="B280">
-        <v>65.90000000000001</v>
+        <v>105.27</v>
       </c>
       <c r="C280">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D280">
-        <v>-23.75</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44049</v>
+        <v>44079</v>
       </c>
       <c r="B281">
-        <v>62.14</v>
+        <v>108.68</v>
       </c>
       <c r="C281">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D281">
-        <v>-28.1</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44050</v>
+        <v>44080</v>
       </c>
       <c r="B282">
-        <v>60.75</v>
+        <v>89.03</v>
       </c>
       <c r="C282">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D282">
-        <v>-29.71</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44051</v>
+        <v>44081</v>
       </c>
       <c r="B283">
-        <v>55.95</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="C283">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D283">
-        <v>-35.26</v>
+        <v>-13.06</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44052</v>
+        <v>44082</v>
       </c>
       <c r="B284">
-        <v>57.49</v>
+        <v>78.23999999999999</v>
       </c>
       <c r="C284">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D284">
-        <v>-33.48</v>
+        <v>-17.2</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44053</v>
+        <v>44083</v>
       </c>
       <c r="B285">
-        <v>58.94</v>
+        <v>77.16</v>
       </c>
       <c r="C285">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D285">
-        <v>-31.8</v>
+        <v>-18.34</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44054</v>
+        <v>44084</v>
       </c>
       <c r="B286">
-        <v>58.05</v>
+        <v>72.83</v>
       </c>
       <c r="C286">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D286">
-        <v>-32.83</v>
+        <v>-22.92</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44055</v>
+        <v>44085</v>
       </c>
       <c r="B287">
-        <v>60.51</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="C287">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D287">
-        <v>-29.98</v>
+        <v>-25.17</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44056</v>
+        <v>44086</v>
       </c>
       <c r="B288">
-        <v>58.93</v>
+        <v>68.56</v>
       </c>
       <c r="C288">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D288">
-        <v>-31.82</v>
+        <v>-27.44</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44057</v>
+        <v>44087</v>
       </c>
       <c r="B289">
-        <v>61.29</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="C289">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D289">
-        <v>-29.08</v>
+        <v>-29.05</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44058</v>
+        <v>44088</v>
       </c>
       <c r="B290">
-        <v>87.75</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="C290">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D290">
-        <v>1.54</v>
+        <v>-27.55</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44059</v>
+        <v>44089</v>
       </c>
       <c r="B291">
-        <v>136.35</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="C291">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D291">
-        <v>57.77</v>
+        <v>-29.47</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44060</v>
+        <v>44090</v>
       </c>
       <c r="B292">
-        <v>136.22</v>
+        <v>62.72</v>
       </c>
       <c r="C292">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D292">
-        <v>57.62</v>
+        <v>-33.62</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44061</v>
+        <v>44091</v>
       </c>
       <c r="B293">
-        <v>146.75</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="C293">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D293">
-        <v>69.8</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44062</v>
+        <v>44092</v>
       </c>
       <c r="B294">
-        <v>171.51</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="C294">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D294">
-        <v>98.45</v>
+        <v>-31.52</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44063</v>
+        <v>44093</v>
       </c>
       <c r="B295">
-        <v>189.24</v>
+        <v>64.34</v>
       </c>
       <c r="C295">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D295">
-        <v>118.97</v>
+        <v>-31.9</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44064</v>
+        <v>44094</v>
       </c>
       <c r="B296">
-        <v>187.72</v>
+        <v>63.18</v>
       </c>
       <c r="C296">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D296">
-        <v>117.21</v>
+        <v>-33.14</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44065</v>
+        <v>44095</v>
       </c>
       <c r="B297">
-        <v>179.81</v>
+        <v>61.76</v>
       </c>
       <c r="C297">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D297">
-        <v>108.06</v>
+        <v>-34.64</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44066</v>
+        <v>44096</v>
       </c>
       <c r="B298">
-        <v>177.59</v>
+        <v>61.42</v>
       </c>
       <c r="C298">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D298">
-        <v>105.49</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44067</v>
+        <v>44097</v>
       </c>
       <c r="B299">
-        <v>175.65</v>
+        <v>65.12</v>
       </c>
       <c r="C299">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D299">
-        <v>103.24</v>
+        <v>-31.08</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44068</v>
+        <v>44098</v>
       </c>
       <c r="B300">
-        <v>153.39</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C300">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D300">
-        <v>77.48</v>
+        <v>-30.04</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44069</v>
+        <v>44099</v>
       </c>
       <c r="B301">
-        <v>108.41</v>
+        <v>63.39</v>
       </c>
       <c r="C301">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D301">
-        <v>25.44</v>
+        <v>-32.92</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B302">
-        <v>95.28</v>
+        <v>64.53</v>
       </c>
       <c r="C302">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D302">
-        <v>10.25</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B303">
-        <v>88.06</v>
+        <v>62.86</v>
       </c>
       <c r="C303">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D303">
-        <v>1.9</v>
+        <v>-33.47</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B304">
-        <v>84.15000000000001</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C304">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D304">
-        <v>-2.64</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B305">
-        <v>80.31999999999999</v>
+        <v>108.79</v>
       </c>
       <c r="C305">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D305">
-        <v>-7.06</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B306">
-        <v>79.75</v>
+        <v>115.88</v>
       </c>
       <c r="C306">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D306">
-        <v>-7.72</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B307">
-        <v>77.47</v>
+        <v>113.98</v>
       </c>
       <c r="C307">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D307">
-        <v>-18.01</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44076</v>
+        <v>44106</v>
       </c>
       <c r="B308">
-        <v>80.83</v>
+        <v>94.22</v>
       </c>
       <c r="C308">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D308">
-        <v>-14.45</v>
+        <v>-20.42</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44077</v>
+        <v>44107</v>
       </c>
       <c r="B309">
-        <v>89.98</v>
+        <v>90.77</v>
       </c>
       <c r="C309">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D309">
-        <v>-4.77</v>
+        <v>-23.33</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44078</v>
+        <v>44108</v>
       </c>
       <c r="B310">
-        <v>105.27</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="C310">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D310">
-        <v>11.41</v>
+        <v>-29.27</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44079</v>
+        <v>44109</v>
       </c>
       <c r="B311">
-        <v>108.68</v>
+        <v>83.88</v>
       </c>
       <c r="C311">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D311">
-        <v>15.02</v>
+        <v>-29.16</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44080</v>
+        <v>44110</v>
       </c>
       <c r="B312">
-        <v>89.03</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="C312">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D312">
-        <v>-5.77</v>
+        <v>-27.3</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44081</v>
+        <v>44111</v>
       </c>
       <c r="B313">
-        <v>82.15000000000001</v>
+        <v>98.58</v>
       </c>
       <c r="C313">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D313">
-        <v>-13.06</v>
+        <v>-16.74</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44082</v>
+        <v>44112</v>
       </c>
       <c r="B314">
-        <v>78.23999999999999</v>
+        <v>101.55</v>
       </c>
       <c r="C314">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D314">
-        <v>-17.2</v>
+        <v>-14.23</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44083</v>
+        <v>44113</v>
       </c>
       <c r="B315">
-        <v>77.16</v>
+        <v>119.76</v>
       </c>
       <c r="C315">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D315">
-        <v>-18.34</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44084</v>
+        <v>44114</v>
       </c>
       <c r="B316">
-        <v>72.83</v>
+        <v>128.5</v>
       </c>
       <c r="C316">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D316">
-        <v>-22.92</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44085</v>
+        <v>44115</v>
       </c>
       <c r="B317">
-        <v>70.70999999999999</v>
+        <v>125.06</v>
       </c>
       <c r="C317">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D317">
-        <v>-25.17</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44086</v>
+        <v>44116</v>
       </c>
       <c r="B318">
-        <v>68.56</v>
+        <v>122.17</v>
       </c>
       <c r="C318">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D318">
-        <v>-27.44</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44087</v>
+        <v>44117</v>
       </c>
       <c r="B319">
-        <v>67.04000000000001</v>
+        <v>102.91</v>
       </c>
       <c r="C319">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D319">
-        <v>-29.05</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44088</v>
+        <v>44118</v>
       </c>
       <c r="B320">
-        <v>68.45999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="C320">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D320">
-        <v>-27.55</v>
+        <v>-25.09</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44089</v>
+        <v>44119</v>
       </c>
       <c r="B321">
-        <v>66.65000000000001</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="C321">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D321">
-        <v>-29.47</v>
+        <v>-31.16</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44090</v>
+        <v>44120</v>
       </c>
       <c r="B322">
-        <v>62.72</v>
+        <v>76.84</v>
       </c>
       <c r="C322">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D322">
-        <v>-33.62</v>
+        <v>-35.1</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44091</v>
+        <v>44121</v>
       </c>
       <c r="B323">
-        <v>64.26000000000001</v>
+        <v>75.27</v>
       </c>
       <c r="C323">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D323">
-        <v>-31.99</v>
+        <v>-36.43</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44092</v>
+        <v>44122</v>
       </c>
       <c r="B324">
-        <v>64.70999999999999</v>
+        <v>74.72</v>
       </c>
       <c r="C324">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D324">
-        <v>-31.52</v>
+        <v>-36.89</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44093</v>
+        <v>44123</v>
       </c>
       <c r="B325">
-        <v>64.34</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="C325">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D325">
-        <v>-31.9</v>
+        <v>-36.83</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44094</v>
+        <v>44124</v>
       </c>
       <c r="B326">
-        <v>63.18</v>
+        <v>73.02</v>
       </c>
       <c r="C326">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D326">
-        <v>-33.14</v>
+        <v>-38.33</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44095</v>
+        <v>44125</v>
       </c>
       <c r="B327">
-        <v>61.76</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C327">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D327">
-        <v>-34.64</v>
+        <v>-39.34</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44096</v>
+        <v>44126</v>
       </c>
       <c r="B328">
-        <v>61.42</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C328">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D328">
-        <v>-35</v>
+        <v>-38.26</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44097</v>
+        <v>44127</v>
       </c>
       <c r="B329">
-        <v>65.12</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C329">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D329">
-        <v>-31.08</v>
+        <v>-38.43</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44098</v>
+        <v>44128</v>
       </c>
       <c r="B330">
-        <v>66.09999999999999</v>
+        <v>76.45</v>
       </c>
       <c r="C330">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D330">
-        <v>-30.04</v>
+        <v>-35.43</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44099</v>
+        <v>44129</v>
       </c>
       <c r="B331">
-        <v>63.39</v>
+        <v>92.34</v>
       </c>
       <c r="C331">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D331">
-        <v>-32.92</v>
+        <v>-22.01</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44100</v>
+        <v>44130</v>
       </c>
       <c r="B332">
-        <v>64.53</v>
+        <v>84.8</v>
       </c>
       <c r="C332">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D332">
-        <v>-31.7</v>
+        <v>-28.38</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44101</v>
+        <v>44131</v>
       </c>
       <c r="B333">
-        <v>62.86</v>
+        <v>81.98</v>
       </c>
       <c r="C333">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D333">
-        <v>-33.47</v>
+        <v>-30.76</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44102</v>
+        <v>44132</v>
       </c>
       <c r="B334">
-        <v>86.90000000000001</v>
+        <v>74.09</v>
       </c>
       <c r="C334">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D334">
-        <v>-8.029999999999999</v>
+        <v>-37.42</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44103</v>
+        <v>44133</v>
       </c>
       <c r="B335">
-        <v>108.79</v>
+        <v>69.3</v>
       </c>
       <c r="C335">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D335">
-        <v>15.14</v>
+        <v>-41.47</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B336">
-        <v>115.88</v>
+        <v>82.94</v>
       </c>
       <c r="C336">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D336">
-        <v>22.64</v>
+        <v>-29.95</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B337">
-        <v>113.98</v>
+        <v>81.73</v>
       </c>
       <c r="C337">
         <v>118.4</v>
       </c>
       <c r="D337">
-        <v>-3.73</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44106</v>
+        <v>44136</v>
       </c>
       <c r="B338">
-        <v>94.22</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="C338">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D338">
-        <v>-20.42</v>
+        <v>-12.48</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44107</v>
+        <v>44137</v>
       </c>
       <c r="B339">
-        <v>90.77</v>
+        <v>97.72</v>
       </c>
       <c r="C339">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D339">
-        <v>-23.33</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44108</v>
+        <v>44138</v>
       </c>
       <c r="B340">
-        <v>83.73999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="C340">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D340">
-        <v>-29.27</v>
+        <v>-22.51</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44109</v>
+        <v>44139</v>
       </c>
       <c r="B341">
-        <v>83.88</v>
+        <v>89.31999999999999</v>
       </c>
       <c r="C341">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D341">
-        <v>-29.16</v>
+        <v>-19.23</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44110</v>
+        <v>44140</v>
       </c>
       <c r="B342">
-        <v>86.06999999999999</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C342">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D342">
-        <v>-27.3</v>
+        <v>-20.79</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44111</v>
+        <v>44141</v>
       </c>
       <c r="B343">
-        <v>98.58</v>
+        <v>82.11</v>
       </c>
       <c r="C343">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D343">
-        <v>-16.74</v>
+        <v>-25.75</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44112</v>
+        <v>44142</v>
       </c>
       <c r="B344">
-        <v>101.55</v>
+        <v>74.14</v>
       </c>
       <c r="C344">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D344">
-        <v>-14.23</v>
+        <v>-32.97</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44113</v>
+        <v>44143</v>
       </c>
       <c r="B345">
-        <v>119.76</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="C345">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D345">
-        <v>1.15</v>
+        <v>-35.67</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44114</v>
+        <v>44144</v>
       </c>
       <c r="B346">
-        <v>128.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C346">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D346">
-        <v>8.529999999999999</v>
+        <v>-37.06</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="B347">
-        <v>125.06</v>
+        <v>71.44</v>
       </c>
       <c r="C347">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D347">
-        <v>5.63</v>
+        <v>-35.41</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44116</v>
+        <v>44146</v>
       </c>
       <c r="B348">
-        <v>122.17</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="C348">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D348">
-        <v>3.18</v>
+        <v>-16.35</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44117</v>
+        <v>44147</v>
       </c>
       <c r="B349">
-        <v>102.91</v>
+        <v>126.58</v>
       </c>
       <c r="C349">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D349">
-        <v>-13.09</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44118</v>
+        <v>44148</v>
       </c>
       <c r="B350">
-        <v>88.7</v>
+        <v>120</v>
       </c>
       <c r="C350">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D350">
-        <v>-25.09</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44119</v>
+        <v>44149</v>
       </c>
       <c r="B351">
-        <v>81.51000000000001</v>
+        <v>130.98</v>
       </c>
       <c r="C351">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D351">
-        <v>-31.16</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44120</v>
+        <v>44150</v>
       </c>
       <c r="B352">
-        <v>76.84</v>
+        <v>133.53</v>
       </c>
       <c r="C352">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D352">
-        <v>-35.1</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44121</v>
+        <v>44151</v>
       </c>
       <c r="B353">
-        <v>75.27</v>
+        <v>129.96</v>
       </c>
       <c r="C353">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D353">
-        <v>-36.43</v>
+        <v>17.51</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="B354">
-        <v>74.72</v>
+        <v>135.84</v>
       </c>
       <c r="C354">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D354">
-        <v>-36.89</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44123</v>
+        <v>44153</v>
       </c>
       <c r="B355">
-        <v>74.79000000000001</v>
+        <v>147.3</v>
       </c>
       <c r="C355">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D355">
-        <v>-36.83</v>
+        <v>33.19</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44124</v>
+        <v>44154</v>
       </c>
       <c r="B356">
-        <v>73.02</v>
+        <v>170.91</v>
       </c>
       <c r="C356">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D356">
-        <v>-38.33</v>
+        <v>54.53</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44125</v>
+        <v>44155</v>
       </c>
       <c r="B357">
-        <v>71.81999999999999</v>
+        <v>179.05</v>
       </c>
       <c r="C357">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D357">
-        <v>-39.34</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44126</v>
+        <v>44156</v>
       </c>
       <c r="B358">
-        <v>73.09999999999999</v>
+        <v>165.27</v>
       </c>
       <c r="C358">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D358">
-        <v>-38.26</v>
+        <v>49.44</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44127</v>
+        <v>44157</v>
       </c>
       <c r="B359">
-        <v>72.90000000000001</v>
+        <v>156.52</v>
       </c>
       <c r="C359">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D359">
-        <v>-38.43</v>
+        <v>41.53</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44128</v>
+        <v>44158</v>
       </c>
       <c r="B360">
-        <v>76.45</v>
+        <v>151.14</v>
       </c>
       <c r="C360">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D360">
-        <v>-35.43</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44129</v>
+        <v>44159</v>
       </c>
       <c r="B361">
-        <v>92.34</v>
+        <v>126.78</v>
       </c>
       <c r="C361">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D361">
-        <v>-22.01</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44130</v>
+        <v>44160</v>
       </c>
       <c r="B362">
-        <v>84.8</v>
+        <v>107.4</v>
       </c>
       <c r="C362">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D362">
-        <v>-28.38</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44131</v>
+        <v>44161</v>
       </c>
       <c r="B363">
-        <v>81.98</v>
+        <v>99.16</v>
       </c>
       <c r="C363">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D363">
-        <v>-30.76</v>
+        <v>-10.34</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44132</v>
+        <v>44162</v>
       </c>
       <c r="B364">
-        <v>74.09</v>
+        <v>113.24</v>
       </c>
       <c r="C364">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D364">
-        <v>-37.42</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44133</v>
+        <v>44163</v>
       </c>
       <c r="B365">
-        <v>69.3</v>
+        <v>131.76</v>
       </c>
       <c r="C365">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D365">
-        <v>-41.47</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44134</v>
+        <v>44164</v>
       </c>
       <c r="B366">
-        <v>82.94</v>
+        <v>141.5</v>
       </c>
       <c r="C366">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D366">
-        <v>-29.95</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B367">
-        <v>81.73</v>
+        <v>155.09</v>
       </c>
       <c r="C367">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D367">
-        <v>-30.97</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B368">
-        <v>96.79000000000001</v>
-      </c>
-      <c r="C368">
-        <v>110.6</v>
-      </c>
-      <c r="D368">
-        <v>-12.48</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44137</v>
-      </c>
-      <c r="B369">
-        <v>97.72</v>
-      </c>
-      <c r="C369">
-        <v>110.6</v>
-      </c>
-      <c r="D369">
-        <v>-11.64</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44138</v>
-      </c>
-      <c r="B370">
-        <v>85.7</v>
-      </c>
-      <c r="C370">
-        <v>110.6</v>
-      </c>
-      <c r="D370">
-        <v>-22.51</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44139</v>
-      </c>
-      <c r="B371">
-        <v>89.31999999999999</v>
-      </c>
-      <c r="C371">
-        <v>110.6</v>
-      </c>
-      <c r="D371">
-        <v>-19.23</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44140</v>
-      </c>
-      <c r="B372">
-        <v>87.59999999999999</v>
-      </c>
-      <c r="C372">
-        <v>110.6</v>
-      </c>
-      <c r="D372">
-        <v>-20.79</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44141</v>
-      </c>
-      <c r="B373">
-        <v>82.11</v>
-      </c>
-      <c r="C373">
-        <v>110.6</v>
-      </c>
-      <c r="D373">
-        <v>-25.75</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44142</v>
-      </c>
-      <c r="B374">
-        <v>74.14</v>
-      </c>
-      <c r="C374">
-        <v>110.6</v>
-      </c>
-      <c r="D374">
-        <v>-32.97</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44143</v>
-      </c>
-      <c r="B375">
-        <v>71.15000000000001</v>
-      </c>
-      <c r="C375">
-        <v>110.6</v>
-      </c>
-      <c r="D375">
-        <v>-35.67</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44144</v>
-      </c>
-      <c r="B376">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="C376">
-        <v>110.6</v>
-      </c>
-      <c r="D376">
-        <v>-37.06</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44145</v>
-      </c>
-      <c r="B377">
-        <v>71.44</v>
-      </c>
-      <c r="C377">
-        <v>110.6</v>
-      </c>
-      <c r="D377">
-        <v>-35.41</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44146</v>
-      </c>
-      <c r="B378">
-        <v>92.51000000000001</v>
-      </c>
-      <c r="C378">
-        <v>110.6</v>
-      </c>
-      <c r="D378">
-        <v>-16.35</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44147</v>
-      </c>
-      <c r="B379">
-        <v>126.58</v>
-      </c>
-      <c r="C379">
-        <v>110.6</v>
-      </c>
-      <c r="D379">
-        <v>14.46</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44148</v>
-      </c>
-      <c r="B380">
-        <v>120</v>
-      </c>
-      <c r="C380">
-        <v>110.6</v>
-      </c>
-      <c r="D380">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44149</v>
-      </c>
-      <c r="B381">
-        <v>130.98</v>
-      </c>
-      <c r="C381">
-        <v>110.6</v>
-      </c>
-      <c r="D381">
-        <v>18.43</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B382">
-        <v>133.53</v>
-      </c>
-      <c r="C382">
-        <v>110.6</v>
-      </c>
-      <c r="D382">
-        <v>20.74</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44151</v>
-      </c>
-      <c r="B383">
-        <v>129.96</v>
-      </c>
-      <c r="C383">
-        <v>110.6</v>
-      </c>
-      <c r="D383">
-        <v>17.51</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44152</v>
-      </c>
-      <c r="B384">
-        <v>135.84</v>
-      </c>
-      <c r="C384">
-        <v>110.6</v>
-      </c>
-      <c r="D384">
-        <v>22.82</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44153</v>
-      </c>
-      <c r="B385">
-        <v>147.3</v>
-      </c>
-      <c r="C385">
-        <v>110.6</v>
-      </c>
-      <c r="D385">
-        <v>33.19</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44154</v>
-      </c>
-      <c r="B386">
-        <v>170.91</v>
-      </c>
-      <c r="C386">
-        <v>110.6</v>
-      </c>
-      <c r="D386">
-        <v>54.53</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44155</v>
-      </c>
-      <c r="B387">
-        <v>179.05</v>
-      </c>
-      <c r="C387">
-        <v>110.6</v>
-      </c>
-      <c r="D387">
-        <v>61.9</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44156</v>
-      </c>
-      <c r="B388">
-        <v>165.27</v>
-      </c>
-      <c r="C388">
-        <v>110.6</v>
-      </c>
-      <c r="D388">
-        <v>49.44</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B389">
-        <v>156.52</v>
-      </c>
-      <c r="C389">
-        <v>110.6</v>
-      </c>
-      <c r="D389">
-        <v>41.53</v>
+        <v>40.23</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -417,170 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B2">
-        <v>107.31</v>
+        <v>93.59</v>
       </c>
       <c r="C2">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D2">
-        <v>-6</v>
+        <v>-29.18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B3">
-        <v>93.59</v>
+        <v>116</v>
       </c>
       <c r="C3">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D3">
-        <v>-29.18</v>
+        <v>-13.2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B4">
-        <v>116</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C4">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D4">
-        <v>-13.2</v>
+        <v>-18.82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B5">
-        <v>92.34999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C5">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D5">
-        <v>-18.82</v>
+        <v>-32.79</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B6">
-        <v>66.51000000000001</v>
+        <v>57.27</v>
       </c>
       <c r="C6">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D6">
-        <v>-32.79</v>
+        <v>-42.69</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B7">
-        <v>57.27</v>
+        <v>83.84</v>
       </c>
       <c r="C7">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D7">
-        <v>-42.69</v>
+        <v>-37.18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B8">
-        <v>83.84</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C8">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D8">
-        <v>-37.18</v>
+        <v>-30.45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B9">
-        <v>72.43000000000001</v>
+        <v>103.78</v>
       </c>
       <c r="C9">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D9">
-        <v>-30.45</v>
+        <v>20.08</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B10">
-        <v>103.78</v>
+        <v>75.97</v>
       </c>
       <c r="C10">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D10">
-        <v>20.08</v>
+        <v>-19.6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B11">
-        <v>75.97</v>
+        <v>88.95</v>
       </c>
       <c r="C11">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D11">
-        <v>-19.6</v>
+        <v>-24.87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B12">
-        <v>88.95</v>
+        <v>118</v>
       </c>
       <c r="C12">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D12">
-        <v>-24.87</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B13">
-        <v>118</v>
+        <v>151.66</v>
       </c>
       <c r="C13">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D13">
-        <v>6.7</v>
+        <v>32.85</v>
       </c>
     </row>
   </sheetData>
@@ -617,3065 +617,3065 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B2">
-        <v>146.27</v>
+        <v>82.44</v>
       </c>
       <c r="C2">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D2">
-        <v>28.12</v>
+        <v>-37.62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43801</v>
+        <v>43832</v>
       </c>
       <c r="B3">
-        <v>138.06</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="C3">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D3">
-        <v>20.93</v>
+        <v>-24.74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43802</v>
+        <v>43833</v>
       </c>
       <c r="B4">
-        <v>118.82</v>
+        <v>94.8</v>
       </c>
       <c r="C4">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D4">
-        <v>4.08</v>
+        <v>-28.26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43803</v>
+        <v>43834</v>
       </c>
       <c r="B5">
-        <v>113.58</v>
+        <v>95.92</v>
       </c>
       <c r="C5">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D5">
-        <v>-0.51</v>
+        <v>-27.42</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43804</v>
+        <v>43835</v>
       </c>
       <c r="B6">
-        <v>114.81</v>
+        <v>94.88</v>
       </c>
       <c r="C6">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D6">
-        <v>0.57</v>
+        <v>-28.21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43805</v>
+        <v>43836</v>
       </c>
       <c r="B7">
-        <v>120.68</v>
+        <v>98.77</v>
       </c>
       <c r="C7">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D7">
-        <v>5.7</v>
+        <v>-25.26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43806</v>
+        <v>43837</v>
       </c>
       <c r="B8">
-        <v>114.73</v>
+        <v>106.38</v>
       </c>
       <c r="C8">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D8">
-        <v>0.49</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43807</v>
+        <v>43838</v>
       </c>
       <c r="B9">
-        <v>109.88</v>
+        <v>96.95</v>
       </c>
       <c r="C9">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D9">
-        <v>-3.76</v>
+        <v>-26.64</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43808</v>
+        <v>43839</v>
       </c>
       <c r="B10">
-        <v>105.36</v>
+        <v>88.92</v>
       </c>
       <c r="C10">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D10">
-        <v>-7.71</v>
+        <v>-32.72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B11">
-        <v>102.39</v>
+        <v>88.73999999999999</v>
       </c>
       <c r="C11">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D11">
-        <v>-10.32</v>
+        <v>-32.85</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43810</v>
+        <v>43841</v>
       </c>
       <c r="B12">
-        <v>100.2</v>
+        <v>104.72</v>
       </c>
       <c r="C12">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D12">
-        <v>-12.23</v>
+        <v>-20.76</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43811</v>
+        <v>43842</v>
       </c>
       <c r="B13">
-        <v>97.54000000000001</v>
+        <v>95.23</v>
       </c>
       <c r="C13">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D13">
-        <v>-14.56</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43812</v>
+        <v>43843</v>
       </c>
       <c r="B14">
-        <v>95.92</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="C14">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D14">
-        <v>-15.98</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43813</v>
+        <v>43844</v>
       </c>
       <c r="B15">
-        <v>95.41</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="C15">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D15">
-        <v>-16.43</v>
+        <v>-27.39</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B16">
-        <v>94.86</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="C16">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D16">
-        <v>-16.91</v>
+        <v>-33.63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43815</v>
+        <v>43846</v>
       </c>
       <c r="B17">
-        <v>102.03</v>
+        <v>91.67</v>
       </c>
       <c r="C17">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D17">
-        <v>-10.63</v>
+        <v>-30.63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43816</v>
+        <v>43847</v>
       </c>
       <c r="B18">
-        <v>106.15</v>
+        <v>107.67</v>
       </c>
       <c r="C18">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D18">
-        <v>-7.02</v>
+        <v>-18.53</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43817</v>
+        <v>43848</v>
       </c>
       <c r="B19">
-        <v>106.03</v>
+        <v>99.84</v>
       </c>
       <c r="C19">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D19">
-        <v>-7.12</v>
+        <v>-24.45</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43818</v>
+        <v>43849</v>
       </c>
       <c r="B20">
-        <v>104.99</v>
+        <v>106.68</v>
       </c>
       <c r="C20">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D20">
-        <v>-8.039999999999999</v>
+        <v>-19.28</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B21">
-        <v>104.95</v>
+        <v>99.88</v>
       </c>
       <c r="C21">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D21">
-        <v>-8.07</v>
+        <v>-24.42</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43820</v>
+        <v>43851</v>
       </c>
       <c r="B22">
-        <v>114.27</v>
+        <v>95.33</v>
       </c>
       <c r="C22">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D22">
-        <v>0.09</v>
+        <v>-27.86</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43821</v>
+        <v>43852</v>
       </c>
       <c r="B23">
-        <v>126.04</v>
+        <v>101.73</v>
       </c>
       <c r="C23">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D23">
-        <v>10.4</v>
+        <v>-23.02</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43822</v>
+        <v>43853</v>
       </c>
       <c r="B24">
-        <v>129.5</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="C24">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D24">
-        <v>13.43</v>
+        <v>-25.9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43823</v>
+        <v>43854</v>
       </c>
       <c r="B25">
-        <v>120</v>
+        <v>90.48</v>
       </c>
       <c r="C25">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D25">
-        <v>5.11</v>
+        <v>-31.53</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43824</v>
+        <v>43855</v>
       </c>
       <c r="B26">
-        <v>106.85</v>
+        <v>93.98999999999999</v>
       </c>
       <c r="C26">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D26">
-        <v>-6.4</v>
+        <v>-28.88</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43825</v>
+        <v>43856</v>
       </c>
       <c r="B27">
-        <v>97.69</v>
+        <v>92.36</v>
       </c>
       <c r="C27">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D27">
-        <v>-14.43</v>
+        <v>-30.11</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43826</v>
+        <v>43857</v>
       </c>
       <c r="B28">
-        <v>93.48</v>
+        <v>86.70999999999999</v>
       </c>
       <c r="C28">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D28">
-        <v>-18.12</v>
+        <v>-34.39</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43827</v>
+        <v>43858</v>
       </c>
       <c r="B29">
-        <v>90.31</v>
+        <v>79.81</v>
       </c>
       <c r="C29">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D29">
-        <v>-20.89</v>
+        <v>-39.6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43828</v>
+        <v>43859</v>
       </c>
       <c r="B30">
-        <v>87.31999999999999</v>
+        <v>78.02</v>
       </c>
       <c r="C30">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D30">
-        <v>-23.51</v>
+        <v>-40.96</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="B31">
-        <v>85.11</v>
+        <v>76.23</v>
       </c>
       <c r="C31">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D31">
-        <v>-25.45</v>
+        <v>-42.32</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B32">
-        <v>83.39</v>
+        <v>76.06999999999999</v>
       </c>
       <c r="C32">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D32">
-        <v>-26.96</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B33">
-        <v>82.44</v>
+        <v>73.39</v>
       </c>
       <c r="C33">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D33">
-        <v>-37.62</v>
+        <v>-45.09</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43832</v>
+        <v>43863</v>
       </c>
       <c r="B34">
-        <v>99.45999999999999</v>
+        <v>76.36</v>
       </c>
       <c r="C34">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D34">
-        <v>-24.74</v>
+        <v>-42.86</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B35">
-        <v>94.8</v>
+        <v>80.23</v>
       </c>
       <c r="C35">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D35">
-        <v>-28.26</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B36">
-        <v>95.92</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="C36">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D36">
-        <v>-27.42</v>
+        <v>-35.64</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B37">
-        <v>94.88</v>
+        <v>97.08</v>
       </c>
       <c r="C37">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D37">
-        <v>-28.21</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B38">
-        <v>98.77</v>
+        <v>91.31</v>
       </c>
       <c r="C38">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D38">
-        <v>-25.26</v>
+        <v>-31.67</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B39">
-        <v>106.38</v>
+        <v>104.2</v>
       </c>
       <c r="C39">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D39">
-        <v>-19.5</v>
+        <v>-22.03</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43838</v>
+        <v>43869</v>
       </c>
       <c r="B40">
-        <v>96.95</v>
+        <v>116.15</v>
       </c>
       <c r="C40">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D40">
-        <v>-26.64</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B41">
-        <v>88.92</v>
+        <v>128.33</v>
       </c>
       <c r="C41">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D41">
-        <v>-32.72</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B42">
-        <v>88.73999999999999</v>
+        <v>174.02</v>
       </c>
       <c r="C42">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D42">
-        <v>-32.85</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B43">
-        <v>104.72</v>
+        <v>210.61</v>
       </c>
       <c r="C43">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D43">
-        <v>-20.76</v>
+        <v>57.59</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B44">
-        <v>95.23</v>
+        <v>199.88</v>
       </c>
       <c r="C44">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D44">
-        <v>-27.94</v>
+        <v>49.56</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B45">
-        <v>95.98999999999999</v>
+        <v>187.34</v>
       </c>
       <c r="C45">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D45">
-        <v>-27.36</v>
+        <v>40.18</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B46">
-        <v>95.95999999999999</v>
+        <v>170.34</v>
       </c>
       <c r="C46">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D46">
-        <v>-27.39</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B47">
-        <v>87.70999999999999</v>
+        <v>140.86</v>
       </c>
       <c r="C47">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D47">
-        <v>-33.63</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B48">
-        <v>91.67</v>
+        <v>114.7</v>
       </c>
       <c r="C48">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D48">
-        <v>-30.63</v>
+        <v>-14.18</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B49">
-        <v>107.67</v>
+        <v>103</v>
       </c>
       <c r="C49">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D49">
-        <v>-18.53</v>
+        <v>-22.93</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B50">
-        <v>99.84</v>
+        <v>95.69</v>
       </c>
       <c r="C50">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D50">
-        <v>-24.45</v>
+        <v>-28.4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B51">
-        <v>106.68</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="C51">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D51">
-        <v>-19.28</v>
+        <v>-29.3</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B52">
-        <v>99.88</v>
+        <v>92.72</v>
       </c>
       <c r="C52">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D52">
-        <v>-24.42</v>
+        <v>-30.62</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B53">
-        <v>95.33</v>
+        <v>90.38</v>
       </c>
       <c r="C53">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D53">
-        <v>-27.86</v>
+        <v>-32.38</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B54">
-        <v>101.73</v>
+        <v>88.64</v>
       </c>
       <c r="C54">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D54">
-        <v>-23.02</v>
+        <v>-33.68</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B55">
-        <v>97.93000000000001</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="C55">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D55">
-        <v>-25.9</v>
+        <v>-30.82</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B56">
-        <v>90.48</v>
+        <v>93.72</v>
       </c>
       <c r="C56">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D56">
-        <v>-31.53</v>
+        <v>-29.87</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B57">
-        <v>93.98999999999999</v>
+        <v>92.88</v>
       </c>
       <c r="C57">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D57">
-        <v>-28.88</v>
+        <v>-30.51</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B58">
-        <v>92.36</v>
+        <v>106.78</v>
       </c>
       <c r="C58">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D58">
-        <v>-30.11</v>
+        <v>-20.1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B59">
-        <v>86.70999999999999</v>
+        <v>123.67</v>
       </c>
       <c r="C59">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D59">
-        <v>-34.39</v>
+        <v>-7.47</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B60">
-        <v>79.81</v>
+        <v>119.95</v>
       </c>
       <c r="C60">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D60">
-        <v>-39.6</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B61">
-        <v>78.02</v>
+        <v>118.88</v>
       </c>
       <c r="C61">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D61">
-        <v>-40.96</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B62">
-        <v>76.23</v>
+        <v>106.98</v>
       </c>
       <c r="C62">
-        <v>132.15</v>
+        <v>113.77</v>
       </c>
       <c r="D62">
-        <v>-42.32</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B63">
-        <v>76.06999999999999</v>
+        <v>96.73</v>
       </c>
       <c r="C63">
-        <v>132.15</v>
+        <v>113.77</v>
       </c>
       <c r="D63">
-        <v>-42.43</v>
+        <v>-14.98</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B64">
-        <v>73.39</v>
+        <v>98.62</v>
       </c>
       <c r="C64">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D64">
-        <v>-45.09</v>
+        <v>-13.31</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B65">
-        <v>76.36</v>
+        <v>106.85</v>
       </c>
       <c r="C65">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D65">
-        <v>-42.86</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B66">
-        <v>80.23</v>
+        <v>114.51</v>
       </c>
       <c r="C66">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D66">
-        <v>-39.97</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B67">
-        <v>86.01000000000001</v>
+        <v>114.11</v>
       </c>
       <c r="C67">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D67">
-        <v>-35.64</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B68">
-        <v>97.08</v>
+        <v>98.8</v>
       </c>
       <c r="C68">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D68">
-        <v>-27.36</v>
+        <v>-13.15</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B69">
-        <v>91.31</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="C69">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D69">
-        <v>-31.67</v>
+        <v>-18.98</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B70">
-        <v>104.2</v>
+        <v>88.88</v>
       </c>
       <c r="C70">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D70">
-        <v>-22.03</v>
+        <v>-21.88</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B71">
-        <v>116.15</v>
+        <v>85.89</v>
       </c>
       <c r="C71">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D71">
-        <v>-13.09</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B72">
-        <v>128.33</v>
+        <v>83.27</v>
       </c>
       <c r="C72">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D72">
-        <v>-3.97</v>
+        <v>-26.81</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B73">
-        <v>174.02</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C73">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D73">
-        <v>30.21</v>
+        <v>-29.23</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B74">
-        <v>210.61</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="C74">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D74">
-        <v>57.59</v>
+        <v>-31.87</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B75">
-        <v>199.88</v>
+        <v>74.27</v>
       </c>
       <c r="C75">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D75">
-        <v>49.56</v>
+        <v>-34.72</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B76">
-        <v>187.34</v>
+        <v>75.94</v>
       </c>
       <c r="C76">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D76">
-        <v>40.18</v>
+        <v>-33.25</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B77">
-        <v>170.34</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C77">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D77">
-        <v>27.46</v>
+        <v>-18.16</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B78">
-        <v>140.86</v>
+        <v>109.04</v>
       </c>
       <c r="C78">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D78">
-        <v>5.4</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B79">
-        <v>114.7</v>
+        <v>92.52</v>
       </c>
       <c r="C79">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D79">
-        <v>-14.18</v>
+        <v>-18.68</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B80">
-        <v>103</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C80">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D80">
-        <v>-22.93</v>
+        <v>-19.92</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B81">
-        <v>95.69</v>
+        <v>93.03</v>
       </c>
       <c r="C81">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D81">
-        <v>-28.4</v>
+        <v>-18.23</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B82">
-        <v>94.48999999999999</v>
+        <v>107.64</v>
       </c>
       <c r="C82">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D82">
-        <v>-29.3</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B83">
-        <v>92.72</v>
+        <v>104.73</v>
       </c>
       <c r="C83">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D83">
-        <v>-30.62</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B84">
-        <v>90.38</v>
+        <v>90.55</v>
       </c>
       <c r="C84">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D84">
-        <v>-32.38</v>
+        <v>-20.41</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B85">
-        <v>88.64</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="C85">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D85">
-        <v>-33.68</v>
+        <v>-25.44</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B86">
-        <v>92.45999999999999</v>
+        <v>87.22</v>
       </c>
       <c r="C86">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D86">
-        <v>-30.82</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B87">
-        <v>93.72</v>
+        <v>100.01</v>
       </c>
       <c r="C87">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D87">
-        <v>-29.87</v>
+        <v>-12.09</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B88">
-        <v>92.88</v>
+        <v>96.25</v>
       </c>
       <c r="C88">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D88">
-        <v>-30.51</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B89">
-        <v>106.78</v>
+        <v>83.8</v>
       </c>
       <c r="C89">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D89">
-        <v>-20.1</v>
+        <v>-26.34</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B90">
-        <v>123.67</v>
+        <v>79.14</v>
       </c>
       <c r="C90">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D90">
-        <v>-7.47</v>
+        <v>-30.44</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B91">
-        <v>119.95</v>
+        <v>78.02</v>
       </c>
       <c r="C91">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D91">
-        <v>-10.25</v>
+        <v>-31.42</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B92">
-        <v>118.88</v>
+        <v>76.94</v>
       </c>
       <c r="C92">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D92">
-        <v>-11.05</v>
+        <v>-32.37</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B93">
-        <v>106.98</v>
+        <v>75.02</v>
       </c>
       <c r="C93">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D93">
-        <v>-5.97</v>
+        <v>-24.19</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B94">
-        <v>96.73</v>
+        <v>73.72</v>
       </c>
       <c r="C94">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D94">
-        <v>-14.98</v>
+        <v>-25.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B95">
-        <v>98.62</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="C95">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D95">
-        <v>-13.31</v>
+        <v>-27.99</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B96">
-        <v>106.85</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C96">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D96">
-        <v>-6.08</v>
+        <v>-31.89</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B97">
-        <v>114.51</v>
+        <v>66.39</v>
       </c>
       <c r="C97">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D97">
-        <v>0.65</v>
+        <v>-32.91</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="B98">
-        <v>114.11</v>
+        <v>66.22</v>
       </c>
       <c r="C98">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D98">
-        <v>0.31</v>
+        <v>-33.08</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B99">
-        <v>98.8</v>
+        <v>78.78</v>
       </c>
       <c r="C99">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D99">
-        <v>-13.15</v>
+        <v>-20.39</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B100">
-        <v>92.18000000000001</v>
+        <v>78.77</v>
       </c>
       <c r="C100">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D100">
-        <v>-18.98</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B101">
-        <v>88.88</v>
+        <v>77.78</v>
       </c>
       <c r="C101">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D101">
-        <v>-21.88</v>
+        <v>-21.4</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B102">
-        <v>85.89</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="C102">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D102">
-        <v>-24.51</v>
+        <v>-25.55</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B103">
-        <v>83.27</v>
+        <v>69.62</v>
       </c>
       <c r="C103">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D103">
-        <v>-26.81</v>
+        <v>-29.64</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B104">
-        <v>80.51000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C104">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D104">
-        <v>-29.23</v>
+        <v>-33.29</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B105">
-        <v>77.51000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="C105">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D105">
-        <v>-31.87</v>
+        <v>-34.19</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B106">
-        <v>74.27</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C106">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D106">
-        <v>-34.72</v>
+        <v>-33.2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B107">
-        <v>75.94</v>
+        <v>65.27</v>
       </c>
       <c r="C107">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D107">
-        <v>-33.25</v>
+        <v>-34.04</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B108">
-        <v>93.09999999999999</v>
+        <v>64.78</v>
       </c>
       <c r="C108">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D108">
-        <v>-18.16</v>
+        <v>-34.54</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B109">
-        <v>109.04</v>
+        <v>63.42</v>
       </c>
       <c r="C109">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D109">
-        <v>-4.15</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B110">
-        <v>92.52</v>
+        <v>62.1</v>
       </c>
       <c r="C110">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D110">
-        <v>-18.68</v>
+        <v>-37.24</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B111">
-        <v>91.09999999999999</v>
+        <v>61.06</v>
       </c>
       <c r="C111">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D111">
-        <v>-19.92</v>
+        <v>-38.29</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B112">
-        <v>93.03</v>
+        <v>62.04</v>
       </c>
       <c r="C112">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D112">
-        <v>-18.23</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B113">
-        <v>107.64</v>
+        <v>63.03</v>
       </c>
       <c r="C113">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D113">
-        <v>-5.39</v>
+        <v>-36.3</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B114">
-        <v>104.73</v>
+        <v>62.84</v>
       </c>
       <c r="C114">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D114">
-        <v>-7.94</v>
+        <v>-36.49</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B115">
-        <v>90.55</v>
+        <v>62.5</v>
       </c>
       <c r="C115">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D115">
-        <v>-20.41</v>
+        <v>-36.84</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B116">
-        <v>84.81999999999999</v>
+        <v>62.88</v>
       </c>
       <c r="C116">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D116">
-        <v>-25.44</v>
+        <v>-36.46</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B117">
-        <v>87.22</v>
+        <v>63.01</v>
       </c>
       <c r="C117">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D117">
-        <v>-23.34</v>
+        <v>-36.32</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B118">
-        <v>100.01</v>
+        <v>62.89</v>
       </c>
       <c r="C118">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D118">
-        <v>-12.09</v>
+        <v>-36.45</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B119">
-        <v>96.25</v>
+        <v>62.24</v>
       </c>
       <c r="C119">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D119">
-        <v>-15.4</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B120">
-        <v>83.8</v>
+        <v>60.33</v>
       </c>
       <c r="C120">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D120">
-        <v>-26.34</v>
+        <v>-39.03</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="B121">
-        <v>79.14</v>
+        <v>60.25</v>
       </c>
       <c r="C121">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D121">
-        <v>-30.44</v>
+        <v>-39.11</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="B122">
-        <v>78.02</v>
+        <v>60.76</v>
       </c>
       <c r="C122">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D122">
-        <v>-31.42</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B123">
-        <v>76.94</v>
+        <v>61.01</v>
       </c>
       <c r="C123">
-        <v>113.77</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D123">
-        <v>-32.37</v>
+        <v>-38.95</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="B124">
-        <v>75.02</v>
+        <v>57.79</v>
       </c>
       <c r="C124">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D124">
-        <v>-24.19</v>
+        <v>-42.17</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="B125">
-        <v>73.72</v>
+        <v>57.7</v>
       </c>
       <c r="C125">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D125">
-        <v>-25.5</v>
+        <v>-42.26</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="B126">
-        <v>71.26000000000001</v>
+        <v>59.51</v>
       </c>
       <c r="C126">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D126">
-        <v>-27.99</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B127">
-        <v>67.40000000000001</v>
+        <v>58.09</v>
       </c>
       <c r="C127">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D127">
-        <v>-31.89</v>
+        <v>-41.87</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B128">
-        <v>66.39</v>
+        <v>55.98</v>
       </c>
       <c r="C128">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D128">
-        <v>-32.91</v>
+        <v>-43.98</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="B129">
-        <v>66.22</v>
+        <v>56.29</v>
       </c>
       <c r="C129">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D129">
-        <v>-33.08</v>
+        <v>-43.67</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B130">
-        <v>78.78</v>
+        <v>56.21</v>
       </c>
       <c r="C130">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D130">
-        <v>-20.39</v>
+        <v>-43.75</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B131">
-        <v>78.77</v>
+        <v>58.1</v>
       </c>
       <c r="C131">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D131">
-        <v>-20.4</v>
+        <v>-41.86</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B132">
-        <v>77.78</v>
+        <v>57.23</v>
       </c>
       <c r="C132">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D132">
-        <v>-21.4</v>
+        <v>-42.73</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B133">
-        <v>73.68000000000001</v>
+        <v>58.09</v>
       </c>
       <c r="C133">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D133">
-        <v>-25.55</v>
+        <v>-41.87</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B134">
-        <v>69.62</v>
+        <v>61.28</v>
       </c>
       <c r="C134">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D134">
-        <v>-29.64</v>
+        <v>-38.68</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B135">
-        <v>66.01000000000001</v>
+        <v>57</v>
       </c>
       <c r="C135">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D135">
-        <v>-33.29</v>
+        <v>-42.96</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B136">
-        <v>65.12</v>
+        <v>54.61</v>
       </c>
       <c r="C136">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D136">
-        <v>-34.19</v>
+        <v>-45.35</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B137">
-        <v>66.09999999999999</v>
+        <v>55.86</v>
       </c>
       <c r="C137">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D137">
-        <v>-33.2</v>
+        <v>-44.1</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B138">
-        <v>65.27</v>
+        <v>56.19</v>
       </c>
       <c r="C138">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D138">
-        <v>-34.04</v>
+        <v>-43.77</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B139">
-        <v>64.78</v>
+        <v>57.18</v>
       </c>
       <c r="C139">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D139">
-        <v>-34.54</v>
+        <v>-42.78</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B140">
-        <v>63.42</v>
+        <v>58.31</v>
       </c>
       <c r="C140">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D140">
-        <v>-35.91</v>
+        <v>-41.65</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B141">
-        <v>62.1</v>
+        <v>58.54</v>
       </c>
       <c r="C141">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D141">
-        <v>-37.24</v>
+        <v>-41.42</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B142">
-        <v>61.06</v>
+        <v>59.84</v>
       </c>
       <c r="C142">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D142">
-        <v>-38.29</v>
+        <v>-40.12</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B143">
-        <v>62.04</v>
+        <v>59.3</v>
       </c>
       <c r="C143">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D143">
-        <v>-37.3</v>
+        <v>-40.66</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B144">
-        <v>63.03</v>
+        <v>59.99</v>
       </c>
       <c r="C144">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D144">
-        <v>-36.3</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B145">
-        <v>62.84</v>
+        <v>61.25</v>
       </c>
       <c r="C145">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D145">
-        <v>-36.49</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B146">
-        <v>62.5</v>
+        <v>57.84</v>
       </c>
       <c r="C146">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D146">
-        <v>-36.84</v>
+        <v>-42.12</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B147">
-        <v>62.88</v>
+        <v>57.57</v>
       </c>
       <c r="C147">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D147">
-        <v>-36.46</v>
+        <v>-42.39</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B148">
-        <v>63.01</v>
+        <v>55.24</v>
       </c>
       <c r="C148">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D148">
-        <v>-36.32</v>
+        <v>-44.72</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B149">
-        <v>62.89</v>
+        <v>54.03</v>
       </c>
       <c r="C149">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D149">
-        <v>-36.45</v>
+        <v>-45.93</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B150">
-        <v>62.24</v>
+        <v>54.66</v>
       </c>
       <c r="C150">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D150">
-        <v>-37.1</v>
+        <v>-45.31</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B151">
-        <v>60.33</v>
+        <v>53.75</v>
       </c>
       <c r="C151">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D151">
-        <v>-39.03</v>
+        <v>-46.21</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B152">
-        <v>60.25</v>
+        <v>54.85</v>
       </c>
       <c r="C152">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D152">
-        <v>-39.11</v>
+        <v>-45.11</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B153">
-        <v>60.76</v>
+        <v>52.05</v>
       </c>
       <c r="C153">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D153">
-        <v>-38.6</v>
+        <v>-47.91</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B154">
-        <v>61.01</v>
+        <v>56.27</v>
       </c>
       <c r="C154">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D154">
-        <v>-38.95</v>
+        <v>-57.84</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B155">
-        <v>57.79</v>
+        <v>58.61</v>
       </c>
       <c r="C155">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D155">
-        <v>-42.17</v>
+        <v>-56.09</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B156">
-        <v>57.7</v>
+        <v>59.44</v>
       </c>
       <c r="C156">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D156">
-        <v>-42.26</v>
+        <v>-55.47</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B157">
-        <v>59.51</v>
+        <v>63.27</v>
       </c>
       <c r="C157">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D157">
-        <v>-40.45</v>
+        <v>-52.59</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B158">
-        <v>58.09</v>
+        <v>62.44</v>
       </c>
       <c r="C158">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D158">
-        <v>-41.87</v>
+        <v>-53.22</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B159">
-        <v>55.98</v>
+        <v>64.95</v>
       </c>
       <c r="C159">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D159">
-        <v>-43.98</v>
+        <v>-51.34</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B160">
-        <v>56.29</v>
+        <v>67.59</v>
       </c>
       <c r="C160">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D160">
-        <v>-43.67</v>
+        <v>-49.35</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B161">
-        <v>56.21</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="C161">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D161">
-        <v>-43.75</v>
+        <v>-46.23</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B162">
-        <v>58.1</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C162">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D162">
-        <v>-41.86</v>
+        <v>-48.75</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B163">
-        <v>57.23</v>
+        <v>120</v>
       </c>
       <c r="C163">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D163">
-        <v>-42.73</v>
+        <v>-10.09</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B164">
-        <v>58.09</v>
+        <v>142.68</v>
       </c>
       <c r="C164">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D164">
-        <v>-41.87</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B165">
-        <v>61.28</v>
+        <v>133.88</v>
       </c>
       <c r="C165">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D165">
-        <v>-38.68</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B166">
-        <v>57</v>
+        <v>135.25</v>
       </c>
       <c r="C166">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D166">
-        <v>-42.96</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B167">
-        <v>54.61</v>
+        <v>128.03</v>
       </c>
       <c r="C167">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D167">
-        <v>-45.35</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B168">
-        <v>55.86</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C168">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D168">
-        <v>-44.1</v>
+        <v>-32.27</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B169">
-        <v>56.19</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="C169">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D169">
-        <v>-43.77</v>
+        <v>-37.86</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B170">
-        <v>57.18</v>
+        <v>84.55</v>
       </c>
       <c r="C170">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D170">
-        <v>-42.78</v>
+        <v>-36.65</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B171">
-        <v>58.31</v>
+        <v>81.66</v>
       </c>
       <c r="C171">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D171">
-        <v>-41.65</v>
+        <v>-38.82</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B172">
-        <v>58.54</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C172">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D172">
-        <v>-41.42</v>
+        <v>-38.34</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B173">
-        <v>59.84</v>
+        <v>73.42</v>
       </c>
       <c r="C173">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D173">
-        <v>-40.12</v>
+        <v>-44.99</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B174">
-        <v>59.3</v>
+        <v>68.16</v>
       </c>
       <c r="C174">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D174">
-        <v>-40.66</v>
+        <v>-48.93</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B175">
-        <v>59.99</v>
+        <v>66.17</v>
       </c>
       <c r="C175">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D175">
-        <v>-39.97</v>
+        <v>-50.42</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B176">
-        <v>61.25</v>
+        <v>63.94</v>
       </c>
       <c r="C176">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D176">
-        <v>-38.71</v>
+        <v>-52.09</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B177">
-        <v>57.84</v>
+        <v>61.98</v>
       </c>
       <c r="C177">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D177">
-        <v>-42.12</v>
+        <v>-53.56</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B178">
-        <v>57.57</v>
+        <v>61.42</v>
       </c>
       <c r="C178">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D178">
-        <v>-42.39</v>
+        <v>-53.98</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B179">
-        <v>55.24</v>
+        <v>67.02</v>
       </c>
       <c r="C179">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D179">
-        <v>-44.72</v>
+        <v>-49.78</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B180">
-        <v>54.03</v>
+        <v>90.2</v>
       </c>
       <c r="C180">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D180">
-        <v>-45.93</v>
+        <v>-32.42</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B181">
-        <v>54.66</v>
+        <v>99.55</v>
       </c>
       <c r="C181">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D181">
-        <v>-45.31</v>
+        <v>-25.41</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B182">
-        <v>53.75</v>
+        <v>109.58</v>
       </c>
       <c r="C182">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D182">
-        <v>-46.21</v>
+        <v>-17.89</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B183">
-        <v>54.85</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="C183">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D183">
-        <v>-45.11</v>
+        <v>-25.63</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B184">
-        <v>52.05</v>
+        <v>112.51</v>
       </c>
       <c r="C184">
-        <v>99.93000000000001</v>
+        <v>104.15</v>
       </c>
       <c r="D184">
-        <v>-47.91</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B185">
-        <v>56.27</v>
+        <v>112.53</v>
       </c>
       <c r="C185">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D185">
-        <v>-57.84</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B186">
-        <v>58.61</v>
+        <v>107.51</v>
       </c>
       <c r="C186">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D186">
-        <v>-56.09</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B187">
-        <v>59.44</v>
+        <v>86.86</v>
       </c>
       <c r="C187">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D187">
-        <v>-55.47</v>
+        <v>-16.59</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B188">
-        <v>63.27</v>
+        <v>78.66</v>
       </c>
       <c r="C188">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D188">
-        <v>-52.59</v>
+        <v>-24.47</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B189">
-        <v>62.44</v>
+        <v>74.89</v>
       </c>
       <c r="C189">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D189">
-        <v>-53.22</v>
+        <v>-28.1</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B190">
-        <v>64.95</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C190">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D190">
-        <v>-51.34</v>
+        <v>-28.61</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B191">
-        <v>67.59</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="C191">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D191">
-        <v>-49.35</v>
+        <v>-28.75</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B192">
-        <v>71.76000000000001</v>
+        <v>73.75</v>
       </c>
       <c r="C192">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D192">
-        <v>-46.23</v>
+        <v>-29.19</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B193">
-        <v>68.40000000000001</v>
+        <v>69.58</v>
       </c>
       <c r="C193">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D193">
-        <v>-48.75</v>
+        <v>-33.19</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B194">
-        <v>120</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="C194">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D194">
-        <v>-10.09</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B195">
-        <v>142.68</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="C195">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D195">
-        <v>6.9</v>
+        <v>-36.19</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B196">
-        <v>133.88</v>
+        <v>65.17</v>
       </c>
       <c r="C196">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D196">
-        <v>0.31</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B197">
-        <v>135.25</v>
+        <v>64.09</v>
       </c>
       <c r="C197">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D197">
-        <v>1.34</v>
+        <v>-38.46</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B198">
-        <v>128.03</v>
+        <v>61.68</v>
       </c>
       <c r="C198">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D198">
-        <v>-4.07</v>
+        <v>-40.78</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B199">
-        <v>90.40000000000001</v>
+        <v>61.67</v>
       </c>
       <c r="C199">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D199">
-        <v>-32.27</v>
+        <v>-40.79</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B200">
-        <v>82.93000000000001</v>
+        <v>61.74</v>
       </c>
       <c r="C200">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D200">
-        <v>-37.86</v>
+        <v>-40.72</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B201">
-        <v>84.55</v>
+        <v>62.24</v>
       </c>
       <c r="C201">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D201">
-        <v>-36.65</v>
+        <v>-40.24</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B202">
-        <v>81.66</v>
+        <v>64.3</v>
       </c>
       <c r="C202">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D202">
-        <v>-38.82</v>
+        <v>-38.26</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B203">
-        <v>82.29000000000001</v>
+        <v>62.84</v>
       </c>
       <c r="C203">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D203">
-        <v>-38.34</v>
+        <v>-39.66</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B204">
-        <v>73.42</v>
+        <v>63.38</v>
       </c>
       <c r="C204">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D204">
-        <v>-44.99</v>
+        <v>-39.15</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B205">
-        <v>68.16</v>
+        <v>60.21</v>
       </c>
       <c r="C205">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D205">
-        <v>-48.93</v>
+        <v>-42.19</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B206">
-        <v>66.17</v>
+        <v>59.35</v>
       </c>
       <c r="C206">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D206">
-        <v>-50.42</v>
+        <v>-43.01</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B207">
-        <v>63.94</v>
+        <v>57.93</v>
       </c>
       <c r="C207">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D207">
-        <v>-52.09</v>
+        <v>-44.38</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B208">
-        <v>61.98</v>
+        <v>58.49</v>
       </c>
       <c r="C208">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D208">
-        <v>-53.56</v>
+        <v>-43.84</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B209">
-        <v>61.42</v>
+        <v>59.67</v>
       </c>
       <c r="C209">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D209">
-        <v>-53.98</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B210">
-        <v>67.02</v>
+        <v>59.74</v>
       </c>
       <c r="C210">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D210">
-        <v>-49.78</v>
+        <v>-42.64</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B211">
-        <v>90.2</v>
+        <v>57.93</v>
       </c>
       <c r="C211">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D211">
-        <v>-32.42</v>
+        <v>-44.38</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B212">
-        <v>99.55</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="C212">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D212">
-        <v>-25.41</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B213">
-        <v>109.58</v>
+        <v>90.17</v>
       </c>
       <c r="C213">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D213">
-        <v>-17.89</v>
+        <v>-13.42</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B214">
-        <v>99.26000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="C214">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D214">
-        <v>-25.63</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B215">
-        <v>112.51</v>
+        <v>87.05</v>
       </c>
       <c r="C215">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D215">
-        <v>8.029999999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B216">
-        <v>112.53</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="C216">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D216">
-        <v>8.050000000000001</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B217">
-        <v>107.51</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C217">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D217">
-        <v>3.23</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B218">
-        <v>86.86</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C218">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D218">
-        <v>-16.59</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B219">
-        <v>78.66</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C219">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D219">
-        <v>-24.47</v>
+        <v>-23.75</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44018</v>
+        <v>44049</v>
       </c>
       <c r="B220">
-        <v>74.89</v>
+        <v>62.14</v>
       </c>
       <c r="C220">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D220">
         <v>-28.1</v>
@@ -3683,2060 +3683,2060 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44019</v>
+        <v>44050</v>
       </c>
       <c r="B221">
-        <v>74.34999999999999</v>
+        <v>60.75</v>
       </c>
       <c r="C221">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D221">
-        <v>-28.61</v>
+        <v>-29.71</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44020</v>
+        <v>44051</v>
       </c>
       <c r="B222">
-        <v>74.20999999999999</v>
+        <v>55.95</v>
       </c>
       <c r="C222">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D222">
-        <v>-28.75</v>
+        <v>-35.26</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44021</v>
+        <v>44052</v>
       </c>
       <c r="B223">
-        <v>73.75</v>
+        <v>57.49</v>
       </c>
       <c r="C223">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D223">
-        <v>-29.19</v>
+        <v>-33.48</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="B224">
-        <v>69.58</v>
+        <v>58.94</v>
       </c>
       <c r="C224">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D224">
-        <v>-33.19</v>
+        <v>-31.8</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44023</v>
+        <v>44054</v>
       </c>
       <c r="B225">
-        <v>67.18000000000001</v>
+        <v>58.05</v>
       </c>
       <c r="C225">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D225">
-        <v>-35.5</v>
+        <v>-32.83</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44024</v>
+        <v>44055</v>
       </c>
       <c r="B226">
-        <v>66.45999999999999</v>
+        <v>60.51</v>
       </c>
       <c r="C226">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D226">
-        <v>-36.19</v>
+        <v>-29.98</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44025</v>
+        <v>44056</v>
       </c>
       <c r="B227">
-        <v>65.17</v>
+        <v>58.93</v>
       </c>
       <c r="C227">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D227">
-        <v>-37.43</v>
+        <v>-31.82</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44026</v>
+        <v>44057</v>
       </c>
       <c r="B228">
-        <v>64.09</v>
+        <v>61.29</v>
       </c>
       <c r="C228">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D228">
-        <v>-38.46</v>
+        <v>-29.08</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44027</v>
+        <v>44058</v>
       </c>
       <c r="B229">
-        <v>61.68</v>
+        <v>87.75</v>
       </c>
       <c r="C229">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D229">
-        <v>-40.78</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44028</v>
+        <v>44059</v>
       </c>
       <c r="B230">
-        <v>61.67</v>
+        <v>136.35</v>
       </c>
       <c r="C230">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D230">
-        <v>-40.79</v>
+        <v>57.77</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="B231">
-        <v>61.74</v>
+        <v>136.22</v>
       </c>
       <c r="C231">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D231">
-        <v>-40.72</v>
+        <v>57.62</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44030</v>
+        <v>44061</v>
       </c>
       <c r="B232">
-        <v>62.24</v>
+        <v>146.75</v>
       </c>
       <c r="C232">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D232">
-        <v>-40.24</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44031</v>
+        <v>44062</v>
       </c>
       <c r="B233">
-        <v>64.3</v>
+        <v>171.51</v>
       </c>
       <c r="C233">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D233">
-        <v>-38.26</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B234">
-        <v>62.84</v>
+        <v>189.24</v>
       </c>
       <c r="C234">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D234">
-        <v>-39.66</v>
+        <v>118.97</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44033</v>
+        <v>44064</v>
       </c>
       <c r="B235">
-        <v>63.38</v>
+        <v>187.72</v>
       </c>
       <c r="C235">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D235">
-        <v>-39.15</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44034</v>
+        <v>44065</v>
       </c>
       <c r="B236">
-        <v>60.21</v>
+        <v>179.81</v>
       </c>
       <c r="C236">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D236">
-        <v>-42.19</v>
+        <v>108.06</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44035</v>
+        <v>44066</v>
       </c>
       <c r="B237">
-        <v>59.35</v>
+        <v>177.59</v>
       </c>
       <c r="C237">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D237">
-        <v>-43.01</v>
+        <v>105.49</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B238">
-        <v>57.93</v>
+        <v>175.65</v>
       </c>
       <c r="C238">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D238">
-        <v>-44.38</v>
+        <v>103.24</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B239">
-        <v>58.49</v>
+        <v>153.39</v>
       </c>
       <c r="C239">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D239">
-        <v>-43.84</v>
+        <v>77.48</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B240">
-        <v>59.67</v>
+        <v>108.41</v>
       </c>
       <c r="C240">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D240">
-        <v>-42.71</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B241">
-        <v>59.74</v>
+        <v>95.28</v>
       </c>
       <c r="C241">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D241">
-        <v>-42.64</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B242">
-        <v>57.93</v>
+        <v>88.06</v>
       </c>
       <c r="C242">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D242">
-        <v>-44.38</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B243">
-        <v>75.65000000000001</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="C243">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D243">
-        <v>-27.37</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B244">
-        <v>90.17</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="C244">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D244">
-        <v>-13.42</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B245">
-        <v>100.6</v>
+        <v>79.75</v>
       </c>
       <c r="C245">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D245">
-        <v>-3.4</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B246">
-        <v>87.05</v>
+        <v>77.47</v>
       </c>
       <c r="C246">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D246">
-        <v>0.73</v>
+        <v>-18.01</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B247">
-        <v>89.98999999999999</v>
+        <v>80.83</v>
       </c>
       <c r="C247">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D247">
-        <v>4.13</v>
+        <v>-14.45</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B248">
-        <v>87.93000000000001</v>
+        <v>89.98</v>
       </c>
       <c r="C248">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D248">
-        <v>1.74</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B249">
-        <v>74.34999999999999</v>
+        <v>105.27</v>
       </c>
       <c r="C249">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D249">
-        <v>-13.97</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B250">
-        <v>65.90000000000001</v>
+        <v>108.68</v>
       </c>
       <c r="C250">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D250">
-        <v>-23.75</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44049</v>
+        <v>44080</v>
       </c>
       <c r="B251">
-        <v>62.14</v>
+        <v>89.03</v>
       </c>
       <c r="C251">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D251">
-        <v>-28.1</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44050</v>
+        <v>44081</v>
       </c>
       <c r="B252">
-        <v>60.75</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="C252">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D252">
-        <v>-29.71</v>
+        <v>-13.06</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44051</v>
+        <v>44082</v>
       </c>
       <c r="B253">
-        <v>55.95</v>
+        <v>78.23999999999999</v>
       </c>
       <c r="C253">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D253">
-        <v>-35.26</v>
+        <v>-17.2</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44052</v>
+        <v>44083</v>
       </c>
       <c r="B254">
-        <v>57.49</v>
+        <v>77.16</v>
       </c>
       <c r="C254">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D254">
-        <v>-33.48</v>
+        <v>-18.34</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44053</v>
+        <v>44084</v>
       </c>
       <c r="B255">
-        <v>58.94</v>
+        <v>72.83</v>
       </c>
       <c r="C255">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D255">
-        <v>-31.8</v>
+        <v>-22.92</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44054</v>
+        <v>44085</v>
       </c>
       <c r="B256">
-        <v>58.05</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="C256">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D256">
-        <v>-32.83</v>
+        <v>-25.17</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44055</v>
+        <v>44086</v>
       </c>
       <c r="B257">
-        <v>60.51</v>
+        <v>68.56</v>
       </c>
       <c r="C257">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D257">
-        <v>-29.98</v>
+        <v>-27.44</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44056</v>
+        <v>44087</v>
       </c>
       <c r="B258">
-        <v>58.93</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="C258">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D258">
-        <v>-31.82</v>
+        <v>-29.05</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44057</v>
+        <v>44088</v>
       </c>
       <c r="B259">
-        <v>61.29</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="C259">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D259">
-        <v>-29.08</v>
+        <v>-27.55</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44058</v>
+        <v>44089</v>
       </c>
       <c r="B260">
-        <v>87.75</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="C260">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D260">
-        <v>1.54</v>
+        <v>-29.47</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44059</v>
+        <v>44090</v>
       </c>
       <c r="B261">
-        <v>136.35</v>
+        <v>62.72</v>
       </c>
       <c r="C261">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D261">
-        <v>57.77</v>
+        <v>-33.62</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44060</v>
+        <v>44091</v>
       </c>
       <c r="B262">
-        <v>136.22</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="C262">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D262">
-        <v>57.62</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44061</v>
+        <v>44092</v>
       </c>
       <c r="B263">
-        <v>146.75</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="C263">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D263">
-        <v>69.8</v>
+        <v>-31.52</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44062</v>
+        <v>44093</v>
       </c>
       <c r="B264">
-        <v>171.51</v>
+        <v>64.34</v>
       </c>
       <c r="C264">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D264">
-        <v>98.45</v>
+        <v>-31.9</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44063</v>
+        <v>44094</v>
       </c>
       <c r="B265">
-        <v>189.24</v>
+        <v>63.18</v>
       </c>
       <c r="C265">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D265">
-        <v>118.97</v>
+        <v>-33.14</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44064</v>
+        <v>44095</v>
       </c>
       <c r="B266">
-        <v>187.72</v>
+        <v>61.76</v>
       </c>
       <c r="C266">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D266">
-        <v>117.21</v>
+        <v>-34.64</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44065</v>
+        <v>44096</v>
       </c>
       <c r="B267">
-        <v>179.81</v>
+        <v>61.42</v>
       </c>
       <c r="C267">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D267">
-        <v>108.06</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44066</v>
+        <v>44097</v>
       </c>
       <c r="B268">
-        <v>177.59</v>
+        <v>65.12</v>
       </c>
       <c r="C268">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D268">
-        <v>105.49</v>
+        <v>-31.08</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44067</v>
+        <v>44098</v>
       </c>
       <c r="B269">
-        <v>175.65</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C269">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D269">
-        <v>103.24</v>
+        <v>-30.04</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44068</v>
+        <v>44099</v>
       </c>
       <c r="B270">
-        <v>153.39</v>
+        <v>63.39</v>
       </c>
       <c r="C270">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D270">
-        <v>77.48</v>
+        <v>-32.92</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44069</v>
+        <v>44100</v>
       </c>
       <c r="B271">
-        <v>108.41</v>
+        <v>64.53</v>
       </c>
       <c r="C271">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D271">
-        <v>25.44</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44070</v>
+        <v>44101</v>
       </c>
       <c r="B272">
-        <v>95.28</v>
+        <v>62.86</v>
       </c>
       <c r="C272">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D272">
-        <v>10.25</v>
+        <v>-33.47</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B273">
-        <v>88.06</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C273">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D273">
-        <v>1.9</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B274">
-        <v>84.15000000000001</v>
+        <v>108.79</v>
       </c>
       <c r="C274">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D274">
-        <v>-2.64</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B275">
-        <v>80.31999999999999</v>
+        <v>115.88</v>
       </c>
       <c r="C275">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D275">
-        <v>-7.06</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B276">
-        <v>79.75</v>
+        <v>113.98</v>
       </c>
       <c r="C276">
-        <v>86.42</v>
+        <v>118.4</v>
       </c>
       <c r="D276">
-        <v>-7.72</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B277">
-        <v>77.47</v>
+        <v>94.22</v>
       </c>
       <c r="C277">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D277">
-        <v>-18.01</v>
+        <v>-20.42</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B278">
-        <v>80.83</v>
+        <v>90.77</v>
       </c>
       <c r="C278">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D278">
-        <v>-14.45</v>
+        <v>-23.33</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B279">
-        <v>89.98</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="C279">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D279">
-        <v>-4.77</v>
+        <v>-29.27</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B280">
-        <v>105.27</v>
+        <v>83.88</v>
       </c>
       <c r="C280">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D280">
-        <v>11.41</v>
+        <v>-29.16</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B281">
-        <v>108.68</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="C281">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D281">
-        <v>15.02</v>
+        <v>-27.3</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B282">
-        <v>89.03</v>
+        <v>98.58</v>
       </c>
       <c r="C282">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D282">
-        <v>-5.77</v>
+        <v>-16.74</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B283">
-        <v>82.15000000000001</v>
+        <v>101.55</v>
       </c>
       <c r="C283">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D283">
-        <v>-13.06</v>
+        <v>-14.23</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B284">
-        <v>78.23999999999999</v>
+        <v>119.76</v>
       </c>
       <c r="C284">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D284">
-        <v>-17.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B285">
-        <v>77.16</v>
+        <v>128.5</v>
       </c>
       <c r="C285">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D285">
-        <v>-18.34</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B286">
-        <v>72.83</v>
+        <v>125.06</v>
       </c>
       <c r="C286">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D286">
-        <v>-22.92</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B287">
-        <v>70.70999999999999</v>
+        <v>122.17</v>
       </c>
       <c r="C287">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D287">
-        <v>-25.17</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B288">
-        <v>68.56</v>
+        <v>102.91</v>
       </c>
       <c r="C288">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D288">
-        <v>-27.44</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B289">
-        <v>67.04000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="C289">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D289">
-        <v>-29.05</v>
+        <v>-25.09</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B290">
-        <v>68.45999999999999</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="C290">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D290">
-        <v>-27.55</v>
+        <v>-31.16</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B291">
-        <v>66.65000000000001</v>
+        <v>76.84</v>
       </c>
       <c r="C291">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D291">
-        <v>-29.47</v>
+        <v>-35.1</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B292">
-        <v>62.72</v>
+        <v>75.27</v>
       </c>
       <c r="C292">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D292">
-        <v>-33.62</v>
+        <v>-36.43</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B293">
-        <v>64.26000000000001</v>
+        <v>74.72</v>
       </c>
       <c r="C293">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D293">
-        <v>-31.99</v>
+        <v>-36.89</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B294">
-        <v>64.70999999999999</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="C294">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D294">
-        <v>-31.52</v>
+        <v>-36.83</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B295">
-        <v>64.34</v>
+        <v>73.02</v>
       </c>
       <c r="C295">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D295">
-        <v>-31.9</v>
+        <v>-38.33</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B296">
-        <v>63.18</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C296">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D296">
-        <v>-33.14</v>
+        <v>-39.34</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B297">
-        <v>61.76</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C297">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D297">
-        <v>-34.64</v>
+        <v>-38.26</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B298">
-        <v>61.42</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C298">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D298">
-        <v>-35</v>
+        <v>-38.43</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B299">
-        <v>65.12</v>
+        <v>76.45</v>
       </c>
       <c r="C299">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D299">
-        <v>-31.08</v>
+        <v>-35.43</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B300">
-        <v>66.09999999999999</v>
+        <v>92.34</v>
       </c>
       <c r="C300">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D300">
-        <v>-30.04</v>
+        <v>-22.01</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B301">
-        <v>63.39</v>
+        <v>84.8</v>
       </c>
       <c r="C301">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D301">
-        <v>-32.92</v>
+        <v>-28.38</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B302">
-        <v>64.53</v>
+        <v>81.98</v>
       </c>
       <c r="C302">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D302">
-        <v>-31.7</v>
+        <v>-30.76</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B303">
-        <v>62.86</v>
+        <v>74.09</v>
       </c>
       <c r="C303">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D303">
-        <v>-33.47</v>
+        <v>-37.42</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B304">
-        <v>86.90000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="C304">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D304">
-        <v>-8.029999999999999</v>
+        <v>-41.47</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B305">
-        <v>108.79</v>
+        <v>82.94</v>
       </c>
       <c r="C305">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D305">
-        <v>15.14</v>
+        <v>-29.95</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B306">
-        <v>115.88</v>
+        <v>81.73</v>
       </c>
       <c r="C306">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D306">
-        <v>22.64</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B307">
-        <v>113.98</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="C307">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D307">
-        <v>-3.73</v>
+        <v>-12.48</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B308">
-        <v>94.22</v>
+        <v>97.72</v>
       </c>
       <c r="C308">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D308">
-        <v>-20.42</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44107</v>
+        <v>44138</v>
       </c>
       <c r="B309">
-        <v>90.77</v>
+        <v>85.7</v>
       </c>
       <c r="C309">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D309">
-        <v>-23.33</v>
+        <v>-22.51</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44108</v>
+        <v>44139</v>
       </c>
       <c r="B310">
-        <v>83.73999999999999</v>
+        <v>89.31999999999999</v>
       </c>
       <c r="C310">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D310">
-        <v>-29.27</v>
+        <v>-19.23</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44109</v>
+        <v>44140</v>
       </c>
       <c r="B311">
-        <v>83.88</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C311">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D311">
-        <v>-29.16</v>
+        <v>-20.79</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44110</v>
+        <v>44141</v>
       </c>
       <c r="B312">
-        <v>86.06999999999999</v>
+        <v>82.11</v>
       </c>
       <c r="C312">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D312">
-        <v>-27.3</v>
+        <v>-25.75</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44111</v>
+        <v>44142</v>
       </c>
       <c r="B313">
-        <v>98.58</v>
+        <v>74.14</v>
       </c>
       <c r="C313">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D313">
-        <v>-16.74</v>
+        <v>-32.97</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44112</v>
+        <v>44143</v>
       </c>
       <c r="B314">
-        <v>101.55</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="C314">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D314">
-        <v>-14.23</v>
+        <v>-35.67</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B315">
-        <v>119.76</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C315">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D315">
-        <v>1.15</v>
+        <v>-37.06</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44114</v>
+        <v>44145</v>
       </c>
       <c r="B316">
-        <v>128.5</v>
+        <v>71.44</v>
       </c>
       <c r="C316">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D316">
-        <v>8.529999999999999</v>
+        <v>-35.41</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44115</v>
+        <v>44146</v>
       </c>
       <c r="B317">
-        <v>125.06</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="C317">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D317">
-        <v>5.63</v>
+        <v>-16.35</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44116</v>
+        <v>44147</v>
       </c>
       <c r="B318">
-        <v>122.17</v>
+        <v>126.58</v>
       </c>
       <c r="C318">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D318">
-        <v>3.18</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44117</v>
+        <v>44148</v>
       </c>
       <c r="B319">
-        <v>102.91</v>
+        <v>120</v>
       </c>
       <c r="C319">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D319">
-        <v>-13.09</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44118</v>
+        <v>44149</v>
       </c>
       <c r="B320">
-        <v>88.7</v>
+        <v>130.98</v>
       </c>
       <c r="C320">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D320">
-        <v>-25.09</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44119</v>
+        <v>44150</v>
       </c>
       <c r="B321">
-        <v>81.51000000000001</v>
+        <v>133.53</v>
       </c>
       <c r="C321">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D321">
-        <v>-31.16</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44120</v>
+        <v>44151</v>
       </c>
       <c r="B322">
-        <v>76.84</v>
+        <v>129.96</v>
       </c>
       <c r="C322">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D322">
-        <v>-35.1</v>
+        <v>17.51</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44121</v>
+        <v>44152</v>
       </c>
       <c r="B323">
-        <v>75.27</v>
+        <v>135.84</v>
       </c>
       <c r="C323">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D323">
-        <v>-36.43</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44122</v>
+        <v>44153</v>
       </c>
       <c r="B324">
-        <v>74.72</v>
+        <v>147.3</v>
       </c>
       <c r="C324">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D324">
-        <v>-36.89</v>
+        <v>33.19</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44123</v>
+        <v>44154</v>
       </c>
       <c r="B325">
-        <v>74.79000000000001</v>
+        <v>170.91</v>
       </c>
       <c r="C325">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D325">
-        <v>-36.83</v>
+        <v>54.53</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="B326">
-        <v>73.02</v>
+        <v>179.05</v>
       </c>
       <c r="C326">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D326">
-        <v>-38.33</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44125</v>
+        <v>44156</v>
       </c>
       <c r="B327">
-        <v>71.81999999999999</v>
+        <v>165.27</v>
       </c>
       <c r="C327">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D327">
-        <v>-39.34</v>
+        <v>49.44</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44126</v>
+        <v>44157</v>
       </c>
       <c r="B328">
-        <v>73.09999999999999</v>
+        <v>156.52</v>
       </c>
       <c r="C328">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D328">
-        <v>-38.26</v>
+        <v>41.53</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44127</v>
+        <v>44158</v>
       </c>
       <c r="B329">
-        <v>72.90000000000001</v>
+        <v>151.14</v>
       </c>
       <c r="C329">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D329">
-        <v>-38.43</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44128</v>
+        <v>44159</v>
       </c>
       <c r="B330">
-        <v>76.45</v>
+        <v>126.78</v>
       </c>
       <c r="C330">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D330">
-        <v>-35.43</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44129</v>
+        <v>44160</v>
       </c>
       <c r="B331">
-        <v>92.34</v>
+        <v>107.4</v>
       </c>
       <c r="C331">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D331">
-        <v>-22.01</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44130</v>
+        <v>44161</v>
       </c>
       <c r="B332">
-        <v>84.8</v>
+        <v>99.16</v>
       </c>
       <c r="C332">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D332">
-        <v>-28.38</v>
+        <v>-10.34</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44131</v>
+        <v>44162</v>
       </c>
       <c r="B333">
-        <v>81.98</v>
+        <v>113.24</v>
       </c>
       <c r="C333">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D333">
-        <v>-30.76</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44132</v>
+        <v>44163</v>
       </c>
       <c r="B334">
-        <v>74.09</v>
+        <v>131.76</v>
       </c>
       <c r="C334">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D334">
-        <v>-37.42</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44133</v>
+        <v>44164</v>
       </c>
       <c r="B335">
-        <v>69.3</v>
+        <v>141.5</v>
       </c>
       <c r="C335">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D335">
-        <v>-41.47</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44134</v>
+        <v>44165</v>
       </c>
       <c r="B336">
-        <v>82.94</v>
+        <v>155.09</v>
       </c>
       <c r="C336">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D336">
-        <v>-29.95</v>
+        <v>40.23</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44135</v>
+        <v>44166</v>
       </c>
       <c r="B337">
-        <v>81.73</v>
+        <v>161.01</v>
       </c>
       <c r="C337">
-        <v>118.4</v>
+        <v>114.17</v>
       </c>
       <c r="D337">
-        <v>-30.97</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44136</v>
+        <v>44167</v>
       </c>
       <c r="B338">
-        <v>96.79000000000001</v>
+        <v>126.2</v>
       </c>
       <c r="C338">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D338">
-        <v>-12.48</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44137</v>
+        <v>44168</v>
       </c>
       <c r="B339">
-        <v>97.72</v>
+        <v>114.11</v>
       </c>
       <c r="C339">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D339">
-        <v>-11.64</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44138</v>
+        <v>44169</v>
       </c>
       <c r="B340">
-        <v>85.7</v>
+        <v>114.53</v>
       </c>
       <c r="C340">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D340">
-        <v>-22.51</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44139</v>
+        <v>44170</v>
       </c>
       <c r="B341">
-        <v>89.31999999999999</v>
+        <v>143.6</v>
       </c>
       <c r="C341">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D341">
-        <v>-19.23</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44140</v>
+        <v>44171</v>
       </c>
       <c r="B342">
-        <v>87.59999999999999</v>
+        <v>172.56</v>
       </c>
       <c r="C342">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D342">
-        <v>-20.79</v>
+        <v>51.15</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44141</v>
+        <v>44172</v>
       </c>
       <c r="B343">
-        <v>82.11</v>
+        <v>183.97</v>
       </c>
       <c r="C343">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D343">
-        <v>-25.75</v>
+        <v>61.14</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44142</v>
+        <v>44173</v>
       </c>
       <c r="B344">
-        <v>74.14</v>
+        <v>179.21</v>
       </c>
       <c r="C344">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D344">
-        <v>-32.97</v>
+        <v>56.97</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44143</v>
+        <v>44174</v>
       </c>
       <c r="B345">
-        <v>71.15000000000001</v>
+        <v>213.83</v>
       </c>
       <c r="C345">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D345">
-        <v>-35.67</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44144</v>
+        <v>44175</v>
       </c>
       <c r="B346">
-        <v>69.59999999999999</v>
+        <v>216.4</v>
       </c>
       <c r="C346">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D346">
-        <v>-37.06</v>
+        <v>89.55</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44145</v>
+        <v>44176</v>
       </c>
       <c r="B347">
-        <v>71.44</v>
+        <v>197.74</v>
       </c>
       <c r="C347">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D347">
-        <v>-35.41</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44146</v>
+        <v>44177</v>
       </c>
       <c r="B348">
-        <v>92.51000000000001</v>
+        <v>178.79</v>
       </c>
       <c r="C348">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D348">
-        <v>-16.35</v>
+        <v>56.61</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44147</v>
+        <v>44178</v>
       </c>
       <c r="B349">
-        <v>126.58</v>
+        <v>149.81</v>
       </c>
       <c r="C349">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D349">
-        <v>14.46</v>
+        <v>31.22</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44148</v>
+        <v>44179</v>
       </c>
       <c r="B350">
-        <v>120</v>
+        <v>127.18</v>
       </c>
       <c r="C350">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D350">
-        <v>8.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44149</v>
+        <v>44180</v>
       </c>
       <c r="B351">
-        <v>130.98</v>
+        <v>130.42</v>
       </c>
       <c r="C351">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D351">
-        <v>18.43</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44150</v>
+        <v>44181</v>
       </c>
       <c r="B352">
-        <v>133.53</v>
+        <v>150.97</v>
       </c>
       <c r="C352">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D352">
-        <v>20.74</v>
+        <v>32.24</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44151</v>
+        <v>44182</v>
       </c>
       <c r="B353">
-        <v>129.96</v>
+        <v>172.4</v>
       </c>
       <c r="C353">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D353">
-        <v>17.51</v>
+        <v>51.01</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44152</v>
+        <v>44183</v>
       </c>
       <c r="B354">
-        <v>135.84</v>
+        <v>163.53</v>
       </c>
       <c r="C354">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D354">
-        <v>22.82</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44153</v>
+        <v>44184</v>
       </c>
       <c r="B355">
-        <v>147.3</v>
+        <v>168.67</v>
       </c>
       <c r="C355">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D355">
-        <v>33.19</v>
+        <v>47.74</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44154</v>
+        <v>44185</v>
       </c>
       <c r="B356">
-        <v>170.91</v>
+        <v>173.15</v>
       </c>
       <c r="C356">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D356">
-        <v>54.53</v>
+        <v>51.66</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44155</v>
+        <v>44186</v>
       </c>
       <c r="B357">
-        <v>179.05</v>
+        <v>156.91</v>
       </c>
       <c r="C357">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D357">
-        <v>61.9</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44156</v>
+        <v>44187</v>
       </c>
       <c r="B358">
-        <v>165.27</v>
+        <v>144.78</v>
       </c>
       <c r="C358">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D358">
-        <v>49.44</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44157</v>
+        <v>44188</v>
       </c>
       <c r="B359">
-        <v>156.52</v>
+        <v>143.75</v>
       </c>
       <c r="C359">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D359">
-        <v>41.53</v>
+        <v>25.91</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44158</v>
+        <v>44189</v>
       </c>
       <c r="B360">
-        <v>151.14</v>
+        <v>140.3</v>
       </c>
       <c r="C360">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D360">
-        <v>36.66</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44159</v>
+        <v>44190</v>
       </c>
       <c r="B361">
-        <v>126.78</v>
+        <v>130.58</v>
       </c>
       <c r="C361">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D361">
-        <v>14.63</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44160</v>
+        <v>44191</v>
       </c>
       <c r="B362">
-        <v>107.4</v>
+        <v>129.21</v>
       </c>
       <c r="C362">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D362">
-        <v>-2.89</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44161</v>
+        <v>44192</v>
       </c>
       <c r="B363">
-        <v>99.16</v>
+        <v>127.23</v>
       </c>
       <c r="C363">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D363">
-        <v>-10.34</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44162</v>
+        <v>44193</v>
       </c>
       <c r="B364">
-        <v>113.24</v>
+        <v>118.08</v>
       </c>
       <c r="C364">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D364">
-        <v>2.39</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44163</v>
+        <v>44194</v>
       </c>
       <c r="B365">
-        <v>131.76</v>
+        <v>116.6</v>
       </c>
       <c r="C365">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D365">
-        <v>19.14</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44164</v>
+        <v>44195</v>
       </c>
       <c r="B366">
-        <v>141.5</v>
+        <v>120.67</v>
       </c>
       <c r="C366">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D366">
-        <v>27.94</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B367">
-        <v>155.09</v>
+        <v>135.38</v>
       </c>
       <c r="C367">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D367">
-        <v>40.23</v>
+        <v>18.58</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -583,6 +583,20 @@
         <v>32.85</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B14">
+        <v>126.54</v>
+      </c>
+      <c r="C14">
+        <v>132.15</v>
+      </c>
+      <c r="D14">
+        <v>-4.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -590,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5739,6 +5753,216 @@
         <v>18.58</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B368">
+        <v>149.36</v>
+      </c>
+      <c r="C368">
+        <v>132.15</v>
+      </c>
+      <c r="D368">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B369">
+        <v>170.05</v>
+      </c>
+      <c r="C369">
+        <v>132.15</v>
+      </c>
+      <c r="D369">
+        <v>28.68</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B370">
+        <v>171.4</v>
+      </c>
+      <c r="C370">
+        <v>132.15</v>
+      </c>
+      <c r="D370">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B371">
+        <v>142.95</v>
+      </c>
+      <c r="C371">
+        <v>132.15</v>
+      </c>
+      <c r="D371">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B372">
+        <v>127.64</v>
+      </c>
+      <c r="C372">
+        <v>132.15</v>
+      </c>
+      <c r="D372">
+        <v>-3.42</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B373">
+        <v>136.49</v>
+      </c>
+      <c r="C373">
+        <v>132.15</v>
+      </c>
+      <c r="D373">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B374">
+        <v>122.96</v>
+      </c>
+      <c r="C374">
+        <v>132.15</v>
+      </c>
+      <c r="D374">
+        <v>-6.96</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B375">
+        <v>119.66</v>
+      </c>
+      <c r="C375">
+        <v>132.15</v>
+      </c>
+      <c r="D375">
+        <v>-9.449999999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B376">
+        <v>118.11</v>
+      </c>
+      <c r="C376">
+        <v>132.15</v>
+      </c>
+      <c r="D376">
+        <v>-10.62</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B377">
+        <v>111.2</v>
+      </c>
+      <c r="C377">
+        <v>132.15</v>
+      </c>
+      <c r="D377">
+        <v>-15.86</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B378">
+        <v>109.99</v>
+      </c>
+      <c r="C378">
+        <v>132.15</v>
+      </c>
+      <c r="D378">
+        <v>-16.77</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B379">
+        <v>105.6</v>
+      </c>
+      <c r="C379">
+        <v>132.15</v>
+      </c>
+      <c r="D379">
+        <v>-20.09</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B380">
+        <v>103.49</v>
+      </c>
+      <c r="C380">
+        <v>132.15</v>
+      </c>
+      <c r="D380">
+        <v>-21.69</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B381">
+        <v>104.75</v>
+      </c>
+      <c r="C381">
+        <v>132.15</v>
+      </c>
+      <c r="D381">
+        <v>-20.73</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B382">
+        <v>104.46</v>
+      </c>
+      <c r="C382">
+        <v>132.15</v>
+      </c>
+      <c r="D382">
+        <v>-20.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -417,184 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B2">
-        <v>93.59</v>
+        <v>116</v>
       </c>
       <c r="C2">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D2">
-        <v>-29.18</v>
+        <v>-13.2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B3">
-        <v>116</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C3">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D3">
-        <v>-13.2</v>
+        <v>-18.82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B4">
-        <v>92.34999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C4">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D4">
-        <v>-18.82</v>
+        <v>-32.79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B5">
-        <v>66.51000000000001</v>
+        <v>57.27</v>
       </c>
       <c r="C5">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D5">
-        <v>-32.79</v>
+        <v>-42.69</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B6">
-        <v>57.27</v>
+        <v>83.84</v>
       </c>
       <c r="C6">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D6">
-        <v>-42.69</v>
+        <v>-37.18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B7">
-        <v>83.84</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C7">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D7">
-        <v>-37.18</v>
+        <v>-30.45</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B8">
-        <v>72.43000000000001</v>
+        <v>103.78</v>
       </c>
       <c r="C8">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D8">
-        <v>-30.45</v>
+        <v>20.08</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B9">
-        <v>103.78</v>
+        <v>75.97</v>
       </c>
       <c r="C9">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D9">
-        <v>20.08</v>
+        <v>-19.6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B10">
-        <v>75.97</v>
+        <v>88.95</v>
       </c>
       <c r="C10">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D10">
-        <v>-19.6</v>
+        <v>-24.87</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B11">
-        <v>88.95</v>
+        <v>118</v>
       </c>
       <c r="C11">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D11">
-        <v>-24.87</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B12">
-        <v>118</v>
+        <v>151.66</v>
       </c>
       <c r="C12">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D12">
-        <v>6.7</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B13">
-        <v>151.66</v>
+        <v>143.44</v>
       </c>
       <c r="C13">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D13">
-        <v>32.85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B14">
-        <v>126.54</v>
-      </c>
-      <c r="C14">
-        <v>132.15</v>
-      </c>
-      <c r="D14">
-        <v>-4.25</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -631,2631 +617,2631 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B2">
-        <v>82.44</v>
+        <v>73.39</v>
       </c>
       <c r="C2">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D2">
-        <v>-37.62</v>
+        <v>-45.09</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43832</v>
+        <v>43863</v>
       </c>
       <c r="B3">
-        <v>99.45999999999999</v>
+        <v>76.36</v>
       </c>
       <c r="C3">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D3">
-        <v>-24.74</v>
+        <v>-42.86</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B4">
-        <v>94.8</v>
+        <v>80.23</v>
       </c>
       <c r="C4">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D4">
-        <v>-28.26</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B5">
-        <v>95.92</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="C5">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D5">
-        <v>-27.42</v>
+        <v>-35.64</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B6">
-        <v>94.88</v>
+        <v>97.08</v>
       </c>
       <c r="C6">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D6">
-        <v>-28.21</v>
+        <v>-27.36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B7">
-        <v>98.77</v>
+        <v>91.31</v>
       </c>
       <c r="C7">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D7">
-        <v>-25.26</v>
+        <v>-31.67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B8">
-        <v>106.38</v>
+        <v>104.2</v>
       </c>
       <c r="C8">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D8">
-        <v>-19.5</v>
+        <v>-22.03</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43838</v>
+        <v>43869</v>
       </c>
       <c r="B9">
-        <v>96.95</v>
+        <v>116.15</v>
       </c>
       <c r="C9">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D9">
-        <v>-26.64</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B10">
-        <v>88.92</v>
+        <v>128.33</v>
       </c>
       <c r="C10">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D10">
-        <v>-32.72</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B11">
-        <v>88.73999999999999</v>
+        <v>174.02</v>
       </c>
       <c r="C11">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D11">
-        <v>-32.85</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B12">
-        <v>104.72</v>
+        <v>210.61</v>
       </c>
       <c r="C12">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D12">
-        <v>-20.76</v>
+        <v>57.59</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B13">
-        <v>95.23</v>
+        <v>199.88</v>
       </c>
       <c r="C13">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D13">
-        <v>-27.94</v>
+        <v>49.56</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B14">
-        <v>95.98999999999999</v>
+        <v>187.34</v>
       </c>
       <c r="C14">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D14">
-        <v>-27.36</v>
+        <v>40.18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B15">
-        <v>95.95999999999999</v>
+        <v>170.34</v>
       </c>
       <c r="C15">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D15">
-        <v>-27.39</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B16">
-        <v>87.70999999999999</v>
+        <v>140.86</v>
       </c>
       <c r="C16">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D16">
-        <v>-33.63</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B17">
-        <v>91.67</v>
+        <v>114.7</v>
       </c>
       <c r="C17">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D17">
-        <v>-30.63</v>
+        <v>-14.18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B18">
-        <v>107.67</v>
+        <v>103</v>
       </c>
       <c r="C18">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D18">
-        <v>-18.53</v>
+        <v>-22.93</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B19">
-        <v>99.84</v>
+        <v>95.69</v>
       </c>
       <c r="C19">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D19">
-        <v>-24.45</v>
+        <v>-28.4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B20">
-        <v>106.68</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="C20">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D20">
-        <v>-19.28</v>
+        <v>-29.3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B21">
-        <v>99.88</v>
+        <v>92.72</v>
       </c>
       <c r="C21">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D21">
-        <v>-24.42</v>
+        <v>-30.62</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B22">
-        <v>95.33</v>
+        <v>90.38</v>
       </c>
       <c r="C22">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D22">
-        <v>-27.86</v>
+        <v>-32.38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B23">
-        <v>101.73</v>
+        <v>88.64</v>
       </c>
       <c r="C23">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D23">
-        <v>-23.02</v>
+        <v>-33.68</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B24">
-        <v>97.93000000000001</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="C24">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D24">
-        <v>-25.9</v>
+        <v>-30.82</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B25">
-        <v>90.48</v>
+        <v>93.72</v>
       </c>
       <c r="C25">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D25">
-        <v>-31.53</v>
+        <v>-29.87</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B26">
-        <v>93.98999999999999</v>
+        <v>92.88</v>
       </c>
       <c r="C26">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D26">
-        <v>-28.88</v>
+        <v>-30.51</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B27">
-        <v>92.36</v>
+        <v>106.78</v>
       </c>
       <c r="C27">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D27">
-        <v>-30.11</v>
+        <v>-20.1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B28">
-        <v>86.70999999999999</v>
+        <v>123.67</v>
       </c>
       <c r="C28">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D28">
-        <v>-34.39</v>
+        <v>-7.47</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B29">
-        <v>79.81</v>
+        <v>119.95</v>
       </c>
       <c r="C29">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D29">
-        <v>-39.6</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B30">
-        <v>78.02</v>
+        <v>118.88</v>
       </c>
       <c r="C30">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D30">
-        <v>-40.96</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B31">
-        <v>76.23</v>
+        <v>106.98</v>
       </c>
       <c r="C31">
-        <v>132.15</v>
+        <v>113.77</v>
       </c>
       <c r="D31">
-        <v>-42.32</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B32">
-        <v>76.06999999999999</v>
+        <v>96.73</v>
       </c>
       <c r="C32">
-        <v>132.15</v>
+        <v>113.77</v>
       </c>
       <c r="D32">
-        <v>-42.43</v>
+        <v>-14.98</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B33">
-        <v>73.39</v>
+        <v>98.62</v>
       </c>
       <c r="C33">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D33">
-        <v>-45.09</v>
+        <v>-13.31</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B34">
-        <v>76.36</v>
+        <v>106.85</v>
       </c>
       <c r="C34">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D34">
-        <v>-42.86</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B35">
-        <v>80.23</v>
+        <v>114.51</v>
       </c>
       <c r="C35">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D35">
-        <v>-39.97</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B36">
-        <v>86.01000000000001</v>
+        <v>114.11</v>
       </c>
       <c r="C36">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D36">
-        <v>-35.64</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B37">
-        <v>97.08</v>
+        <v>98.8</v>
       </c>
       <c r="C37">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D37">
-        <v>-27.36</v>
+        <v>-13.15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B38">
-        <v>91.31</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="C38">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D38">
-        <v>-31.67</v>
+        <v>-18.98</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B39">
-        <v>104.2</v>
+        <v>88.88</v>
       </c>
       <c r="C39">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D39">
-        <v>-22.03</v>
+        <v>-21.88</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B40">
-        <v>116.15</v>
+        <v>85.89</v>
       </c>
       <c r="C40">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D40">
-        <v>-13.09</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B41">
-        <v>128.33</v>
+        <v>83.27</v>
       </c>
       <c r="C41">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D41">
-        <v>-3.97</v>
+        <v>-26.81</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B42">
-        <v>174.02</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C42">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D42">
-        <v>30.21</v>
+        <v>-29.23</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B43">
-        <v>210.61</v>
+        <v>77.51000000000001</v>
       </c>
       <c r="C43">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D43">
-        <v>57.59</v>
+        <v>-31.87</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B44">
-        <v>199.88</v>
+        <v>74.27</v>
       </c>
       <c r="C44">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D44">
-        <v>49.56</v>
+        <v>-34.72</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B45">
-        <v>187.34</v>
+        <v>75.94</v>
       </c>
       <c r="C45">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D45">
-        <v>40.18</v>
+        <v>-33.25</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B46">
-        <v>170.34</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C46">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D46">
-        <v>27.46</v>
+        <v>-18.16</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B47">
-        <v>140.86</v>
+        <v>109.04</v>
       </c>
       <c r="C47">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D47">
-        <v>5.4</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B48">
-        <v>114.7</v>
+        <v>92.52</v>
       </c>
       <c r="C48">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D48">
-        <v>-14.18</v>
+        <v>-18.68</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B49">
-        <v>103</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C49">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D49">
-        <v>-22.93</v>
+        <v>-19.92</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B50">
-        <v>95.69</v>
+        <v>93.03</v>
       </c>
       <c r="C50">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D50">
-        <v>-28.4</v>
+        <v>-18.23</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B51">
-        <v>94.48999999999999</v>
+        <v>107.64</v>
       </c>
       <c r="C51">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D51">
-        <v>-29.3</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B52">
-        <v>92.72</v>
+        <v>104.73</v>
       </c>
       <c r="C52">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D52">
-        <v>-30.62</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B53">
-        <v>90.38</v>
+        <v>90.55</v>
       </c>
       <c r="C53">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D53">
-        <v>-32.38</v>
+        <v>-20.41</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B54">
-        <v>88.64</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="C54">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D54">
-        <v>-33.68</v>
+        <v>-25.44</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B55">
-        <v>92.45999999999999</v>
+        <v>87.22</v>
       </c>
       <c r="C55">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D55">
-        <v>-30.82</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B56">
-        <v>93.72</v>
+        <v>100.01</v>
       </c>
       <c r="C56">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D56">
-        <v>-29.87</v>
+        <v>-12.09</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B57">
-        <v>92.88</v>
+        <v>96.25</v>
       </c>
       <c r="C57">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D57">
-        <v>-30.51</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B58">
-        <v>106.78</v>
+        <v>83.8</v>
       </c>
       <c r="C58">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D58">
-        <v>-20.1</v>
+        <v>-26.34</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B59">
-        <v>123.67</v>
+        <v>79.14</v>
       </c>
       <c r="C59">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D59">
-        <v>-7.47</v>
+        <v>-30.44</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B60">
-        <v>119.95</v>
+        <v>78.02</v>
       </c>
       <c r="C60">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D60">
-        <v>-10.25</v>
+        <v>-31.42</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B61">
-        <v>118.88</v>
+        <v>76.94</v>
       </c>
       <c r="C61">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D61">
-        <v>-11.05</v>
+        <v>-32.37</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B62">
-        <v>106.98</v>
+        <v>75.02</v>
       </c>
       <c r="C62">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D62">
-        <v>-5.97</v>
+        <v>-24.19</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B63">
-        <v>96.73</v>
+        <v>73.72</v>
       </c>
       <c r="C63">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D63">
-        <v>-14.98</v>
+        <v>-25.5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B64">
-        <v>98.62</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="C64">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D64">
-        <v>-13.31</v>
+        <v>-27.99</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B65">
-        <v>106.85</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C65">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D65">
-        <v>-6.08</v>
+        <v>-31.89</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B66">
-        <v>114.51</v>
+        <v>66.39</v>
       </c>
       <c r="C66">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D66">
-        <v>0.65</v>
+        <v>-32.91</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="B67">
-        <v>114.11</v>
+        <v>66.22</v>
       </c>
       <c r="C67">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D67">
-        <v>0.31</v>
+        <v>-33.08</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B68">
-        <v>98.8</v>
+        <v>78.78</v>
       </c>
       <c r="C68">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D68">
-        <v>-13.15</v>
+        <v>-20.39</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B69">
-        <v>92.18000000000001</v>
+        <v>78.77</v>
       </c>
       <c r="C69">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D69">
-        <v>-18.98</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B70">
-        <v>88.88</v>
+        <v>77.78</v>
       </c>
       <c r="C70">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D70">
-        <v>-21.88</v>
+        <v>-21.4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B71">
-        <v>85.89</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="C71">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D71">
-        <v>-24.51</v>
+        <v>-25.55</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B72">
-        <v>83.27</v>
+        <v>69.62</v>
       </c>
       <c r="C72">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D72">
-        <v>-26.81</v>
+        <v>-29.64</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B73">
-        <v>80.51000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="C73">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D73">
-        <v>-29.23</v>
+        <v>-33.29</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B74">
-        <v>77.51000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="C74">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D74">
-        <v>-31.87</v>
+        <v>-34.19</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B75">
-        <v>74.27</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C75">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D75">
-        <v>-34.72</v>
+        <v>-33.2</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B76">
-        <v>75.94</v>
+        <v>65.27</v>
       </c>
       <c r="C76">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D76">
-        <v>-33.25</v>
+        <v>-34.04</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B77">
-        <v>93.09999999999999</v>
+        <v>64.78</v>
       </c>
       <c r="C77">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D77">
-        <v>-18.16</v>
+        <v>-34.54</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B78">
-        <v>109.04</v>
+        <v>63.42</v>
       </c>
       <c r="C78">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D78">
-        <v>-4.15</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B79">
-        <v>92.52</v>
+        <v>62.1</v>
       </c>
       <c r="C79">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D79">
-        <v>-18.68</v>
+        <v>-37.24</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B80">
-        <v>91.09999999999999</v>
+        <v>61.06</v>
       </c>
       <c r="C80">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D80">
-        <v>-19.92</v>
+        <v>-38.29</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B81">
-        <v>93.03</v>
+        <v>62.04</v>
       </c>
       <c r="C81">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D81">
-        <v>-18.23</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B82">
-        <v>107.64</v>
+        <v>63.03</v>
       </c>
       <c r="C82">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D82">
-        <v>-5.39</v>
+        <v>-36.3</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B83">
-        <v>104.73</v>
+        <v>62.84</v>
       </c>
       <c r="C83">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D83">
-        <v>-7.94</v>
+        <v>-36.49</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B84">
-        <v>90.55</v>
+        <v>62.5</v>
       </c>
       <c r="C84">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D84">
-        <v>-20.41</v>
+        <v>-36.84</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B85">
-        <v>84.81999999999999</v>
+        <v>62.88</v>
       </c>
       <c r="C85">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D85">
-        <v>-25.44</v>
+        <v>-36.46</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B86">
-        <v>87.22</v>
+        <v>63.01</v>
       </c>
       <c r="C86">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D86">
-        <v>-23.34</v>
+        <v>-36.32</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B87">
-        <v>100.01</v>
+        <v>62.89</v>
       </c>
       <c r="C87">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D87">
-        <v>-12.09</v>
+        <v>-36.45</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B88">
-        <v>96.25</v>
+        <v>62.24</v>
       </c>
       <c r="C88">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D88">
-        <v>-15.4</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B89">
-        <v>83.8</v>
+        <v>60.33</v>
       </c>
       <c r="C89">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D89">
-        <v>-26.34</v>
+        <v>-39.03</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="B90">
-        <v>79.14</v>
+        <v>60.25</v>
       </c>
       <c r="C90">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D90">
-        <v>-30.44</v>
+        <v>-39.11</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="B91">
-        <v>78.02</v>
+        <v>60.76</v>
       </c>
       <c r="C91">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D91">
-        <v>-31.42</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B92">
-        <v>76.94</v>
+        <v>61.01</v>
       </c>
       <c r="C92">
-        <v>113.77</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D92">
-        <v>-32.37</v>
+        <v>-38.95</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="B93">
-        <v>75.02</v>
+        <v>57.79</v>
       </c>
       <c r="C93">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D93">
-        <v>-24.19</v>
+        <v>-42.17</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="B94">
-        <v>73.72</v>
+        <v>57.7</v>
       </c>
       <c r="C94">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D94">
-        <v>-25.5</v>
+        <v>-42.26</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="B95">
-        <v>71.26000000000001</v>
+        <v>59.51</v>
       </c>
       <c r="C95">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D95">
-        <v>-27.99</v>
+        <v>-40.45</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B96">
-        <v>67.40000000000001</v>
+        <v>58.09</v>
       </c>
       <c r="C96">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D96">
-        <v>-31.89</v>
+        <v>-41.87</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B97">
-        <v>66.39</v>
+        <v>55.98</v>
       </c>
       <c r="C97">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D97">
-        <v>-32.91</v>
+        <v>-43.98</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="B98">
-        <v>66.22</v>
+        <v>56.29</v>
       </c>
       <c r="C98">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D98">
-        <v>-33.08</v>
+        <v>-43.67</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B99">
-        <v>78.78</v>
+        <v>56.21</v>
       </c>
       <c r="C99">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D99">
-        <v>-20.39</v>
+        <v>-43.75</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B100">
-        <v>78.77</v>
+        <v>58.1</v>
       </c>
       <c r="C100">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D100">
-        <v>-20.4</v>
+        <v>-41.86</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B101">
-        <v>77.78</v>
+        <v>57.23</v>
       </c>
       <c r="C101">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D101">
-        <v>-21.4</v>
+        <v>-42.73</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B102">
-        <v>73.68000000000001</v>
+        <v>58.09</v>
       </c>
       <c r="C102">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D102">
-        <v>-25.55</v>
+        <v>-41.87</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B103">
-        <v>69.62</v>
+        <v>61.28</v>
       </c>
       <c r="C103">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D103">
-        <v>-29.64</v>
+        <v>-38.68</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B104">
-        <v>66.01000000000001</v>
+        <v>57</v>
       </c>
       <c r="C104">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D104">
-        <v>-33.29</v>
+        <v>-42.96</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B105">
-        <v>65.12</v>
+        <v>54.61</v>
       </c>
       <c r="C105">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D105">
-        <v>-34.19</v>
+        <v>-45.35</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B106">
-        <v>66.09999999999999</v>
+        <v>55.86</v>
       </c>
       <c r="C106">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D106">
-        <v>-33.2</v>
+        <v>-44.1</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B107">
-        <v>65.27</v>
+        <v>56.19</v>
       </c>
       <c r="C107">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D107">
-        <v>-34.04</v>
+        <v>-43.77</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B108">
-        <v>64.78</v>
+        <v>57.18</v>
       </c>
       <c r="C108">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D108">
-        <v>-34.54</v>
+        <v>-42.78</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B109">
-        <v>63.42</v>
+        <v>58.31</v>
       </c>
       <c r="C109">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D109">
-        <v>-35.91</v>
+        <v>-41.65</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B110">
-        <v>62.1</v>
+        <v>58.54</v>
       </c>
       <c r="C110">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D110">
-        <v>-37.24</v>
+        <v>-41.42</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B111">
-        <v>61.06</v>
+        <v>59.84</v>
       </c>
       <c r="C111">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D111">
-        <v>-38.29</v>
+        <v>-40.12</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B112">
-        <v>62.04</v>
+        <v>59.3</v>
       </c>
       <c r="C112">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D112">
-        <v>-37.3</v>
+        <v>-40.66</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B113">
-        <v>63.03</v>
+        <v>59.99</v>
       </c>
       <c r="C113">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D113">
-        <v>-36.3</v>
+        <v>-39.97</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B114">
-        <v>62.84</v>
+        <v>61.25</v>
       </c>
       <c r="C114">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D114">
-        <v>-36.49</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B115">
-        <v>62.5</v>
+        <v>57.84</v>
       </c>
       <c r="C115">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D115">
-        <v>-36.84</v>
+        <v>-42.12</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B116">
-        <v>62.88</v>
+        <v>57.57</v>
       </c>
       <c r="C116">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D116">
-        <v>-36.46</v>
+        <v>-42.39</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B117">
-        <v>63.01</v>
+        <v>55.24</v>
       </c>
       <c r="C117">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D117">
-        <v>-36.32</v>
+        <v>-44.72</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B118">
-        <v>62.89</v>
+        <v>54.03</v>
       </c>
       <c r="C118">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D118">
-        <v>-36.45</v>
+        <v>-45.93</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B119">
-        <v>62.24</v>
+        <v>54.66</v>
       </c>
       <c r="C119">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D119">
-        <v>-37.1</v>
+        <v>-45.31</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B120">
-        <v>60.33</v>
+        <v>53.75</v>
       </c>
       <c r="C120">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D120">
-        <v>-39.03</v>
+        <v>-46.21</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B121">
-        <v>60.25</v>
+        <v>54.85</v>
       </c>
       <c r="C121">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D121">
-        <v>-39.11</v>
+        <v>-45.11</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B122">
-        <v>60.76</v>
+        <v>52.05</v>
       </c>
       <c r="C122">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D122">
-        <v>-38.6</v>
+        <v>-47.91</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B123">
-        <v>61.01</v>
+        <v>56.27</v>
       </c>
       <c r="C123">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D123">
-        <v>-38.95</v>
+        <v>-57.84</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B124">
-        <v>57.79</v>
+        <v>58.61</v>
       </c>
       <c r="C124">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D124">
-        <v>-42.17</v>
+        <v>-56.09</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B125">
-        <v>57.7</v>
+        <v>59.44</v>
       </c>
       <c r="C125">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D125">
-        <v>-42.26</v>
+        <v>-55.47</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B126">
-        <v>59.51</v>
+        <v>63.27</v>
       </c>
       <c r="C126">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D126">
-        <v>-40.45</v>
+        <v>-52.59</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B127">
-        <v>58.09</v>
+        <v>62.44</v>
       </c>
       <c r="C127">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D127">
-        <v>-41.87</v>
+        <v>-53.22</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B128">
-        <v>55.98</v>
+        <v>64.95</v>
       </c>
       <c r="C128">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D128">
-        <v>-43.98</v>
+        <v>-51.34</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B129">
-        <v>56.29</v>
+        <v>67.59</v>
       </c>
       <c r="C129">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D129">
-        <v>-43.67</v>
+        <v>-49.35</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B130">
-        <v>56.21</v>
+        <v>71.76000000000001</v>
       </c>
       <c r="C130">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D130">
-        <v>-43.75</v>
+        <v>-46.23</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B131">
-        <v>58.1</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C131">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D131">
-        <v>-41.86</v>
+        <v>-48.75</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B132">
-        <v>57.23</v>
+        <v>120</v>
       </c>
       <c r="C132">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D132">
-        <v>-42.73</v>
+        <v>-10.09</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B133">
-        <v>58.09</v>
+        <v>142.68</v>
       </c>
       <c r="C133">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D133">
-        <v>-41.87</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B134">
-        <v>61.28</v>
+        <v>133.88</v>
       </c>
       <c r="C134">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D134">
-        <v>-38.68</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B135">
-        <v>57</v>
+        <v>135.25</v>
       </c>
       <c r="C135">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D135">
-        <v>-42.96</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B136">
-        <v>54.61</v>
+        <v>128.03</v>
       </c>
       <c r="C136">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D136">
-        <v>-45.35</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B137">
-        <v>55.86</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C137">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D137">
-        <v>-44.1</v>
+        <v>-32.27</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B138">
-        <v>56.19</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="C138">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D138">
-        <v>-43.77</v>
+        <v>-37.86</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B139">
-        <v>57.18</v>
+        <v>84.55</v>
       </c>
       <c r="C139">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D139">
-        <v>-42.78</v>
+        <v>-36.65</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B140">
-        <v>58.31</v>
+        <v>81.66</v>
       </c>
       <c r="C140">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D140">
-        <v>-41.65</v>
+        <v>-38.82</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B141">
-        <v>58.54</v>
+        <v>82.29000000000001</v>
       </c>
       <c r="C141">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D141">
-        <v>-41.42</v>
+        <v>-38.34</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B142">
-        <v>59.84</v>
+        <v>73.42</v>
       </c>
       <c r="C142">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D142">
-        <v>-40.12</v>
+        <v>-44.99</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B143">
-        <v>59.3</v>
+        <v>68.16</v>
       </c>
       <c r="C143">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D143">
-        <v>-40.66</v>
+        <v>-48.93</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B144">
-        <v>59.99</v>
+        <v>66.17</v>
       </c>
       <c r="C144">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D144">
-        <v>-39.97</v>
+        <v>-50.42</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B145">
-        <v>61.25</v>
+        <v>63.94</v>
       </c>
       <c r="C145">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D145">
-        <v>-38.71</v>
+        <v>-52.09</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B146">
-        <v>57.84</v>
+        <v>61.98</v>
       </c>
       <c r="C146">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D146">
-        <v>-42.12</v>
+        <v>-53.56</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B147">
-        <v>57.57</v>
+        <v>61.42</v>
       </c>
       <c r="C147">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D147">
-        <v>-42.39</v>
+        <v>-53.98</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B148">
-        <v>55.24</v>
+        <v>67.02</v>
       </c>
       <c r="C148">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D148">
-        <v>-44.72</v>
+        <v>-49.78</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B149">
-        <v>54.03</v>
+        <v>90.2</v>
       </c>
       <c r="C149">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D149">
-        <v>-45.93</v>
+        <v>-32.42</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B150">
-        <v>54.66</v>
+        <v>99.55</v>
       </c>
       <c r="C150">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D150">
-        <v>-45.31</v>
+        <v>-25.41</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B151">
-        <v>53.75</v>
+        <v>109.58</v>
       </c>
       <c r="C151">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D151">
-        <v>-46.21</v>
+        <v>-17.89</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B152">
-        <v>54.85</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="C152">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D152">
-        <v>-45.11</v>
+        <v>-25.63</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B153">
-        <v>52.05</v>
+        <v>112.51</v>
       </c>
       <c r="C153">
-        <v>99.93000000000001</v>
+        <v>104.15</v>
       </c>
       <c r="D153">
-        <v>-47.91</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B154">
-        <v>56.27</v>
+        <v>112.53</v>
       </c>
       <c r="C154">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D154">
-        <v>-57.84</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B155">
-        <v>58.61</v>
+        <v>107.51</v>
       </c>
       <c r="C155">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D155">
-        <v>-56.09</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B156">
-        <v>59.44</v>
+        <v>86.86</v>
       </c>
       <c r="C156">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D156">
-        <v>-55.47</v>
+        <v>-16.59</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B157">
-        <v>63.27</v>
+        <v>78.66</v>
       </c>
       <c r="C157">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D157">
-        <v>-52.59</v>
+        <v>-24.47</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B158">
-        <v>62.44</v>
+        <v>74.89</v>
       </c>
       <c r="C158">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D158">
-        <v>-53.22</v>
+        <v>-28.1</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B159">
-        <v>64.95</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C159">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D159">
-        <v>-51.34</v>
+        <v>-28.61</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B160">
-        <v>67.59</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="C160">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D160">
-        <v>-49.35</v>
+        <v>-28.75</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B161">
-        <v>71.76000000000001</v>
+        <v>73.75</v>
       </c>
       <c r="C161">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D161">
-        <v>-46.23</v>
+        <v>-29.19</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B162">
-        <v>68.40000000000001</v>
+        <v>69.58</v>
       </c>
       <c r="C162">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D162">
-        <v>-48.75</v>
+        <v>-33.19</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B163">
-        <v>120</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="C163">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D163">
-        <v>-10.09</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B164">
-        <v>142.68</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="C164">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D164">
-        <v>6.9</v>
+        <v>-36.19</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B165">
-        <v>133.88</v>
+        <v>65.17</v>
       </c>
       <c r="C165">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D165">
-        <v>0.31</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B166">
-        <v>135.25</v>
+        <v>64.09</v>
       </c>
       <c r="C166">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D166">
-        <v>1.34</v>
+        <v>-38.46</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B167">
-        <v>128.03</v>
+        <v>61.68</v>
       </c>
       <c r="C167">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D167">
-        <v>-4.07</v>
+        <v>-40.78</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B168">
-        <v>90.40000000000001</v>
+        <v>61.67</v>
       </c>
       <c r="C168">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D168">
-        <v>-32.27</v>
+        <v>-40.79</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B169">
-        <v>82.93000000000001</v>
+        <v>61.74</v>
       </c>
       <c r="C169">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D169">
-        <v>-37.86</v>
+        <v>-40.72</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B170">
-        <v>84.55</v>
+        <v>62.24</v>
       </c>
       <c r="C170">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D170">
-        <v>-36.65</v>
+        <v>-40.24</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B171">
-        <v>81.66</v>
+        <v>64.3</v>
       </c>
       <c r="C171">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D171">
-        <v>-38.82</v>
+        <v>-38.26</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B172">
-        <v>82.29000000000001</v>
+        <v>62.84</v>
       </c>
       <c r="C172">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D172">
-        <v>-38.34</v>
+        <v>-39.66</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B173">
-        <v>73.42</v>
+        <v>63.38</v>
       </c>
       <c r="C173">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D173">
-        <v>-44.99</v>
+        <v>-39.15</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B174">
-        <v>68.16</v>
+        <v>60.21</v>
       </c>
       <c r="C174">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D174">
-        <v>-48.93</v>
+        <v>-42.19</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B175">
-        <v>66.17</v>
+        <v>59.35</v>
       </c>
       <c r="C175">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D175">
-        <v>-50.42</v>
+        <v>-43.01</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B176">
-        <v>63.94</v>
+        <v>57.93</v>
       </c>
       <c r="C176">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D176">
-        <v>-52.09</v>
+        <v>-44.38</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B177">
-        <v>61.98</v>
+        <v>58.49</v>
       </c>
       <c r="C177">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D177">
-        <v>-53.56</v>
+        <v>-43.84</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B178">
-        <v>61.42</v>
+        <v>59.67</v>
       </c>
       <c r="C178">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D178">
-        <v>-53.98</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B179">
-        <v>67.02</v>
+        <v>59.74</v>
       </c>
       <c r="C179">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D179">
-        <v>-49.78</v>
+        <v>-42.64</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B180">
-        <v>90.2</v>
+        <v>57.93</v>
       </c>
       <c r="C180">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D180">
-        <v>-32.42</v>
+        <v>-44.38</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B181">
-        <v>99.55</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="C181">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D181">
-        <v>-25.41</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B182">
-        <v>109.58</v>
+        <v>90.17</v>
       </c>
       <c r="C182">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D182">
-        <v>-17.89</v>
+        <v>-13.42</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B183">
-        <v>99.26000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="C183">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D183">
-        <v>-25.63</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B184">
-        <v>112.51</v>
+        <v>87.05</v>
       </c>
       <c r="C184">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D184">
-        <v>8.029999999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B185">
-        <v>112.53</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="C185">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D185">
-        <v>8.050000000000001</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B186">
-        <v>107.51</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C186">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D186">
-        <v>3.23</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B187">
-        <v>86.86</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C187">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D187">
-        <v>-16.59</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B188">
-        <v>78.66</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C188">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D188">
-        <v>-24.47</v>
+        <v>-23.75</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44018</v>
+        <v>44049</v>
       </c>
       <c r="B189">
-        <v>74.89</v>
+        <v>62.14</v>
       </c>
       <c r="C189">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D189">
         <v>-28.1</v>
@@ -3263,2704 +3249,2494 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44019</v>
+        <v>44050</v>
       </c>
       <c r="B190">
-        <v>74.34999999999999</v>
+        <v>60.75</v>
       </c>
       <c r="C190">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D190">
-        <v>-28.61</v>
+        <v>-29.71</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44020</v>
+        <v>44051</v>
       </c>
       <c r="B191">
-        <v>74.20999999999999</v>
+        <v>55.95</v>
       </c>
       <c r="C191">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D191">
-        <v>-28.75</v>
+        <v>-35.26</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44021</v>
+        <v>44052</v>
       </c>
       <c r="B192">
-        <v>73.75</v>
+        <v>57.49</v>
       </c>
       <c r="C192">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D192">
-        <v>-29.19</v>
+        <v>-33.48</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="B193">
-        <v>69.58</v>
+        <v>58.94</v>
       </c>
       <c r="C193">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D193">
-        <v>-33.19</v>
+        <v>-31.8</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44023</v>
+        <v>44054</v>
       </c>
       <c r="B194">
-        <v>67.18000000000001</v>
+        <v>58.05</v>
       </c>
       <c r="C194">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D194">
-        <v>-35.5</v>
+        <v>-32.83</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44024</v>
+        <v>44055</v>
       </c>
       <c r="B195">
-        <v>66.45999999999999</v>
+        <v>60.51</v>
       </c>
       <c r="C195">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D195">
-        <v>-36.19</v>
+        <v>-29.98</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44025</v>
+        <v>44056</v>
       </c>
       <c r="B196">
-        <v>65.17</v>
+        <v>58.93</v>
       </c>
       <c r="C196">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D196">
-        <v>-37.43</v>
+        <v>-31.82</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44026</v>
+        <v>44057</v>
       </c>
       <c r="B197">
-        <v>64.09</v>
+        <v>61.29</v>
       </c>
       <c r="C197">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D197">
-        <v>-38.46</v>
+        <v>-29.08</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44027</v>
+        <v>44058</v>
       </c>
       <c r="B198">
-        <v>61.68</v>
+        <v>87.75</v>
       </c>
       <c r="C198">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D198">
-        <v>-40.78</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44028</v>
+        <v>44059</v>
       </c>
       <c r="B199">
-        <v>61.67</v>
+        <v>136.35</v>
       </c>
       <c r="C199">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D199">
-        <v>-40.79</v>
+        <v>57.77</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="B200">
-        <v>61.74</v>
+        <v>136.22</v>
       </c>
       <c r="C200">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D200">
-        <v>-40.72</v>
+        <v>57.62</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44030</v>
+        <v>44061</v>
       </c>
       <c r="B201">
-        <v>62.24</v>
+        <v>146.75</v>
       </c>
       <c r="C201">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D201">
-        <v>-40.24</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44031</v>
+        <v>44062</v>
       </c>
       <c r="B202">
-        <v>64.3</v>
+        <v>171.51</v>
       </c>
       <c r="C202">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D202">
-        <v>-38.26</v>
+        <v>98.45</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B203">
-        <v>62.84</v>
+        <v>189.24</v>
       </c>
       <c r="C203">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D203">
-        <v>-39.66</v>
+        <v>118.97</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44033</v>
+        <v>44064</v>
       </c>
       <c r="B204">
-        <v>63.38</v>
+        <v>187.72</v>
       </c>
       <c r="C204">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D204">
-        <v>-39.15</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44034</v>
+        <v>44065</v>
       </c>
       <c r="B205">
-        <v>60.21</v>
+        <v>179.81</v>
       </c>
       <c r="C205">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D205">
-        <v>-42.19</v>
+        <v>108.06</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44035</v>
+        <v>44066</v>
       </c>
       <c r="B206">
-        <v>59.35</v>
+        <v>177.59</v>
       </c>
       <c r="C206">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D206">
-        <v>-43.01</v>
+        <v>105.49</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B207">
-        <v>57.93</v>
+        <v>175.65</v>
       </c>
       <c r="C207">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D207">
-        <v>-44.38</v>
+        <v>103.24</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B208">
-        <v>58.49</v>
+        <v>153.39</v>
       </c>
       <c r="C208">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D208">
-        <v>-43.84</v>
+        <v>77.48</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B209">
-        <v>59.67</v>
+        <v>108.41</v>
       </c>
       <c r="C209">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D209">
-        <v>-42.71</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B210">
-        <v>59.74</v>
+        <v>95.28</v>
       </c>
       <c r="C210">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D210">
-        <v>-42.64</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B211">
-        <v>57.93</v>
+        <v>88.06</v>
       </c>
       <c r="C211">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D211">
-        <v>-44.38</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B212">
-        <v>75.65000000000001</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="C212">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D212">
-        <v>-27.37</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B213">
-        <v>90.17</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="C213">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D213">
-        <v>-13.42</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B214">
-        <v>100.6</v>
+        <v>79.75</v>
       </c>
       <c r="C214">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D214">
-        <v>-3.4</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B215">
-        <v>87.05</v>
+        <v>77.47</v>
       </c>
       <c r="C215">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D215">
-        <v>0.73</v>
+        <v>-18.01</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B216">
-        <v>89.98999999999999</v>
+        <v>80.83</v>
       </c>
       <c r="C216">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D216">
-        <v>4.13</v>
+        <v>-14.45</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B217">
-        <v>87.93000000000001</v>
+        <v>89.98</v>
       </c>
       <c r="C217">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D217">
-        <v>1.74</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B218">
-        <v>74.34999999999999</v>
+        <v>105.27</v>
       </c>
       <c r="C218">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D218">
-        <v>-13.97</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B219">
-        <v>65.90000000000001</v>
+        <v>108.68</v>
       </c>
       <c r="C219">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D219">
-        <v>-23.75</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44049</v>
+        <v>44080</v>
       </c>
       <c r="B220">
-        <v>62.14</v>
+        <v>89.03</v>
       </c>
       <c r="C220">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D220">
-        <v>-28.1</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44050</v>
+        <v>44081</v>
       </c>
       <c r="B221">
-        <v>60.75</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="C221">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D221">
-        <v>-29.71</v>
+        <v>-13.06</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44051</v>
+        <v>44082</v>
       </c>
       <c r="B222">
-        <v>55.95</v>
+        <v>78.23999999999999</v>
       </c>
       <c r="C222">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D222">
-        <v>-35.26</v>
+        <v>-17.2</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44052</v>
+        <v>44083</v>
       </c>
       <c r="B223">
-        <v>57.49</v>
+        <v>77.16</v>
       </c>
       <c r="C223">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D223">
-        <v>-33.48</v>
+        <v>-18.34</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44053</v>
+        <v>44084</v>
       </c>
       <c r="B224">
-        <v>58.94</v>
+        <v>72.83</v>
       </c>
       <c r="C224">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D224">
-        <v>-31.8</v>
+        <v>-22.92</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44054</v>
+        <v>44085</v>
       </c>
       <c r="B225">
-        <v>58.05</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="C225">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D225">
-        <v>-32.83</v>
+        <v>-25.17</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44055</v>
+        <v>44086</v>
       </c>
       <c r="B226">
-        <v>60.51</v>
+        <v>68.56</v>
       </c>
       <c r="C226">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D226">
-        <v>-29.98</v>
+        <v>-27.44</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44056</v>
+        <v>44087</v>
       </c>
       <c r="B227">
-        <v>58.93</v>
+        <v>67.04000000000001</v>
       </c>
       <c r="C227">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D227">
-        <v>-31.82</v>
+        <v>-29.05</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44057</v>
+        <v>44088</v>
       </c>
       <c r="B228">
-        <v>61.29</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="C228">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D228">
-        <v>-29.08</v>
+        <v>-27.55</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44058</v>
+        <v>44089</v>
       </c>
       <c r="B229">
-        <v>87.75</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="C229">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D229">
-        <v>1.54</v>
+        <v>-29.47</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44059</v>
+        <v>44090</v>
       </c>
       <c r="B230">
-        <v>136.35</v>
+        <v>62.72</v>
       </c>
       <c r="C230">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D230">
-        <v>57.77</v>
+        <v>-33.62</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44060</v>
+        <v>44091</v>
       </c>
       <c r="B231">
-        <v>136.22</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="C231">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D231">
-        <v>57.62</v>
+        <v>-31.99</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44061</v>
+        <v>44092</v>
       </c>
       <c r="B232">
-        <v>146.75</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="C232">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D232">
-        <v>69.8</v>
+        <v>-31.52</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44062</v>
+        <v>44093</v>
       </c>
       <c r="B233">
-        <v>171.51</v>
+        <v>64.34</v>
       </c>
       <c r="C233">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D233">
-        <v>98.45</v>
+        <v>-31.9</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44063</v>
+        <v>44094</v>
       </c>
       <c r="B234">
-        <v>189.24</v>
+        <v>63.18</v>
       </c>
       <c r="C234">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D234">
-        <v>118.97</v>
+        <v>-33.14</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44064</v>
+        <v>44095</v>
       </c>
       <c r="B235">
-        <v>187.72</v>
+        <v>61.76</v>
       </c>
       <c r="C235">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D235">
-        <v>117.21</v>
+        <v>-34.64</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44065</v>
+        <v>44096</v>
       </c>
       <c r="B236">
-        <v>179.81</v>
+        <v>61.42</v>
       </c>
       <c r="C236">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D236">
-        <v>108.06</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44066</v>
+        <v>44097</v>
       </c>
       <c r="B237">
-        <v>177.59</v>
+        <v>65.12</v>
       </c>
       <c r="C237">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D237">
-        <v>105.49</v>
+        <v>-31.08</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44067</v>
+        <v>44098</v>
       </c>
       <c r="B238">
-        <v>175.65</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C238">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D238">
-        <v>103.24</v>
+        <v>-30.04</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44068</v>
+        <v>44099</v>
       </c>
       <c r="B239">
-        <v>153.39</v>
+        <v>63.39</v>
       </c>
       <c r="C239">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D239">
-        <v>77.48</v>
+        <v>-32.92</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44069</v>
+        <v>44100</v>
       </c>
       <c r="B240">
-        <v>108.41</v>
+        <v>64.53</v>
       </c>
       <c r="C240">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D240">
-        <v>25.44</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44070</v>
+        <v>44101</v>
       </c>
       <c r="B241">
-        <v>95.28</v>
+        <v>62.86</v>
       </c>
       <c r="C241">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D241">
-        <v>10.25</v>
+        <v>-33.47</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B242">
-        <v>88.06</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C242">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D242">
-        <v>1.9</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B243">
-        <v>84.15000000000001</v>
+        <v>108.79</v>
       </c>
       <c r="C243">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D243">
-        <v>-2.64</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B244">
-        <v>80.31999999999999</v>
+        <v>115.88</v>
       </c>
       <c r="C244">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D244">
-        <v>-7.06</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B245">
-        <v>79.75</v>
+        <v>113.98</v>
       </c>
       <c r="C245">
-        <v>86.42</v>
+        <v>118.4</v>
       </c>
       <c r="D245">
-        <v>-7.72</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B246">
-        <v>77.47</v>
+        <v>94.22</v>
       </c>
       <c r="C246">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D246">
-        <v>-18.01</v>
+        <v>-20.42</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B247">
-        <v>80.83</v>
+        <v>90.77</v>
       </c>
       <c r="C247">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D247">
-        <v>-14.45</v>
+        <v>-23.33</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B248">
-        <v>89.98</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="C248">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D248">
-        <v>-4.77</v>
+        <v>-29.27</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B249">
-        <v>105.27</v>
+        <v>83.88</v>
       </c>
       <c r="C249">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D249">
-        <v>11.41</v>
+        <v>-29.16</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B250">
-        <v>108.68</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="C250">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D250">
-        <v>15.02</v>
+        <v>-27.3</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B251">
-        <v>89.03</v>
+        <v>98.58</v>
       </c>
       <c r="C251">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D251">
-        <v>-5.77</v>
+        <v>-16.74</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B252">
-        <v>82.15000000000001</v>
+        <v>101.55</v>
       </c>
       <c r="C252">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D252">
-        <v>-13.06</v>
+        <v>-14.23</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B253">
-        <v>78.23999999999999</v>
+        <v>119.76</v>
       </c>
       <c r="C253">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D253">
-        <v>-17.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B254">
-        <v>77.16</v>
+        <v>128.5</v>
       </c>
       <c r="C254">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D254">
-        <v>-18.34</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B255">
-        <v>72.83</v>
+        <v>125.06</v>
       </c>
       <c r="C255">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D255">
-        <v>-22.92</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B256">
-        <v>70.70999999999999</v>
+        <v>122.17</v>
       </c>
       <c r="C256">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D256">
-        <v>-25.17</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B257">
-        <v>68.56</v>
+        <v>102.91</v>
       </c>
       <c r="C257">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D257">
-        <v>-27.44</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B258">
-        <v>67.04000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="C258">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D258">
-        <v>-29.05</v>
+        <v>-25.09</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B259">
-        <v>68.45999999999999</v>
+        <v>81.51000000000001</v>
       </c>
       <c r="C259">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D259">
-        <v>-27.55</v>
+        <v>-31.16</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B260">
-        <v>66.65000000000001</v>
+        <v>76.84</v>
       </c>
       <c r="C260">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D260">
-        <v>-29.47</v>
+        <v>-35.1</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B261">
-        <v>62.72</v>
+        <v>75.27</v>
       </c>
       <c r="C261">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D261">
-        <v>-33.62</v>
+        <v>-36.43</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B262">
-        <v>64.26000000000001</v>
+        <v>74.72</v>
       </c>
       <c r="C262">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D262">
-        <v>-31.99</v>
+        <v>-36.89</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B263">
-        <v>64.70999999999999</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="C263">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D263">
-        <v>-31.52</v>
+        <v>-36.83</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B264">
-        <v>64.34</v>
+        <v>73.02</v>
       </c>
       <c r="C264">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D264">
-        <v>-31.9</v>
+        <v>-38.33</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B265">
-        <v>63.18</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C265">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D265">
-        <v>-33.14</v>
+        <v>-39.34</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B266">
-        <v>61.76</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C266">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D266">
-        <v>-34.64</v>
+        <v>-38.26</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B267">
-        <v>61.42</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C267">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D267">
-        <v>-35</v>
+        <v>-38.43</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B268">
-        <v>65.12</v>
+        <v>76.45</v>
       </c>
       <c r="C268">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D268">
-        <v>-31.08</v>
+        <v>-35.43</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B269">
-        <v>66.09999999999999</v>
+        <v>92.34</v>
       </c>
       <c r="C269">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D269">
-        <v>-30.04</v>
+        <v>-22.01</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B270">
-        <v>63.39</v>
+        <v>84.8</v>
       </c>
       <c r="C270">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D270">
-        <v>-32.92</v>
+        <v>-28.38</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B271">
-        <v>64.53</v>
+        <v>81.98</v>
       </c>
       <c r="C271">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D271">
-        <v>-31.7</v>
+        <v>-30.76</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B272">
-        <v>62.86</v>
+        <v>74.09</v>
       </c>
       <c r="C272">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D272">
-        <v>-33.47</v>
+        <v>-37.42</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B273">
-        <v>86.90000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="C273">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D273">
-        <v>-8.029999999999999</v>
+        <v>-41.47</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B274">
-        <v>108.79</v>
+        <v>82.94</v>
       </c>
       <c r="C274">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D274">
-        <v>15.14</v>
+        <v>-29.95</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B275">
-        <v>115.88</v>
+        <v>81.73</v>
       </c>
       <c r="C275">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D275">
-        <v>22.64</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B276">
-        <v>113.98</v>
+        <v>96.79000000000001</v>
       </c>
       <c r="C276">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D276">
-        <v>-3.73</v>
+        <v>-12.48</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B277">
-        <v>94.22</v>
+        <v>97.72</v>
       </c>
       <c r="C277">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D277">
-        <v>-20.42</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44107</v>
+        <v>44138</v>
       </c>
       <c r="B278">
-        <v>90.77</v>
+        <v>85.7</v>
       </c>
       <c r="C278">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D278">
-        <v>-23.33</v>
+        <v>-22.51</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44108</v>
+        <v>44139</v>
       </c>
       <c r="B279">
-        <v>83.73999999999999</v>
+        <v>89.31999999999999</v>
       </c>
       <c r="C279">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D279">
-        <v>-29.27</v>
+        <v>-19.23</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44109</v>
+        <v>44140</v>
       </c>
       <c r="B280">
-        <v>83.88</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C280">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D280">
-        <v>-29.16</v>
+        <v>-20.79</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44110</v>
+        <v>44141</v>
       </c>
       <c r="B281">
-        <v>86.06999999999999</v>
+        <v>82.11</v>
       </c>
       <c r="C281">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D281">
-        <v>-27.3</v>
+        <v>-25.75</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44111</v>
+        <v>44142</v>
       </c>
       <c r="B282">
-        <v>98.58</v>
+        <v>74.14</v>
       </c>
       <c r="C282">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D282">
-        <v>-16.74</v>
+        <v>-32.97</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44112</v>
+        <v>44143</v>
       </c>
       <c r="B283">
-        <v>101.55</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="C283">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D283">
-        <v>-14.23</v>
+        <v>-35.67</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B284">
-        <v>119.76</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C284">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D284">
-        <v>1.15</v>
+        <v>-37.06</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44114</v>
+        <v>44145</v>
       </c>
       <c r="B285">
-        <v>128.5</v>
+        <v>71.44</v>
       </c>
       <c r="C285">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D285">
-        <v>8.529999999999999</v>
+        <v>-35.41</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44115</v>
+        <v>44146</v>
       </c>
       <c r="B286">
-        <v>125.06</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="C286">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D286">
-        <v>5.63</v>
+        <v>-16.35</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44116</v>
+        <v>44147</v>
       </c>
       <c r="B287">
-        <v>122.17</v>
+        <v>126.58</v>
       </c>
       <c r="C287">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D287">
-        <v>3.18</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44117</v>
+        <v>44148</v>
       </c>
       <c r="B288">
-        <v>102.91</v>
+        <v>120</v>
       </c>
       <c r="C288">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D288">
-        <v>-13.09</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44118</v>
+        <v>44149</v>
       </c>
       <c r="B289">
-        <v>88.7</v>
+        <v>130.98</v>
       </c>
       <c r="C289">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D289">
-        <v>-25.09</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44119</v>
+        <v>44150</v>
       </c>
       <c r="B290">
-        <v>81.51000000000001</v>
+        <v>133.53</v>
       </c>
       <c r="C290">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D290">
-        <v>-31.16</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44120</v>
+        <v>44151</v>
       </c>
       <c r="B291">
-        <v>76.84</v>
+        <v>129.96</v>
       </c>
       <c r="C291">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D291">
-        <v>-35.1</v>
+        <v>17.51</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44121</v>
+        <v>44152</v>
       </c>
       <c r="B292">
-        <v>75.27</v>
+        <v>135.84</v>
       </c>
       <c r="C292">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D292">
-        <v>-36.43</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44122</v>
+        <v>44153</v>
       </c>
       <c r="B293">
-        <v>74.72</v>
+        <v>147.3</v>
       </c>
       <c r="C293">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D293">
-        <v>-36.89</v>
+        <v>33.19</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44123</v>
+        <v>44154</v>
       </c>
       <c r="B294">
-        <v>74.79000000000001</v>
+        <v>170.91</v>
       </c>
       <c r="C294">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D294">
-        <v>-36.83</v>
+        <v>54.53</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="B295">
-        <v>73.02</v>
+        <v>179.05</v>
       </c>
       <c r="C295">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D295">
-        <v>-38.33</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44125</v>
+        <v>44156</v>
       </c>
       <c r="B296">
-        <v>71.81999999999999</v>
+        <v>165.27</v>
       </c>
       <c r="C296">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D296">
-        <v>-39.34</v>
+        <v>49.44</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44126</v>
+        <v>44157</v>
       </c>
       <c r="B297">
-        <v>73.09999999999999</v>
+        <v>156.52</v>
       </c>
       <c r="C297">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D297">
-        <v>-38.26</v>
+        <v>41.53</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44127</v>
+        <v>44158</v>
       </c>
       <c r="B298">
-        <v>72.90000000000001</v>
+        <v>151.14</v>
       </c>
       <c r="C298">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D298">
-        <v>-38.43</v>
+        <v>36.66</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44128</v>
+        <v>44159</v>
       </c>
       <c r="B299">
-        <v>76.45</v>
+        <v>126.78</v>
       </c>
       <c r="C299">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D299">
-        <v>-35.43</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44129</v>
+        <v>44160</v>
       </c>
       <c r="B300">
-        <v>92.34</v>
+        <v>107.4</v>
       </c>
       <c r="C300">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D300">
-        <v>-22.01</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44130</v>
+        <v>44161</v>
       </c>
       <c r="B301">
-        <v>84.8</v>
+        <v>99.16</v>
       </c>
       <c r="C301">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D301">
-        <v>-28.38</v>
+        <v>-10.34</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44131</v>
+        <v>44162</v>
       </c>
       <c r="B302">
-        <v>81.98</v>
+        <v>113.24</v>
       </c>
       <c r="C302">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D302">
-        <v>-30.76</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44132</v>
+        <v>44163</v>
       </c>
       <c r="B303">
-        <v>74.09</v>
+        <v>131.76</v>
       </c>
       <c r="C303">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D303">
-        <v>-37.42</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44133</v>
+        <v>44164</v>
       </c>
       <c r="B304">
-        <v>69.3</v>
+        <v>141.5</v>
       </c>
       <c r="C304">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D304">
-        <v>-41.47</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44134</v>
+        <v>44165</v>
       </c>
       <c r="B305">
-        <v>82.94</v>
+        <v>155.09</v>
       </c>
       <c r="C305">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D305">
-        <v>-29.95</v>
+        <v>40.23</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44135</v>
+        <v>44166</v>
       </c>
       <c r="B306">
-        <v>81.73</v>
+        <v>161.01</v>
       </c>
       <c r="C306">
-        <v>118.4</v>
+        <v>114.17</v>
       </c>
       <c r="D306">
-        <v>-30.97</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44136</v>
+        <v>44167</v>
       </c>
       <c r="B307">
-        <v>96.79000000000001</v>
+        <v>126.2</v>
       </c>
       <c r="C307">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D307">
-        <v>-12.48</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44137</v>
+        <v>44168</v>
       </c>
       <c r="B308">
-        <v>97.72</v>
+        <v>114.11</v>
       </c>
       <c r="C308">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D308">
-        <v>-11.64</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44138</v>
+        <v>44169</v>
       </c>
       <c r="B309">
-        <v>85.7</v>
+        <v>114.53</v>
       </c>
       <c r="C309">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D309">
-        <v>-22.51</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44139</v>
+        <v>44170</v>
       </c>
       <c r="B310">
-        <v>89.31999999999999</v>
+        <v>143.6</v>
       </c>
       <c r="C310">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D310">
-        <v>-19.23</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44140</v>
+        <v>44171</v>
       </c>
       <c r="B311">
-        <v>87.59999999999999</v>
+        <v>172.56</v>
       </c>
       <c r="C311">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D311">
-        <v>-20.79</v>
+        <v>51.15</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44141</v>
+        <v>44172</v>
       </c>
       <c r="B312">
-        <v>82.11</v>
+        <v>183.97</v>
       </c>
       <c r="C312">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D312">
-        <v>-25.75</v>
+        <v>61.14</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44142</v>
+        <v>44173</v>
       </c>
       <c r="B313">
-        <v>74.14</v>
+        <v>179.21</v>
       </c>
       <c r="C313">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D313">
-        <v>-32.97</v>
+        <v>56.97</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44143</v>
+        <v>44174</v>
       </c>
       <c r="B314">
-        <v>71.15000000000001</v>
+        <v>213.83</v>
       </c>
       <c r="C314">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D314">
-        <v>-35.67</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44144</v>
+        <v>44175</v>
       </c>
       <c r="B315">
-        <v>69.59999999999999</v>
+        <v>216.4</v>
       </c>
       <c r="C315">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D315">
-        <v>-37.06</v>
+        <v>89.55</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44145</v>
+        <v>44176</v>
       </c>
       <c r="B316">
-        <v>71.44</v>
+        <v>197.74</v>
       </c>
       <c r="C316">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D316">
-        <v>-35.41</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44146</v>
+        <v>44177</v>
       </c>
       <c r="B317">
-        <v>92.51000000000001</v>
+        <v>178.79</v>
       </c>
       <c r="C317">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D317">
-        <v>-16.35</v>
+        <v>56.61</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44147</v>
+        <v>44178</v>
       </c>
       <c r="B318">
-        <v>126.58</v>
+        <v>149.81</v>
       </c>
       <c r="C318">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D318">
-        <v>14.46</v>
+        <v>31.22</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44148</v>
+        <v>44179</v>
       </c>
       <c r="B319">
-        <v>120</v>
+        <v>127.18</v>
       </c>
       <c r="C319">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D319">
-        <v>8.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44149</v>
+        <v>44180</v>
       </c>
       <c r="B320">
-        <v>130.98</v>
+        <v>130.42</v>
       </c>
       <c r="C320">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D320">
-        <v>18.43</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44150</v>
+        <v>44181</v>
       </c>
       <c r="B321">
-        <v>133.53</v>
+        <v>150.97</v>
       </c>
       <c r="C321">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D321">
-        <v>20.74</v>
+        <v>32.24</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44151</v>
+        <v>44182</v>
       </c>
       <c r="B322">
-        <v>129.96</v>
+        <v>172.4</v>
       </c>
       <c r="C322">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D322">
-        <v>17.51</v>
+        <v>51.01</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44152</v>
+        <v>44183</v>
       </c>
       <c r="B323">
-        <v>135.84</v>
+        <v>163.53</v>
       </c>
       <c r="C323">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D323">
-        <v>22.82</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44153</v>
+        <v>44184</v>
       </c>
       <c r="B324">
-        <v>147.3</v>
+        <v>168.67</v>
       </c>
       <c r="C324">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D324">
-        <v>33.19</v>
+        <v>47.74</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44154</v>
+        <v>44185</v>
       </c>
       <c r="B325">
-        <v>170.91</v>
+        <v>173.15</v>
       </c>
       <c r="C325">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D325">
-        <v>54.53</v>
+        <v>51.66</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44155</v>
+        <v>44186</v>
       </c>
       <c r="B326">
-        <v>179.05</v>
+        <v>156.91</v>
       </c>
       <c r="C326">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D326">
-        <v>61.9</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44156</v>
+        <v>44187</v>
       </c>
       <c r="B327">
-        <v>165.27</v>
+        <v>144.78</v>
       </c>
       <c r="C327">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D327">
-        <v>49.44</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44157</v>
+        <v>44188</v>
       </c>
       <c r="B328">
-        <v>156.52</v>
+        <v>143.75</v>
       </c>
       <c r="C328">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D328">
-        <v>41.53</v>
+        <v>25.91</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44158</v>
+        <v>44189</v>
       </c>
       <c r="B329">
-        <v>151.14</v>
+        <v>140.3</v>
       </c>
       <c r="C329">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D329">
-        <v>36.66</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44159</v>
+        <v>44190</v>
       </c>
       <c r="B330">
-        <v>126.78</v>
+        <v>130.58</v>
       </c>
       <c r="C330">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D330">
-        <v>14.63</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44160</v>
+        <v>44191</v>
       </c>
       <c r="B331">
-        <v>107.4</v>
+        <v>129.21</v>
       </c>
       <c r="C331">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D331">
-        <v>-2.89</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44161</v>
+        <v>44192</v>
       </c>
       <c r="B332">
-        <v>99.16</v>
+        <v>127.23</v>
       </c>
       <c r="C332">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D332">
-        <v>-10.34</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44162</v>
+        <v>44193</v>
       </c>
       <c r="B333">
-        <v>113.24</v>
+        <v>118.08</v>
       </c>
       <c r="C333">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D333">
-        <v>2.39</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44163</v>
+        <v>44194</v>
       </c>
       <c r="B334">
-        <v>131.76</v>
+        <v>116.6</v>
       </c>
       <c r="C334">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D334">
-        <v>19.14</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44164</v>
+        <v>44195</v>
       </c>
       <c r="B335">
-        <v>141.5</v>
+        <v>120.67</v>
       </c>
       <c r="C335">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D335">
-        <v>27.94</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B336">
-        <v>155.09</v>
+        <v>135.38</v>
       </c>
       <c r="C336">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D336">
-        <v>40.23</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B337">
-        <v>161.01</v>
+        <v>149.36</v>
       </c>
       <c r="C337">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D337">
-        <v>41.03</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44167</v>
+        <v>44198</v>
       </c>
       <c r="B338">
-        <v>126.2</v>
+        <v>170.05</v>
       </c>
       <c r="C338">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D338">
-        <v>10.54</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44168</v>
+        <v>44199</v>
       </c>
       <c r="B339">
-        <v>114.11</v>
+        <v>171.4</v>
       </c>
       <c r="C339">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D339">
-        <v>-0.05</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44169</v>
+        <v>44200</v>
       </c>
       <c r="B340">
-        <v>114.53</v>
+        <v>142.95</v>
       </c>
       <c r="C340">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D340">
-        <v>0.32</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44170</v>
+        <v>44201</v>
       </c>
       <c r="B341">
-        <v>143.6</v>
+        <v>127.64</v>
       </c>
       <c r="C341">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D341">
-        <v>25.79</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44171</v>
+        <v>44202</v>
       </c>
       <c r="B342">
-        <v>172.56</v>
+        <v>136.49</v>
       </c>
       <c r="C342">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D342">
-        <v>51.15</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44172</v>
+        <v>44203</v>
       </c>
       <c r="B343">
-        <v>183.97</v>
+        <v>122.96</v>
       </c>
       <c r="C343">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D343">
-        <v>61.14</v>
+        <v>-6.96</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44173</v>
+        <v>44204</v>
       </c>
       <c r="B344">
-        <v>179.21</v>
+        <v>119.66</v>
       </c>
       <c r="C344">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D344">
-        <v>56.97</v>
+        <v>-9.449999999999999</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44174</v>
+        <v>44205</v>
       </c>
       <c r="B345">
-        <v>213.83</v>
+        <v>118.11</v>
       </c>
       <c r="C345">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D345">
-        <v>87.3</v>
+        <v>-10.62</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44175</v>
+        <v>44206</v>
       </c>
       <c r="B346">
-        <v>216.4</v>
+        <v>111.2</v>
       </c>
       <c r="C346">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D346">
-        <v>89.55</v>
+        <v>-15.86</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44176</v>
+        <v>44207</v>
       </c>
       <c r="B347">
-        <v>197.74</v>
+        <v>109.99</v>
       </c>
       <c r="C347">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D347">
-        <v>73.2</v>
+        <v>-16.77</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44177</v>
+        <v>44208</v>
       </c>
       <c r="B348">
-        <v>178.79</v>
+        <v>105.6</v>
       </c>
       <c r="C348">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D348">
-        <v>56.61</v>
+        <v>-20.09</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44178</v>
+        <v>44209</v>
       </c>
       <c r="B349">
-        <v>149.81</v>
+        <v>103.49</v>
       </c>
       <c r="C349">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D349">
-        <v>31.22</v>
+        <v>-21.69</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44179</v>
+        <v>44210</v>
       </c>
       <c r="B350">
-        <v>127.18</v>
+        <v>104.75</v>
       </c>
       <c r="C350">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D350">
-        <v>11.4</v>
+        <v>-20.73</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44180</v>
+        <v>44211</v>
       </c>
       <c r="B351">
-        <v>130.42</v>
+        <v>104.46</v>
       </c>
       <c r="C351">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D351">
-        <v>14.23</v>
+        <v>-20.96</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44181</v>
+        <v>44212</v>
       </c>
       <c r="B352">
-        <v>150.97</v>
+        <v>106.52</v>
       </c>
       <c r="C352">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D352">
-        <v>32.24</v>
+        <v>-19.39</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44182</v>
+        <v>44213</v>
       </c>
       <c r="B353">
-        <v>172.4</v>
+        <v>111.58</v>
       </c>
       <c r="C353">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D353">
-        <v>51.01</v>
+        <v>-15.56</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44183</v>
+        <v>44214</v>
       </c>
       <c r="B354">
-        <v>163.53</v>
+        <v>138.78</v>
       </c>
       <c r="C354">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D354">
-        <v>43.24</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44184</v>
+        <v>44215</v>
       </c>
       <c r="B355">
-        <v>168.67</v>
+        <v>178.85</v>
       </c>
       <c r="C355">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D355">
-        <v>47.74</v>
+        <v>35.34</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44185</v>
+        <v>44216</v>
       </c>
       <c r="B356">
-        <v>173.15</v>
+        <v>176.56</v>
       </c>
       <c r="C356">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D356">
-        <v>51.66</v>
+        <v>33.61</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44186</v>
+        <v>44217</v>
       </c>
       <c r="B357">
-        <v>156.91</v>
+        <v>196.16</v>
       </c>
       <c r="C357">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D357">
-        <v>37.44</v>
+        <v>48.43</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44187</v>
+        <v>44218</v>
       </c>
       <c r="B358">
-        <v>144.78</v>
+        <v>211.01</v>
       </c>
       <c r="C358">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D358">
-        <v>26.82</v>
+        <v>59.67</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44188</v>
+        <v>44219</v>
       </c>
       <c r="B359">
-        <v>143.75</v>
+        <v>193.44</v>
       </c>
       <c r="C359">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D359">
-        <v>25.91</v>
+        <v>46.38</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44189</v>
+        <v>44220</v>
       </c>
       <c r="B360">
-        <v>140.3</v>
+        <v>175.32</v>
       </c>
       <c r="C360">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D360">
-        <v>22.89</v>
+        <v>32.67</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44190</v>
+        <v>44221</v>
       </c>
       <c r="B361">
-        <v>130.58</v>
+        <v>155.07</v>
       </c>
       <c r="C361">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D361">
-        <v>14.38</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44191</v>
+        <v>44222</v>
       </c>
       <c r="B362">
-        <v>129.21</v>
+        <v>139.71</v>
       </c>
       <c r="C362">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D362">
-        <v>13.18</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44192</v>
+        <v>44223</v>
       </c>
       <c r="B363">
-        <v>127.23</v>
+        <v>130.2</v>
       </c>
       <c r="C363">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D363">
-        <v>11.44</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="B364">
-        <v>118.08</v>
+        <v>135.45</v>
       </c>
       <c r="C364">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D364">
-        <v>3.43</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="B365">
-        <v>116.6</v>
+        <v>163.4</v>
       </c>
       <c r="C365">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D365">
-        <v>2.14</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44195</v>
+        <v>44226</v>
       </c>
       <c r="B366">
-        <v>120.67</v>
+        <v>173.93</v>
       </c>
       <c r="C366">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D366">
-        <v>5.69</v>
+        <v>31.61</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B367">
-        <v>135.38</v>
+        <v>162.71</v>
       </c>
       <c r="C367">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D367">
-        <v>18.58</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B368">
-        <v>149.36</v>
-      </c>
-      <c r="C368">
-        <v>132.15</v>
-      </c>
-      <c r="D368">
-        <v>13.03</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44198</v>
-      </c>
-      <c r="B369">
-        <v>170.05</v>
-      </c>
-      <c r="C369">
-        <v>132.15</v>
-      </c>
-      <c r="D369">
-        <v>28.68</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44199</v>
-      </c>
-      <c r="B370">
-        <v>171.4</v>
-      </c>
-      <c r="C370">
-        <v>132.15</v>
-      </c>
-      <c r="D370">
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44200</v>
-      </c>
-      <c r="B371">
-        <v>142.95</v>
-      </c>
-      <c r="C371">
-        <v>132.15</v>
-      </c>
-      <c r="D371">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44201</v>
-      </c>
-      <c r="B372">
-        <v>127.64</v>
-      </c>
-      <c r="C372">
-        <v>132.15</v>
-      </c>
-      <c r="D372">
-        <v>-3.42</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44202</v>
-      </c>
-      <c r="B373">
-        <v>136.49</v>
-      </c>
-      <c r="C373">
-        <v>132.15</v>
-      </c>
-      <c r="D373">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44203</v>
-      </c>
-      <c r="B374">
-        <v>122.96</v>
-      </c>
-      <c r="C374">
-        <v>132.15</v>
-      </c>
-      <c r="D374">
-        <v>-6.96</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44204</v>
-      </c>
-      <c r="B375">
-        <v>119.66</v>
-      </c>
-      <c r="C375">
-        <v>132.15</v>
-      </c>
-      <c r="D375">
-        <v>-9.449999999999999</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44205</v>
-      </c>
-      <c r="B376">
-        <v>118.11</v>
-      </c>
-      <c r="C376">
-        <v>132.15</v>
-      </c>
-      <c r="D376">
-        <v>-10.62</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44206</v>
-      </c>
-      <c r="B377">
-        <v>111.2</v>
-      </c>
-      <c r="C377">
-        <v>132.15</v>
-      </c>
-      <c r="D377">
-        <v>-15.86</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44207</v>
-      </c>
-      <c r="B378">
-        <v>109.99</v>
-      </c>
-      <c r="C378">
-        <v>132.15</v>
-      </c>
-      <c r="D378">
-        <v>-16.77</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44208</v>
-      </c>
-      <c r="B379">
-        <v>105.6</v>
-      </c>
-      <c r="C379">
-        <v>132.15</v>
-      </c>
-      <c r="D379">
-        <v>-20.09</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44209</v>
-      </c>
-      <c r="B380">
-        <v>103.49</v>
-      </c>
-      <c r="C380">
-        <v>132.15</v>
-      </c>
-      <c r="D380">
-        <v>-21.69</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44210</v>
-      </c>
-      <c r="B381">
-        <v>104.75</v>
-      </c>
-      <c r="C381">
-        <v>132.15</v>
-      </c>
-      <c r="D381">
-        <v>-20.73</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B382">
-        <v>104.46</v>
-      </c>
-      <c r="C382">
-        <v>132.15</v>
-      </c>
-      <c r="D382">
-        <v>-20.96</v>
+        <v>23.12</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,13 +420,13 @@
         <v>43890</v>
       </c>
       <c r="B2">
-        <v>116</v>
+        <v>116.19</v>
       </c>
       <c r="C2">
         <v>133.64</v>
       </c>
       <c r="D2">
-        <v>-13.2</v>
+        <v>-13.06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,13 +434,13 @@
         <v>43921</v>
       </c>
       <c r="B3">
-        <v>92.34999999999999</v>
+        <v>92.19</v>
       </c>
       <c r="C3">
         <v>113.77</v>
       </c>
       <c r="D3">
-        <v>-18.82</v>
+        <v>-18.96</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,13 +448,13 @@
         <v>43951</v>
       </c>
       <c r="B4">
-        <v>66.51000000000001</v>
+        <v>66.45</v>
       </c>
       <c r="C4">
         <v>98.95999999999999</v>
       </c>
       <c r="D4">
-        <v>-32.79</v>
+        <v>-32.85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -462,13 +462,13 @@
         <v>43982</v>
       </c>
       <c r="B5">
-        <v>57.27</v>
+        <v>57.24</v>
       </c>
       <c r="C5">
         <v>99.93000000000001</v>
       </c>
       <c r="D5">
-        <v>-42.69</v>
+        <v>-42.72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -476,13 +476,13 @@
         <v>44012</v>
       </c>
       <c r="B6">
-        <v>83.84</v>
+        <v>84.08</v>
       </c>
       <c r="C6">
         <v>133.46</v>
       </c>
       <c r="D6">
-        <v>-37.18</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -490,13 +490,13 @@
         <v>44043</v>
       </c>
       <c r="B7">
-        <v>72.43000000000001</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="C7">
         <v>104.15</v>
       </c>
       <c r="D7">
-        <v>-30.45</v>
+        <v>-30.53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -504,13 +504,13 @@
         <v>44074</v>
       </c>
       <c r="B8">
-        <v>103.78</v>
+        <v>103.71</v>
       </c>
       <c r="C8">
         <v>86.42</v>
       </c>
       <c r="D8">
-        <v>20.08</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -518,13 +518,13 @@
         <v>44104</v>
       </c>
       <c r="B9">
-        <v>75.97</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="C9">
         <v>94.48999999999999</v>
       </c>
       <c r="D9">
-        <v>-19.6</v>
+        <v>-19.41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -532,13 +532,13 @@
         <v>44135</v>
       </c>
       <c r="B10">
-        <v>88.95</v>
+        <v>88.81</v>
       </c>
       <c r="C10">
         <v>118.4</v>
       </c>
       <c r="D10">
-        <v>-24.87</v>
+        <v>-24.99</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -546,13 +546,13 @@
         <v>44165</v>
       </c>
       <c r="B11">
-        <v>118</v>
+        <v>118.3</v>
       </c>
       <c r="C11">
         <v>110.6</v>
       </c>
       <c r="D11">
-        <v>6.7</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -560,13 +560,13 @@
         <v>44196</v>
       </c>
       <c r="B12">
-        <v>151.66</v>
+        <v>151.59</v>
       </c>
       <c r="C12">
         <v>114.17</v>
       </c>
       <c r="D12">
-        <v>32.85</v>
+        <v>32.78</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -574,13 +574,27 @@
         <v>44227</v>
       </c>
       <c r="B13">
-        <v>143.44</v>
+        <v>143.48</v>
       </c>
       <c r="C13">
         <v>132.15</v>
       </c>
       <c r="D13">
-        <v>8.550000000000001</v>
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B14">
+        <v>137.13</v>
+      </c>
+      <c r="C14">
+        <v>133.64</v>
+      </c>
+      <c r="D14">
+        <v>2.61</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,13 +648,13 @@
         <v>43863</v>
       </c>
       <c r="B3">
-        <v>76.36</v>
+        <v>77.39</v>
       </c>
       <c r="C3">
         <v>133.64</v>
       </c>
       <c r="D3">
-        <v>-42.86</v>
+        <v>-42.1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -648,13 +662,13 @@
         <v>43864</v>
       </c>
       <c r="B4">
-        <v>80.23</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="C4">
         <v>133.64</v>
       </c>
       <c r="D4">
-        <v>-39.97</v>
+        <v>-40.17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -662,13 +676,13 @@
         <v>43865</v>
       </c>
       <c r="B5">
-        <v>86.01000000000001</v>
+        <v>88.06</v>
       </c>
       <c r="C5">
         <v>133.64</v>
       </c>
       <c r="D5">
-        <v>-35.64</v>
+        <v>-34.11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -676,13 +690,13 @@
         <v>43866</v>
       </c>
       <c r="B6">
-        <v>97.08</v>
+        <v>96.93000000000001</v>
       </c>
       <c r="C6">
         <v>133.64</v>
       </c>
       <c r="D6">
-        <v>-27.36</v>
+        <v>-27.47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -690,13 +704,13 @@
         <v>43867</v>
       </c>
       <c r="B7">
-        <v>91.31</v>
+        <v>91.58</v>
       </c>
       <c r="C7">
         <v>133.64</v>
       </c>
       <c r="D7">
-        <v>-31.67</v>
+        <v>-31.47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -704,13 +718,13 @@
         <v>43868</v>
       </c>
       <c r="B8">
-        <v>104.2</v>
+        <v>106.21</v>
       </c>
       <c r="C8">
         <v>133.64</v>
       </c>
       <c r="D8">
-        <v>-22.03</v>
+        <v>-20.53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -718,13 +732,13 @@
         <v>43869</v>
       </c>
       <c r="B9">
-        <v>116.15</v>
+        <v>117.03</v>
       </c>
       <c r="C9">
         <v>133.64</v>
       </c>
       <c r="D9">
-        <v>-13.09</v>
+        <v>-12.43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -732,13 +746,13 @@
         <v>43870</v>
       </c>
       <c r="B10">
-        <v>128.33</v>
+        <v>134.25</v>
       </c>
       <c r="C10">
         <v>133.64</v>
       </c>
       <c r="D10">
-        <v>-3.97</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -746,13 +760,13 @@
         <v>43871</v>
       </c>
       <c r="B11">
-        <v>174.02</v>
+        <v>178.97</v>
       </c>
       <c r="C11">
         <v>133.64</v>
       </c>
       <c r="D11">
-        <v>30.21</v>
+        <v>33.92</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -760,13 +774,13 @@
         <v>43872</v>
       </c>
       <c r="B12">
-        <v>210.61</v>
+        <v>210.43</v>
       </c>
       <c r="C12">
         <v>133.64</v>
       </c>
       <c r="D12">
-        <v>57.59</v>
+        <v>57.45</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -774,13 +788,13 @@
         <v>43873</v>
       </c>
       <c r="B13">
-        <v>199.88</v>
+        <v>198.44</v>
       </c>
       <c r="C13">
         <v>133.64</v>
       </c>
       <c r="D13">
-        <v>49.56</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -788,13 +802,13 @@
         <v>43874</v>
       </c>
       <c r="B14">
-        <v>187.34</v>
+        <v>185.47</v>
       </c>
       <c r="C14">
         <v>133.64</v>
       </c>
       <c r="D14">
-        <v>40.18</v>
+        <v>38.78</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -802,13 +816,13 @@
         <v>43875</v>
       </c>
       <c r="B15">
-        <v>170.34</v>
+        <v>167.69</v>
       </c>
       <c r="C15">
         <v>133.64</v>
       </c>
       <c r="D15">
-        <v>27.46</v>
+        <v>25.47</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -816,13 +830,13 @@
         <v>43876</v>
       </c>
       <c r="B16">
-        <v>140.86</v>
+        <v>136.5</v>
       </c>
       <c r="C16">
         <v>133.64</v>
       </c>
       <c r="D16">
-        <v>5.4</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -830,13 +844,13 @@
         <v>43877</v>
       </c>
       <c r="B17">
-        <v>114.7</v>
+        <v>112.81</v>
       </c>
       <c r="C17">
         <v>133.64</v>
       </c>
       <c r="D17">
-        <v>-14.18</v>
+        <v>-15.59</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -844,13 +858,13 @@
         <v>43878</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>101.85</v>
       </c>
       <c r="C18">
         <v>133.64</v>
       </c>
       <c r="D18">
-        <v>-22.93</v>
+        <v>-23.79</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -858,13 +872,13 @@
         <v>43879</v>
       </c>
       <c r="B19">
-        <v>95.69</v>
+        <v>95.11</v>
       </c>
       <c r="C19">
         <v>133.64</v>
       </c>
       <c r="D19">
-        <v>-28.4</v>
+        <v>-28.83</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -872,13 +886,13 @@
         <v>43880</v>
       </c>
       <c r="B20">
-        <v>94.48999999999999</v>
+        <v>94.56</v>
       </c>
       <c r="C20">
         <v>133.64</v>
       </c>
       <c r="D20">
-        <v>-29.3</v>
+        <v>-29.24</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -886,13 +900,13 @@
         <v>43881</v>
       </c>
       <c r="B21">
-        <v>92.72</v>
+        <v>92.34</v>
       </c>
       <c r="C21">
         <v>133.64</v>
       </c>
       <c r="D21">
-        <v>-30.62</v>
+        <v>-30.9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -900,13 +914,13 @@
         <v>43882</v>
       </c>
       <c r="B22">
-        <v>90.38</v>
+        <v>90.12</v>
       </c>
       <c r="C22">
         <v>133.64</v>
       </c>
       <c r="D22">
-        <v>-32.38</v>
+        <v>-32.56</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -914,13 +928,13 @@
         <v>43883</v>
       </c>
       <c r="B23">
-        <v>88.64</v>
+        <v>88.75</v>
       </c>
       <c r="C23">
         <v>133.64</v>
       </c>
       <c r="D23">
-        <v>-33.68</v>
+        <v>-33.59</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -928,13 +942,13 @@
         <v>43884</v>
       </c>
       <c r="B24">
-        <v>92.45999999999999</v>
+        <v>92.97</v>
       </c>
       <c r="C24">
         <v>133.64</v>
       </c>
       <c r="D24">
-        <v>-30.82</v>
+        <v>-30.44</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -942,13 +956,13 @@
         <v>43885</v>
       </c>
       <c r="B25">
-        <v>93.72</v>
+        <v>93.59</v>
       </c>
       <c r="C25">
         <v>133.64</v>
       </c>
       <c r="D25">
-        <v>-29.87</v>
+        <v>-29.97</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -956,13 +970,13 @@
         <v>43886</v>
       </c>
       <c r="B26">
-        <v>92.88</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="C26">
         <v>133.64</v>
       </c>
       <c r="D26">
-        <v>-30.51</v>
+        <v>-30.26</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -970,13 +984,13 @@
         <v>43887</v>
       </c>
       <c r="B27">
-        <v>106.78</v>
+        <v>110.54</v>
       </c>
       <c r="C27">
         <v>133.64</v>
       </c>
       <c r="D27">
-        <v>-20.1</v>
+        <v>-17.29</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -984,13 +998,13 @@
         <v>43888</v>
       </c>
       <c r="B28">
-        <v>123.67</v>
+        <v>123.07</v>
       </c>
       <c r="C28">
         <v>133.64</v>
       </c>
       <c r="D28">
-        <v>-7.47</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -998,13 +1012,13 @@
         <v>43889</v>
       </c>
       <c r="B29">
-        <v>119.95</v>
+        <v>119.7</v>
       </c>
       <c r="C29">
         <v>133.64</v>
       </c>
       <c r="D29">
-        <v>-10.25</v>
+        <v>-10.43</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1012,13 +1026,13 @@
         <v>43890</v>
       </c>
       <c r="B30">
-        <v>118.88</v>
+        <v>118.47</v>
       </c>
       <c r="C30">
         <v>133.64</v>
       </c>
       <c r="D30">
-        <v>-11.05</v>
+        <v>-11.35</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1026,13 +1040,13 @@
         <v>43891</v>
       </c>
       <c r="B31">
-        <v>106.98</v>
+        <v>104.76</v>
       </c>
       <c r="C31">
         <v>113.77</v>
       </c>
       <c r="D31">
-        <v>-5.97</v>
+        <v>-7.92</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1040,13 +1054,13 @@
         <v>43892</v>
       </c>
       <c r="B32">
-        <v>96.73</v>
+        <v>96.55</v>
       </c>
       <c r="C32">
         <v>113.77</v>
       </c>
       <c r="D32">
-        <v>-14.98</v>
+        <v>-15.13</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1054,13 +1068,13 @@
         <v>43893</v>
       </c>
       <c r="B33">
-        <v>98.62</v>
+        <v>99.33</v>
       </c>
       <c r="C33">
         <v>113.77</v>
       </c>
       <c r="D33">
-        <v>-13.31</v>
+        <v>-12.69</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1068,13 +1082,13 @@
         <v>43894</v>
       </c>
       <c r="B34">
-        <v>106.85</v>
+        <v>108.07</v>
       </c>
       <c r="C34">
         <v>113.77</v>
       </c>
       <c r="D34">
-        <v>-6.08</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1082,13 +1096,13 @@
         <v>43895</v>
       </c>
       <c r="B35">
-        <v>114.51</v>
+        <v>115.14</v>
       </c>
       <c r="C35">
         <v>113.77</v>
       </c>
       <c r="D35">
-        <v>0.65</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1096,13 +1110,13 @@
         <v>43896</v>
       </c>
       <c r="B36">
-        <v>114.11</v>
+        <v>112.6</v>
       </c>
       <c r="C36">
         <v>113.77</v>
       </c>
       <c r="D36">
-        <v>0.31</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1110,13 +1124,13 @@
         <v>43897</v>
       </c>
       <c r="B37">
-        <v>98.8</v>
+        <v>97.44</v>
       </c>
       <c r="C37">
         <v>113.77</v>
       </c>
       <c r="D37">
-        <v>-13.15</v>
+        <v>-14.35</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1124,13 +1138,13 @@
         <v>43898</v>
       </c>
       <c r="B38">
-        <v>92.18000000000001</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="C38">
         <v>113.77</v>
       </c>
       <c r="D38">
-        <v>-18.98</v>
+        <v>-19.42</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1138,13 +1152,13 @@
         <v>43899</v>
       </c>
       <c r="B39">
-        <v>88.88</v>
+        <v>88.52</v>
       </c>
       <c r="C39">
         <v>113.77</v>
       </c>
       <c r="D39">
-        <v>-21.88</v>
+        <v>-22.19</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1152,13 +1166,13 @@
         <v>43900</v>
       </c>
       <c r="B40">
-        <v>85.89</v>
+        <v>85.61</v>
       </c>
       <c r="C40">
         <v>113.77</v>
       </c>
       <c r="D40">
-        <v>-24.51</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1166,13 +1180,13 @@
         <v>43901</v>
       </c>
       <c r="B41">
-        <v>83.27</v>
+        <v>82.77</v>
       </c>
       <c r="C41">
         <v>113.77</v>
       </c>
       <c r="D41">
-        <v>-26.81</v>
+        <v>-27.25</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1180,13 +1194,13 @@
         <v>43902</v>
       </c>
       <c r="B42">
-        <v>80.51000000000001</v>
+        <v>80.26000000000001</v>
       </c>
       <c r="C42">
         <v>113.77</v>
       </c>
       <c r="D42">
-        <v>-29.23</v>
+        <v>-29.45</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1194,13 +1208,13 @@
         <v>43903</v>
       </c>
       <c r="B43">
-        <v>77.51000000000001</v>
+        <v>76.89</v>
       </c>
       <c r="C43">
         <v>113.77</v>
       </c>
       <c r="D43">
-        <v>-31.87</v>
+        <v>-32.42</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1208,13 +1222,13 @@
         <v>43904</v>
       </c>
       <c r="B44">
-        <v>74.27</v>
+        <v>74.52</v>
       </c>
       <c r="C44">
         <v>113.77</v>
       </c>
       <c r="D44">
-        <v>-34.72</v>
+        <v>-34.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1236,13 +1250,13 @@
         <v>43906</v>
       </c>
       <c r="B46">
-        <v>93.09999999999999</v>
+        <v>100.98</v>
       </c>
       <c r="C46">
         <v>113.77</v>
       </c>
       <c r="D46">
-        <v>-18.16</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1250,13 +1264,13 @@
         <v>43907</v>
       </c>
       <c r="B47">
-        <v>109.04</v>
+        <v>103.27</v>
       </c>
       <c r="C47">
         <v>113.77</v>
       </c>
       <c r="D47">
-        <v>-4.15</v>
+        <v>-9.23</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1264,13 +1278,13 @@
         <v>43908</v>
       </c>
       <c r="B48">
-        <v>92.52</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="C48">
         <v>113.77</v>
       </c>
       <c r="D48">
-        <v>-18.68</v>
+        <v>-18.44</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1278,13 +1292,13 @@
         <v>43909</v>
       </c>
       <c r="B49">
-        <v>91.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C49">
         <v>113.77</v>
       </c>
       <c r="D49">
-        <v>-19.92</v>
+        <v>-20.98</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1292,13 +1306,13 @@
         <v>43910</v>
       </c>
       <c r="B50">
-        <v>93.03</v>
+        <v>95.47</v>
       </c>
       <c r="C50">
         <v>113.77</v>
       </c>
       <c r="D50">
-        <v>-18.23</v>
+        <v>-16.08</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1306,13 +1320,13 @@
         <v>43911</v>
       </c>
       <c r="B51">
-        <v>107.64</v>
+        <v>108.03</v>
       </c>
       <c r="C51">
         <v>113.77</v>
       </c>
       <c r="D51">
-        <v>-5.39</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1320,13 +1334,13 @@
         <v>43912</v>
       </c>
       <c r="B52">
-        <v>104.73</v>
+        <v>103.2</v>
       </c>
       <c r="C52">
         <v>113.77</v>
       </c>
       <c r="D52">
-        <v>-7.94</v>
+        <v>-9.289999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1334,13 +1348,13 @@
         <v>43913</v>
       </c>
       <c r="B53">
-        <v>90.55</v>
+        <v>89.25</v>
       </c>
       <c r="C53">
         <v>113.77</v>
       </c>
       <c r="D53">
-        <v>-20.41</v>
+        <v>-21.55</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1348,13 +1362,13 @@
         <v>43914</v>
       </c>
       <c r="B54">
-        <v>84.81999999999999</v>
+        <v>84.77</v>
       </c>
       <c r="C54">
         <v>113.77</v>
       </c>
       <c r="D54">
-        <v>-25.44</v>
+        <v>-25.49</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1362,13 +1376,13 @@
         <v>43915</v>
       </c>
       <c r="B55">
-        <v>87.22</v>
+        <v>88.45</v>
       </c>
       <c r="C55">
         <v>113.77</v>
       </c>
       <c r="D55">
-        <v>-23.34</v>
+        <v>-22.26</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1376,13 +1390,13 @@
         <v>43916</v>
       </c>
       <c r="B56">
-        <v>100.01</v>
+        <v>100.82</v>
       </c>
       <c r="C56">
         <v>113.77</v>
       </c>
       <c r="D56">
-        <v>-12.09</v>
+        <v>-11.38</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1390,13 +1404,13 @@
         <v>43917</v>
       </c>
       <c r="B57">
-        <v>96.25</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="C57">
         <v>113.77</v>
       </c>
       <c r="D57">
-        <v>-15.4</v>
+        <v>-16.81</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1404,13 +1418,13 @@
         <v>43918</v>
       </c>
       <c r="B58">
-        <v>83.8</v>
+        <v>82.75</v>
       </c>
       <c r="C58">
         <v>113.77</v>
       </c>
       <c r="D58">
-        <v>-26.34</v>
+        <v>-27.26</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1418,13 +1432,13 @@
         <v>43919</v>
       </c>
       <c r="B59">
-        <v>79.14</v>
+        <v>78.89</v>
       </c>
       <c r="C59">
         <v>113.77</v>
       </c>
       <c r="D59">
-        <v>-30.44</v>
+        <v>-30.66</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1432,13 +1446,13 @@
         <v>43920</v>
       </c>
       <c r="B60">
-        <v>78.02</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C60">
         <v>113.77</v>
       </c>
       <c r="D60">
-        <v>-31.42</v>
+        <v>-31.53</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1446,13 +1460,13 @@
         <v>43921</v>
       </c>
       <c r="B61">
-        <v>76.94</v>
+        <v>76.81</v>
       </c>
       <c r="C61">
         <v>113.77</v>
       </c>
       <c r="D61">
-        <v>-32.37</v>
+        <v>-32.48</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1460,13 +1474,13 @@
         <v>43922</v>
       </c>
       <c r="B62">
-        <v>75.02</v>
+        <v>74.7</v>
       </c>
       <c r="C62">
         <v>98.95999999999999</v>
       </c>
       <c r="D62">
-        <v>-24.19</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1474,13 +1488,13 @@
         <v>43923</v>
       </c>
       <c r="B63">
-        <v>73.72</v>
+        <v>73.67</v>
       </c>
       <c r="C63">
         <v>98.95999999999999</v>
       </c>
       <c r="D63">
-        <v>-25.5</v>
+        <v>-25.56</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1488,13 +1502,13 @@
         <v>43924</v>
       </c>
       <c r="B64">
-        <v>71.26000000000001</v>
+        <v>70.59</v>
       </c>
       <c r="C64">
         <v>98.95999999999999</v>
       </c>
       <c r="D64">
-        <v>-27.99</v>
+        <v>-28.66</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1502,13 +1516,13 @@
         <v>43925</v>
       </c>
       <c r="B65">
-        <v>67.40000000000001</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="C65">
         <v>98.95999999999999</v>
       </c>
       <c r="D65">
-        <v>-31.89</v>
+        <v>-31.86</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1516,13 +1530,13 @@
         <v>43926</v>
       </c>
       <c r="B66">
-        <v>66.39</v>
+        <v>65.97</v>
       </c>
       <c r="C66">
         <v>98.95999999999999</v>
       </c>
       <c r="D66">
-        <v>-32.91</v>
+        <v>-33.33</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1530,13 +1544,13 @@
         <v>43927</v>
       </c>
       <c r="B67">
-        <v>66.22</v>
+        <v>68.12</v>
       </c>
       <c r="C67">
         <v>98.95999999999999</v>
       </c>
       <c r="D67">
-        <v>-33.08</v>
+        <v>-31.16</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1544,13 +1558,13 @@
         <v>43928</v>
       </c>
       <c r="B68">
-        <v>78.78</v>
+        <v>78.23</v>
       </c>
       <c r="C68">
         <v>98.95999999999999</v>
       </c>
       <c r="D68">
-        <v>-20.39</v>
+        <v>-20.95</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1558,13 +1572,13 @@
         <v>43929</v>
       </c>
       <c r="B69">
-        <v>78.77</v>
+        <v>79.34</v>
       </c>
       <c r="C69">
         <v>98.95999999999999</v>
       </c>
       <c r="D69">
-        <v>-20.4</v>
+        <v>-19.82</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1572,13 +1586,13 @@
         <v>43930</v>
       </c>
       <c r="B70">
-        <v>77.78</v>
+        <v>77.2</v>
       </c>
       <c r="C70">
         <v>98.95999999999999</v>
       </c>
       <c r="D70">
-        <v>-21.4</v>
+        <v>-21.99</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1586,13 +1600,13 @@
         <v>43931</v>
       </c>
       <c r="B71">
-        <v>73.68000000000001</v>
+        <v>73.16</v>
       </c>
       <c r="C71">
         <v>98.95999999999999</v>
       </c>
       <c r="D71">
-        <v>-25.55</v>
+        <v>-26.07</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1600,13 +1614,13 @@
         <v>43932</v>
       </c>
       <c r="B72">
-        <v>69.62</v>
+        <v>69.08</v>
       </c>
       <c r="C72">
         <v>98.95999999999999</v>
       </c>
       <c r="D72">
-        <v>-29.64</v>
+        <v>-30.19</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1614,13 +1628,13 @@
         <v>43933</v>
       </c>
       <c r="B73">
-        <v>66.01000000000001</v>
+        <v>65.78</v>
       </c>
       <c r="C73">
         <v>98.95999999999999</v>
       </c>
       <c r="D73">
-        <v>-33.29</v>
+        <v>-33.52</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1642,13 +1656,13 @@
         <v>43935</v>
       </c>
       <c r="B75">
-        <v>66.09999999999999</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="C75">
         <v>98.95999999999999</v>
       </c>
       <c r="D75">
-        <v>-33.2</v>
+        <v>-33.06</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1656,13 +1670,13 @@
         <v>43936</v>
       </c>
       <c r="B76">
-        <v>65.27</v>
+        <v>65.14</v>
       </c>
       <c r="C76">
         <v>98.95999999999999</v>
       </c>
       <c r="D76">
-        <v>-34.04</v>
+        <v>-34.18</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1670,13 +1684,13 @@
         <v>43937</v>
       </c>
       <c r="B77">
-        <v>64.78</v>
+        <v>64.66</v>
       </c>
       <c r="C77">
         <v>98.95999999999999</v>
       </c>
       <c r="D77">
-        <v>-34.54</v>
+        <v>-34.66</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1684,13 +1698,13 @@
         <v>43938</v>
       </c>
       <c r="B78">
-        <v>63.42</v>
+        <v>63.38</v>
       </c>
       <c r="C78">
         <v>98.95999999999999</v>
       </c>
       <c r="D78">
-        <v>-35.91</v>
+        <v>-35.96</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1698,13 +1712,13 @@
         <v>43939</v>
       </c>
       <c r="B79">
-        <v>62.1</v>
+        <v>61.9</v>
       </c>
       <c r="C79">
         <v>98.95999999999999</v>
       </c>
       <c r="D79">
-        <v>-37.24</v>
+        <v>-37.45</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1726,13 +1740,13 @@
         <v>43941</v>
       </c>
       <c r="B81">
-        <v>62.04</v>
+        <v>62.07</v>
       </c>
       <c r="C81">
         <v>98.95999999999999</v>
       </c>
       <c r="D81">
-        <v>-37.3</v>
+        <v>-37.27</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1740,13 +1754,13 @@
         <v>43942</v>
       </c>
       <c r="B82">
-        <v>63.03</v>
+        <v>63.12</v>
       </c>
       <c r="C82">
         <v>98.95999999999999</v>
       </c>
       <c r="D82">
-        <v>-36.3</v>
+        <v>-36.21</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1754,13 +1768,13 @@
         <v>43943</v>
       </c>
       <c r="B83">
-        <v>62.84</v>
+        <v>62.85</v>
       </c>
       <c r="C83">
         <v>98.95999999999999</v>
       </c>
       <c r="D83">
-        <v>-36.49</v>
+        <v>-36.48</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1768,13 +1782,13 @@
         <v>43944</v>
       </c>
       <c r="B84">
-        <v>62.5</v>
+        <v>62.24</v>
       </c>
       <c r="C84">
         <v>98.95999999999999</v>
       </c>
       <c r="D84">
-        <v>-36.84</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1782,13 +1796,13 @@
         <v>43945</v>
       </c>
       <c r="B85">
-        <v>62.88</v>
+        <v>63.42</v>
       </c>
       <c r="C85">
         <v>98.95999999999999</v>
       </c>
       <c r="D85">
-        <v>-36.46</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1796,13 +1810,13 @@
         <v>43946</v>
       </c>
       <c r="B86">
-        <v>63.01</v>
+        <v>62.6</v>
       </c>
       <c r="C86">
         <v>98.95999999999999</v>
       </c>
       <c r="D86">
-        <v>-36.32</v>
+        <v>-36.74</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1810,13 +1824,13 @@
         <v>43947</v>
       </c>
       <c r="B87">
-        <v>62.89</v>
+        <v>63</v>
       </c>
       <c r="C87">
         <v>98.95999999999999</v>
       </c>
       <c r="D87">
-        <v>-36.45</v>
+        <v>-36.34</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1824,13 +1838,13 @@
         <v>43948</v>
       </c>
       <c r="B88">
-        <v>62.24</v>
+        <v>61.97</v>
       </c>
       <c r="C88">
         <v>98.95999999999999</v>
       </c>
       <c r="D88">
-        <v>-37.1</v>
+        <v>-37.38</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1838,13 +1852,13 @@
         <v>43949</v>
       </c>
       <c r="B89">
-        <v>60.33</v>
+        <v>60.23</v>
       </c>
       <c r="C89">
         <v>98.95999999999999</v>
       </c>
       <c r="D89">
-        <v>-39.03</v>
+        <v>-39.14</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1866,13 +1880,13 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>60.76</v>
+        <v>60.86</v>
       </c>
       <c r="C91">
         <v>98.95999999999999</v>
       </c>
       <c r="D91">
-        <v>-38.6</v>
+        <v>-38.49</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1880,13 +1894,13 @@
         <v>43952</v>
       </c>
       <c r="B92">
-        <v>61.01</v>
+        <v>60.64</v>
       </c>
       <c r="C92">
         <v>99.93000000000001</v>
       </c>
       <c r="D92">
-        <v>-38.95</v>
+        <v>-39.32</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1894,13 +1908,13 @@
         <v>43953</v>
       </c>
       <c r="B93">
-        <v>57.79</v>
+        <v>57.43</v>
       </c>
       <c r="C93">
         <v>99.93000000000001</v>
       </c>
       <c r="D93">
-        <v>-42.17</v>
+        <v>-42.53</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1908,13 +1922,13 @@
         <v>43954</v>
       </c>
       <c r="B94">
-        <v>57.7</v>
+        <v>58.17</v>
       </c>
       <c r="C94">
         <v>99.93000000000001</v>
       </c>
       <c r="D94">
-        <v>-42.26</v>
+        <v>-41.79</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1922,13 +1936,13 @@
         <v>43955</v>
       </c>
       <c r="B95">
-        <v>59.51</v>
+        <v>59.82</v>
       </c>
       <c r="C95">
         <v>99.93000000000001</v>
       </c>
       <c r="D95">
-        <v>-40.45</v>
+        <v>-40.14</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1936,13 +1950,13 @@
         <v>43956</v>
       </c>
       <c r="B96">
-        <v>58.09</v>
+        <v>57.51</v>
       </c>
       <c r="C96">
         <v>99.93000000000001</v>
       </c>
       <c r="D96">
-        <v>-41.87</v>
+        <v>-42.45</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1950,13 +1964,13 @@
         <v>43957</v>
       </c>
       <c r="B97">
-        <v>55.98</v>
+        <v>55.59</v>
       </c>
       <c r="C97">
         <v>99.93000000000001</v>
       </c>
       <c r="D97">
-        <v>-43.98</v>
+        <v>-44.37</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1964,13 +1978,13 @@
         <v>43958</v>
       </c>
       <c r="B98">
-        <v>56.29</v>
+        <v>56.24</v>
       </c>
       <c r="C98">
         <v>99.93000000000001</v>
       </c>
       <c r="D98">
-        <v>-43.67</v>
+        <v>-43.72</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1978,13 +1992,13 @@
         <v>43959</v>
       </c>
       <c r="B99">
-        <v>56.21</v>
+        <v>56.69</v>
       </c>
       <c r="C99">
         <v>99.93000000000001</v>
       </c>
       <c r="D99">
-        <v>-43.75</v>
+        <v>-43.27</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1992,13 +2006,13 @@
         <v>43960</v>
       </c>
       <c r="B100">
-        <v>58.1</v>
+        <v>58.01</v>
       </c>
       <c r="C100">
         <v>99.93000000000001</v>
       </c>
       <c r="D100">
-        <v>-41.86</v>
+        <v>-41.95</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2006,13 +2020,13 @@
         <v>43961</v>
       </c>
       <c r="B101">
-        <v>57.23</v>
+        <v>57.03</v>
       </c>
       <c r="C101">
         <v>99.93000000000001</v>
       </c>
       <c r="D101">
-        <v>-42.73</v>
+        <v>-42.93</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2020,13 +2034,13 @@
         <v>43962</v>
       </c>
       <c r="B102">
-        <v>58.09</v>
+        <v>58.48</v>
       </c>
       <c r="C102">
         <v>99.93000000000001</v>
       </c>
       <c r="D102">
-        <v>-41.87</v>
+        <v>-41.48</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2034,13 +2048,13 @@
         <v>43963</v>
       </c>
       <c r="B103">
-        <v>61.28</v>
+        <v>61.67</v>
       </c>
       <c r="C103">
         <v>99.93000000000001</v>
       </c>
       <c r="D103">
-        <v>-38.68</v>
+        <v>-38.29</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2048,13 +2062,13 @@
         <v>43964</v>
       </c>
       <c r="B104">
-        <v>57</v>
+        <v>56.12</v>
       </c>
       <c r="C104">
         <v>99.93000000000001</v>
       </c>
       <c r="D104">
-        <v>-42.96</v>
+        <v>-43.84</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2062,13 +2076,13 @@
         <v>43965</v>
       </c>
       <c r="B105">
-        <v>54.61</v>
+        <v>54.81</v>
       </c>
       <c r="C105">
         <v>99.93000000000001</v>
       </c>
       <c r="D105">
-        <v>-45.35</v>
+        <v>-45.15</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2076,13 +2090,13 @@
         <v>43966</v>
       </c>
       <c r="B106">
-        <v>55.86</v>
+        <v>55.96</v>
       </c>
       <c r="C106">
         <v>99.93000000000001</v>
       </c>
       <c r="D106">
-        <v>-44.1</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2090,13 +2104,13 @@
         <v>43967</v>
       </c>
       <c r="B107">
-        <v>56.19</v>
+        <v>56.2</v>
       </c>
       <c r="C107">
         <v>99.93000000000001</v>
       </c>
       <c r="D107">
-        <v>-43.77</v>
+        <v>-43.76</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2104,13 +2118,13 @@
         <v>43968</v>
       </c>
       <c r="B108">
-        <v>57.18</v>
+        <v>57.53</v>
       </c>
       <c r="C108">
         <v>99.93000000000001</v>
       </c>
       <c r="D108">
-        <v>-42.78</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2118,13 +2132,13 @@
         <v>43969</v>
       </c>
       <c r="B109">
-        <v>58.31</v>
+        <v>58.2</v>
       </c>
       <c r="C109">
         <v>99.93000000000001</v>
       </c>
       <c r="D109">
-        <v>-41.65</v>
+        <v>-41.76</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2132,13 +2146,13 @@
         <v>43970</v>
       </c>
       <c r="B110">
-        <v>58.54</v>
+        <v>58.67</v>
       </c>
       <c r="C110">
         <v>99.93000000000001</v>
       </c>
       <c r="D110">
-        <v>-41.42</v>
+        <v>-41.29</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2146,13 +2160,13 @@
         <v>43971</v>
       </c>
       <c r="B111">
-        <v>59.84</v>
+        <v>59.88</v>
       </c>
       <c r="C111">
         <v>99.93000000000001</v>
       </c>
       <c r="D111">
-        <v>-40.12</v>
+        <v>-40.08</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2160,13 +2174,13 @@
         <v>43972</v>
       </c>
       <c r="B112">
-        <v>59.3</v>
+        <v>59.49</v>
       </c>
       <c r="C112">
         <v>99.93000000000001</v>
       </c>
       <c r="D112">
-        <v>-40.66</v>
+        <v>-40.47</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2174,13 +2188,13 @@
         <v>43973</v>
       </c>
       <c r="B113">
-        <v>59.99</v>
+        <v>59.65</v>
       </c>
       <c r="C113">
         <v>99.93000000000001</v>
       </c>
       <c r="D113">
-        <v>-39.97</v>
+        <v>-40.31</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2188,13 +2202,13 @@
         <v>43974</v>
       </c>
       <c r="B114">
-        <v>61.25</v>
+        <v>61.54</v>
       </c>
       <c r="C114">
         <v>99.93000000000001</v>
       </c>
       <c r="D114">
-        <v>-38.71</v>
+        <v>-38.42</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2202,13 +2216,13 @@
         <v>43975</v>
       </c>
       <c r="B115">
-        <v>57.84</v>
+        <v>57.79</v>
       </c>
       <c r="C115">
         <v>99.93000000000001</v>
       </c>
       <c r="D115">
-        <v>-42.12</v>
+        <v>-42.17</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2216,13 +2230,13 @@
         <v>43976</v>
       </c>
       <c r="B116">
-        <v>57.57</v>
+        <v>57.28</v>
       </c>
       <c r="C116">
         <v>99.93000000000001</v>
       </c>
       <c r="D116">
-        <v>-42.39</v>
+        <v>-42.68</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2230,13 +2244,13 @@
         <v>43977</v>
       </c>
       <c r="B117">
-        <v>55.24</v>
+        <v>54.9</v>
       </c>
       <c r="C117">
         <v>99.93000000000001</v>
       </c>
       <c r="D117">
-        <v>-44.72</v>
+        <v>-45.07</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2244,13 +2258,13 @@
         <v>43978</v>
       </c>
       <c r="B118">
-        <v>54.03</v>
+        <v>54.39</v>
       </c>
       <c r="C118">
         <v>99.93000000000001</v>
       </c>
       <c r="D118">
-        <v>-45.93</v>
+        <v>-45.58</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2258,13 +2272,13 @@
         <v>43979</v>
       </c>
       <c r="B119">
-        <v>54.66</v>
+        <v>54.62</v>
       </c>
       <c r="C119">
         <v>99.93000000000001</v>
       </c>
       <c r="D119">
-        <v>-45.31</v>
+        <v>-45.34</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2272,13 +2286,13 @@
         <v>43980</v>
       </c>
       <c r="B120">
-        <v>53.75</v>
+        <v>53.88</v>
       </c>
       <c r="C120">
         <v>99.93000000000001</v>
       </c>
       <c r="D120">
-        <v>-46.21</v>
+        <v>-46.09</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2286,13 +2300,13 @@
         <v>43981</v>
       </c>
       <c r="B121">
-        <v>54.85</v>
+        <v>54.48</v>
       </c>
       <c r="C121">
         <v>99.93000000000001</v>
       </c>
       <c r="D121">
-        <v>-45.11</v>
+        <v>-45.48</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2300,13 +2314,13 @@
         <v>43982</v>
       </c>
       <c r="B122">
-        <v>52.05</v>
+        <v>51.92</v>
       </c>
       <c r="C122">
         <v>99.93000000000001</v>
       </c>
       <c r="D122">
-        <v>-47.91</v>
+        <v>-48.05</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2314,13 +2328,13 @@
         <v>43983</v>
       </c>
       <c r="B123">
-        <v>56.27</v>
+        <v>56.71</v>
       </c>
       <c r="C123">
         <v>133.46</v>
       </c>
       <c r="D123">
-        <v>-57.84</v>
+        <v>-57.51</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2328,13 +2342,13 @@
         <v>43984</v>
       </c>
       <c r="B124">
-        <v>58.61</v>
+        <v>58.68</v>
       </c>
       <c r="C124">
         <v>133.46</v>
       </c>
       <c r="D124">
-        <v>-56.09</v>
+        <v>-56.03</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2342,13 +2356,13 @@
         <v>43985</v>
       </c>
       <c r="B125">
-        <v>59.44</v>
+        <v>59.36</v>
       </c>
       <c r="C125">
         <v>133.46</v>
       </c>
       <c r="D125">
-        <v>-55.47</v>
+        <v>-55.52</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2356,13 +2370,13 @@
         <v>43986</v>
       </c>
       <c r="B126">
-        <v>63.27</v>
+        <v>63.59</v>
       </c>
       <c r="C126">
         <v>133.46</v>
       </c>
       <c r="D126">
-        <v>-52.59</v>
+        <v>-52.35</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2370,13 +2384,13 @@
         <v>43987</v>
       </c>
       <c r="B127">
-        <v>62.44</v>
+        <v>62.3</v>
       </c>
       <c r="C127">
         <v>133.46</v>
       </c>
       <c r="D127">
-        <v>-53.22</v>
+        <v>-53.32</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2384,13 +2398,13 @@
         <v>43988</v>
       </c>
       <c r="B128">
-        <v>64.95</v>
+        <v>65.33</v>
       </c>
       <c r="C128">
         <v>133.46</v>
       </c>
       <c r="D128">
-        <v>-51.34</v>
+        <v>-51.05</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2398,13 +2412,13 @@
         <v>43989</v>
       </c>
       <c r="B129">
-        <v>67.59</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C129">
         <v>133.46</v>
       </c>
       <c r="D129">
-        <v>-49.35</v>
+        <v>-48.75</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2412,13 +2426,13 @@
         <v>43990</v>
       </c>
       <c r="B130">
-        <v>71.76000000000001</v>
+        <v>71.23</v>
       </c>
       <c r="C130">
         <v>133.46</v>
       </c>
       <c r="D130">
-        <v>-46.23</v>
+        <v>-46.63</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2426,13 +2440,13 @@
         <v>43991</v>
       </c>
       <c r="B131">
-        <v>68.40000000000001</v>
+        <v>71.38</v>
       </c>
       <c r="C131">
         <v>133.46</v>
       </c>
       <c r="D131">
-        <v>-48.75</v>
+        <v>-46.52</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2440,13 +2454,13 @@
         <v>43992</v>
       </c>
       <c r="B132">
-        <v>120</v>
+        <v>127.99</v>
       </c>
       <c r="C132">
         <v>133.46</v>
       </c>
       <c r="D132">
-        <v>-10.09</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2454,13 +2468,13 @@
         <v>43993</v>
       </c>
       <c r="B133">
-        <v>142.68</v>
+        <v>140.16</v>
       </c>
       <c r="C133">
         <v>133.46</v>
       </c>
       <c r="D133">
-        <v>6.9</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2468,13 +2482,13 @@
         <v>43994</v>
       </c>
       <c r="B134">
-        <v>133.88</v>
+        <v>133.78</v>
       </c>
       <c r="C134">
         <v>133.46</v>
       </c>
       <c r="D134">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2482,13 +2496,13 @@
         <v>43995</v>
       </c>
       <c r="B135">
-        <v>135.25</v>
+        <v>135.62</v>
       </c>
       <c r="C135">
         <v>133.46</v>
       </c>
       <c r="D135">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2496,13 +2510,13 @@
         <v>43996</v>
       </c>
       <c r="B136">
-        <v>128.03</v>
+        <v>123.58</v>
       </c>
       <c r="C136">
         <v>133.46</v>
       </c>
       <c r="D136">
-        <v>-4.07</v>
+        <v>-7.4</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2510,13 +2524,13 @@
         <v>43997</v>
       </c>
       <c r="B137">
-        <v>90.40000000000001</v>
+        <v>88.09</v>
       </c>
       <c r="C137">
         <v>133.46</v>
       </c>
       <c r="D137">
-        <v>-32.27</v>
+        <v>-33.99</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2524,13 +2538,13 @@
         <v>43998</v>
       </c>
       <c r="B138">
-        <v>82.93000000000001</v>
+        <v>83.12</v>
       </c>
       <c r="C138">
         <v>133.46</v>
       </c>
       <c r="D138">
-        <v>-37.86</v>
+        <v>-37.72</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2538,13 +2552,13 @@
         <v>43999</v>
       </c>
       <c r="B139">
-        <v>84.55</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="C139">
         <v>133.46</v>
       </c>
       <c r="D139">
-        <v>-36.65</v>
+        <v>-36.87</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2552,13 +2566,13 @@
         <v>44000</v>
       </c>
       <c r="B140">
-        <v>81.66</v>
+        <v>82.09</v>
       </c>
       <c r="C140">
         <v>133.46</v>
       </c>
       <c r="D140">
-        <v>-38.82</v>
+        <v>-38.49</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2566,13 +2580,13 @@
         <v>44001</v>
       </c>
       <c r="B141">
-        <v>82.29000000000001</v>
+        <v>81.25</v>
       </c>
       <c r="C141">
         <v>133.46</v>
       </c>
       <c r="D141">
-        <v>-38.34</v>
+        <v>-39.12</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2580,13 +2594,13 @@
         <v>44002</v>
       </c>
       <c r="B142">
-        <v>73.42</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="C142">
         <v>133.46</v>
       </c>
       <c r="D142">
-        <v>-44.99</v>
+        <v>-45.69</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2594,13 +2608,13 @@
         <v>44003</v>
       </c>
       <c r="B143">
-        <v>68.16</v>
+        <v>67.66</v>
       </c>
       <c r="C143">
         <v>133.46</v>
       </c>
       <c r="D143">
-        <v>-48.93</v>
+        <v>-49.31</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2608,13 +2622,13 @@
         <v>44004</v>
       </c>
       <c r="B144">
-        <v>66.17</v>
+        <v>66.05</v>
       </c>
       <c r="C144">
         <v>133.46</v>
       </c>
       <c r="D144">
-        <v>-50.42</v>
+        <v>-50.51</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2622,13 +2636,13 @@
         <v>44005</v>
       </c>
       <c r="B145">
-        <v>63.94</v>
+        <v>63.68</v>
       </c>
       <c r="C145">
         <v>133.46</v>
       </c>
       <c r="D145">
-        <v>-52.09</v>
+        <v>-52.29</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2636,13 +2650,13 @@
         <v>44006</v>
       </c>
       <c r="B146">
-        <v>61.98</v>
+        <v>61.77</v>
       </c>
       <c r="C146">
         <v>133.46</v>
       </c>
       <c r="D146">
-        <v>-53.56</v>
+        <v>-53.72</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2650,13 +2664,13 @@
         <v>44007</v>
       </c>
       <c r="B147">
-        <v>61.42</v>
+        <v>61.94</v>
       </c>
       <c r="C147">
         <v>133.46</v>
       </c>
       <c r="D147">
-        <v>-53.98</v>
+        <v>-53.59</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2664,13 +2678,13 @@
         <v>44008</v>
       </c>
       <c r="B148">
-        <v>67.02</v>
+        <v>67.34</v>
       </c>
       <c r="C148">
         <v>133.46</v>
       </c>
       <c r="D148">
-        <v>-49.78</v>
+        <v>-49.54</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2678,13 +2692,13 @@
         <v>44009</v>
       </c>
       <c r="B149">
-        <v>90.2</v>
+        <v>93.56</v>
       </c>
       <c r="C149">
         <v>133.46</v>
       </c>
       <c r="D149">
-        <v>-32.42</v>
+        <v>-29.9</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2692,13 +2706,13 @@
         <v>44010</v>
       </c>
       <c r="B150">
-        <v>99.55</v>
+        <v>101.07</v>
       </c>
       <c r="C150">
         <v>133.46</v>
       </c>
       <c r="D150">
-        <v>-25.41</v>
+        <v>-24.27</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2706,13 +2720,13 @@
         <v>44011</v>
       </c>
       <c r="B151">
-        <v>109.58</v>
+        <v>109.56</v>
       </c>
       <c r="C151">
         <v>133.46</v>
       </c>
       <c r="D151">
-        <v>-17.89</v>
+        <v>-17.91</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2720,13 +2734,13 @@
         <v>44012</v>
       </c>
       <c r="B152">
-        <v>99.26000000000001</v>
+        <v>100.33</v>
       </c>
       <c r="C152">
         <v>133.46</v>
       </c>
       <c r="D152">
-        <v>-25.63</v>
+        <v>-24.83</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2734,13 +2748,13 @@
         <v>44013</v>
       </c>
       <c r="B153">
-        <v>112.51</v>
+        <v>111.83</v>
       </c>
       <c r="C153">
         <v>104.15</v>
       </c>
       <c r="D153">
-        <v>8.029999999999999</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2748,13 +2762,13 @@
         <v>44014</v>
       </c>
       <c r="B154">
-        <v>112.53</v>
+        <v>112.91</v>
       </c>
       <c r="C154">
         <v>104.15</v>
       </c>
       <c r="D154">
-        <v>8.050000000000001</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2762,13 +2776,13 @@
         <v>44015</v>
       </c>
       <c r="B155">
-        <v>107.51</v>
+        <v>105.15</v>
       </c>
       <c r="C155">
         <v>104.15</v>
       </c>
       <c r="D155">
-        <v>3.23</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2776,13 +2790,13 @@
         <v>44016</v>
       </c>
       <c r="B156">
-        <v>86.86</v>
+        <v>85.3</v>
       </c>
       <c r="C156">
         <v>104.15</v>
       </c>
       <c r="D156">
-        <v>-16.59</v>
+        <v>-18.09</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2790,13 +2804,13 @@
         <v>44017</v>
       </c>
       <c r="B157">
-        <v>78.66</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="C157">
         <v>104.15</v>
       </c>
       <c r="D157">
-        <v>-24.47</v>
+        <v>-25.14</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2804,13 +2818,13 @@
         <v>44018</v>
       </c>
       <c r="B158">
-        <v>74.89</v>
+        <v>74.64</v>
       </c>
       <c r="C158">
         <v>104.15</v>
       </c>
       <c r="D158">
-        <v>-28.1</v>
+        <v>-28.34</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2818,13 +2832,13 @@
         <v>44019</v>
       </c>
       <c r="B159">
-        <v>74.34999999999999</v>
+        <v>74.45</v>
       </c>
       <c r="C159">
         <v>104.15</v>
       </c>
       <c r="D159">
-        <v>-28.61</v>
+        <v>-28.52</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2832,13 +2846,13 @@
         <v>44020</v>
       </c>
       <c r="B160">
-        <v>74.20999999999999</v>
+        <v>74.22</v>
       </c>
       <c r="C160">
         <v>104.15</v>
       </c>
       <c r="D160">
-        <v>-28.75</v>
+        <v>-28.74</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2846,13 +2860,13 @@
         <v>44021</v>
       </c>
       <c r="B161">
-        <v>73.75</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C161">
         <v>104.15</v>
       </c>
       <c r="D161">
-        <v>-29.19</v>
+        <v>-29.53</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2860,13 +2874,13 @@
         <v>44022</v>
       </c>
       <c r="B162">
-        <v>69.58</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C162">
         <v>104.15</v>
       </c>
       <c r="D162">
-        <v>-33.19</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2874,13 +2888,13 @@
         <v>44023</v>
       </c>
       <c r="B163">
-        <v>67.18000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C163">
         <v>104.15</v>
       </c>
       <c r="D163">
-        <v>-35.5</v>
+        <v>-35.38</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2888,13 +2902,13 @@
         <v>44024</v>
       </c>
       <c r="B164">
-        <v>66.45999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C164">
         <v>104.15</v>
       </c>
       <c r="D164">
-        <v>-36.19</v>
+        <v>-36.43</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2902,13 +2916,13 @@
         <v>44025</v>
       </c>
       <c r="B165">
-        <v>65.17</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="C165">
         <v>104.15</v>
       </c>
       <c r="D165">
-        <v>-37.43</v>
+        <v>-37.55</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2916,13 +2930,13 @@
         <v>44026</v>
       </c>
       <c r="B166">
-        <v>64.09</v>
+        <v>63.84</v>
       </c>
       <c r="C166">
         <v>104.15</v>
       </c>
       <c r="D166">
-        <v>-38.46</v>
+        <v>-38.7</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2930,13 +2944,13 @@
         <v>44027</v>
       </c>
       <c r="B167">
-        <v>61.68</v>
+        <v>61.53</v>
       </c>
       <c r="C167">
         <v>104.15</v>
       </c>
       <c r="D167">
-        <v>-40.78</v>
+        <v>-40.92</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2944,13 +2958,13 @@
         <v>44028</v>
       </c>
       <c r="B168">
-        <v>61.67</v>
+        <v>61.94</v>
       </c>
       <c r="C168">
         <v>104.15</v>
       </c>
       <c r="D168">
-        <v>-40.79</v>
+        <v>-40.53</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2958,13 +2972,13 @@
         <v>44029</v>
       </c>
       <c r="B169">
-        <v>61.74</v>
+        <v>61.65</v>
       </c>
       <c r="C169">
         <v>104.15</v>
       </c>
       <c r="D169">
-        <v>-40.72</v>
+        <v>-40.81</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2972,13 +2986,13 @@
         <v>44030</v>
       </c>
       <c r="B170">
-        <v>62.24</v>
+        <v>62.33</v>
       </c>
       <c r="C170">
         <v>104.15</v>
       </c>
       <c r="D170">
-        <v>-40.24</v>
+        <v>-40.15</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2986,13 +3000,13 @@
         <v>44031</v>
       </c>
       <c r="B171">
-        <v>64.3</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="C171">
         <v>104.15</v>
       </c>
       <c r="D171">
-        <v>-38.26</v>
+        <v>-38.14</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3000,13 +3014,13 @@
         <v>44032</v>
       </c>
       <c r="B172">
-        <v>62.84</v>
+        <v>62.27</v>
       </c>
       <c r="C172">
         <v>104.15</v>
       </c>
       <c r="D172">
-        <v>-39.66</v>
+        <v>-40.21</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3014,13 +3028,13 @@
         <v>44033</v>
       </c>
       <c r="B173">
-        <v>63.38</v>
+        <v>63.4</v>
       </c>
       <c r="C173">
         <v>104.15</v>
       </c>
       <c r="D173">
-        <v>-39.15</v>
+        <v>-39.13</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3028,13 +3042,13 @@
         <v>44034</v>
       </c>
       <c r="B174">
-        <v>60.21</v>
+        <v>60.67</v>
       </c>
       <c r="C174">
         <v>104.15</v>
       </c>
       <c r="D174">
-        <v>-42.19</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3042,13 +3056,13 @@
         <v>44035</v>
       </c>
       <c r="B175">
-        <v>59.35</v>
+        <v>58.45</v>
       </c>
       <c r="C175">
         <v>104.15</v>
       </c>
       <c r="D175">
-        <v>-43.01</v>
+        <v>-43.88</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3056,13 +3070,13 @@
         <v>44036</v>
       </c>
       <c r="B176">
-        <v>57.93</v>
+        <v>58.1</v>
       </c>
       <c r="C176">
         <v>104.15</v>
       </c>
       <c r="D176">
-        <v>-44.38</v>
+        <v>-44.21</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3070,13 +3084,13 @@
         <v>44037</v>
       </c>
       <c r="B177">
-        <v>58.49</v>
+        <v>58.45</v>
       </c>
       <c r="C177">
         <v>104.15</v>
       </c>
       <c r="D177">
-        <v>-43.84</v>
+        <v>-43.88</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3084,13 +3098,13 @@
         <v>44038</v>
       </c>
       <c r="B178">
-        <v>59.67</v>
+        <v>59.88</v>
       </c>
       <c r="C178">
         <v>104.15</v>
       </c>
       <c r="D178">
-        <v>-42.71</v>
+        <v>-42.51</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3098,13 +3112,13 @@
         <v>44039</v>
       </c>
       <c r="B179">
-        <v>59.74</v>
+        <v>59.64</v>
       </c>
       <c r="C179">
         <v>104.15</v>
       </c>
       <c r="D179">
-        <v>-42.64</v>
+        <v>-42.74</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3112,13 +3126,13 @@
         <v>44040</v>
       </c>
       <c r="B180">
-        <v>57.93</v>
+        <v>57.74</v>
       </c>
       <c r="C180">
         <v>104.15</v>
       </c>
       <c r="D180">
-        <v>-44.38</v>
+        <v>-44.56</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3126,13 +3140,13 @@
         <v>44041</v>
       </c>
       <c r="B181">
-        <v>75.65000000000001</v>
+        <v>78.15000000000001</v>
       </c>
       <c r="C181">
         <v>104.15</v>
       </c>
       <c r="D181">
-        <v>-27.37</v>
+        <v>-24.96</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3140,13 +3154,13 @@
         <v>44042</v>
       </c>
       <c r="B182">
-        <v>90.17</v>
+        <v>93.19</v>
       </c>
       <c r="C182">
         <v>104.15</v>
       </c>
       <c r="D182">
-        <v>-13.42</v>
+        <v>-10.52</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3154,13 +3168,13 @@
         <v>44043</v>
       </c>
       <c r="B183">
-        <v>100.6</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="C183">
         <v>104.15</v>
       </c>
       <c r="D183">
-        <v>-3.4</v>
+        <v>-4.23</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3168,13 +3182,13 @@
         <v>44044</v>
       </c>
       <c r="B184">
-        <v>87.05</v>
+        <v>85.78</v>
       </c>
       <c r="C184">
         <v>86.42</v>
       </c>
       <c r="D184">
-        <v>0.73</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3182,13 +3196,13 @@
         <v>44045</v>
       </c>
       <c r="B185">
-        <v>89.98999999999999</v>
+        <v>91.14</v>
       </c>
       <c r="C185">
         <v>86.42</v>
       </c>
       <c r="D185">
-        <v>4.13</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3196,13 +3210,13 @@
         <v>44046</v>
       </c>
       <c r="B186">
-        <v>87.93000000000001</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="C186">
         <v>86.42</v>
       </c>
       <c r="D186">
-        <v>1.74</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3210,13 +3224,13 @@
         <v>44047</v>
       </c>
       <c r="B187">
-        <v>74.34999999999999</v>
+        <v>73.47</v>
       </c>
       <c r="C187">
         <v>86.42</v>
       </c>
       <c r="D187">
-        <v>-13.97</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3224,13 +3238,13 @@
         <v>44048</v>
       </c>
       <c r="B188">
-        <v>65.90000000000001</v>
+        <v>64.92</v>
       </c>
       <c r="C188">
         <v>86.42</v>
       </c>
       <c r="D188">
-        <v>-23.75</v>
+        <v>-24.89</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3238,13 +3252,13 @@
         <v>44049</v>
       </c>
       <c r="B189">
-        <v>62.14</v>
+        <v>62.01</v>
       </c>
       <c r="C189">
         <v>86.42</v>
       </c>
       <c r="D189">
-        <v>-28.1</v>
+        <v>-28.25</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3252,13 +3266,13 @@
         <v>44050</v>
       </c>
       <c r="B190">
-        <v>60.75</v>
+        <v>60.24</v>
       </c>
       <c r="C190">
         <v>86.42</v>
       </c>
       <c r="D190">
-        <v>-29.71</v>
+        <v>-30.3</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3266,13 +3280,13 @@
         <v>44051</v>
       </c>
       <c r="B191">
-        <v>55.95</v>
+        <v>55.46</v>
       </c>
       <c r="C191">
         <v>86.42</v>
       </c>
       <c r="D191">
-        <v>-35.26</v>
+        <v>-35.83</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3280,13 +3294,13 @@
         <v>44052</v>
       </c>
       <c r="B192">
-        <v>57.49</v>
+        <v>58.16</v>
       </c>
       <c r="C192">
         <v>86.42</v>
       </c>
       <c r="D192">
-        <v>-33.48</v>
+        <v>-32.71</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3308,13 +3322,13 @@
         <v>44054</v>
       </c>
       <c r="B194">
-        <v>58.05</v>
+        <v>58.2</v>
       </c>
       <c r="C194">
         <v>86.42</v>
       </c>
       <c r="D194">
-        <v>-32.83</v>
+        <v>-32.66</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3322,13 +3336,13 @@
         <v>44055</v>
       </c>
       <c r="B195">
-        <v>60.51</v>
+        <v>60.7</v>
       </c>
       <c r="C195">
         <v>86.42</v>
       </c>
       <c r="D195">
-        <v>-29.98</v>
+        <v>-29.77</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3336,13 +3350,13 @@
         <v>44056</v>
       </c>
       <c r="B196">
-        <v>58.93</v>
+        <v>58.71</v>
       </c>
       <c r="C196">
         <v>86.42</v>
       </c>
       <c r="D196">
-        <v>-31.82</v>
+        <v>-32.07</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3350,13 +3364,13 @@
         <v>44057</v>
       </c>
       <c r="B197">
-        <v>61.29</v>
+        <v>61.49</v>
       </c>
       <c r="C197">
         <v>86.42</v>
       </c>
       <c r="D197">
-        <v>-29.08</v>
+        <v>-28.85</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3364,13 +3378,13 @@
         <v>44058</v>
       </c>
       <c r="B198">
-        <v>87.75</v>
+        <v>94.64</v>
       </c>
       <c r="C198">
         <v>86.42</v>
       </c>
       <c r="D198">
-        <v>1.54</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3378,13 +3392,13 @@
         <v>44059</v>
       </c>
       <c r="B199">
-        <v>136.35</v>
+        <v>138.78</v>
       </c>
       <c r="C199">
         <v>86.42</v>
       </c>
       <c r="D199">
-        <v>57.77</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3392,13 +3406,13 @@
         <v>44060</v>
       </c>
       <c r="B200">
-        <v>136.22</v>
+        <v>136.85</v>
       </c>
       <c r="C200">
         <v>86.42</v>
       </c>
       <c r="D200">
-        <v>57.62</v>
+        <v>58.35</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3406,13 +3420,13 @@
         <v>44061</v>
       </c>
       <c r="B201">
-        <v>146.75</v>
+        <v>148.99</v>
       </c>
       <c r="C201">
         <v>86.42</v>
       </c>
       <c r="D201">
-        <v>69.8</v>
+        <v>72.39</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3420,13 +3434,13 @@
         <v>44062</v>
       </c>
       <c r="B202">
-        <v>171.51</v>
+        <v>174.34</v>
       </c>
       <c r="C202">
         <v>86.42</v>
       </c>
       <c r="D202">
-        <v>98.45</v>
+        <v>101.73</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3434,13 +3448,13 @@
         <v>44063</v>
       </c>
       <c r="B203">
-        <v>189.24</v>
+        <v>190.33</v>
       </c>
       <c r="C203">
         <v>86.42</v>
       </c>
       <c r="D203">
-        <v>118.97</v>
+        <v>120.23</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3448,13 +3462,13 @@
         <v>44064</v>
       </c>
       <c r="B204">
-        <v>187.72</v>
+        <v>186.71</v>
       </c>
       <c r="C204">
         <v>86.42</v>
       </c>
       <c r="D204">
-        <v>117.21</v>
+        <v>116.04</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3462,13 +3476,13 @@
         <v>44065</v>
       </c>
       <c r="B205">
-        <v>179.81</v>
+        <v>179.1</v>
       </c>
       <c r="C205">
         <v>86.42</v>
       </c>
       <c r="D205">
-        <v>108.06</v>
+        <v>107.24</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3476,13 +3490,13 @@
         <v>44066</v>
       </c>
       <c r="B206">
-        <v>177.59</v>
+        <v>177.72</v>
       </c>
       <c r="C206">
         <v>86.42</v>
       </c>
       <c r="D206">
-        <v>105.49</v>
+        <v>105.64</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3490,13 +3504,13 @@
         <v>44067</v>
       </c>
       <c r="B207">
-        <v>175.65</v>
+        <v>174.61</v>
       </c>
       <c r="C207">
         <v>86.42</v>
       </c>
       <c r="D207">
-        <v>103.24</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3504,13 +3518,13 @@
         <v>44068</v>
       </c>
       <c r="B208">
-        <v>153.39</v>
+        <v>147.24</v>
       </c>
       <c r="C208">
         <v>86.42</v>
       </c>
       <c r="D208">
-        <v>77.48</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3518,13 +3532,13 @@
         <v>44069</v>
       </c>
       <c r="B209">
-        <v>108.41</v>
+        <v>105.73</v>
       </c>
       <c r="C209">
         <v>86.42</v>
       </c>
       <c r="D209">
-        <v>25.44</v>
+        <v>22.34</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3532,13 +3546,13 @@
         <v>44070</v>
       </c>
       <c r="B210">
-        <v>95.28</v>
+        <v>94.2</v>
       </c>
       <c r="C210">
         <v>86.42</v>
       </c>
       <c r="D210">
-        <v>10.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3546,13 +3560,13 @@
         <v>44071</v>
       </c>
       <c r="B211">
-        <v>88.06</v>
+        <v>87.5</v>
       </c>
       <c r="C211">
         <v>86.42</v>
       </c>
       <c r="D211">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3560,13 +3574,13 @@
         <v>44072</v>
       </c>
       <c r="B212">
-        <v>84.15000000000001</v>
+        <v>83.58</v>
       </c>
       <c r="C212">
         <v>86.42</v>
       </c>
       <c r="D212">
-        <v>-2.64</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3574,13 +3588,13 @@
         <v>44073</v>
       </c>
       <c r="B213">
-        <v>80.31999999999999</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="C213">
         <v>86.42</v>
       </c>
       <c r="D213">
-        <v>-7.06</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3588,13 +3602,13 @@
         <v>44074</v>
       </c>
       <c r="B214">
-        <v>79.75</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="C214">
         <v>86.42</v>
       </c>
       <c r="D214">
-        <v>-7.72</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3602,13 +3616,13 @@
         <v>44075</v>
       </c>
       <c r="B215">
-        <v>77.47</v>
+        <v>77.5</v>
       </c>
       <c r="C215">
         <v>94.48999999999999</v>
       </c>
       <c r="D215">
-        <v>-18.01</v>
+        <v>-17.98</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3616,13 +3630,13 @@
         <v>44076</v>
       </c>
       <c r="B216">
-        <v>80.83</v>
+        <v>81.58</v>
       </c>
       <c r="C216">
         <v>94.48999999999999</v>
       </c>
       <c r="D216">
-        <v>-14.45</v>
+        <v>-13.66</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3630,13 +3644,13 @@
         <v>44077</v>
       </c>
       <c r="B217">
-        <v>89.98</v>
+        <v>91.84</v>
       </c>
       <c r="C217">
         <v>94.48999999999999</v>
       </c>
       <c r="D217">
-        <v>-4.77</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3644,13 +3658,13 @@
         <v>44078</v>
       </c>
       <c r="B218">
-        <v>105.27</v>
+        <v>106.82</v>
       </c>
       <c r="C218">
         <v>94.48999999999999</v>
       </c>
       <c r="D218">
-        <v>11.41</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3658,13 +3672,13 @@
         <v>44079</v>
       </c>
       <c r="B219">
-        <v>108.68</v>
+        <v>106.64</v>
       </c>
       <c r="C219">
         <v>94.48999999999999</v>
       </c>
       <c r="D219">
-        <v>15.02</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3672,13 +3686,13 @@
         <v>44080</v>
       </c>
       <c r="B220">
-        <v>89.03</v>
+        <v>87.47</v>
       </c>
       <c r="C220">
         <v>94.48999999999999</v>
       </c>
       <c r="D220">
-        <v>-5.77</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3686,13 +3700,13 @@
         <v>44081</v>
       </c>
       <c r="B221">
-        <v>82.15000000000001</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="C221">
         <v>94.48999999999999</v>
       </c>
       <c r="D221">
-        <v>-13.06</v>
+        <v>-13.56</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3700,13 +3714,13 @@
         <v>44082</v>
       </c>
       <c r="B222">
-        <v>78.23999999999999</v>
+        <v>78.05</v>
       </c>
       <c r="C222">
         <v>94.48999999999999</v>
       </c>
       <c r="D222">
-        <v>-17.2</v>
+        <v>-17.39</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3714,13 +3728,13 @@
         <v>44083</v>
       </c>
       <c r="B223">
-        <v>77.16</v>
+        <v>76.84</v>
       </c>
       <c r="C223">
         <v>94.48999999999999</v>
       </c>
       <c r="D223">
-        <v>-18.34</v>
+        <v>-18.67</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3728,13 +3742,13 @@
         <v>44084</v>
       </c>
       <c r="B224">
-        <v>72.83</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="C224">
         <v>94.48999999999999</v>
       </c>
       <c r="D224">
-        <v>-22.92</v>
+        <v>-23.49</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3756,13 +3770,13 @@
         <v>44086</v>
       </c>
       <c r="B226">
-        <v>68.56</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C226">
         <v>94.48999999999999</v>
       </c>
       <c r="D226">
-        <v>-27.44</v>
+        <v>-27.92</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3770,13 +3784,13 @@
         <v>44087</v>
       </c>
       <c r="B227">
-        <v>67.04000000000001</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="C227">
         <v>94.48999999999999</v>
       </c>
       <c r="D227">
-        <v>-29.05</v>
+        <v>-28.78</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3784,13 +3798,13 @@
         <v>44088</v>
       </c>
       <c r="B228">
-        <v>68.45999999999999</v>
+        <v>68.28</v>
       </c>
       <c r="C228">
         <v>94.48999999999999</v>
       </c>
       <c r="D228">
-        <v>-27.55</v>
+        <v>-27.74</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3798,13 +3812,13 @@
         <v>44089</v>
       </c>
       <c r="B229">
-        <v>66.65000000000001</v>
+        <v>66.16</v>
       </c>
       <c r="C229">
         <v>94.48999999999999</v>
       </c>
       <c r="D229">
-        <v>-29.47</v>
+        <v>-29.98</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3812,13 +3826,13 @@
         <v>44090</v>
       </c>
       <c r="B230">
-        <v>62.72</v>
+        <v>62.6</v>
       </c>
       <c r="C230">
         <v>94.48999999999999</v>
       </c>
       <c r="D230">
-        <v>-33.62</v>
+        <v>-33.74</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3826,13 +3840,13 @@
         <v>44091</v>
       </c>
       <c r="B231">
-        <v>64.26000000000001</v>
+        <v>64.53</v>
       </c>
       <c r="C231">
         <v>94.48999999999999</v>
       </c>
       <c r="D231">
-        <v>-31.99</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3840,13 +3854,13 @@
         <v>44092</v>
       </c>
       <c r="B232">
-        <v>64.70999999999999</v>
+        <v>64.59</v>
       </c>
       <c r="C232">
         <v>94.48999999999999</v>
       </c>
       <c r="D232">
-        <v>-31.52</v>
+        <v>-31.64</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3854,13 +3868,13 @@
         <v>44093</v>
       </c>
       <c r="B233">
-        <v>64.34</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="C233">
         <v>94.48999999999999</v>
       </c>
       <c r="D233">
-        <v>-31.9</v>
+        <v>-31.89</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3868,13 +3882,13 @@
         <v>44094</v>
       </c>
       <c r="B234">
-        <v>63.18</v>
+        <v>63.04</v>
       </c>
       <c r="C234">
         <v>94.48999999999999</v>
       </c>
       <c r="D234">
-        <v>-33.14</v>
+        <v>-33.28</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3882,13 +3896,13 @@
         <v>44095</v>
       </c>
       <c r="B235">
-        <v>61.76</v>
+        <v>61.26</v>
       </c>
       <c r="C235">
         <v>94.48999999999999</v>
       </c>
       <c r="D235">
-        <v>-34.64</v>
+        <v>-35.17</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3896,13 +3910,13 @@
         <v>44096</v>
       </c>
       <c r="B236">
-        <v>61.42</v>
+        <v>61.96</v>
       </c>
       <c r="C236">
         <v>94.48999999999999</v>
       </c>
       <c r="D236">
-        <v>-35</v>
+        <v>-34.43</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3910,13 +3924,13 @@
         <v>44097</v>
       </c>
       <c r="B237">
-        <v>65.12</v>
+        <v>65.56</v>
       </c>
       <c r="C237">
         <v>94.48999999999999</v>
       </c>
       <c r="D237">
-        <v>-31.08</v>
+        <v>-30.61</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3924,13 +3938,13 @@
         <v>44098</v>
       </c>
       <c r="B238">
-        <v>66.09999999999999</v>
+        <v>65.52</v>
       </c>
       <c r="C238">
         <v>94.48999999999999</v>
       </c>
       <c r="D238">
-        <v>-30.04</v>
+        <v>-30.66</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3938,13 +3952,13 @@
         <v>44099</v>
       </c>
       <c r="B239">
-        <v>63.39</v>
+        <v>63.72</v>
       </c>
       <c r="C239">
         <v>94.48999999999999</v>
       </c>
       <c r="D239">
-        <v>-32.92</v>
+        <v>-32.56</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3952,13 +3966,13 @@
         <v>44100</v>
       </c>
       <c r="B240">
-        <v>64.53</v>
+        <v>64.36</v>
       </c>
       <c r="C240">
         <v>94.48999999999999</v>
       </c>
       <c r="D240">
-        <v>-31.7</v>
+        <v>-31.88</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3966,13 +3980,13 @@
         <v>44101</v>
       </c>
       <c r="B241">
-        <v>62.86</v>
+        <v>62.83</v>
       </c>
       <c r="C241">
         <v>94.48999999999999</v>
       </c>
       <c r="D241">
-        <v>-33.47</v>
+        <v>-33.5</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3980,13 +3994,13 @@
         <v>44102</v>
       </c>
       <c r="B242">
-        <v>86.90000000000001</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="C242">
         <v>94.48999999999999</v>
       </c>
       <c r="D242">
-        <v>-8.029999999999999</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3994,13 +4008,13 @@
         <v>44103</v>
       </c>
       <c r="B243">
-        <v>108.79</v>
+        <v>108.8</v>
       </c>
       <c r="C243">
         <v>94.48999999999999</v>
       </c>
       <c r="D243">
-        <v>15.14</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4008,13 +4022,13 @@
         <v>44104</v>
       </c>
       <c r="B244">
-        <v>115.88</v>
+        <v>117.06</v>
       </c>
       <c r="C244">
         <v>94.48999999999999</v>
       </c>
       <c r="D244">
-        <v>22.64</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4022,13 +4036,13 @@
         <v>44105</v>
       </c>
       <c r="B245">
-        <v>113.98</v>
+        <v>110.98</v>
       </c>
       <c r="C245">
         <v>118.4</v>
       </c>
       <c r="D245">
-        <v>-3.73</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4036,13 +4050,13 @@
         <v>44106</v>
       </c>
       <c r="B246">
-        <v>94.22</v>
+        <v>93.73</v>
       </c>
       <c r="C246">
         <v>118.4</v>
       </c>
       <c r="D246">
-        <v>-20.42</v>
+        <v>-20.84</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4050,13 +4064,13 @@
         <v>44107</v>
       </c>
       <c r="B247">
-        <v>90.77</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="C247">
         <v>118.4</v>
       </c>
       <c r="D247">
-        <v>-23.33</v>
+        <v>-24.37</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4064,13 +4078,13 @@
         <v>44108</v>
       </c>
       <c r="B248">
-        <v>83.73999999999999</v>
+        <v>83.89</v>
       </c>
       <c r="C248">
         <v>118.4</v>
       </c>
       <c r="D248">
-        <v>-29.27</v>
+        <v>-29.15</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4078,13 +4092,13 @@
         <v>44109</v>
       </c>
       <c r="B249">
-        <v>83.88</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C249">
         <v>118.4</v>
       </c>
       <c r="D249">
-        <v>-29.16</v>
+        <v>-29.41</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4092,13 +4106,13 @@
         <v>44110</v>
       </c>
       <c r="B250">
-        <v>86.06999999999999</v>
+        <v>87.34</v>
       </c>
       <c r="C250">
         <v>118.4</v>
       </c>
       <c r="D250">
-        <v>-27.3</v>
+        <v>-26.23</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4106,13 +4120,13 @@
         <v>44111</v>
       </c>
       <c r="B251">
-        <v>98.58</v>
+        <v>99.7</v>
       </c>
       <c r="C251">
         <v>118.4</v>
       </c>
       <c r="D251">
-        <v>-16.74</v>
+        <v>-15.8</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4120,13 +4134,13 @@
         <v>44112</v>
       </c>
       <c r="B252">
-        <v>101.55</v>
+        <v>103.88</v>
       </c>
       <c r="C252">
         <v>118.4</v>
       </c>
       <c r="D252">
-        <v>-14.23</v>
+        <v>-12.27</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4134,13 +4148,13 @@
         <v>44113</v>
       </c>
       <c r="B253">
-        <v>119.76</v>
+        <v>120.94</v>
       </c>
       <c r="C253">
         <v>118.4</v>
       </c>
       <c r="D253">
-        <v>1.15</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4148,13 +4162,13 @@
         <v>44114</v>
       </c>
       <c r="B254">
-        <v>128.5</v>
+        <v>127.96</v>
       </c>
       <c r="C254">
         <v>118.4</v>
       </c>
       <c r="D254">
-        <v>8.529999999999999</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4162,13 +4176,13 @@
         <v>44115</v>
       </c>
       <c r="B255">
-        <v>125.06</v>
+        <v>124.85</v>
       </c>
       <c r="C255">
         <v>118.4</v>
       </c>
       <c r="D255">
-        <v>5.63</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4176,13 +4190,13 @@
         <v>44116</v>
       </c>
       <c r="B256">
-        <v>122.17</v>
+        <v>120.96</v>
       </c>
       <c r="C256">
         <v>118.4</v>
       </c>
       <c r="D256">
-        <v>3.18</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4190,13 +4204,13 @@
         <v>44117</v>
       </c>
       <c r="B257">
-        <v>102.91</v>
+        <v>100.17</v>
       </c>
       <c r="C257">
         <v>118.4</v>
       </c>
       <c r="D257">
-        <v>-13.09</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4204,13 +4218,13 @@
         <v>44118</v>
       </c>
       <c r="B258">
-        <v>88.7</v>
+        <v>87.8</v>
       </c>
       <c r="C258">
         <v>118.4</v>
       </c>
       <c r="D258">
-        <v>-25.09</v>
+        <v>-25.84</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4218,13 +4232,13 @@
         <v>44119</v>
       </c>
       <c r="B259">
-        <v>81.51000000000001</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="C259">
         <v>118.4</v>
       </c>
       <c r="D259">
-        <v>-31.16</v>
+        <v>-32.02</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4232,13 +4246,13 @@
         <v>44120</v>
       </c>
       <c r="B260">
-        <v>76.84</v>
+        <v>76.62</v>
       </c>
       <c r="C260">
         <v>118.4</v>
       </c>
       <c r="D260">
-        <v>-35.1</v>
+        <v>-35.28</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4246,13 +4260,13 @@
         <v>44121</v>
       </c>
       <c r="B261">
-        <v>75.27</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="C261">
         <v>118.4</v>
       </c>
       <c r="D261">
-        <v>-36.43</v>
+        <v>-36.53</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4260,13 +4274,13 @@
         <v>44122</v>
       </c>
       <c r="B262">
-        <v>74.72</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="C262">
         <v>118.4</v>
       </c>
       <c r="D262">
-        <v>-36.89</v>
+        <v>-37.02</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4274,13 +4288,13 @@
         <v>44123</v>
       </c>
       <c r="B263">
-        <v>74.79000000000001</v>
+        <v>74.76000000000001</v>
       </c>
       <c r="C263">
         <v>118.4</v>
       </c>
       <c r="D263">
-        <v>-36.83</v>
+        <v>-36.86</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4288,13 +4302,13 @@
         <v>44124</v>
       </c>
       <c r="B264">
-        <v>73.02</v>
+        <v>72.7</v>
       </c>
       <c r="C264">
         <v>118.4</v>
       </c>
       <c r="D264">
-        <v>-38.33</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4302,13 +4316,13 @@
         <v>44125</v>
       </c>
       <c r="B265">
-        <v>71.81999999999999</v>
+        <v>72.06999999999999</v>
       </c>
       <c r="C265">
         <v>118.4</v>
       </c>
       <c r="D265">
-        <v>-39.34</v>
+        <v>-39.13</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4316,13 +4330,13 @@
         <v>44126</v>
       </c>
       <c r="B266">
-        <v>73.09999999999999</v>
+        <v>73.03</v>
       </c>
       <c r="C266">
         <v>118.4</v>
       </c>
       <c r="D266">
-        <v>-38.26</v>
+        <v>-38.32</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4330,13 +4344,13 @@
         <v>44127</v>
       </c>
       <c r="B267">
-        <v>72.90000000000001</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="C267">
         <v>118.4</v>
       </c>
       <c r="D267">
-        <v>-38.43</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4344,13 +4358,13 @@
         <v>44128</v>
       </c>
       <c r="B268">
-        <v>76.45</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="C268">
         <v>118.4</v>
       </c>
       <c r="D268">
-        <v>-35.43</v>
+        <v>-32.85</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4358,13 +4372,13 @@
         <v>44129</v>
       </c>
       <c r="B269">
-        <v>92.34</v>
+        <v>91.14</v>
       </c>
       <c r="C269">
         <v>118.4</v>
       </c>
       <c r="D269">
-        <v>-22.01</v>
+        <v>-23.03</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4372,13 +4386,13 @@
         <v>44130</v>
       </c>
       <c r="B270">
-        <v>84.8</v>
+        <v>84.36</v>
       </c>
       <c r="C270">
         <v>118.4</v>
       </c>
       <c r="D270">
-        <v>-28.38</v>
+        <v>-28.75</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4386,13 +4400,13 @@
         <v>44131</v>
       </c>
       <c r="B271">
-        <v>81.98</v>
+        <v>81.12</v>
       </c>
       <c r="C271">
         <v>118.4</v>
       </c>
       <c r="D271">
-        <v>-30.76</v>
+        <v>-31.48</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4400,13 +4414,13 @@
         <v>44132</v>
       </c>
       <c r="B272">
-        <v>74.09</v>
+        <v>73.16</v>
       </c>
       <c r="C272">
         <v>118.4</v>
       </c>
       <c r="D272">
-        <v>-37.42</v>
+        <v>-38.21</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4414,13 +4428,13 @@
         <v>44133</v>
       </c>
       <c r="B273">
-        <v>69.3</v>
+        <v>69.12</v>
       </c>
       <c r="C273">
         <v>118.4</v>
       </c>
       <c r="D273">
-        <v>-41.47</v>
+        <v>-41.62</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4428,13 +4442,13 @@
         <v>44134</v>
       </c>
       <c r="B274">
-        <v>82.94</v>
+        <v>84.55</v>
       </c>
       <c r="C274">
         <v>118.4</v>
       </c>
       <c r="D274">
-        <v>-29.95</v>
+        <v>-28.59</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4442,13 +4456,13 @@
         <v>44135</v>
       </c>
       <c r="B275">
-        <v>81.73</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="C275">
         <v>118.4</v>
       </c>
       <c r="D275">
-        <v>-30.97</v>
+        <v>-30.33</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4456,13 +4470,13 @@
         <v>44136</v>
       </c>
       <c r="B276">
-        <v>96.79000000000001</v>
+        <v>97.92</v>
       </c>
       <c r="C276">
         <v>110.6</v>
       </c>
       <c r="D276">
-        <v>-12.48</v>
+        <v>-11.46</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4470,13 +4484,13 @@
         <v>44137</v>
       </c>
       <c r="B277">
-        <v>97.72</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="C277">
         <v>110.6</v>
       </c>
       <c r="D277">
-        <v>-11.64</v>
+        <v>-13.01</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4484,13 +4498,13 @@
         <v>44138</v>
       </c>
       <c r="B278">
-        <v>85.7</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="C278">
         <v>110.6</v>
       </c>
       <c r="D278">
-        <v>-22.51</v>
+        <v>-22.4</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4498,13 +4512,13 @@
         <v>44139</v>
       </c>
       <c r="B279">
-        <v>89.31999999999999</v>
+        <v>89.19</v>
       </c>
       <c r="C279">
         <v>110.6</v>
       </c>
       <c r="D279">
-        <v>-19.23</v>
+        <v>-19.36</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4512,13 +4526,13 @@
         <v>44140</v>
       </c>
       <c r="B280">
-        <v>87.59999999999999</v>
+        <v>87.25</v>
       </c>
       <c r="C280">
         <v>110.6</v>
       </c>
       <c r="D280">
-        <v>-20.79</v>
+        <v>-21.11</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4526,13 +4540,13 @@
         <v>44141</v>
       </c>
       <c r="B281">
-        <v>82.11</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C281">
         <v>110.6</v>
       </c>
       <c r="D281">
-        <v>-25.75</v>
+        <v>-26.85</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4540,13 +4554,13 @@
         <v>44142</v>
       </c>
       <c r="B282">
-        <v>74.14</v>
+        <v>73.41</v>
       </c>
       <c r="C282">
         <v>110.6</v>
       </c>
       <c r="D282">
-        <v>-32.97</v>
+        <v>-33.63</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4554,13 +4568,13 @@
         <v>44143</v>
       </c>
       <c r="B283">
-        <v>71.15000000000001</v>
+        <v>70.88</v>
       </c>
       <c r="C283">
         <v>110.6</v>
       </c>
       <c r="D283">
-        <v>-35.67</v>
+        <v>-35.92</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4568,13 +4582,13 @@
         <v>44144</v>
       </c>
       <c r="B284">
-        <v>69.59999999999999</v>
+        <v>69.95</v>
       </c>
       <c r="C284">
         <v>110.6</v>
       </c>
       <c r="D284">
-        <v>-37.06</v>
+        <v>-36.75</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4582,13 +4596,13 @@
         <v>44145</v>
       </c>
       <c r="B285">
-        <v>71.44</v>
+        <v>71.31</v>
       </c>
       <c r="C285">
         <v>110.6</v>
       </c>
       <c r="D285">
-        <v>-35.41</v>
+        <v>-35.52</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4596,13 +4610,13 @@
         <v>44146</v>
       </c>
       <c r="B286">
-        <v>92.51000000000001</v>
+        <v>101.54</v>
       </c>
       <c r="C286">
         <v>110.6</v>
       </c>
       <c r="D286">
-        <v>-16.35</v>
+        <v>-8.19</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4610,13 +4624,13 @@
         <v>44147</v>
       </c>
       <c r="B287">
-        <v>126.58</v>
+        <v>123.43</v>
       </c>
       <c r="C287">
         <v>110.6</v>
       </c>
       <c r="D287">
-        <v>14.46</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4624,13 +4638,13 @@
         <v>44148</v>
       </c>
       <c r="B288">
-        <v>120</v>
+        <v>121.72</v>
       </c>
       <c r="C288">
         <v>110.6</v>
       </c>
       <c r="D288">
-        <v>8.5</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4638,13 +4652,13 @@
         <v>44149</v>
       </c>
       <c r="B289">
-        <v>130.98</v>
+        <v>132.06</v>
       </c>
       <c r="C289">
         <v>110.6</v>
       </c>
       <c r="D289">
-        <v>18.43</v>
+        <v>19.41</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4652,13 +4666,13 @@
         <v>44150</v>
       </c>
       <c r="B290">
-        <v>133.53</v>
+        <v>131.73</v>
       </c>
       <c r="C290">
         <v>110.6</v>
       </c>
       <c r="D290">
-        <v>20.74</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4666,13 +4680,13 @@
         <v>44151</v>
       </c>
       <c r="B291">
-        <v>129.96</v>
+        <v>131</v>
       </c>
       <c r="C291">
         <v>110.6</v>
       </c>
       <c r="D291">
-        <v>17.51</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4680,13 +4694,13 @@
         <v>44152</v>
       </c>
       <c r="B292">
-        <v>135.84</v>
+        <v>136.65</v>
       </c>
       <c r="C292">
         <v>110.6</v>
       </c>
       <c r="D292">
-        <v>22.82</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4694,13 +4708,13 @@
         <v>44153</v>
       </c>
       <c r="B293">
-        <v>147.3</v>
+        <v>150.31</v>
       </c>
       <c r="C293">
         <v>110.6</v>
       </c>
       <c r="D293">
-        <v>33.19</v>
+        <v>35.91</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4708,13 +4722,13 @@
         <v>44154</v>
       </c>
       <c r="B294">
-        <v>170.91</v>
+        <v>172.94</v>
       </c>
       <c r="C294">
         <v>110.6</v>
       </c>
       <c r="D294">
-        <v>54.53</v>
+        <v>56.37</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4722,13 +4736,13 @@
         <v>44155</v>
       </c>
       <c r="B295">
-        <v>179.05</v>
+        <v>178.18</v>
       </c>
       <c r="C295">
         <v>110.6</v>
       </c>
       <c r="D295">
-        <v>61.9</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4736,13 +4750,13 @@
         <v>44156</v>
       </c>
       <c r="B296">
-        <v>165.27</v>
+        <v>163.41</v>
       </c>
       <c r="C296">
         <v>110.6</v>
       </c>
       <c r="D296">
-        <v>49.44</v>
+        <v>47.75</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4750,13 +4764,13 @@
         <v>44157</v>
       </c>
       <c r="B297">
-        <v>156.52</v>
+        <v>156.15</v>
       </c>
       <c r="C297">
         <v>110.6</v>
       </c>
       <c r="D297">
-        <v>41.53</v>
+        <v>41.19</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4764,13 +4778,13 @@
         <v>44158</v>
       </c>
       <c r="B298">
-        <v>151.14</v>
+        <v>149.28</v>
       </c>
       <c r="C298">
         <v>110.6</v>
       </c>
       <c r="D298">
-        <v>36.66</v>
+        <v>34.98</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4778,13 +4792,13 @@
         <v>44159</v>
       </c>
       <c r="B299">
-        <v>126.78</v>
+        <v>123.38</v>
       </c>
       <c r="C299">
         <v>110.6</v>
       </c>
       <c r="D299">
-        <v>14.63</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4792,13 +4806,13 @@
         <v>44160</v>
       </c>
       <c r="B300">
-        <v>107.4</v>
+        <v>106</v>
       </c>
       <c r="C300">
         <v>110.6</v>
       </c>
       <c r="D300">
-        <v>-2.89</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4806,13 +4820,13 @@
         <v>44161</v>
       </c>
       <c r="B301">
-        <v>99.16</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="C301">
         <v>110.6</v>
       </c>
       <c r="D301">
-        <v>-10.34</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4820,13 +4834,13 @@
         <v>44162</v>
       </c>
       <c r="B302">
-        <v>113.24</v>
+        <v>117.14</v>
       </c>
       <c r="C302">
         <v>110.6</v>
       </c>
       <c r="D302">
-        <v>2.39</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4834,13 +4848,13 @@
         <v>44163</v>
       </c>
       <c r="B303">
-        <v>131.76</v>
+        <v>132.92</v>
       </c>
       <c r="C303">
         <v>110.6</v>
       </c>
       <c r="D303">
-        <v>19.14</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4848,13 +4862,13 @@
         <v>44164</v>
       </c>
       <c r="B304">
-        <v>141.5</v>
+        <v>143.1</v>
       </c>
       <c r="C304">
         <v>110.6</v>
       </c>
       <c r="D304">
-        <v>27.94</v>
+        <v>29.39</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4862,13 +4876,13 @@
         <v>44165</v>
       </c>
       <c r="B305">
-        <v>155.09</v>
+        <v>156.79</v>
       </c>
       <c r="C305">
         <v>110.6</v>
       </c>
       <c r="D305">
-        <v>40.23</v>
+        <v>41.77</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4876,13 +4890,13 @@
         <v>44166</v>
       </c>
       <c r="B306">
-        <v>161.01</v>
+        <v>158.92</v>
       </c>
       <c r="C306">
         <v>114.17</v>
       </c>
       <c r="D306">
-        <v>41.03</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4890,13 +4904,13 @@
         <v>44167</v>
       </c>
       <c r="B307">
-        <v>126.2</v>
+        <v>121.25</v>
       </c>
       <c r="C307">
         <v>114.17</v>
       </c>
       <c r="D307">
-        <v>10.54</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4904,13 +4918,13 @@
         <v>44168</v>
       </c>
       <c r="B308">
-        <v>114.11</v>
+        <v>114.91</v>
       </c>
       <c r="C308">
         <v>114.17</v>
       </c>
       <c r="D308">
-        <v>-0.05</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4918,13 +4932,13 @@
         <v>44169</v>
       </c>
       <c r="B309">
-        <v>114.53</v>
+        <v>117.42</v>
       </c>
       <c r="C309">
         <v>114.17</v>
       </c>
       <c r="D309">
-        <v>0.32</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4932,13 +4946,13 @@
         <v>44170</v>
       </c>
       <c r="B310">
-        <v>143.6</v>
+        <v>147.08</v>
       </c>
       <c r="C310">
         <v>114.17</v>
       </c>
       <c r="D310">
-        <v>25.79</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4946,13 +4960,13 @@
         <v>44171</v>
       </c>
       <c r="B311">
-        <v>172.56</v>
+        <v>174.86</v>
       </c>
       <c r="C311">
         <v>114.17</v>
       </c>
       <c r="D311">
-        <v>51.15</v>
+        <v>53.17</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4960,13 +4974,13 @@
         <v>44172</v>
       </c>
       <c r="B312">
-        <v>183.97</v>
+        <v>183.38</v>
       </c>
       <c r="C312">
         <v>114.17</v>
       </c>
       <c r="D312">
-        <v>61.14</v>
+        <v>60.62</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4974,13 +4988,13 @@
         <v>44173</v>
       </c>
       <c r="B313">
-        <v>179.21</v>
+        <v>180.68</v>
       </c>
       <c r="C313">
         <v>114.17</v>
       </c>
       <c r="D313">
-        <v>56.97</v>
+        <v>58.26</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4988,13 +5002,13 @@
         <v>44174</v>
       </c>
       <c r="B314">
-        <v>213.83</v>
+        <v>218.32</v>
       </c>
       <c r="C314">
         <v>114.17</v>
       </c>
       <c r="D314">
-        <v>87.3</v>
+        <v>91.23</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5002,13 +5016,13 @@
         <v>44175</v>
       </c>
       <c r="B315">
-        <v>216.4</v>
+        <v>214.3</v>
       </c>
       <c r="C315">
         <v>114.17</v>
       </c>
       <c r="D315">
-        <v>89.55</v>
+        <v>87.70999999999999</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5016,13 +5030,13 @@
         <v>44176</v>
       </c>
       <c r="B316">
-        <v>197.74</v>
+        <v>195.34</v>
       </c>
       <c r="C316">
         <v>114.17</v>
       </c>
       <c r="D316">
-        <v>73.2</v>
+        <v>71.11</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5030,13 +5044,13 @@
         <v>44177</v>
       </c>
       <c r="B317">
-        <v>178.79</v>
+        <v>176.05</v>
       </c>
       <c r="C317">
         <v>114.17</v>
       </c>
       <c r="D317">
-        <v>56.61</v>
+        <v>54.21</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5044,13 +5058,13 @@
         <v>44178</v>
       </c>
       <c r="B318">
-        <v>149.81</v>
+        <v>145.78</v>
       </c>
       <c r="C318">
         <v>114.17</v>
       </c>
       <c r="D318">
-        <v>31.22</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5058,13 +5072,13 @@
         <v>44179</v>
       </c>
       <c r="B319">
-        <v>127.18</v>
+        <v>126.88</v>
       </c>
       <c r="C319">
         <v>114.17</v>
       </c>
       <c r="D319">
-        <v>11.4</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5072,13 +5086,13 @@
         <v>44180</v>
       </c>
       <c r="B320">
-        <v>130.42</v>
+        <v>131.96</v>
       </c>
       <c r="C320">
         <v>114.17</v>
       </c>
       <c r="D320">
-        <v>14.23</v>
+        <v>15.59</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5086,13 +5100,13 @@
         <v>44181</v>
       </c>
       <c r="B321">
-        <v>150.97</v>
+        <v>155.1</v>
       </c>
       <c r="C321">
         <v>114.17</v>
       </c>
       <c r="D321">
-        <v>32.24</v>
+        <v>35.86</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5100,13 +5114,13 @@
         <v>44182</v>
       </c>
       <c r="B322">
-        <v>172.4</v>
+        <v>171.08</v>
       </c>
       <c r="C322">
         <v>114.17</v>
       </c>
       <c r="D322">
-        <v>51.01</v>
+        <v>49.86</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5114,13 +5128,13 @@
         <v>44183</v>
       </c>
       <c r="B323">
-        <v>163.53</v>
+        <v>163.4</v>
       </c>
       <c r="C323">
         <v>114.17</v>
       </c>
       <c r="D323">
-        <v>43.24</v>
+        <v>43.12</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5128,13 +5142,13 @@
         <v>44184</v>
       </c>
       <c r="B324">
-        <v>168.67</v>
+        <v>169.88</v>
       </c>
       <c r="C324">
         <v>114.17</v>
       </c>
       <c r="D324">
-        <v>47.74</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5142,13 +5156,13 @@
         <v>44185</v>
       </c>
       <c r="B325">
-        <v>173.15</v>
+        <v>172.2</v>
       </c>
       <c r="C325">
         <v>114.17</v>
       </c>
       <c r="D325">
-        <v>51.66</v>
+        <v>50.83</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5156,13 +5170,13 @@
         <v>44186</v>
       </c>
       <c r="B326">
-        <v>156.91</v>
+        <v>154.51</v>
       </c>
       <c r="C326">
         <v>114.17</v>
       </c>
       <c r="D326">
-        <v>37.44</v>
+        <v>35.34</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5170,13 +5184,13 @@
         <v>44187</v>
       </c>
       <c r="B327">
-        <v>144.78</v>
+        <v>144.25</v>
       </c>
       <c r="C327">
         <v>114.17</v>
       </c>
       <c r="D327">
-        <v>26.82</v>
+        <v>26.35</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -5198,13 +5212,13 @@
         <v>44189</v>
       </c>
       <c r="B329">
-        <v>140.3</v>
+        <v>139.12</v>
       </c>
       <c r="C329">
         <v>114.17</v>
       </c>
       <c r="D329">
-        <v>22.89</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5212,13 +5226,13 @@
         <v>44190</v>
       </c>
       <c r="B330">
-        <v>130.58</v>
+        <v>130.01</v>
       </c>
       <c r="C330">
         <v>114.17</v>
       </c>
       <c r="D330">
-        <v>14.38</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5226,13 +5240,13 @@
         <v>44191</v>
       </c>
       <c r="B331">
-        <v>129.21</v>
+        <v>129.23</v>
       </c>
       <c r="C331">
         <v>114.17</v>
       </c>
       <c r="D331">
-        <v>13.18</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5240,13 +5254,13 @@
         <v>44192</v>
       </c>
       <c r="B332">
-        <v>127.23</v>
+        <v>126.26</v>
       </c>
       <c r="C332">
         <v>114.17</v>
       </c>
       <c r="D332">
-        <v>11.44</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5254,13 +5268,13 @@
         <v>44193</v>
       </c>
       <c r="B333">
-        <v>118.08</v>
+        <v>118.47</v>
       </c>
       <c r="C333">
         <v>114.17</v>
       </c>
       <c r="D333">
-        <v>3.43</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5268,13 +5282,13 @@
         <v>44194</v>
       </c>
       <c r="B334">
-        <v>116.6</v>
+        <v>114.98</v>
       </c>
       <c r="C334">
         <v>114.17</v>
       </c>
       <c r="D334">
-        <v>2.14</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5282,13 +5296,13 @@
         <v>44195</v>
       </c>
       <c r="B335">
-        <v>120.67</v>
+        <v>123.01</v>
       </c>
       <c r="C335">
         <v>114.17</v>
       </c>
       <c r="D335">
-        <v>5.69</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5296,13 +5310,13 @@
         <v>44196</v>
       </c>
       <c r="B336">
-        <v>135.38</v>
+        <v>136.88</v>
       </c>
       <c r="C336">
         <v>114.17</v>
       </c>
       <c r="D336">
-        <v>18.58</v>
+        <v>19.89</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5310,13 +5324,13 @@
         <v>44197</v>
       </c>
       <c r="B337">
-        <v>149.36</v>
+        <v>151.58</v>
       </c>
       <c r="C337">
         <v>132.15</v>
       </c>
       <c r="D337">
-        <v>13.03</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5324,13 +5338,13 @@
         <v>44198</v>
       </c>
       <c r="B338">
-        <v>170.05</v>
+        <v>172.18</v>
       </c>
       <c r="C338">
         <v>132.15</v>
       </c>
       <c r="D338">
-        <v>28.68</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5338,13 +5352,13 @@
         <v>44199</v>
       </c>
       <c r="B339">
-        <v>171.4</v>
+        <v>168.95</v>
       </c>
       <c r="C339">
         <v>132.15</v>
       </c>
       <c r="D339">
-        <v>29.7</v>
+        <v>27.85</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5352,13 +5366,13 @@
         <v>44200</v>
       </c>
       <c r="B340">
-        <v>142.95</v>
+        <v>139.52</v>
       </c>
       <c r="C340">
         <v>132.15</v>
       </c>
       <c r="D340">
-        <v>8.17</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5366,13 +5380,13 @@
         <v>44201</v>
       </c>
       <c r="B341">
-        <v>127.64</v>
+        <v>128.86</v>
       </c>
       <c r="C341">
         <v>132.15</v>
       </c>
       <c r="D341">
-        <v>-3.42</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5380,13 +5394,13 @@
         <v>44202</v>
       </c>
       <c r="B342">
-        <v>136.49</v>
+        <v>134.88</v>
       </c>
       <c r="C342">
         <v>132.15</v>
       </c>
       <c r="D342">
-        <v>3.28</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5394,13 +5408,13 @@
         <v>44203</v>
       </c>
       <c r="B343">
-        <v>122.96</v>
+        <v>121.97</v>
       </c>
       <c r="C343">
         <v>132.15</v>
       </c>
       <c r="D343">
-        <v>-6.96</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5408,13 +5422,13 @@
         <v>44204</v>
       </c>
       <c r="B344">
-        <v>119.66</v>
+        <v>119.9</v>
       </c>
       <c r="C344">
         <v>132.15</v>
       </c>
       <c r="D344">
-        <v>-9.449999999999999</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5422,13 +5436,13 @@
         <v>44205</v>
       </c>
       <c r="B345">
-        <v>118.11</v>
+        <v>117.12</v>
       </c>
       <c r="C345">
         <v>132.15</v>
       </c>
       <c r="D345">
-        <v>-10.62</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5436,13 +5450,13 @@
         <v>44206</v>
       </c>
       <c r="B346">
-        <v>111.2</v>
+        <v>110.84</v>
       </c>
       <c r="C346">
         <v>132.15</v>
       </c>
       <c r="D346">
-        <v>-15.86</v>
+        <v>-16.12</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5450,13 +5464,13 @@
         <v>44207</v>
       </c>
       <c r="B347">
-        <v>109.99</v>
+        <v>109.68</v>
       </c>
       <c r="C347">
         <v>132.15</v>
       </c>
       <c r="D347">
-        <v>-16.77</v>
+        <v>-17.01</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5464,13 +5478,13 @@
         <v>44208</v>
       </c>
       <c r="B348">
-        <v>105.6</v>
+        <v>105.02</v>
       </c>
       <c r="C348">
         <v>132.15</v>
       </c>
       <c r="D348">
-        <v>-20.09</v>
+        <v>-20.53</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5478,13 +5492,13 @@
         <v>44209</v>
       </c>
       <c r="B349">
-        <v>103.49</v>
+        <v>103.65</v>
       </c>
       <c r="C349">
         <v>132.15</v>
       </c>
       <c r="D349">
-        <v>-21.69</v>
+        <v>-21.57</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5492,13 +5506,13 @@
         <v>44210</v>
       </c>
       <c r="B350">
-        <v>104.75</v>
+        <v>104.81</v>
       </c>
       <c r="C350">
         <v>132.15</v>
       </c>
       <c r="D350">
-        <v>-20.73</v>
+        <v>-20.69</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5506,13 +5520,13 @@
         <v>44211</v>
       </c>
       <c r="B351">
-        <v>104.46</v>
+        <v>104.42</v>
       </c>
       <c r="C351">
         <v>132.15</v>
       </c>
       <c r="D351">
-        <v>-20.96</v>
+        <v>-20.99</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5520,13 +5534,13 @@
         <v>44212</v>
       </c>
       <c r="B352">
-        <v>106.52</v>
+        <v>107.09</v>
       </c>
       <c r="C352">
         <v>132.15</v>
       </c>
       <c r="D352">
-        <v>-19.39</v>
+        <v>-18.96</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5534,13 +5548,13 @@
         <v>44213</v>
       </c>
       <c r="B353">
-        <v>111.58</v>
+        <v>113.38</v>
       </c>
       <c r="C353">
         <v>132.15</v>
       </c>
       <c r="D353">
-        <v>-15.56</v>
+        <v>-14.21</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5548,13 +5562,13 @@
         <v>44214</v>
       </c>
       <c r="B354">
-        <v>138.78</v>
+        <v>145.18</v>
       </c>
       <c r="C354">
         <v>132.15</v>
       </c>
       <c r="D354">
-        <v>5.02</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5562,13 +5576,13 @@
         <v>44215</v>
       </c>
       <c r="B355">
-        <v>178.85</v>
+        <v>179.54</v>
       </c>
       <c r="C355">
         <v>132.15</v>
       </c>
       <c r="D355">
-        <v>35.34</v>
+        <v>35.86</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5576,13 +5590,13 @@
         <v>44216</v>
       </c>
       <c r="B356">
-        <v>176.56</v>
+        <v>175.85</v>
       </c>
       <c r="C356">
         <v>132.15</v>
       </c>
       <c r="D356">
-        <v>33.61</v>
+        <v>33.07</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5590,13 +5604,13 @@
         <v>44217</v>
       </c>
       <c r="B357">
-        <v>196.16</v>
+        <v>201.51</v>
       </c>
       <c r="C357">
         <v>132.15</v>
       </c>
       <c r="D357">
-        <v>48.43</v>
+        <v>52.49</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5604,13 +5618,13 @@
         <v>44218</v>
       </c>
       <c r="B358">
-        <v>211.01</v>
+        <v>209.03</v>
       </c>
       <c r="C358">
         <v>132.15</v>
       </c>
       <c r="D358">
-        <v>59.67</v>
+        <v>58.18</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5618,13 +5632,13 @@
         <v>44219</v>
       </c>
       <c r="B359">
-        <v>193.44</v>
+        <v>191.14</v>
       </c>
       <c r="C359">
         <v>132.15</v>
       </c>
       <c r="D359">
-        <v>46.38</v>
+        <v>44.63</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5632,13 +5646,13 @@
         <v>44220</v>
       </c>
       <c r="B360">
-        <v>175.32</v>
+        <v>173.05</v>
       </c>
       <c r="C360">
         <v>132.15</v>
       </c>
       <c r="D360">
-        <v>32.67</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5646,13 +5660,13 @@
         <v>44221</v>
       </c>
       <c r="B361">
-        <v>155.07</v>
+        <v>152.68</v>
       </c>
       <c r="C361">
         <v>132.15</v>
       </c>
       <c r="D361">
-        <v>17.35</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5660,13 +5674,13 @@
         <v>44222</v>
       </c>
       <c r="B362">
-        <v>139.71</v>
+        <v>138.14</v>
       </c>
       <c r="C362">
         <v>132.15</v>
       </c>
       <c r="D362">
-        <v>5.72</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5674,13 +5688,13 @@
         <v>44223</v>
       </c>
       <c r="B363">
-        <v>130.2</v>
+        <v>129.64</v>
       </c>
       <c r="C363">
         <v>132.15</v>
       </c>
       <c r="D363">
-        <v>-1.48</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5688,13 +5702,13 @@
         <v>44224</v>
       </c>
       <c r="B364">
-        <v>135.45</v>
+        <v>139.52</v>
       </c>
       <c r="C364">
         <v>132.15</v>
       </c>
       <c r="D364">
-        <v>2.5</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5702,13 +5716,13 @@
         <v>44225</v>
       </c>
       <c r="B365">
-        <v>163.4</v>
+        <v>164.82</v>
       </c>
       <c r="C365">
         <v>132.15</v>
       </c>
       <c r="D365">
-        <v>23.64</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5716,13 +5730,13 @@
         <v>44226</v>
       </c>
       <c r="B366">
-        <v>173.93</v>
+        <v>173.56</v>
       </c>
       <c r="C366">
         <v>132.15</v>
       </c>
       <c r="D366">
-        <v>31.61</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5730,13 +5744,223 @@
         <v>44227</v>
       </c>
       <c r="B367">
-        <v>162.71</v>
+        <v>160.47</v>
       </c>
       <c r="C367">
         <v>132.15</v>
       </c>
       <c r="D367">
-        <v>23.12</v>
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B368">
+        <v>143.48</v>
+      </c>
+      <c r="C368">
+        <v>133.64</v>
+      </c>
+      <c r="D368">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44229</v>
+      </c>
+      <c r="B369">
+        <v>131.64</v>
+      </c>
+      <c r="C369">
+        <v>133.64</v>
+      </c>
+      <c r="D369">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44230</v>
+      </c>
+      <c r="B370">
+        <v>122.02</v>
+      </c>
+      <c r="C370">
+        <v>133.64</v>
+      </c>
+      <c r="D370">
+        <v>-8.699999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B371">
+        <v>124.19</v>
+      </c>
+      <c r="C371">
+        <v>133.64</v>
+      </c>
+      <c r="D371">
+        <v>-7.08</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B372">
+        <v>172.38</v>
+      </c>
+      <c r="C372">
+        <v>133.64</v>
+      </c>
+      <c r="D372">
+        <v>28.98</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B373">
+        <v>178.33</v>
+      </c>
+      <c r="C373">
+        <v>133.64</v>
+      </c>
+      <c r="D373">
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B374">
+        <v>173.14</v>
+      </c>
+      <c r="C374">
+        <v>133.64</v>
+      </c>
+      <c r="D374">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B375">
+        <v>172.26</v>
+      </c>
+      <c r="C375">
+        <v>133.64</v>
+      </c>
+      <c r="D375">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B376">
+        <v>158.59</v>
+      </c>
+      <c r="C376">
+        <v>133.64</v>
+      </c>
+      <c r="D376">
+        <v>18.67</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B377">
+        <v>122.06</v>
+      </c>
+      <c r="C377">
+        <v>133.64</v>
+      </c>
+      <c r="D377">
+        <v>-8.67</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B378">
+        <v>110.2</v>
+      </c>
+      <c r="C378">
+        <v>133.64</v>
+      </c>
+      <c r="D378">
+        <v>-17.54</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B379">
+        <v>110.67</v>
+      </c>
+      <c r="C379">
+        <v>133.64</v>
+      </c>
+      <c r="D379">
+        <v>-17.19</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B380">
+        <v>116.28</v>
+      </c>
+      <c r="C380">
+        <v>133.64</v>
+      </c>
+      <c r="D380">
+        <v>-12.99</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B381">
+        <v>109.77</v>
+      </c>
+      <c r="C381">
+        <v>133.64</v>
+      </c>
+      <c r="D381">
+        <v>-17.86</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B382">
+        <v>111.99</v>
+      </c>
+      <c r="C382">
+        <v>133.64</v>
+      </c>
+      <c r="D382">
+        <v>-16.2</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -417,184 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43890</v>
+        <v>44012</v>
       </c>
       <c r="B2">
-        <v>116.19</v>
+        <v>84.08</v>
       </c>
       <c r="C2">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D2">
-        <v>-13.06</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43921</v>
+        <v>44043</v>
       </c>
       <c r="B3">
-        <v>92.19</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="C3">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D3">
-        <v>-18.96</v>
+        <v>-30.53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43951</v>
+        <v>44074</v>
       </c>
       <c r="B4">
-        <v>66.45</v>
+        <v>103.71</v>
       </c>
       <c r="C4">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D4">
-        <v>-32.85</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43982</v>
+        <v>44104</v>
       </c>
       <c r="B5">
-        <v>57.24</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="C5">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D5">
-        <v>-42.72</v>
+        <v>-19.41</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44012</v>
+        <v>44135</v>
       </c>
       <c r="B6">
-        <v>84.08</v>
+        <v>88.81</v>
       </c>
       <c r="C6">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D6">
-        <v>-37</v>
+        <v>-24.99</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44043</v>
+        <v>44165</v>
       </c>
       <c r="B7">
-        <v>72.34999999999999</v>
+        <v>118.3</v>
       </c>
       <c r="C7">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D7">
-        <v>-30.53</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44074</v>
+        <v>44196</v>
       </c>
       <c r="B8">
-        <v>103.71</v>
+        <v>151.59</v>
       </c>
       <c r="C8">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D8">
-        <v>20.01</v>
+        <v>32.78</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44104</v>
+        <v>44227</v>
       </c>
       <c r="B9">
-        <v>76.15000000000001</v>
+        <v>143.48</v>
       </c>
       <c r="C9">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D9">
-        <v>-19.41</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44135</v>
+        <v>44255</v>
       </c>
       <c r="B10">
-        <v>88.81</v>
+        <v>122.91</v>
       </c>
       <c r="C10">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D10">
-        <v>-24.99</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44165</v>
+        <v>44286</v>
       </c>
       <c r="B11">
-        <v>118.3</v>
+        <v>156.28</v>
       </c>
       <c r="C11">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D11">
-        <v>6.97</v>
+        <v>37.37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44196</v>
+        <v>44316</v>
       </c>
       <c r="B12">
-        <v>151.59</v>
+        <v>94.36</v>
       </c>
       <c r="C12">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D12">
-        <v>32.78</v>
+        <v>-4.65</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44227</v>
+        <v>44347</v>
       </c>
       <c r="B13">
-        <v>143.48</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="C13">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D13">
-        <v>8.58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B14">
-        <v>137.13</v>
-      </c>
-      <c r="C14">
-        <v>133.64</v>
-      </c>
-      <c r="D14">
-        <v>2.61</v>
+        <v>-6.15</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -631,5336 +617,5112 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="B2">
-        <v>73.39</v>
+        <v>56.71</v>
       </c>
       <c r="C2">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D2">
-        <v>-45.09</v>
+        <v>-57.51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43863</v>
+        <v>43984</v>
       </c>
       <c r="B3">
-        <v>77.39</v>
+        <v>58.68</v>
       </c>
       <c r="C3">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D3">
-        <v>-42.1</v>
+        <v>-56.03</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43864</v>
+        <v>43985</v>
       </c>
       <c r="B4">
-        <v>79.95999999999999</v>
+        <v>59.36</v>
       </c>
       <c r="C4">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D4">
-        <v>-40.17</v>
+        <v>-55.52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43865</v>
+        <v>43986</v>
       </c>
       <c r="B5">
-        <v>88.06</v>
+        <v>63.59</v>
       </c>
       <c r="C5">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D5">
-        <v>-34.11</v>
+        <v>-52.35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43866</v>
+        <v>43987</v>
       </c>
       <c r="B6">
-        <v>96.93000000000001</v>
+        <v>62.3</v>
       </c>
       <c r="C6">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D6">
-        <v>-27.47</v>
+        <v>-53.32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43867</v>
+        <v>43988</v>
       </c>
       <c r="B7">
-        <v>91.58</v>
+        <v>65.33</v>
       </c>
       <c r="C7">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D7">
-        <v>-31.47</v>
+        <v>-51.05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43868</v>
+        <v>43989</v>
       </c>
       <c r="B8">
-        <v>106.21</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C8">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D8">
-        <v>-20.53</v>
+        <v>-48.75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43869</v>
+        <v>43990</v>
       </c>
       <c r="B9">
-        <v>117.03</v>
+        <v>71.23</v>
       </c>
       <c r="C9">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D9">
-        <v>-12.43</v>
+        <v>-46.63</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43870</v>
+        <v>43991</v>
       </c>
       <c r="B10">
-        <v>134.25</v>
+        <v>71.38</v>
       </c>
       <c r="C10">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D10">
-        <v>0.45</v>
+        <v>-46.52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43871</v>
+        <v>43992</v>
       </c>
       <c r="B11">
-        <v>178.97</v>
+        <v>127.99</v>
       </c>
       <c r="C11">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D11">
-        <v>33.92</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43872</v>
+        <v>43993</v>
       </c>
       <c r="B12">
-        <v>210.43</v>
+        <v>140.16</v>
       </c>
       <c r="C12">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D12">
-        <v>57.45</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43873</v>
+        <v>43994</v>
       </c>
       <c r="B13">
-        <v>198.44</v>
+        <v>133.78</v>
       </c>
       <c r="C13">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D13">
-        <v>48.48</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43874</v>
+        <v>43995</v>
       </c>
       <c r="B14">
-        <v>185.47</v>
+        <v>135.62</v>
       </c>
       <c r="C14">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D14">
-        <v>38.78</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43875</v>
+        <v>43996</v>
       </c>
       <c r="B15">
-        <v>167.69</v>
+        <v>123.58</v>
       </c>
       <c r="C15">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D15">
-        <v>25.47</v>
+        <v>-7.4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43876</v>
+        <v>43997</v>
       </c>
       <c r="B16">
-        <v>136.5</v>
+        <v>88.09</v>
       </c>
       <c r="C16">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D16">
-        <v>2.14</v>
+        <v>-33.99</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43877</v>
+        <v>43998</v>
       </c>
       <c r="B17">
-        <v>112.81</v>
+        <v>83.12</v>
       </c>
       <c r="C17">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D17">
-        <v>-15.59</v>
+        <v>-37.72</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43878</v>
+        <v>43999</v>
       </c>
       <c r="B18">
-        <v>101.85</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="C18">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D18">
-        <v>-23.79</v>
+        <v>-36.87</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43879</v>
+        <v>44000</v>
       </c>
       <c r="B19">
-        <v>95.11</v>
+        <v>82.09</v>
       </c>
       <c r="C19">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D19">
-        <v>-28.83</v>
+        <v>-38.49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43880</v>
+        <v>44001</v>
       </c>
       <c r="B20">
-        <v>94.56</v>
+        <v>81.25</v>
       </c>
       <c r="C20">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D20">
-        <v>-29.24</v>
+        <v>-39.12</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43881</v>
+        <v>44002</v>
       </c>
       <c r="B21">
-        <v>92.34</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="C21">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D21">
-        <v>-30.9</v>
+        <v>-45.69</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43882</v>
+        <v>44003</v>
       </c>
       <c r="B22">
-        <v>90.12</v>
+        <v>67.66</v>
       </c>
       <c r="C22">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D22">
-        <v>-32.56</v>
+        <v>-49.31</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43883</v>
+        <v>44004</v>
       </c>
       <c r="B23">
-        <v>88.75</v>
+        <v>66.05</v>
       </c>
       <c r="C23">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D23">
-        <v>-33.59</v>
+        <v>-50.51</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43884</v>
+        <v>44005</v>
       </c>
       <c r="B24">
-        <v>92.97</v>
+        <v>63.68</v>
       </c>
       <c r="C24">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D24">
-        <v>-30.44</v>
+        <v>-52.29</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43885</v>
+        <v>44006</v>
       </c>
       <c r="B25">
-        <v>93.59</v>
+        <v>61.77</v>
       </c>
       <c r="C25">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D25">
-        <v>-29.97</v>
+        <v>-53.72</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43886</v>
+        <v>44007</v>
       </c>
       <c r="B26">
-        <v>93.20999999999999</v>
+        <v>61.94</v>
       </c>
       <c r="C26">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D26">
-        <v>-30.26</v>
+        <v>-53.59</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43887</v>
+        <v>44008</v>
       </c>
       <c r="B27">
-        <v>110.54</v>
+        <v>67.34</v>
       </c>
       <c r="C27">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D27">
-        <v>-17.29</v>
+        <v>-49.54</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43888</v>
+        <v>44009</v>
       </c>
       <c r="B28">
-        <v>123.07</v>
+        <v>93.56</v>
       </c>
       <c r="C28">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D28">
-        <v>-7.91</v>
+        <v>-29.9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43889</v>
+        <v>44010</v>
       </c>
       <c r="B29">
-        <v>119.7</v>
+        <v>101.07</v>
       </c>
       <c r="C29">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D29">
-        <v>-10.43</v>
+        <v>-24.27</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43890</v>
+        <v>44011</v>
       </c>
       <c r="B30">
-        <v>118.47</v>
+        <v>109.56</v>
       </c>
       <c r="C30">
-        <v>133.64</v>
+        <v>133.46</v>
       </c>
       <c r="D30">
-        <v>-11.35</v>
+        <v>-17.91</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43891</v>
+        <v>44012</v>
       </c>
       <c r="B31">
-        <v>104.76</v>
+        <v>100.33</v>
       </c>
       <c r="C31">
-        <v>113.77</v>
+        <v>133.46</v>
       </c>
       <c r="D31">
-        <v>-7.92</v>
+        <v>-24.83</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43892</v>
+        <v>44013</v>
       </c>
       <c r="B32">
-        <v>96.55</v>
+        <v>111.83</v>
       </c>
       <c r="C32">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D32">
-        <v>-15.13</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43893</v>
+        <v>44014</v>
       </c>
       <c r="B33">
-        <v>99.33</v>
+        <v>112.91</v>
       </c>
       <c r="C33">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D33">
-        <v>-12.69</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43894</v>
+        <v>44015</v>
       </c>
       <c r="B34">
-        <v>108.07</v>
+        <v>105.15</v>
       </c>
       <c r="C34">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D34">
-        <v>-5.01</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43895</v>
+        <v>44016</v>
       </c>
       <c r="B35">
-        <v>115.14</v>
+        <v>85.3</v>
       </c>
       <c r="C35">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D35">
-        <v>1.2</v>
+        <v>-18.09</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43896</v>
+        <v>44017</v>
       </c>
       <c r="B36">
-        <v>112.6</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="C36">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D36">
-        <v>-1.02</v>
+        <v>-25.14</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43897</v>
+        <v>44018</v>
       </c>
       <c r="B37">
-        <v>97.44</v>
+        <v>74.64</v>
       </c>
       <c r="C37">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D37">
-        <v>-14.35</v>
+        <v>-28.34</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43898</v>
+        <v>44019</v>
       </c>
       <c r="B38">
-        <v>91.68000000000001</v>
+        <v>74.45</v>
       </c>
       <c r="C38">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D38">
-        <v>-19.42</v>
+        <v>-28.52</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43899</v>
+        <v>44020</v>
       </c>
       <c r="B39">
-        <v>88.52</v>
+        <v>74.22</v>
       </c>
       <c r="C39">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D39">
-        <v>-22.19</v>
+        <v>-28.74</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43900</v>
+        <v>44021</v>
       </c>
       <c r="B40">
-        <v>85.61</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C40">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D40">
-        <v>-24.75</v>
+        <v>-29.53</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43901</v>
+        <v>44022</v>
       </c>
       <c r="B41">
-        <v>82.77</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C41">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D41">
-        <v>-27.25</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43902</v>
+        <v>44023</v>
       </c>
       <c r="B42">
-        <v>80.26000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C42">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D42">
-        <v>-29.45</v>
+        <v>-35.38</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43903</v>
+        <v>44024</v>
       </c>
       <c r="B43">
-        <v>76.89</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C43">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D43">
-        <v>-32.42</v>
+        <v>-36.43</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43904</v>
+        <v>44025</v>
       </c>
       <c r="B44">
-        <v>74.52</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="C44">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D44">
-        <v>-34.5</v>
+        <v>-37.55</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43905</v>
+        <v>44026</v>
       </c>
       <c r="B45">
-        <v>75.94</v>
+        <v>63.84</v>
       </c>
       <c r="C45">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D45">
-        <v>-33.25</v>
+        <v>-38.7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43906</v>
+        <v>44027</v>
       </c>
       <c r="B46">
-        <v>100.98</v>
+        <v>61.53</v>
       </c>
       <c r="C46">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D46">
-        <v>-11.24</v>
+        <v>-40.92</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43907</v>
+        <v>44028</v>
       </c>
       <c r="B47">
-        <v>103.27</v>
+        <v>61.94</v>
       </c>
       <c r="C47">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D47">
-        <v>-9.23</v>
+        <v>-40.53</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43908</v>
+        <v>44029</v>
       </c>
       <c r="B48">
-        <v>92.79000000000001</v>
+        <v>61.65</v>
       </c>
       <c r="C48">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D48">
-        <v>-18.44</v>
+        <v>-40.81</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43909</v>
+        <v>44030</v>
       </c>
       <c r="B49">
-        <v>89.90000000000001</v>
+        <v>62.33</v>
       </c>
       <c r="C49">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D49">
-        <v>-20.98</v>
+        <v>-40.15</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43910</v>
+        <v>44031</v>
       </c>
       <c r="B50">
-        <v>95.47</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="C50">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D50">
-        <v>-16.08</v>
+        <v>-38.14</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43911</v>
+        <v>44032</v>
       </c>
       <c r="B51">
-        <v>108.03</v>
+        <v>62.27</v>
       </c>
       <c r="C51">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D51">
-        <v>-5.04</v>
+        <v>-40.21</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43912</v>
+        <v>44033</v>
       </c>
       <c r="B52">
-        <v>103.2</v>
+        <v>63.4</v>
       </c>
       <c r="C52">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D52">
-        <v>-9.289999999999999</v>
+        <v>-39.13</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43913</v>
+        <v>44034</v>
       </c>
       <c r="B53">
-        <v>89.25</v>
+        <v>60.67</v>
       </c>
       <c r="C53">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D53">
-        <v>-21.55</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43914</v>
+        <v>44035</v>
       </c>
       <c r="B54">
-        <v>84.77</v>
+        <v>58.45</v>
       </c>
       <c r="C54">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D54">
-        <v>-25.49</v>
+        <v>-43.88</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43915</v>
+        <v>44036</v>
       </c>
       <c r="B55">
-        <v>88.45</v>
+        <v>58.1</v>
       </c>
       <c r="C55">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D55">
-        <v>-22.26</v>
+        <v>-44.21</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43916</v>
+        <v>44037</v>
       </c>
       <c r="B56">
-        <v>100.82</v>
+        <v>58.45</v>
       </c>
       <c r="C56">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D56">
-        <v>-11.38</v>
+        <v>-43.88</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43917</v>
+        <v>44038</v>
       </c>
       <c r="B57">
-        <v>94.65000000000001</v>
+        <v>59.88</v>
       </c>
       <c r="C57">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D57">
-        <v>-16.81</v>
+        <v>-42.51</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43918</v>
+        <v>44039</v>
       </c>
       <c r="B58">
-        <v>82.75</v>
+        <v>59.64</v>
       </c>
       <c r="C58">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D58">
-        <v>-27.26</v>
+        <v>-42.74</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43919</v>
+        <v>44040</v>
       </c>
       <c r="B59">
-        <v>78.89</v>
+        <v>57.74</v>
       </c>
       <c r="C59">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D59">
-        <v>-30.66</v>
+        <v>-44.56</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43920</v>
+        <v>44041</v>
       </c>
       <c r="B60">
-        <v>77.90000000000001</v>
+        <v>78.15000000000001</v>
       </c>
       <c r="C60">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D60">
-        <v>-31.53</v>
+        <v>-24.96</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43921</v>
+        <v>44042</v>
       </c>
       <c r="B61">
-        <v>76.81</v>
+        <v>93.19</v>
       </c>
       <c r="C61">
-        <v>113.77</v>
+        <v>104.15</v>
       </c>
       <c r="D61">
-        <v>-32.48</v>
+        <v>-10.52</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43922</v>
+        <v>44043</v>
       </c>
       <c r="B62">
-        <v>74.7</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="C62">
-        <v>98.95999999999999</v>
+        <v>104.15</v>
       </c>
       <c r="D62">
-        <v>-24.51</v>
+        <v>-4.23</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43923</v>
+        <v>44044</v>
       </c>
       <c r="B63">
-        <v>73.67</v>
+        <v>85.78</v>
       </c>
       <c r="C63">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D63">
-        <v>-25.56</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43924</v>
+        <v>44045</v>
       </c>
       <c r="B64">
-        <v>70.59</v>
+        <v>91.14</v>
       </c>
       <c r="C64">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D64">
-        <v>-28.66</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43925</v>
+        <v>44046</v>
       </c>
       <c r="B65">
-        <v>67.43000000000001</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="C65">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D65">
-        <v>-31.86</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43926</v>
+        <v>44047</v>
       </c>
       <c r="B66">
-        <v>65.97</v>
+        <v>73.47</v>
       </c>
       <c r="C66">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D66">
-        <v>-33.33</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43927</v>
+        <v>44048</v>
       </c>
       <c r="B67">
-        <v>68.12</v>
+        <v>64.92</v>
       </c>
       <c r="C67">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D67">
-        <v>-31.16</v>
+        <v>-24.89</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43928</v>
+        <v>44049</v>
       </c>
       <c r="B68">
-        <v>78.23</v>
+        <v>62.01</v>
       </c>
       <c r="C68">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D68">
-        <v>-20.95</v>
+        <v>-28.25</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43929</v>
+        <v>44050</v>
       </c>
       <c r="B69">
-        <v>79.34</v>
+        <v>60.24</v>
       </c>
       <c r="C69">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D69">
-        <v>-19.82</v>
+        <v>-30.3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43930</v>
+        <v>44051</v>
       </c>
       <c r="B70">
-        <v>77.2</v>
+        <v>55.46</v>
       </c>
       <c r="C70">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D70">
-        <v>-21.99</v>
+        <v>-35.83</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43931</v>
+        <v>44052</v>
       </c>
       <c r="B71">
-        <v>73.16</v>
+        <v>58.16</v>
       </c>
       <c r="C71">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D71">
-        <v>-26.07</v>
+        <v>-32.71</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43932</v>
+        <v>44053</v>
       </c>
       <c r="B72">
-        <v>69.08</v>
+        <v>58.94</v>
       </c>
       <c r="C72">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D72">
-        <v>-30.19</v>
+        <v>-31.8</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43933</v>
+        <v>44054</v>
       </c>
       <c r="B73">
-        <v>65.78</v>
+        <v>58.2</v>
       </c>
       <c r="C73">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D73">
-        <v>-33.52</v>
+        <v>-32.66</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43934</v>
+        <v>44055</v>
       </c>
       <c r="B74">
-        <v>65.12</v>
+        <v>60.7</v>
       </c>
       <c r="C74">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D74">
-        <v>-34.19</v>
+        <v>-29.77</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43935</v>
+        <v>44056</v>
       </c>
       <c r="B75">
-        <v>66.23999999999999</v>
+        <v>58.71</v>
       </c>
       <c r="C75">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D75">
-        <v>-33.06</v>
+        <v>-32.07</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43936</v>
+        <v>44057</v>
       </c>
       <c r="B76">
-        <v>65.14</v>
+        <v>61.49</v>
       </c>
       <c r="C76">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D76">
-        <v>-34.18</v>
+        <v>-28.85</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43937</v>
+        <v>44058</v>
       </c>
       <c r="B77">
-        <v>64.66</v>
+        <v>94.64</v>
       </c>
       <c r="C77">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D77">
-        <v>-34.66</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43938</v>
+        <v>44059</v>
       </c>
       <c r="B78">
-        <v>63.38</v>
+        <v>138.78</v>
       </c>
       <c r="C78">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D78">
-        <v>-35.96</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43939</v>
+        <v>44060</v>
       </c>
       <c r="B79">
-        <v>61.9</v>
+        <v>136.85</v>
       </c>
       <c r="C79">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D79">
-        <v>-37.45</v>
+        <v>58.35</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43940</v>
+        <v>44061</v>
       </c>
       <c r="B80">
-        <v>61.06</v>
+        <v>148.99</v>
       </c>
       <c r="C80">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D80">
-        <v>-38.29</v>
+        <v>72.39</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43941</v>
+        <v>44062</v>
       </c>
       <c r="B81">
-        <v>62.07</v>
+        <v>174.34</v>
       </c>
       <c r="C81">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D81">
-        <v>-37.27</v>
+        <v>101.73</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43942</v>
+        <v>44063</v>
       </c>
       <c r="B82">
-        <v>63.12</v>
+        <v>190.33</v>
       </c>
       <c r="C82">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D82">
-        <v>-36.21</v>
+        <v>120.23</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43943</v>
+        <v>44064</v>
       </c>
       <c r="B83">
-        <v>62.85</v>
+        <v>186.71</v>
       </c>
       <c r="C83">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D83">
-        <v>-36.48</v>
+        <v>116.04</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43944</v>
+        <v>44065</v>
       </c>
       <c r="B84">
-        <v>62.24</v>
+        <v>179.1</v>
       </c>
       <c r="C84">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D84">
-        <v>-37.1</v>
+        <v>107.24</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43945</v>
+        <v>44066</v>
       </c>
       <c r="B85">
-        <v>63.42</v>
+        <v>177.72</v>
       </c>
       <c r="C85">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D85">
-        <v>-35.91</v>
+        <v>105.64</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43946</v>
+        <v>44067</v>
       </c>
       <c r="B86">
-        <v>62.6</v>
+        <v>174.61</v>
       </c>
       <c r="C86">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D86">
-        <v>-36.74</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43947</v>
+        <v>44068</v>
       </c>
       <c r="B87">
-        <v>63</v>
+        <v>147.24</v>
       </c>
       <c r="C87">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D87">
-        <v>-36.34</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43948</v>
+        <v>44069</v>
       </c>
       <c r="B88">
-        <v>61.97</v>
+        <v>105.73</v>
       </c>
       <c r="C88">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D88">
-        <v>-37.38</v>
+        <v>22.34</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43949</v>
+        <v>44070</v>
       </c>
       <c r="B89">
-        <v>60.23</v>
+        <v>94.2</v>
       </c>
       <c r="C89">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D89">
-        <v>-39.14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43950</v>
+        <v>44071</v>
       </c>
       <c r="B90">
-        <v>60.25</v>
+        <v>87.5</v>
       </c>
       <c r="C90">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D90">
-        <v>-39.11</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43951</v>
+        <v>44072</v>
       </c>
       <c r="B91">
-        <v>60.86</v>
+        <v>83.58</v>
       </c>
       <c r="C91">
-        <v>98.95999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="D91">
-        <v>-38.49</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43952</v>
+        <v>44073</v>
       </c>
       <c r="B92">
-        <v>60.64</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="C92">
-        <v>99.93000000000001</v>
+        <v>86.42</v>
       </c>
       <c r="D92">
-        <v>-39.32</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43953</v>
+        <v>44074</v>
       </c>
       <c r="B93">
-        <v>57.43</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="C93">
-        <v>99.93000000000001</v>
+        <v>86.42</v>
       </c>
       <c r="D93">
-        <v>-42.53</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43954</v>
+        <v>44075</v>
       </c>
       <c r="B94">
-        <v>58.17</v>
+        <v>77.5</v>
       </c>
       <c r="C94">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D94">
-        <v>-41.79</v>
+        <v>-17.98</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43955</v>
+        <v>44076</v>
       </c>
       <c r="B95">
-        <v>59.82</v>
+        <v>81.58</v>
       </c>
       <c r="C95">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D95">
-        <v>-40.14</v>
+        <v>-13.66</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43956</v>
+        <v>44077</v>
       </c>
       <c r="B96">
-        <v>57.51</v>
+        <v>91.84</v>
       </c>
       <c r="C96">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D96">
-        <v>-42.45</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43957</v>
+        <v>44078</v>
       </c>
       <c r="B97">
-        <v>55.59</v>
+        <v>106.82</v>
       </c>
       <c r="C97">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D97">
-        <v>-44.37</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43958</v>
+        <v>44079</v>
       </c>
       <c r="B98">
-        <v>56.24</v>
+        <v>106.64</v>
       </c>
       <c r="C98">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D98">
-        <v>-43.72</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43959</v>
+        <v>44080</v>
       </c>
       <c r="B99">
-        <v>56.69</v>
+        <v>87.47</v>
       </c>
       <c r="C99">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D99">
-        <v>-43.27</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43960</v>
+        <v>44081</v>
       </c>
       <c r="B100">
-        <v>58.01</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="C100">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D100">
-        <v>-41.95</v>
+        <v>-13.56</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43961</v>
+        <v>44082</v>
       </c>
       <c r="B101">
-        <v>57.03</v>
+        <v>78.05</v>
       </c>
       <c r="C101">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D101">
-        <v>-42.93</v>
+        <v>-17.39</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43962</v>
+        <v>44083</v>
       </c>
       <c r="B102">
-        <v>58.48</v>
+        <v>76.84</v>
       </c>
       <c r="C102">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D102">
-        <v>-41.48</v>
+        <v>-18.67</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43963</v>
+        <v>44084</v>
       </c>
       <c r="B103">
-        <v>61.67</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="C103">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D103">
-        <v>-38.29</v>
+        <v>-23.49</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43964</v>
+        <v>44085</v>
       </c>
       <c r="B104">
-        <v>56.12</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="C104">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D104">
-        <v>-43.84</v>
+        <v>-25.17</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43965</v>
+        <v>44086</v>
       </c>
       <c r="B105">
-        <v>54.81</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C105">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D105">
-        <v>-45.15</v>
+        <v>-27.92</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43966</v>
+        <v>44087</v>
       </c>
       <c r="B106">
-        <v>55.96</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="C106">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D106">
-        <v>-44</v>
+        <v>-28.78</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43967</v>
+        <v>44088</v>
       </c>
       <c r="B107">
-        <v>56.2</v>
+        <v>68.28</v>
       </c>
       <c r="C107">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D107">
-        <v>-43.76</v>
+        <v>-27.74</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43968</v>
+        <v>44089</v>
       </c>
       <c r="B108">
-        <v>57.53</v>
+        <v>66.16</v>
       </c>
       <c r="C108">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D108">
-        <v>-42.43</v>
+        <v>-29.98</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43969</v>
+        <v>44090</v>
       </c>
       <c r="B109">
-        <v>58.2</v>
+        <v>62.6</v>
       </c>
       <c r="C109">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D109">
-        <v>-41.76</v>
+        <v>-33.74</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43970</v>
+        <v>44091</v>
       </c>
       <c r="B110">
-        <v>58.67</v>
+        <v>64.53</v>
       </c>
       <c r="C110">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D110">
-        <v>-41.29</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43971</v>
+        <v>44092</v>
       </c>
       <c r="B111">
-        <v>59.88</v>
+        <v>64.59</v>
       </c>
       <c r="C111">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D111">
-        <v>-40.08</v>
+        <v>-31.64</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43972</v>
+        <v>44093</v>
       </c>
       <c r="B112">
-        <v>59.49</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="C112">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D112">
-        <v>-40.47</v>
+        <v>-31.89</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43973</v>
+        <v>44094</v>
       </c>
       <c r="B113">
-        <v>59.65</v>
+        <v>63.04</v>
       </c>
       <c r="C113">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D113">
-        <v>-40.31</v>
+        <v>-33.28</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43974</v>
+        <v>44095</v>
       </c>
       <c r="B114">
-        <v>61.54</v>
+        <v>61.26</v>
       </c>
       <c r="C114">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D114">
-        <v>-38.42</v>
+        <v>-35.17</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43975</v>
+        <v>44096</v>
       </c>
       <c r="B115">
-        <v>57.79</v>
+        <v>61.96</v>
       </c>
       <c r="C115">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D115">
-        <v>-42.17</v>
+        <v>-34.43</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43976</v>
+        <v>44097</v>
       </c>
       <c r="B116">
-        <v>57.28</v>
+        <v>65.56</v>
       </c>
       <c r="C116">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D116">
-        <v>-42.68</v>
+        <v>-30.61</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43977</v>
+        <v>44098</v>
       </c>
       <c r="B117">
-        <v>54.9</v>
+        <v>65.52</v>
       </c>
       <c r="C117">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D117">
-        <v>-45.07</v>
+        <v>-30.66</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43978</v>
+        <v>44099</v>
       </c>
       <c r="B118">
-        <v>54.39</v>
+        <v>63.72</v>
       </c>
       <c r="C118">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D118">
-        <v>-45.58</v>
+        <v>-32.56</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43979</v>
+        <v>44100</v>
       </c>
       <c r="B119">
-        <v>54.62</v>
+        <v>64.36</v>
       </c>
       <c r="C119">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D119">
-        <v>-45.34</v>
+        <v>-31.88</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43980</v>
+        <v>44101</v>
       </c>
       <c r="B120">
-        <v>53.88</v>
+        <v>62.83</v>
       </c>
       <c r="C120">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D120">
-        <v>-46.09</v>
+        <v>-33.5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43981</v>
+        <v>44102</v>
       </c>
       <c r="B121">
-        <v>54.48</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="C121">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D121">
-        <v>-45.48</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43982</v>
+        <v>44103</v>
       </c>
       <c r="B122">
-        <v>51.92</v>
+        <v>108.8</v>
       </c>
       <c r="C122">
-        <v>99.93000000000001</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D122">
-        <v>-48.05</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43983</v>
+        <v>44104</v>
       </c>
       <c r="B123">
-        <v>56.71</v>
+        <v>117.06</v>
       </c>
       <c r="C123">
-        <v>133.46</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D123">
-        <v>-57.51</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43984</v>
+        <v>44105</v>
       </c>
       <c r="B124">
-        <v>58.68</v>
+        <v>110.98</v>
       </c>
       <c r="C124">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D124">
-        <v>-56.03</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43985</v>
+        <v>44106</v>
       </c>
       <c r="B125">
-        <v>59.36</v>
+        <v>93.73</v>
       </c>
       <c r="C125">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D125">
-        <v>-55.52</v>
+        <v>-20.84</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43986</v>
+        <v>44107</v>
       </c>
       <c r="B126">
-        <v>63.59</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="C126">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D126">
-        <v>-52.35</v>
+        <v>-24.37</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43987</v>
+        <v>44108</v>
       </c>
       <c r="B127">
-        <v>62.3</v>
+        <v>83.89</v>
       </c>
       <c r="C127">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D127">
-        <v>-53.32</v>
+        <v>-29.15</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43988</v>
+        <v>44109</v>
       </c>
       <c r="B128">
-        <v>65.33</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C128">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D128">
-        <v>-51.05</v>
+        <v>-29.41</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43989</v>
+        <v>44110</v>
       </c>
       <c r="B129">
-        <v>68.40000000000001</v>
+        <v>87.34</v>
       </c>
       <c r="C129">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D129">
-        <v>-48.75</v>
+        <v>-26.23</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43990</v>
+        <v>44111</v>
       </c>
       <c r="B130">
-        <v>71.23</v>
+        <v>99.7</v>
       </c>
       <c r="C130">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D130">
-        <v>-46.63</v>
+        <v>-15.8</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43991</v>
+        <v>44112</v>
       </c>
       <c r="B131">
-        <v>71.38</v>
+        <v>103.88</v>
       </c>
       <c r="C131">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D131">
-        <v>-46.52</v>
+        <v>-12.27</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43992</v>
+        <v>44113</v>
       </c>
       <c r="B132">
-        <v>127.99</v>
+        <v>120.94</v>
       </c>
       <c r="C132">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D132">
-        <v>-4.1</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43993</v>
+        <v>44114</v>
       </c>
       <c r="B133">
-        <v>140.16</v>
+        <v>127.96</v>
       </c>
       <c r="C133">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D133">
-        <v>5.02</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43994</v>
+        <v>44115</v>
       </c>
       <c r="B134">
-        <v>133.78</v>
+        <v>124.85</v>
       </c>
       <c r="C134">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D134">
-        <v>0.24</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43995</v>
+        <v>44116</v>
       </c>
       <c r="B135">
-        <v>135.62</v>
+        <v>120.96</v>
       </c>
       <c r="C135">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D135">
-        <v>1.62</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43996</v>
+        <v>44117</v>
       </c>
       <c r="B136">
-        <v>123.58</v>
+        <v>100.17</v>
       </c>
       <c r="C136">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D136">
-        <v>-7.4</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43997</v>
+        <v>44118</v>
       </c>
       <c r="B137">
-        <v>88.09</v>
+        <v>87.8</v>
       </c>
       <c r="C137">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D137">
-        <v>-33.99</v>
+        <v>-25.84</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43998</v>
+        <v>44119</v>
       </c>
       <c r="B138">
-        <v>83.12</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="C138">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D138">
-        <v>-37.72</v>
+        <v>-32.02</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43999</v>
+        <v>44120</v>
       </c>
       <c r="B139">
-        <v>84.26000000000001</v>
+        <v>76.62</v>
       </c>
       <c r="C139">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D139">
-        <v>-36.87</v>
+        <v>-35.28</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>44000</v>
+        <v>44121</v>
       </c>
       <c r="B140">
-        <v>82.09</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="C140">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D140">
-        <v>-38.49</v>
+        <v>-36.53</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>44001</v>
+        <v>44122</v>
       </c>
       <c r="B141">
-        <v>81.25</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="C141">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D141">
-        <v>-39.12</v>
+        <v>-37.02</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>44002</v>
+        <v>44123</v>
       </c>
       <c r="B142">
-        <v>72.48999999999999</v>
+        <v>74.76000000000001</v>
       </c>
       <c r="C142">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D142">
-        <v>-45.69</v>
+        <v>-36.86</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>44003</v>
+        <v>44124</v>
       </c>
       <c r="B143">
-        <v>67.66</v>
+        <v>72.7</v>
       </c>
       <c r="C143">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D143">
-        <v>-49.31</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>44004</v>
+        <v>44125</v>
       </c>
       <c r="B144">
-        <v>66.05</v>
+        <v>72.06999999999999</v>
       </c>
       <c r="C144">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D144">
-        <v>-50.51</v>
+        <v>-39.13</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>44005</v>
+        <v>44126</v>
       </c>
       <c r="B145">
-        <v>63.68</v>
+        <v>73.03</v>
       </c>
       <c r="C145">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D145">
-        <v>-52.29</v>
+        <v>-38.32</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>44006</v>
+        <v>44127</v>
       </c>
       <c r="B146">
-        <v>61.77</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="C146">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D146">
-        <v>-53.72</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>44007</v>
+        <v>44128</v>
       </c>
       <c r="B147">
-        <v>61.94</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="C147">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D147">
-        <v>-53.59</v>
+        <v>-32.85</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>44008</v>
+        <v>44129</v>
       </c>
       <c r="B148">
-        <v>67.34</v>
+        <v>91.14</v>
       </c>
       <c r="C148">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D148">
-        <v>-49.54</v>
+        <v>-23.03</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>44009</v>
+        <v>44130</v>
       </c>
       <c r="B149">
-        <v>93.56</v>
+        <v>84.36</v>
       </c>
       <c r="C149">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D149">
-        <v>-29.9</v>
+        <v>-28.75</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>44010</v>
+        <v>44131</v>
       </c>
       <c r="B150">
-        <v>101.07</v>
+        <v>81.12</v>
       </c>
       <c r="C150">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D150">
-        <v>-24.27</v>
+        <v>-31.48</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>44011</v>
+        <v>44132</v>
       </c>
       <c r="B151">
-        <v>109.56</v>
+        <v>73.16</v>
       </c>
       <c r="C151">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D151">
-        <v>-17.91</v>
+        <v>-38.21</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>44012</v>
+        <v>44133</v>
       </c>
       <c r="B152">
-        <v>100.33</v>
+        <v>69.12</v>
       </c>
       <c r="C152">
-        <v>133.46</v>
+        <v>118.4</v>
       </c>
       <c r="D152">
-        <v>-24.83</v>
+        <v>-41.62</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>44013</v>
+        <v>44134</v>
       </c>
       <c r="B153">
-        <v>111.83</v>
+        <v>84.55</v>
       </c>
       <c r="C153">
-        <v>104.15</v>
+        <v>118.4</v>
       </c>
       <c r="D153">
-        <v>7.38</v>
+        <v>-28.59</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>44014</v>
+        <v>44135</v>
       </c>
       <c r="B154">
-        <v>112.91</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="C154">
-        <v>104.15</v>
+        <v>118.4</v>
       </c>
       <c r="D154">
-        <v>8.41</v>
+        <v>-30.33</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>44015</v>
+        <v>44136</v>
       </c>
       <c r="B155">
-        <v>105.15</v>
+        <v>97.92</v>
       </c>
       <c r="C155">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D155">
-        <v>0.96</v>
+        <v>-11.46</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>44016</v>
+        <v>44137</v>
       </c>
       <c r="B156">
-        <v>85.3</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="C156">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D156">
-        <v>-18.09</v>
+        <v>-13.01</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>44017</v>
+        <v>44138</v>
       </c>
       <c r="B157">
-        <v>77.95999999999999</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="C157">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D157">
-        <v>-25.14</v>
+        <v>-22.4</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>44018</v>
+        <v>44139</v>
       </c>
       <c r="B158">
-        <v>74.64</v>
+        <v>89.19</v>
       </c>
       <c r="C158">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D158">
-        <v>-28.34</v>
+        <v>-19.36</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>44019</v>
+        <v>44140</v>
       </c>
       <c r="B159">
-        <v>74.45</v>
+        <v>87.25</v>
       </c>
       <c r="C159">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D159">
-        <v>-28.52</v>
+        <v>-21.11</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>44020</v>
+        <v>44141</v>
       </c>
       <c r="B160">
-        <v>74.22</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C160">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D160">
-        <v>-28.74</v>
+        <v>-26.85</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>44021</v>
+        <v>44142</v>
       </c>
       <c r="B161">
-        <v>73.40000000000001</v>
+        <v>73.41</v>
       </c>
       <c r="C161">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D161">
-        <v>-29.53</v>
+        <v>-33.63</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>44022</v>
+        <v>44143</v>
       </c>
       <c r="B162">
-        <v>68.95999999999999</v>
+        <v>70.88</v>
       </c>
       <c r="C162">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D162">
-        <v>-33.79</v>
+        <v>-35.92</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>44023</v>
+        <v>44144</v>
       </c>
       <c r="B163">
-        <v>67.3</v>
+        <v>69.95</v>
       </c>
       <c r="C163">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D163">
-        <v>-35.38</v>
+        <v>-36.75</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>44024</v>
+        <v>44145</v>
       </c>
       <c r="B164">
-        <v>66.20999999999999</v>
+        <v>71.31</v>
       </c>
       <c r="C164">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D164">
-        <v>-36.43</v>
+        <v>-35.52</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>44025</v>
+        <v>44146</v>
       </c>
       <c r="B165">
-        <v>65.04000000000001</v>
+        <v>101.54</v>
       </c>
       <c r="C165">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D165">
-        <v>-37.55</v>
+        <v>-8.19</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>44026</v>
+        <v>44147</v>
       </c>
       <c r="B166">
-        <v>63.84</v>
+        <v>123.43</v>
       </c>
       <c r="C166">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D166">
-        <v>-38.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>44027</v>
+        <v>44148</v>
       </c>
       <c r="B167">
-        <v>61.53</v>
+        <v>121.72</v>
       </c>
       <c r="C167">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D167">
-        <v>-40.92</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>44028</v>
+        <v>44149</v>
       </c>
       <c r="B168">
-        <v>61.94</v>
+        <v>132.06</v>
       </c>
       <c r="C168">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D168">
-        <v>-40.53</v>
+        <v>19.41</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>44029</v>
+        <v>44150</v>
       </c>
       <c r="B169">
-        <v>61.65</v>
+        <v>131.73</v>
       </c>
       <c r="C169">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D169">
-        <v>-40.81</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>44030</v>
+        <v>44151</v>
       </c>
       <c r="B170">
-        <v>62.33</v>
+        <v>131</v>
       </c>
       <c r="C170">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D170">
-        <v>-40.15</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44031</v>
+        <v>44152</v>
       </c>
       <c r="B171">
-        <v>64.43000000000001</v>
+        <v>136.65</v>
       </c>
       <c r="C171">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D171">
-        <v>-38.14</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44032</v>
+        <v>44153</v>
       </c>
       <c r="B172">
-        <v>62.27</v>
+        <v>150.31</v>
       </c>
       <c r="C172">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D172">
-        <v>-40.21</v>
+        <v>35.91</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44033</v>
+        <v>44154</v>
       </c>
       <c r="B173">
-        <v>63.4</v>
+        <v>172.94</v>
       </c>
       <c r="C173">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D173">
-        <v>-39.13</v>
+        <v>56.37</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44034</v>
+        <v>44155</v>
       </c>
       <c r="B174">
-        <v>60.67</v>
+        <v>178.18</v>
       </c>
       <c r="C174">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D174">
-        <v>-41.75</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44035</v>
+        <v>44156</v>
       </c>
       <c r="B175">
-        <v>58.45</v>
+        <v>163.41</v>
       </c>
       <c r="C175">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D175">
-        <v>-43.88</v>
+        <v>47.75</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44036</v>
+        <v>44157</v>
       </c>
       <c r="B176">
-        <v>58.1</v>
+        <v>156.15</v>
       </c>
       <c r="C176">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D176">
-        <v>-44.21</v>
+        <v>41.19</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44037</v>
+        <v>44158</v>
       </c>
       <c r="B177">
-        <v>58.45</v>
+        <v>149.28</v>
       </c>
       <c r="C177">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D177">
-        <v>-43.88</v>
+        <v>34.98</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44038</v>
+        <v>44159</v>
       </c>
       <c r="B178">
-        <v>59.88</v>
+        <v>123.38</v>
       </c>
       <c r="C178">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D178">
-        <v>-42.51</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44039</v>
+        <v>44160</v>
       </c>
       <c r="B179">
-        <v>59.64</v>
+        <v>106</v>
       </c>
       <c r="C179">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D179">
-        <v>-42.74</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44040</v>
+        <v>44161</v>
       </c>
       <c r="B180">
-        <v>57.74</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="C180">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D180">
-        <v>-44.56</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44041</v>
+        <v>44162</v>
       </c>
       <c r="B181">
-        <v>78.15000000000001</v>
+        <v>117.14</v>
       </c>
       <c r="C181">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D181">
-        <v>-24.96</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44042</v>
+        <v>44163</v>
       </c>
       <c r="B182">
-        <v>93.19</v>
+        <v>132.92</v>
       </c>
       <c r="C182">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D182">
-        <v>-10.52</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44043</v>
+        <v>44164</v>
       </c>
       <c r="B183">
-        <v>99.73999999999999</v>
+        <v>143.1</v>
       </c>
       <c r="C183">
-        <v>104.15</v>
+        <v>110.6</v>
       </c>
       <c r="D183">
-        <v>-4.23</v>
+        <v>29.39</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44044</v>
+        <v>44165</v>
       </c>
       <c r="B184">
-        <v>85.78</v>
+        <v>156.79</v>
       </c>
       <c r="C184">
-        <v>86.42</v>
+        <v>110.6</v>
       </c>
       <c r="D184">
-        <v>-0.74</v>
+        <v>41.77</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44045</v>
+        <v>44166</v>
       </c>
       <c r="B185">
-        <v>91.14</v>
+        <v>158.92</v>
       </c>
       <c r="C185">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D185">
-        <v>5.45</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44046</v>
+        <v>44167</v>
       </c>
       <c r="B186">
-        <v>85.95999999999999</v>
+        <v>121.25</v>
       </c>
       <c r="C186">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D186">
-        <v>-0.54</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44047</v>
+        <v>44168</v>
       </c>
       <c r="B187">
-        <v>73.47</v>
+        <v>114.91</v>
       </c>
       <c r="C187">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D187">
-        <v>-14.99</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44048</v>
+        <v>44169</v>
       </c>
       <c r="B188">
-        <v>64.92</v>
+        <v>117.42</v>
       </c>
       <c r="C188">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D188">
-        <v>-24.89</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44049</v>
+        <v>44170</v>
       </c>
       <c r="B189">
-        <v>62.01</v>
+        <v>147.08</v>
       </c>
       <c r="C189">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D189">
-        <v>-28.25</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44050</v>
+        <v>44171</v>
       </c>
       <c r="B190">
-        <v>60.24</v>
+        <v>174.86</v>
       </c>
       <c r="C190">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D190">
-        <v>-30.3</v>
+        <v>53.17</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44051</v>
+        <v>44172</v>
       </c>
       <c r="B191">
-        <v>55.46</v>
+        <v>183.38</v>
       </c>
       <c r="C191">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D191">
-        <v>-35.83</v>
+        <v>60.62</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44052</v>
+        <v>44173</v>
       </c>
       <c r="B192">
-        <v>58.16</v>
+        <v>180.68</v>
       </c>
       <c r="C192">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D192">
-        <v>-32.71</v>
+        <v>58.26</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44053</v>
+        <v>44174</v>
       </c>
       <c r="B193">
-        <v>58.94</v>
+        <v>218.32</v>
       </c>
       <c r="C193">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D193">
-        <v>-31.8</v>
+        <v>91.23</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44054</v>
+        <v>44175</v>
       </c>
       <c r="B194">
-        <v>58.2</v>
+        <v>214.3</v>
       </c>
       <c r="C194">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D194">
-        <v>-32.66</v>
+        <v>87.70999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44055</v>
+        <v>44176</v>
       </c>
       <c r="B195">
-        <v>60.7</v>
+        <v>195.34</v>
       </c>
       <c r="C195">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D195">
-        <v>-29.77</v>
+        <v>71.11</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44056</v>
+        <v>44177</v>
       </c>
       <c r="B196">
-        <v>58.71</v>
+        <v>176.05</v>
       </c>
       <c r="C196">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D196">
-        <v>-32.07</v>
+        <v>54.21</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44057</v>
+        <v>44178</v>
       </c>
       <c r="B197">
-        <v>61.49</v>
+        <v>145.78</v>
       </c>
       <c r="C197">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D197">
-        <v>-28.85</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44058</v>
+        <v>44179</v>
       </c>
       <c r="B198">
-        <v>94.64</v>
+        <v>126.88</v>
       </c>
       <c r="C198">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D198">
-        <v>9.5</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44059</v>
+        <v>44180</v>
       </c>
       <c r="B199">
-        <v>138.78</v>
+        <v>131.96</v>
       </c>
       <c r="C199">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D199">
-        <v>60.58</v>
+        <v>15.59</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44060</v>
+        <v>44181</v>
       </c>
       <c r="B200">
-        <v>136.85</v>
+        <v>155.1</v>
       </c>
       <c r="C200">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D200">
-        <v>58.35</v>
+        <v>35.86</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44061</v>
+        <v>44182</v>
       </c>
       <c r="B201">
-        <v>148.99</v>
+        <v>171.08</v>
       </c>
       <c r="C201">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D201">
-        <v>72.39</v>
+        <v>49.86</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44062</v>
+        <v>44183</v>
       </c>
       <c r="B202">
-        <v>174.34</v>
+        <v>163.4</v>
       </c>
       <c r="C202">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D202">
-        <v>101.73</v>
+        <v>43.12</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44063</v>
+        <v>44184</v>
       </c>
       <c r="B203">
-        <v>190.33</v>
+        <v>169.88</v>
       </c>
       <c r="C203">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D203">
-        <v>120.23</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44064</v>
+        <v>44185</v>
       </c>
       <c r="B204">
-        <v>186.71</v>
+        <v>172.2</v>
       </c>
       <c r="C204">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D204">
-        <v>116.04</v>
+        <v>50.83</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44065</v>
+        <v>44186</v>
       </c>
       <c r="B205">
-        <v>179.1</v>
+        <v>154.51</v>
       </c>
       <c r="C205">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D205">
-        <v>107.24</v>
+        <v>35.34</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44066</v>
+        <v>44187</v>
       </c>
       <c r="B206">
-        <v>177.72</v>
+        <v>144.25</v>
       </c>
       <c r="C206">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D206">
-        <v>105.64</v>
+        <v>26.35</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44067</v>
+        <v>44188</v>
       </c>
       <c r="B207">
-        <v>174.61</v>
+        <v>143.75</v>
       </c>
       <c r="C207">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D207">
-        <v>102.05</v>
+        <v>25.91</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44068</v>
+        <v>44189</v>
       </c>
       <c r="B208">
-        <v>147.24</v>
+        <v>139.12</v>
       </c>
       <c r="C208">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D208">
-        <v>70.37</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44069</v>
+        <v>44190</v>
       </c>
       <c r="B209">
-        <v>105.73</v>
+        <v>130.01</v>
       </c>
       <c r="C209">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D209">
-        <v>22.34</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44070</v>
+        <v>44191</v>
       </c>
       <c r="B210">
-        <v>94.2</v>
+        <v>129.23</v>
       </c>
       <c r="C210">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D210">
-        <v>9</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44071</v>
+        <v>44192</v>
       </c>
       <c r="B211">
-        <v>87.5</v>
+        <v>126.26</v>
       </c>
       <c r="C211">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D211">
-        <v>1.25</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44072</v>
+        <v>44193</v>
       </c>
       <c r="B212">
-        <v>83.58</v>
+        <v>118.47</v>
       </c>
       <c r="C212">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D212">
-        <v>-3.29</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44073</v>
+        <v>44194</v>
       </c>
       <c r="B213">
-        <v>80.15000000000001</v>
+        <v>114.98</v>
       </c>
       <c r="C213">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D213">
-        <v>-7.26</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44074</v>
+        <v>44195</v>
       </c>
       <c r="B214">
-        <v>79.48999999999999</v>
+        <v>123.01</v>
       </c>
       <c r="C214">
-        <v>86.42</v>
+        <v>114.17</v>
       </c>
       <c r="D214">
-        <v>-8.02</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44075</v>
+        <v>44196</v>
       </c>
       <c r="B215">
-        <v>77.5</v>
+        <v>136.88</v>
       </c>
       <c r="C215">
-        <v>94.48999999999999</v>
+        <v>114.17</v>
       </c>
       <c r="D215">
-        <v>-17.98</v>
+        <v>19.89</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44076</v>
+        <v>44197</v>
       </c>
       <c r="B216">
-        <v>81.58</v>
+        <v>151.58</v>
       </c>
       <c r="C216">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D216">
-        <v>-13.66</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44077</v>
+        <v>44198</v>
       </c>
       <c r="B217">
-        <v>91.84</v>
+        <v>172.18</v>
       </c>
       <c r="C217">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D217">
-        <v>-2.8</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44078</v>
+        <v>44199</v>
       </c>
       <c r="B218">
-        <v>106.82</v>
+        <v>168.95</v>
       </c>
       <c r="C218">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D218">
-        <v>13.06</v>
+        <v>27.85</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44079</v>
+        <v>44200</v>
       </c>
       <c r="B219">
-        <v>106.64</v>
+        <v>139.52</v>
       </c>
       <c r="C219">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D219">
-        <v>12.86</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44080</v>
+        <v>44201</v>
       </c>
       <c r="B220">
-        <v>87.47</v>
+        <v>128.86</v>
       </c>
       <c r="C220">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D220">
-        <v>-7.43</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44081</v>
+        <v>44202</v>
       </c>
       <c r="B221">
-        <v>81.68000000000001</v>
+        <v>134.88</v>
       </c>
       <c r="C221">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D221">
-        <v>-13.56</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44082</v>
+        <v>44203</v>
       </c>
       <c r="B222">
-        <v>78.05</v>
+        <v>121.97</v>
       </c>
       <c r="C222">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D222">
-        <v>-17.39</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44083</v>
+        <v>44204</v>
       </c>
       <c r="B223">
-        <v>76.84</v>
+        <v>119.9</v>
       </c>
       <c r="C223">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D223">
-        <v>-18.67</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44084</v>
+        <v>44205</v>
       </c>
       <c r="B224">
-        <v>72.29000000000001</v>
+        <v>117.12</v>
       </c>
       <c r="C224">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D224">
-        <v>-23.49</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44085</v>
+        <v>44206</v>
       </c>
       <c r="B225">
-        <v>70.70999999999999</v>
+        <v>110.84</v>
       </c>
       <c r="C225">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D225">
-        <v>-25.17</v>
+        <v>-16.12</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44086</v>
+        <v>44207</v>
       </c>
       <c r="B226">
-        <v>68.09999999999999</v>
+        <v>109.68</v>
       </c>
       <c r="C226">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D226">
-        <v>-27.92</v>
+        <v>-17.01</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44087</v>
+        <v>44208</v>
       </c>
       <c r="B227">
-        <v>67.29000000000001</v>
+        <v>105.02</v>
       </c>
       <c r="C227">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D227">
-        <v>-28.78</v>
+        <v>-20.53</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44088</v>
+        <v>44209</v>
       </c>
       <c r="B228">
-        <v>68.28</v>
+        <v>103.65</v>
       </c>
       <c r="C228">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D228">
-        <v>-27.74</v>
+        <v>-21.57</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44089</v>
+        <v>44210</v>
       </c>
       <c r="B229">
-        <v>66.16</v>
+        <v>104.81</v>
       </c>
       <c r="C229">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D229">
-        <v>-29.98</v>
+        <v>-20.69</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44090</v>
+        <v>44211</v>
       </c>
       <c r="B230">
-        <v>62.6</v>
+        <v>104.42</v>
       </c>
       <c r="C230">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D230">
-        <v>-33.74</v>
+        <v>-20.99</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44091</v>
+        <v>44212</v>
       </c>
       <c r="B231">
-        <v>64.53</v>
+        <v>107.09</v>
       </c>
       <c r="C231">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D231">
-        <v>-31.7</v>
+        <v>-18.96</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44092</v>
+        <v>44213</v>
       </c>
       <c r="B232">
-        <v>64.59</v>
+        <v>113.38</v>
       </c>
       <c r="C232">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D232">
-        <v>-31.64</v>
+        <v>-14.21</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44093</v>
+        <v>44214</v>
       </c>
       <c r="B233">
-        <v>64.34999999999999</v>
+        <v>145.18</v>
       </c>
       <c r="C233">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D233">
-        <v>-31.89</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44094</v>
+        <v>44215</v>
       </c>
       <c r="B234">
-        <v>63.04</v>
+        <v>179.54</v>
       </c>
       <c r="C234">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D234">
-        <v>-33.28</v>
+        <v>35.86</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44095</v>
+        <v>44216</v>
       </c>
       <c r="B235">
-        <v>61.26</v>
+        <v>175.85</v>
       </c>
       <c r="C235">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D235">
-        <v>-35.17</v>
+        <v>33.07</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44096</v>
+        <v>44217</v>
       </c>
       <c r="B236">
-        <v>61.96</v>
+        <v>201.51</v>
       </c>
       <c r="C236">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D236">
-        <v>-34.43</v>
+        <v>52.49</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44097</v>
+        <v>44218</v>
       </c>
       <c r="B237">
-        <v>65.56</v>
+        <v>209.03</v>
       </c>
       <c r="C237">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D237">
-        <v>-30.61</v>
+        <v>58.18</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44098</v>
+        <v>44219</v>
       </c>
       <c r="B238">
-        <v>65.52</v>
+        <v>191.14</v>
       </c>
       <c r="C238">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D238">
-        <v>-30.66</v>
+        <v>44.63</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44099</v>
+        <v>44220</v>
       </c>
       <c r="B239">
-        <v>63.72</v>
+        <v>173.05</v>
       </c>
       <c r="C239">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D239">
-        <v>-32.56</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44100</v>
+        <v>44221</v>
       </c>
       <c r="B240">
-        <v>64.36</v>
+        <v>152.68</v>
       </c>
       <c r="C240">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D240">
-        <v>-31.88</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44101</v>
+        <v>44222</v>
       </c>
       <c r="B241">
-        <v>62.83</v>
+        <v>138.14</v>
       </c>
       <c r="C241">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D241">
-        <v>-33.5</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44102</v>
+        <v>44223</v>
       </c>
       <c r="B242">
-        <v>93.01000000000001</v>
+        <v>129.64</v>
       </c>
       <c r="C242">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D242">
-        <v>-1.56</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44103</v>
+        <v>44224</v>
       </c>
       <c r="B243">
-        <v>108.8</v>
+        <v>139.52</v>
       </c>
       <c r="C243">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D243">
-        <v>15.15</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44104</v>
+        <v>44225</v>
       </c>
       <c r="B244">
-        <v>117.06</v>
+        <v>164.82</v>
       </c>
       <c r="C244">
-        <v>94.48999999999999</v>
+        <v>132.15</v>
       </c>
       <c r="D244">
-        <v>23.89</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44105</v>
+        <v>44226</v>
       </c>
       <c r="B245">
-        <v>110.98</v>
+        <v>173.56</v>
       </c>
       <c r="C245">
-        <v>118.4</v>
+        <v>132.15</v>
       </c>
       <c r="D245">
-        <v>-6.27</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44106</v>
+        <v>44227</v>
       </c>
       <c r="B246">
-        <v>93.73</v>
+        <v>160.47</v>
       </c>
       <c r="C246">
-        <v>118.4</v>
+        <v>132.15</v>
       </c>
       <c r="D246">
-        <v>-20.84</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44107</v>
+        <v>44228</v>
       </c>
       <c r="B247">
-        <v>89.54000000000001</v>
+        <v>143.48</v>
       </c>
       <c r="C247">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D247">
-        <v>-24.37</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44108</v>
+        <v>44229</v>
       </c>
       <c r="B248">
-        <v>83.89</v>
+        <v>131.64</v>
       </c>
       <c r="C248">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D248">
-        <v>-29.15</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44109</v>
+        <v>44230</v>
       </c>
       <c r="B249">
-        <v>83.56999999999999</v>
+        <v>122.02</v>
       </c>
       <c r="C249">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D249">
-        <v>-29.41</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44110</v>
+        <v>44231</v>
       </c>
       <c r="B250">
-        <v>87.34</v>
+        <v>124.19</v>
       </c>
       <c r="C250">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D250">
-        <v>-26.23</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44111</v>
+        <v>44232</v>
       </c>
       <c r="B251">
-        <v>99.7</v>
+        <v>172.38</v>
       </c>
       <c r="C251">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D251">
-        <v>-15.8</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44112</v>
+        <v>44233</v>
       </c>
       <c r="B252">
-        <v>103.88</v>
+        <v>178.33</v>
       </c>
       <c r="C252">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D252">
-        <v>-12.27</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44113</v>
+        <v>44234</v>
       </c>
       <c r="B253">
-        <v>120.94</v>
+        <v>173.14</v>
       </c>
       <c r="C253">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D253">
-        <v>2.14</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44114</v>
+        <v>44235</v>
       </c>
       <c r="B254">
-        <v>127.96</v>
+        <v>172.26</v>
       </c>
       <c r="C254">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D254">
-        <v>8.07</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44115</v>
+        <v>44236</v>
       </c>
       <c r="B255">
-        <v>124.85</v>
+        <v>158.59</v>
       </c>
       <c r="C255">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D255">
-        <v>5.45</v>
+        <v>18.67</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44116</v>
+        <v>44237</v>
       </c>
       <c r="B256">
-        <v>120.96</v>
+        <v>122.06</v>
       </c>
       <c r="C256">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D256">
-        <v>2.16</v>
+        <v>-8.67</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44117</v>
+        <v>44238</v>
       </c>
       <c r="B257">
-        <v>100.17</v>
+        <v>110.2</v>
       </c>
       <c r="C257">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D257">
-        <v>-15.4</v>
+        <v>-17.54</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44118</v>
+        <v>44239</v>
       </c>
       <c r="B258">
-        <v>87.8</v>
+        <v>110.67</v>
       </c>
       <c r="C258">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D258">
-        <v>-25.84</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44119</v>
+        <v>44240</v>
       </c>
       <c r="B259">
-        <v>80.48999999999999</v>
+        <v>116.28</v>
       </c>
       <c r="C259">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D259">
-        <v>-32.02</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44120</v>
+        <v>44241</v>
       </c>
       <c r="B260">
-        <v>76.62</v>
+        <v>109.77</v>
       </c>
       <c r="C260">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D260">
-        <v>-35.28</v>
+        <v>-17.86</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44121</v>
+        <v>44242</v>
       </c>
       <c r="B261">
-        <v>75.15000000000001</v>
+        <v>111.99</v>
       </c>
       <c r="C261">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D261">
-        <v>-36.53</v>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44122</v>
+        <v>44243</v>
       </c>
       <c r="B262">
-        <v>74.56999999999999</v>
+        <v>115.84</v>
       </c>
       <c r="C262">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D262">
-        <v>-37.02</v>
+        <v>-13.32</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44123</v>
+        <v>44244</v>
       </c>
       <c r="B263">
-        <v>74.76000000000001</v>
+        <v>111.05</v>
       </c>
       <c r="C263">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D263">
-        <v>-36.86</v>
+        <v>-16.9</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44124</v>
+        <v>44245</v>
       </c>
       <c r="B264">
-        <v>72.7</v>
+        <v>100.91</v>
       </c>
       <c r="C264">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D264">
-        <v>-38.6</v>
+        <v>-24.5</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44125</v>
+        <v>44246</v>
       </c>
       <c r="B265">
-        <v>72.06999999999999</v>
+        <v>95.14</v>
       </c>
       <c r="C265">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D265">
-        <v>-39.13</v>
+        <v>-28.81</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44126</v>
+        <v>44247</v>
       </c>
       <c r="B266">
-        <v>73.03</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C266">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D266">
-        <v>-38.32</v>
+        <v>-30.49</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44127</v>
+        <v>44248</v>
       </c>
       <c r="B267">
-        <v>72.93000000000001</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="C267">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D267">
-        <v>-38.41</v>
+        <v>-32.31</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44128</v>
+        <v>44249</v>
       </c>
       <c r="B268">
-        <v>79.51000000000001</v>
+        <v>87.56</v>
       </c>
       <c r="C268">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D268">
-        <v>-32.85</v>
+        <v>-34.48</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44129</v>
+        <v>44250</v>
       </c>
       <c r="B269">
-        <v>91.14</v>
+        <v>87.61</v>
       </c>
       <c r="C269">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D269">
-        <v>-23.03</v>
+        <v>-34.44</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44130</v>
+        <v>44251</v>
       </c>
       <c r="B270">
-        <v>84.36</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="C270">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D270">
-        <v>-28.75</v>
+        <v>-25.44</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44131</v>
+        <v>44252</v>
       </c>
       <c r="B271">
-        <v>81.12</v>
+        <v>104.4</v>
       </c>
       <c r="C271">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D271">
-        <v>-31.48</v>
+        <v>-21.88</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44132</v>
+        <v>44253</v>
       </c>
       <c r="B272">
-        <v>73.16</v>
+        <v>104.41</v>
       </c>
       <c r="C272">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D272">
-        <v>-38.21</v>
+        <v>-21.88</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44133</v>
+        <v>44254</v>
       </c>
       <c r="B273">
-        <v>69.12</v>
+        <v>123.4</v>
       </c>
       <c r="C273">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D273">
-        <v>-41.62</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44134</v>
+        <v>44255</v>
       </c>
       <c r="B274">
-        <v>84.55</v>
+        <v>171.05</v>
       </c>
       <c r="C274">
-        <v>118.4</v>
+        <v>133.64</v>
       </c>
       <c r="D274">
-        <v>-28.59</v>
+        <v>27.99</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44135</v>
+        <v>44256</v>
       </c>
       <c r="B275">
-        <v>82.48999999999999</v>
+        <v>196.8</v>
       </c>
       <c r="C275">
-        <v>118.4</v>
+        <v>113.77</v>
       </c>
       <c r="D275">
-        <v>-30.33</v>
+        <v>72.98999999999999</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44136</v>
+        <v>44257</v>
       </c>
       <c r="B276">
-        <v>97.92</v>
+        <v>251.42</v>
       </c>
       <c r="C276">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D276">
-        <v>-11.46</v>
+        <v>120.99</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44137</v>
+        <v>44258</v>
       </c>
       <c r="B277">
-        <v>96.20999999999999</v>
+        <v>256.05</v>
       </c>
       <c r="C277">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D277">
-        <v>-13.01</v>
+        <v>125.07</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44138</v>
+        <v>44259</v>
       </c>
       <c r="B278">
-        <v>85.81999999999999</v>
+        <v>252.27</v>
       </c>
       <c r="C278">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D278">
-        <v>-22.4</v>
+        <v>121.74</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44139</v>
+        <v>44260</v>
       </c>
       <c r="B279">
-        <v>89.19</v>
+        <v>235.28</v>
       </c>
       <c r="C279">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D279">
-        <v>-19.36</v>
+        <v>106.81</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44140</v>
+        <v>44261</v>
       </c>
       <c r="B280">
-        <v>87.25</v>
+        <v>216.42</v>
       </c>
       <c r="C280">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D280">
-        <v>-21.11</v>
+        <v>90.23</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44141</v>
+        <v>44262</v>
       </c>
       <c r="B281">
-        <v>80.90000000000001</v>
+        <v>197.08</v>
       </c>
       <c r="C281">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D281">
-        <v>-26.85</v>
+        <v>73.23</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44142</v>
+        <v>44263</v>
       </c>
       <c r="B282">
-        <v>73.41</v>
+        <v>182.56</v>
       </c>
       <c r="C282">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D282">
-        <v>-33.63</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44143</v>
+        <v>44264</v>
       </c>
       <c r="B283">
-        <v>70.88</v>
+        <v>172.05</v>
       </c>
       <c r="C283">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D283">
-        <v>-35.92</v>
+        <v>51.23</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44144</v>
+        <v>44265</v>
       </c>
       <c r="B284">
-        <v>69.95</v>
+        <v>165.08</v>
       </c>
       <c r="C284">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D284">
-        <v>-36.75</v>
+        <v>45.11</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44145</v>
+        <v>44266</v>
       </c>
       <c r="B285">
-        <v>71.31</v>
+        <v>153.42</v>
       </c>
       <c r="C285">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D285">
-        <v>-35.52</v>
+        <v>34.85</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44146</v>
+        <v>44267</v>
       </c>
       <c r="B286">
-        <v>101.54</v>
+        <v>143.57</v>
       </c>
       <c r="C286">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D286">
-        <v>-8.19</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44147</v>
+        <v>44268</v>
       </c>
       <c r="B287">
-        <v>123.43</v>
+        <v>135.24</v>
       </c>
       <c r="C287">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D287">
-        <v>11.6</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44148</v>
+        <v>44269</v>
       </c>
       <c r="B288">
-        <v>121.72</v>
+        <v>126.2</v>
       </c>
       <c r="C288">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D288">
-        <v>10.06</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44149</v>
+        <v>44270</v>
       </c>
       <c r="B289">
-        <v>132.06</v>
+        <v>160.78</v>
       </c>
       <c r="C289">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D289">
-        <v>19.41</v>
+        <v>41.33</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44150</v>
+        <v>44271</v>
       </c>
       <c r="B290">
-        <v>131.73</v>
+        <v>152.81</v>
       </c>
       <c r="C290">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D290">
-        <v>19.11</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44151</v>
+        <v>44272</v>
       </c>
       <c r="B291">
-        <v>131</v>
+        <v>143.8</v>
       </c>
       <c r="C291">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D291">
-        <v>18.45</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44152</v>
+        <v>44273</v>
       </c>
       <c r="B292">
-        <v>136.65</v>
+        <v>136.05</v>
       </c>
       <c r="C292">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D292">
-        <v>23.56</v>
+        <v>19.59</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44153</v>
+        <v>44274</v>
       </c>
       <c r="B293">
-        <v>150.31</v>
+        <v>126.32</v>
       </c>
       <c r="C293">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D293">
-        <v>35.91</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44154</v>
+        <v>44275</v>
       </c>
       <c r="B294">
-        <v>172.94</v>
+        <v>118.44</v>
       </c>
       <c r="C294">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D294">
-        <v>56.37</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44155</v>
+        <v>44276</v>
       </c>
       <c r="B295">
-        <v>178.18</v>
+        <v>114.57</v>
       </c>
       <c r="C295">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D295">
-        <v>61.11</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44156</v>
+        <v>44277</v>
       </c>
       <c r="B296">
-        <v>163.41</v>
+        <v>112.9</v>
       </c>
       <c r="C296">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D296">
-        <v>47.75</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44157</v>
+        <v>44278</v>
       </c>
       <c r="B297">
-        <v>156.15</v>
+        <v>110.45</v>
       </c>
       <c r="C297">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D297">
-        <v>41.19</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44158</v>
+        <v>44279</v>
       </c>
       <c r="B298">
-        <v>149.28</v>
+        <v>108.48</v>
       </c>
       <c r="C298">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D298">
-        <v>34.98</v>
+        <v>-4.65</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44159</v>
+        <v>44280</v>
       </c>
       <c r="B299">
-        <v>123.38</v>
+        <v>106.66</v>
       </c>
       <c r="C299">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D299">
-        <v>11.55</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="B300">
-        <v>106</v>
+        <v>105.73</v>
       </c>
       <c r="C300">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D300">
-        <v>-4.16</v>
+        <v>-7.07</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44161</v>
+        <v>44282</v>
       </c>
       <c r="B301">
-        <v>98.54000000000001</v>
+        <v>122.07</v>
       </c>
       <c r="C301">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D301">
-        <v>-10.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44162</v>
+        <v>44283</v>
       </c>
       <c r="B302">
-        <v>117.14</v>
+        <v>162.02</v>
       </c>
       <c r="C302">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D302">
-        <v>5.92</v>
+        <v>42.41</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44163</v>
+        <v>44284</v>
       </c>
       <c r="B303">
-        <v>132.92</v>
+        <v>131.41</v>
       </c>
       <c r="C303">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D303">
-        <v>20.18</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44164</v>
+        <v>44285</v>
       </c>
       <c r="B304">
-        <v>143.1</v>
+        <v>127</v>
       </c>
       <c r="C304">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D304">
-        <v>29.39</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44165</v>
+        <v>44286</v>
       </c>
       <c r="B305">
-        <v>156.79</v>
+        <v>121.89</v>
       </c>
       <c r="C305">
-        <v>110.6</v>
+        <v>113.77</v>
       </c>
       <c r="D305">
-        <v>41.77</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44166</v>
+        <v>44287</v>
       </c>
       <c r="B306">
-        <v>158.92</v>
+        <v>110.57</v>
       </c>
       <c r="C306">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D306">
-        <v>39.2</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44167</v>
+        <v>44288</v>
       </c>
       <c r="B307">
-        <v>121.25</v>
+        <v>104.15</v>
       </c>
       <c r="C307">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D307">
-        <v>6.21</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44168</v>
+        <v>44289</v>
       </c>
       <c r="B308">
-        <v>114.91</v>
+        <v>100.83</v>
       </c>
       <c r="C308">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D308">
-        <v>0.65</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44169</v>
+        <v>44290</v>
       </c>
       <c r="B309">
-        <v>117.42</v>
+        <v>99.22</v>
       </c>
       <c r="C309">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D309">
-        <v>2.85</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44170</v>
+        <v>44291</v>
       </c>
       <c r="B310">
-        <v>147.08</v>
+        <v>98.33</v>
       </c>
       <c r="C310">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D310">
-        <v>28.83</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44171</v>
+        <v>44292</v>
       </c>
       <c r="B311">
-        <v>174.86</v>
+        <v>98.95</v>
       </c>
       <c r="C311">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D311">
-        <v>53.17</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44172</v>
+        <v>44293</v>
       </c>
       <c r="B312">
-        <v>183.38</v>
+        <v>102.04</v>
       </c>
       <c r="C312">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D312">
-        <v>60.62</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44173</v>
+        <v>44294</v>
       </c>
       <c r="B313">
-        <v>180.68</v>
+        <v>107.93</v>
       </c>
       <c r="C313">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D313">
-        <v>58.26</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44174</v>
+        <v>44295</v>
       </c>
       <c r="B314">
-        <v>218.32</v>
+        <v>109.41</v>
       </c>
       <c r="C314">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D314">
-        <v>91.23</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44175</v>
+        <v>44296</v>
       </c>
       <c r="B315">
-        <v>214.3</v>
+        <v>112.44</v>
       </c>
       <c r="C315">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D315">
-        <v>87.70999999999999</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44176</v>
+        <v>44297</v>
       </c>
       <c r="B316">
-        <v>195.34</v>
+        <v>111.85</v>
       </c>
       <c r="C316">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D316">
-        <v>71.11</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44177</v>
+        <v>44298</v>
       </c>
       <c r="B317">
-        <v>176.05</v>
+        <v>100.3</v>
       </c>
       <c r="C317">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D317">
-        <v>54.21</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44178</v>
+        <v>44299</v>
       </c>
       <c r="B318">
-        <v>145.78</v>
+        <v>94.27</v>
       </c>
       <c r="C318">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D318">
-        <v>27.69</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44179</v>
+        <v>44300</v>
       </c>
       <c r="B319">
-        <v>126.88</v>
+        <v>92.53</v>
       </c>
       <c r="C319">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D319">
-        <v>11.13</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44180</v>
+        <v>44301</v>
       </c>
       <c r="B320">
-        <v>131.96</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C320">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D320">
-        <v>15.59</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44181</v>
+        <v>44302</v>
       </c>
       <c r="B321">
-        <v>155.1</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="C321">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D321">
-        <v>35.86</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44182</v>
+        <v>44303</v>
       </c>
       <c r="B322">
-        <v>171.08</v>
+        <v>89.59</v>
       </c>
       <c r="C322">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D322">
-        <v>49.86</v>
+        <v>-9.460000000000001</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44183</v>
+        <v>44304</v>
       </c>
       <c r="B323">
-        <v>163.4</v>
+        <v>90.34</v>
       </c>
       <c r="C323">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D323">
-        <v>43.12</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44184</v>
+        <v>44305</v>
       </c>
       <c r="B324">
-        <v>169.88</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="C324">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D324">
-        <v>48.8</v>
+        <v>-8.19</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44185</v>
+        <v>44306</v>
       </c>
       <c r="B325">
-        <v>172.2</v>
+        <v>89.95</v>
       </c>
       <c r="C325">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D325">
-        <v>50.83</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44186</v>
+        <v>44307</v>
       </c>
       <c r="B326">
-        <v>154.51</v>
+        <v>90.25</v>
       </c>
       <c r="C326">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D326">
-        <v>35.34</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="B327">
-        <v>144.25</v>
+        <v>90.19</v>
       </c>
       <c r="C327">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D327">
-        <v>26.35</v>
+        <v>-8.859999999999999</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="B328">
-        <v>143.75</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="C328">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D328">
-        <v>25.91</v>
+        <v>-9.06</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44189</v>
+        <v>44310</v>
       </c>
       <c r="B329">
-        <v>139.12</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C329">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D329">
-        <v>21.86</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44190</v>
+        <v>44311</v>
       </c>
       <c r="B330">
-        <v>130.01</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="C330">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D330">
-        <v>13.88</v>
+        <v>-13.96</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44191</v>
+        <v>44312</v>
       </c>
       <c r="B331">
-        <v>129.23</v>
+        <v>84.09</v>
       </c>
       <c r="C331">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D331">
-        <v>13.19</v>
+        <v>-15.02</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44192</v>
+        <v>44313</v>
       </c>
       <c r="B332">
-        <v>126.26</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="C332">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D332">
-        <v>10.59</v>
+        <v>-18.39</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44193</v>
+        <v>44314</v>
       </c>
       <c r="B333">
-        <v>118.47</v>
+        <v>80.29000000000001</v>
       </c>
       <c r="C333">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D333">
-        <v>3.77</v>
+        <v>-18.86</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44194</v>
+        <v>44315</v>
       </c>
       <c r="B334">
-        <v>114.98</v>
+        <v>79.7</v>
       </c>
       <c r="C334">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D334">
-        <v>0.71</v>
+        <v>-19.46</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44195</v>
+        <v>44316</v>
       </c>
       <c r="B335">
-        <v>123.01</v>
+        <v>76.48</v>
       </c>
       <c r="C335">
-        <v>114.17</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D335">
-        <v>7.75</v>
+        <v>-22.71</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44196</v>
+        <v>44317</v>
       </c>
       <c r="B336">
-        <v>136.88</v>
+        <v>74.38</v>
       </c>
       <c r="C336">
-        <v>114.17</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D336">
-        <v>19.89</v>
+        <v>-25.57</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44197</v>
+        <v>44318</v>
       </c>
       <c r="B337">
-        <v>151.58</v>
+        <v>74.64</v>
       </c>
       <c r="C337">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D337">
-        <v>14.71</v>
+        <v>-25.31</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44198</v>
+        <v>44319</v>
       </c>
       <c r="B338">
-        <v>172.18</v>
+        <v>72.34</v>
       </c>
       <c r="C338">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D338">
-        <v>30.29</v>
+        <v>-27.61</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44199</v>
+        <v>44320</v>
       </c>
       <c r="B339">
-        <v>168.95</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C339">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D339">
-        <v>27.85</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44200</v>
+        <v>44321</v>
       </c>
       <c r="B340">
-        <v>139.52</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="C340">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D340">
-        <v>5.58</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44201</v>
+        <v>44322</v>
       </c>
       <c r="B341">
-        <v>128.86</v>
+        <v>73.98</v>
       </c>
       <c r="C341">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D341">
-        <v>-2.49</v>
+        <v>-25.97</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44202</v>
+        <v>44323</v>
       </c>
       <c r="B342">
-        <v>134.88</v>
+        <v>99.03</v>
       </c>
       <c r="C342">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D342">
-        <v>2.06</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44203</v>
+        <v>44324</v>
       </c>
       <c r="B343">
-        <v>121.97</v>
+        <v>105.88</v>
       </c>
       <c r="C343">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D343">
-        <v>-7.7</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44204</v>
+        <v>44325</v>
       </c>
       <c r="B344">
-        <v>119.9</v>
+        <v>103.49</v>
       </c>
       <c r="C344">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D344">
-        <v>-9.27</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44205</v>
+        <v>44326</v>
       </c>
       <c r="B345">
-        <v>117.12</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C345">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D345">
-        <v>-11.37</v>
+        <v>-11.04</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44206</v>
+        <v>44327</v>
       </c>
       <c r="B346">
-        <v>110.84</v>
+        <v>84.56</v>
       </c>
       <c r="C346">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D346">
-        <v>-16.12</v>
+        <v>-15.38</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44207</v>
+        <v>44328</v>
       </c>
       <c r="B347">
-        <v>109.68</v>
+        <v>127.33</v>
       </c>
       <c r="C347">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D347">
-        <v>-17.01</v>
+        <v>27.42</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44208</v>
+        <v>44329</v>
       </c>
       <c r="B348">
-        <v>105.02</v>
+        <v>146.11</v>
       </c>
       <c r="C348">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D348">
-        <v>-20.53</v>
+        <v>46.21</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44209</v>
+        <v>44330</v>
       </c>
       <c r="B349">
-        <v>103.65</v>
+        <v>137.53</v>
       </c>
       <c r="C349">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D349">
-        <v>-21.57</v>
+        <v>37.62</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44210</v>
+        <v>44331</v>
       </c>
       <c r="B350">
-        <v>104.81</v>
+        <v>139.91</v>
       </c>
       <c r="C350">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D350">
-        <v>-20.69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44211</v>
+        <v>44332</v>
       </c>
       <c r="B351">
-        <v>104.42</v>
+        <v>142.14</v>
       </c>
       <c r="C351">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D351">
-        <v>-20.99</v>
+        <v>42.23</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44212</v>
+        <v>44333</v>
       </c>
       <c r="B352">
-        <v>107.09</v>
+        <v>117.59</v>
       </c>
       <c r="C352">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D352">
-        <v>-18.96</v>
+        <v>17.67</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44213</v>
+        <v>44334</v>
       </c>
       <c r="B353">
-        <v>113.38</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="C353">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D353">
-        <v>-14.21</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44214</v>
+        <v>44335</v>
       </c>
       <c r="B354">
-        <v>145.18</v>
+        <v>91.17</v>
       </c>
       <c r="C354">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D354">
-        <v>9.859999999999999</v>
+        <v>-8.77</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44215</v>
+        <v>44336</v>
       </c>
       <c r="B355">
-        <v>179.54</v>
+        <v>86.92</v>
       </c>
       <c r="C355">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D355">
-        <v>35.86</v>
+        <v>-13.02</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44216</v>
+        <v>44337</v>
       </c>
       <c r="B356">
-        <v>175.85</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C356">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D356">
-        <v>33.07</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44217</v>
+        <v>44338</v>
       </c>
       <c r="B357">
-        <v>201.51</v>
+        <v>90.95</v>
       </c>
       <c r="C357">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D357">
-        <v>52.49</v>
+        <v>-8.99</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44218</v>
+        <v>44339</v>
       </c>
       <c r="B358">
-        <v>209.03</v>
+        <v>92.64</v>
       </c>
       <c r="C358">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D358">
-        <v>58.18</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44219</v>
+        <v>44340</v>
       </c>
       <c r="B359">
-        <v>191.14</v>
+        <v>90.05</v>
       </c>
       <c r="C359">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D359">
-        <v>44.63</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44220</v>
+        <v>44341</v>
       </c>
       <c r="B360">
-        <v>173.05</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="C360">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D360">
-        <v>30.95</v>
+        <v>-14.43</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44221</v>
+        <v>44342</v>
       </c>
       <c r="B361">
-        <v>152.68</v>
+        <v>81.19</v>
       </c>
       <c r="C361">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D361">
-        <v>15.53</v>
+        <v>-18.76</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44222</v>
+        <v>44343</v>
       </c>
       <c r="B362">
-        <v>138.14</v>
+        <v>75.06</v>
       </c>
       <c r="C362">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D362">
-        <v>4.53</v>
+        <v>-24.89</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44223</v>
+        <v>44344</v>
       </c>
       <c r="B363">
-        <v>129.64</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="C363">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D363">
-        <v>-1.9</v>
+        <v>-27.41</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44224</v>
+        <v>44345</v>
       </c>
       <c r="B364">
-        <v>139.52</v>
+        <v>71.5</v>
       </c>
       <c r="C364">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D364">
-        <v>5.58</v>
+        <v>-28.45</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44225</v>
+        <v>44346</v>
       </c>
       <c r="B365">
-        <v>164.82</v>
+        <v>76.84</v>
       </c>
       <c r="C365">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D365">
-        <v>24.72</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44226</v>
+        <v>44347</v>
       </c>
       <c r="B366">
-        <v>173.56</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="C366">
-        <v>132.15</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D366">
-        <v>31.34</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
-        <v>44227</v>
-      </c>
-      <c r="B367">
-        <v>160.47</v>
-      </c>
-      <c r="C367">
-        <v>132.15</v>
-      </c>
-      <c r="D367">
-        <v>21.43</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44228</v>
-      </c>
-      <c r="B368">
-        <v>143.48</v>
-      </c>
-      <c r="C368">
-        <v>133.64</v>
-      </c>
-      <c r="D368">
-        <v>7.36</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44229</v>
-      </c>
-      <c r="B369">
-        <v>131.64</v>
-      </c>
-      <c r="C369">
-        <v>133.64</v>
-      </c>
-      <c r="D369">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44230</v>
-      </c>
-      <c r="B370">
-        <v>122.02</v>
-      </c>
-      <c r="C370">
-        <v>133.64</v>
-      </c>
-      <c r="D370">
-        <v>-8.699999999999999</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B371">
-        <v>124.19</v>
-      </c>
-      <c r="C371">
-        <v>133.64</v>
-      </c>
-      <c r="D371">
-        <v>-7.08</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44232</v>
-      </c>
-      <c r="B372">
-        <v>172.38</v>
-      </c>
-      <c r="C372">
-        <v>133.64</v>
-      </c>
-      <c r="D372">
-        <v>28.98</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44233</v>
-      </c>
-      <c r="B373">
-        <v>178.33</v>
-      </c>
-      <c r="C373">
-        <v>133.64</v>
-      </c>
-      <c r="D373">
-        <v>33.44</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44234</v>
-      </c>
-      <c r="B374">
-        <v>173.14</v>
-      </c>
-      <c r="C374">
-        <v>133.64</v>
-      </c>
-      <c r="D374">
-        <v>29.55</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44235</v>
-      </c>
-      <c r="B375">
-        <v>172.26</v>
-      </c>
-      <c r="C375">
-        <v>133.64</v>
-      </c>
-      <c r="D375">
-        <v>28.9</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44236</v>
-      </c>
-      <c r="B376">
-        <v>158.59</v>
-      </c>
-      <c r="C376">
-        <v>133.64</v>
-      </c>
-      <c r="D376">
-        <v>18.67</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44237</v>
-      </c>
-      <c r="B377">
-        <v>122.06</v>
-      </c>
-      <c r="C377">
-        <v>133.64</v>
-      </c>
-      <c r="D377">
-        <v>-8.67</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44238</v>
-      </c>
-      <c r="B378">
-        <v>110.2</v>
-      </c>
-      <c r="C378">
-        <v>133.64</v>
-      </c>
-      <c r="D378">
-        <v>-17.54</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44239</v>
-      </c>
-      <c r="B379">
-        <v>110.67</v>
-      </c>
-      <c r="C379">
-        <v>133.64</v>
-      </c>
-      <c r="D379">
-        <v>-17.19</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44240</v>
-      </c>
-      <c r="B380">
-        <v>116.28</v>
-      </c>
-      <c r="C380">
-        <v>133.64</v>
-      </c>
-      <c r="D380">
-        <v>-12.99</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44241</v>
-      </c>
-      <c r="B381">
-        <v>109.77</v>
-      </c>
-      <c r="C381">
-        <v>133.64</v>
-      </c>
-      <c r="D381">
-        <v>-17.86</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B382">
-        <v>111.99</v>
-      </c>
-      <c r="C382">
-        <v>133.64</v>
-      </c>
-      <c r="D382">
-        <v>-16.2</v>
+        <v>-21.44</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65010000_fazendinha.xlsx
@@ -417,170 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B2">
-        <v>84.08</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="C2">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D2">
-        <v>-37</v>
+        <v>-30.53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B3">
-        <v>72.34999999999999</v>
+        <v>103.71</v>
       </c>
       <c r="C3">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D3">
-        <v>-30.53</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B4">
-        <v>103.71</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="C4">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D4">
-        <v>20.01</v>
+        <v>-19.41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B5">
-        <v>76.15000000000001</v>
+        <v>88.81</v>
       </c>
       <c r="C5">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D5">
-        <v>-19.41</v>
+        <v>-24.99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B6">
-        <v>88.81</v>
+        <v>118.3</v>
       </c>
       <c r="C6">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D6">
-        <v>-24.99</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B7">
-        <v>118.3</v>
+        <v>151.59</v>
       </c>
       <c r="C7">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D7">
-        <v>6.97</v>
+        <v>32.78</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B8">
-        <v>151.59</v>
+        <v>143.48</v>
       </c>
       <c r="C8">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D8">
-        <v>32.78</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B9">
-        <v>143.48</v>
+        <v>122.91</v>
       </c>
       <c r="C9">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D9">
-        <v>8.58</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B10">
-        <v>122.91</v>
+        <v>156.28</v>
       </c>
       <c r="C10">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D10">
-        <v>-8.029999999999999</v>
+        <v>37.37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B11">
-        <v>156.28</v>
+        <v>94.36</v>
       </c>
       <c r="C11">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D11">
-        <v>37.37</v>
+        <v>-4.65</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B12">
-        <v>94.36</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="C12">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D12">
-        <v>-4.65</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B13">
-        <v>93.79000000000001</v>
+        <v>99.75</v>
       </c>
       <c r="C13">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D13">
-        <v>-6.15</v>
+        <v>-25.26</v>
       </c>
     </row>
   </sheetData>
@@ -617,5112 +617,5112 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B2">
-        <v>56.71</v>
+        <v>111.83</v>
       </c>
       <c r="C2">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D2">
-        <v>-57.51</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B3">
-        <v>58.68</v>
+        <v>112.91</v>
       </c>
       <c r="C3">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D3">
-        <v>-56.03</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B4">
-        <v>59.36</v>
+        <v>105.15</v>
       </c>
       <c r="C4">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D4">
-        <v>-55.52</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B5">
-        <v>63.59</v>
+        <v>85.3</v>
       </c>
       <c r="C5">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D5">
-        <v>-52.35</v>
+        <v>-18.09</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B6">
-        <v>62.3</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="C6">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D6">
-        <v>-53.32</v>
+        <v>-25.14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B7">
-        <v>65.33</v>
+        <v>74.64</v>
       </c>
       <c r="C7">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D7">
-        <v>-51.05</v>
+        <v>-28.34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B8">
-        <v>68.40000000000001</v>
+        <v>74.45</v>
       </c>
       <c r="C8">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D8">
-        <v>-48.75</v>
+        <v>-28.52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B9">
-        <v>71.23</v>
+        <v>74.22</v>
       </c>
       <c r="C9">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D9">
-        <v>-46.63</v>
+        <v>-28.74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B10">
-        <v>71.38</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C10">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D10">
-        <v>-46.52</v>
+        <v>-29.53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B11">
-        <v>127.99</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C11">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D11">
-        <v>-4.1</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B12">
-        <v>140.16</v>
+        <v>67.3</v>
       </c>
       <c r="C12">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D12">
-        <v>5.02</v>
+        <v>-35.38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B13">
-        <v>133.78</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C13">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D13">
-        <v>0.24</v>
+        <v>-36.43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B14">
-        <v>135.62</v>
+        <v>65.04000000000001</v>
       </c>
       <c r="C14">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D14">
-        <v>1.62</v>
+        <v>-37.55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B15">
-        <v>123.58</v>
+        <v>63.84</v>
       </c>
       <c r="C15">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D15">
-        <v>-7.4</v>
+        <v>-38.7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B16">
-        <v>88.09</v>
+        <v>61.53</v>
       </c>
       <c r="C16">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D16">
-        <v>-33.99</v>
+        <v>-40.92</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B17">
-        <v>83.12</v>
+        <v>61.94</v>
       </c>
       <c r="C17">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D17">
-        <v>-37.72</v>
+        <v>-40.53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B18">
-        <v>84.26000000000001</v>
+        <v>61.65</v>
       </c>
       <c r="C18">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D18">
-        <v>-36.87</v>
+        <v>-40.81</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B19">
-        <v>82.09</v>
+        <v>62.33</v>
       </c>
       <c r="C19">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D19">
-        <v>-38.49</v>
+        <v>-40.15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B20">
-        <v>81.25</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="C20">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D20">
-        <v>-39.12</v>
+        <v>-38.14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B21">
-        <v>72.48999999999999</v>
+        <v>62.27</v>
       </c>
       <c r="C21">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D21">
-        <v>-45.69</v>
+        <v>-40.21</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B22">
-        <v>67.66</v>
+        <v>63.4</v>
       </c>
       <c r="C22">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D22">
-        <v>-49.31</v>
+        <v>-39.13</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B23">
-        <v>66.05</v>
+        <v>60.67</v>
       </c>
       <c r="C23">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D23">
-        <v>-50.51</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B24">
-        <v>63.68</v>
+        <v>58.45</v>
       </c>
       <c r="C24">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D24">
-        <v>-52.29</v>
+        <v>-43.88</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B25">
-        <v>61.77</v>
+        <v>58.1</v>
       </c>
       <c r="C25">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D25">
-        <v>-53.72</v>
+        <v>-44.21</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B26">
-        <v>61.94</v>
+        <v>58.45</v>
       </c>
       <c r="C26">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D26">
-        <v>-53.59</v>
+        <v>-43.88</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B27">
-        <v>67.34</v>
+        <v>59.88</v>
       </c>
       <c r="C27">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D27">
-        <v>-49.54</v>
+        <v>-42.51</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B28">
-        <v>93.56</v>
+        <v>59.64</v>
       </c>
       <c r="C28">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D28">
-        <v>-29.9</v>
+        <v>-42.74</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B29">
-        <v>101.07</v>
+        <v>57.74</v>
       </c>
       <c r="C29">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D29">
-        <v>-24.27</v>
+        <v>-44.56</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B30">
-        <v>109.56</v>
+        <v>78.15000000000001</v>
       </c>
       <c r="C30">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D30">
-        <v>-17.91</v>
+        <v>-24.96</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B31">
-        <v>100.33</v>
+        <v>93.19</v>
       </c>
       <c r="C31">
-        <v>133.46</v>
+        <v>104.15</v>
       </c>
       <c r="D31">
-        <v>-24.83</v>
+        <v>-10.52</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B32">
-        <v>111.83</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="C32">
         <v>104.15</v>
       </c>
       <c r="D32">
-        <v>7.38</v>
+        <v>-4.23</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B33">
-        <v>112.91</v>
+        <v>85.78</v>
       </c>
       <c r="C33">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D33">
-        <v>8.41</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B34">
-        <v>105.15</v>
+        <v>91.14</v>
       </c>
       <c r="C34">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D34">
-        <v>0.96</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B35">
-        <v>85.3</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="C35">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D35">
-        <v>-18.09</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>44017</v>
+        <v>44047</v>
       </c>
       <c r="B36">
-        <v>77.95999999999999</v>
+        <v>73.47</v>
       </c>
       <c r="C36">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D36">
-        <v>-25.14</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>44018</v>
+        <v>44048</v>
       </c>
       <c r="B37">
-        <v>74.64</v>
+        <v>64.92</v>
       </c>
       <c r="C37">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D37">
-        <v>-28.34</v>
+        <v>-24.89</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>44019</v>
+        <v>44049</v>
       </c>
       <c r="B38">
-        <v>74.45</v>
+        <v>62.01</v>
       </c>
       <c r="C38">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D38">
-        <v>-28.52</v>
+        <v>-28.25</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>44020</v>
+        <v>44050</v>
       </c>
       <c r="B39">
-        <v>74.22</v>
+        <v>60.24</v>
       </c>
       <c r="C39">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D39">
-        <v>-28.74</v>
+        <v>-30.3</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>44021</v>
+        <v>44051</v>
       </c>
       <c r="B40">
-        <v>73.40000000000001</v>
+        <v>55.46</v>
       </c>
       <c r="C40">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D40">
-        <v>-29.53</v>
+        <v>-35.83</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>44022</v>
+        <v>44052</v>
       </c>
       <c r="B41">
-        <v>68.95999999999999</v>
+        <v>58.16</v>
       </c>
       <c r="C41">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D41">
-        <v>-33.79</v>
+        <v>-32.71</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>44023</v>
+        <v>44053</v>
       </c>
       <c r="B42">
-        <v>67.3</v>
+        <v>58.94</v>
       </c>
       <c r="C42">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D42">
-        <v>-35.38</v>
+        <v>-31.8</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>44024</v>
+        <v>44054</v>
       </c>
       <c r="B43">
-        <v>66.20999999999999</v>
+        <v>58.2</v>
       </c>
       <c r="C43">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D43">
-        <v>-36.43</v>
+        <v>-32.66</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>44025</v>
+        <v>44055</v>
       </c>
       <c r="B44">
-        <v>65.04000000000001</v>
+        <v>60.7</v>
       </c>
       <c r="C44">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D44">
-        <v>-37.55</v>
+        <v>-29.77</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>44026</v>
+        <v>44056</v>
       </c>
       <c r="B45">
-        <v>63.84</v>
+        <v>58.71</v>
       </c>
       <c r="C45">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D45">
-        <v>-38.7</v>
+        <v>-32.07</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>44027</v>
+        <v>44057</v>
       </c>
       <c r="B46">
-        <v>61.53</v>
+        <v>61.49</v>
       </c>
       <c r="C46">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D46">
-        <v>-40.92</v>
+        <v>-28.85</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>44028</v>
+        <v>44058</v>
       </c>
       <c r="B47">
-        <v>61.94</v>
+        <v>94.64</v>
       </c>
       <c r="C47">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D47">
-        <v>-40.53</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>44029</v>
+        <v>44059</v>
       </c>
       <c r="B48">
-        <v>61.65</v>
+        <v>138.78</v>
       </c>
       <c r="C48">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D48">
-        <v>-40.81</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>44030</v>
+        <v>44060</v>
       </c>
       <c r="B49">
-        <v>62.33</v>
+        <v>136.85</v>
       </c>
       <c r="C49">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D49">
-        <v>-40.15</v>
+        <v>58.35</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>44031</v>
+        <v>44061</v>
       </c>
       <c r="B50">
-        <v>64.43000000000001</v>
+        <v>148.99</v>
       </c>
       <c r="C50">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D50">
-        <v>-38.14</v>
+        <v>72.39</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>44032</v>
+        <v>44062</v>
       </c>
       <c r="B51">
-        <v>62.27</v>
+        <v>174.34</v>
       </c>
       <c r="C51">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D51">
-        <v>-40.21</v>
+        <v>101.73</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>44033</v>
+        <v>44063</v>
       </c>
       <c r="B52">
-        <v>63.4</v>
+        <v>190.33</v>
       </c>
       <c r="C52">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D52">
-        <v>-39.13</v>
+        <v>120.23</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>44034</v>
+        <v>44064</v>
       </c>
       <c r="B53">
-        <v>60.67</v>
+        <v>186.71</v>
       </c>
       <c r="C53">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D53">
-        <v>-41.75</v>
+        <v>116.04</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>44035</v>
+        <v>44065</v>
       </c>
       <c r="B54">
-        <v>58.45</v>
+        <v>179.1</v>
       </c>
       <c r="C54">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D54">
-        <v>-43.88</v>
+        <v>107.24</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>44036</v>
+        <v>44066</v>
       </c>
       <c r="B55">
-        <v>58.1</v>
+        <v>177.72</v>
       </c>
       <c r="C55">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D55">
-        <v>-44.21</v>
+        <v>105.64</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>44037</v>
+        <v>44067</v>
       </c>
       <c r="B56">
-        <v>58.45</v>
+        <v>174.61</v>
       </c>
       <c r="C56">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D56">
-        <v>-43.88</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>44038</v>
+        <v>44068</v>
       </c>
       <c r="B57">
-        <v>59.88</v>
+        <v>147.24</v>
       </c>
       <c r="C57">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D57">
-        <v>-42.51</v>
+        <v>70.37</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>44039</v>
+        <v>44069</v>
       </c>
       <c r="B58">
-        <v>59.64</v>
+        <v>105.73</v>
       </c>
       <c r="C58">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D58">
-        <v>-42.74</v>
+        <v>22.34</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B59">
-        <v>57.74</v>
+        <v>94.2</v>
       </c>
       <c r="C59">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D59">
-        <v>-44.56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B60">
-        <v>78.15000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="C60">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D60">
-        <v>-24.96</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B61">
-        <v>93.19</v>
+        <v>83.58</v>
       </c>
       <c r="C61">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D61">
-        <v>-10.52</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B62">
-        <v>99.73999999999999</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="C62">
-        <v>104.15</v>
+        <v>86.42</v>
       </c>
       <c r="D62">
-        <v>-4.23</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B63">
-        <v>85.78</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="C63">
         <v>86.42</v>
       </c>
       <c r="D63">
-        <v>-0.74</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B64">
-        <v>91.14</v>
+        <v>77.5</v>
       </c>
       <c r="C64">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D64">
-        <v>5.45</v>
+        <v>-17.98</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B65">
-        <v>85.95999999999999</v>
+        <v>81.58</v>
       </c>
       <c r="C65">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D65">
-        <v>-0.54</v>
+        <v>-13.66</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>44047</v>
+        <v>44077</v>
       </c>
       <c r="B66">
-        <v>73.47</v>
+        <v>91.84</v>
       </c>
       <c r="C66">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D66">
-        <v>-14.99</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>44048</v>
+        <v>44078</v>
       </c>
       <c r="B67">
-        <v>64.92</v>
+        <v>106.82</v>
       </c>
       <c r="C67">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D67">
-        <v>-24.89</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>44049</v>
+        <v>44079</v>
       </c>
       <c r="B68">
-        <v>62.01</v>
+        <v>106.64</v>
       </c>
       <c r="C68">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D68">
-        <v>-28.25</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>44050</v>
+        <v>44080</v>
       </c>
       <c r="B69">
-        <v>60.24</v>
+        <v>87.47</v>
       </c>
       <c r="C69">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D69">
-        <v>-30.3</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>44051</v>
+        <v>44081</v>
       </c>
       <c r="B70">
-        <v>55.46</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="C70">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D70">
-        <v>-35.83</v>
+        <v>-13.56</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>44052</v>
+        <v>44082</v>
       </c>
       <c r="B71">
-        <v>58.16</v>
+        <v>78.05</v>
       </c>
       <c r="C71">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D71">
-        <v>-32.71</v>
+        <v>-17.39</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>44053</v>
+        <v>44083</v>
       </c>
       <c r="B72">
-        <v>58.94</v>
+        <v>76.84</v>
       </c>
       <c r="C72">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D72">
-        <v>-31.8</v>
+        <v>-18.67</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>44054</v>
+        <v>44084</v>
       </c>
       <c r="B73">
-        <v>58.2</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="C73">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D73">
-        <v>-32.66</v>
+        <v>-23.49</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>44055</v>
+        <v>44085</v>
       </c>
       <c r="B74">
-        <v>60.7</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="C74">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D74">
-        <v>-29.77</v>
+        <v>-25.17</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>44056</v>
+        <v>44086</v>
       </c>
       <c r="B75">
-        <v>58.71</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C75">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D75">
-        <v>-32.07</v>
+        <v>-27.92</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>44057</v>
+        <v>44087</v>
       </c>
       <c r="B76">
-        <v>61.49</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="C76">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D76">
-        <v>-28.85</v>
+        <v>-28.78</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>44058</v>
+        <v>44088</v>
       </c>
       <c r="B77">
-        <v>94.64</v>
+        <v>68.28</v>
       </c>
       <c r="C77">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D77">
-        <v>9.5</v>
+        <v>-27.74</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>44059</v>
+        <v>44089</v>
       </c>
       <c r="B78">
-        <v>138.78</v>
+        <v>66.16</v>
       </c>
       <c r="C78">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D78">
-        <v>60.58</v>
+        <v>-29.98</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>44060</v>
+        <v>44090</v>
       </c>
       <c r="B79">
-        <v>136.85</v>
+        <v>62.6</v>
       </c>
       <c r="C79">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D79">
-        <v>58.35</v>
+        <v>-33.74</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>44061</v>
+        <v>44091</v>
       </c>
       <c r="B80">
-        <v>148.99</v>
+        <v>64.53</v>
       </c>
       <c r="C80">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D80">
-        <v>72.39</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>44062</v>
+        <v>44092</v>
       </c>
       <c r="B81">
-        <v>174.34</v>
+        <v>64.59</v>
       </c>
       <c r="C81">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D81">
-        <v>101.73</v>
+        <v>-31.64</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>44063</v>
+        <v>44093</v>
       </c>
       <c r="B82">
-        <v>190.33</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="C82">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D82">
-        <v>120.23</v>
+        <v>-31.89</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>44064</v>
+        <v>44094</v>
       </c>
       <c r="B83">
-        <v>186.71</v>
+        <v>63.04</v>
       </c>
       <c r="C83">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D83">
-        <v>116.04</v>
+        <v>-33.28</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>44065</v>
+        <v>44095</v>
       </c>
       <c r="B84">
-        <v>179.1</v>
+        <v>61.26</v>
       </c>
       <c r="C84">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D84">
-        <v>107.24</v>
+        <v>-35.17</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>44066</v>
+        <v>44096</v>
       </c>
       <c r="B85">
-        <v>177.72</v>
+        <v>61.96</v>
       </c>
       <c r="C85">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D85">
-        <v>105.64</v>
+        <v>-34.43</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>44067</v>
+        <v>44097</v>
       </c>
       <c r="B86">
-        <v>174.61</v>
+        <v>65.56</v>
       </c>
       <c r="C86">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D86">
-        <v>102.05</v>
+        <v>-30.61</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>44068</v>
+        <v>44098</v>
       </c>
       <c r="B87">
-        <v>147.24</v>
+        <v>65.52</v>
       </c>
       <c r="C87">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D87">
-        <v>70.37</v>
+        <v>-30.66</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>44069</v>
+        <v>44099</v>
       </c>
       <c r="B88">
-        <v>105.73</v>
+        <v>63.72</v>
       </c>
       <c r="C88">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D88">
-        <v>22.34</v>
+        <v>-32.56</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B89">
-        <v>94.2</v>
+        <v>64.36</v>
       </c>
       <c r="C89">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D89">
-        <v>9</v>
+        <v>-31.88</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B90">
-        <v>87.5</v>
+        <v>62.83</v>
       </c>
       <c r="C90">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D90">
-        <v>1.25</v>
+        <v>-33.5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B91">
-        <v>83.58</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="C91">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D91">
-        <v>-3.29</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B92">
-        <v>80.15000000000001</v>
+        <v>108.8</v>
       </c>
       <c r="C92">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D92">
-        <v>-7.26</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B93">
-        <v>79.48999999999999</v>
+        <v>117.06</v>
       </c>
       <c r="C93">
-        <v>86.42</v>
+        <v>94.48999999999999</v>
       </c>
       <c r="D93">
-        <v>-8.02</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B94">
-        <v>77.5</v>
+        <v>110.98</v>
       </c>
       <c r="C94">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D94">
-        <v>-17.98</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>44076</v>
+        <v>44106</v>
       </c>
       <c r="B95">
-        <v>81.58</v>
+        <v>93.73</v>
       </c>
       <c r="C95">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D95">
-        <v>-13.66</v>
+        <v>-20.84</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>44077</v>
+        <v>44107</v>
       </c>
       <c r="B96">
-        <v>91.84</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="C96">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D96">
-        <v>-2.8</v>
+        <v>-24.37</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>44078</v>
+        <v>44108</v>
       </c>
       <c r="B97">
-        <v>106.82</v>
+        <v>83.89</v>
       </c>
       <c r="C97">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D97">
-        <v>13.06</v>
+        <v>-29.15</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>44079</v>
+        <v>44109</v>
       </c>
       <c r="B98">
-        <v>106.64</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C98">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D98">
-        <v>12.86</v>
+        <v>-29.41</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>44080</v>
+        <v>44110</v>
       </c>
       <c r="B99">
-        <v>87.47</v>
+        <v>87.34</v>
       </c>
       <c r="C99">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D99">
-        <v>-7.43</v>
+        <v>-26.23</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>44081</v>
+        <v>44111</v>
       </c>
       <c r="B100">
-        <v>81.68000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="C100">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D100">
-        <v>-13.56</v>
+        <v>-15.8</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>44082</v>
+        <v>44112</v>
       </c>
       <c r="B101">
-        <v>78.05</v>
+        <v>103.88</v>
       </c>
       <c r="C101">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D101">
-        <v>-17.39</v>
+        <v>-12.27</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>44083</v>
+        <v>44113</v>
       </c>
       <c r="B102">
-        <v>76.84</v>
+        <v>120.94</v>
       </c>
       <c r="C102">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D102">
-        <v>-18.67</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>44084</v>
+        <v>44114</v>
       </c>
       <c r="B103">
-        <v>72.29000000000001</v>
+        <v>127.96</v>
       </c>
       <c r="C103">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D103">
-        <v>-23.49</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>44085</v>
+        <v>44115</v>
       </c>
       <c r="B104">
-        <v>70.70999999999999</v>
+        <v>124.85</v>
       </c>
       <c r="C104">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D104">
-        <v>-25.17</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>44086</v>
+        <v>44116</v>
       </c>
       <c r="B105">
-        <v>68.09999999999999</v>
+        <v>120.96</v>
       </c>
       <c r="C105">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D105">
-        <v>-27.92</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>44087</v>
+        <v>44117</v>
       </c>
       <c r="B106">
-        <v>67.29000000000001</v>
+        <v>100.17</v>
       </c>
       <c r="C106">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D106">
-        <v>-28.78</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>44088</v>
+        <v>44118</v>
       </c>
       <c r="B107">
-        <v>68.28</v>
+        <v>87.8</v>
       </c>
       <c r="C107">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D107">
-        <v>-27.74</v>
+        <v>-25.84</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>44089</v>
+        <v>44119</v>
       </c>
       <c r="B108">
-        <v>66.16</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="C108">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D108">
-        <v>-29.98</v>
+        <v>-32.02</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>44090</v>
+        <v>44120</v>
       </c>
       <c r="B109">
-        <v>62.6</v>
+        <v>76.62</v>
       </c>
       <c r="C109">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D109">
-        <v>-33.74</v>
+        <v>-35.28</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>44091</v>
+        <v>44121</v>
       </c>
       <c r="B110">
-        <v>64.53</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="C110">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D110">
-        <v>-31.7</v>
+        <v>-36.53</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>44092</v>
+        <v>44122</v>
       </c>
       <c r="B111">
-        <v>64.59</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="C111">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D111">
-        <v>-31.64</v>
+        <v>-37.02</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>44093</v>
+        <v>44123</v>
       </c>
       <c r="B112">
-        <v>64.34999999999999</v>
+        <v>74.76000000000001</v>
       </c>
       <c r="C112">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D112">
-        <v>-31.89</v>
+        <v>-36.86</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>44094</v>
+        <v>44124</v>
       </c>
       <c r="B113">
-        <v>63.04</v>
+        <v>72.7</v>
       </c>
       <c r="C113">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D113">
-        <v>-33.28</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>44095</v>
+        <v>44125</v>
       </c>
       <c r="B114">
-        <v>61.26</v>
+        <v>72.06999999999999</v>
       </c>
       <c r="C114">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D114">
-        <v>-35.17</v>
+        <v>-39.13</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>44096</v>
+        <v>44126</v>
       </c>
       <c r="B115">
-        <v>61.96</v>
+        <v>73.03</v>
       </c>
       <c r="C115">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D115">
-        <v>-34.43</v>
+        <v>-38.32</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>44097</v>
+        <v>44127</v>
       </c>
       <c r="B116">
-        <v>65.56</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="C116">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D116">
-        <v>-30.61</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>44098</v>
+        <v>44128</v>
       </c>
       <c r="B117">
-        <v>65.52</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="C117">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D117">
-        <v>-30.66</v>
+        <v>-32.85</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>44099</v>
+        <v>44129</v>
       </c>
       <c r="B118">
-        <v>63.72</v>
+        <v>91.14</v>
       </c>
       <c r="C118">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D118">
-        <v>-32.56</v>
+        <v>-23.03</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>44100</v>
+        <v>44130</v>
       </c>
       <c r="B119">
-        <v>64.36</v>
+        <v>84.36</v>
       </c>
       <c r="C119">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D119">
-        <v>-31.88</v>
+        <v>-28.75</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>44101</v>
+        <v>44131</v>
       </c>
       <c r="B120">
-        <v>62.83</v>
+        <v>81.12</v>
       </c>
       <c r="C120">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D120">
-        <v>-33.5</v>
+        <v>-31.48</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>44102</v>
+        <v>44132</v>
       </c>
       <c r="B121">
-        <v>93.01000000000001</v>
+        <v>73.16</v>
       </c>
       <c r="C121">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D121">
-        <v>-1.56</v>
+        <v>-38.21</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>44103</v>
+        <v>44133</v>
       </c>
       <c r="B122">
-        <v>108.8</v>
+        <v>69.12</v>
       </c>
       <c r="C122">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D122">
-        <v>15.15</v>
+        <v>-41.62</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B123">
-        <v>117.06</v>
+        <v>84.55</v>
       </c>
       <c r="C123">
-        <v>94.48999999999999</v>
+        <v>118.4</v>
       </c>
       <c r="D123">
-        <v>23.89</v>
+        <v>-28.59</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B124">
-        <v>110.98</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="C124">
         <v>118.4</v>
       </c>
       <c r="D124">
-        <v>-6.27</v>
+        <v>-30.33</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>44106</v>
+        <v>44136</v>
       </c>
       <c r="B125">
-        <v>93.73</v>
+        <v>97.92</v>
       </c>
       <c r="C125">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D125">
-        <v>-20.84</v>
+        <v>-11.46</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>44107</v>
+        <v>44137</v>
       </c>
       <c r="B126">
-        <v>89.54000000000001</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="C126">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D126">
-        <v>-24.37</v>
+        <v>-13.01</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>44108</v>
+        <v>44138</v>
       </c>
       <c r="B127">
-        <v>83.89</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="C127">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D127">
-        <v>-29.15</v>
+        <v>-22.4</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>44109</v>
+        <v>44139</v>
       </c>
       <c r="B128">
-        <v>83.56999999999999</v>
+        <v>89.19</v>
       </c>
       <c r="C128">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D128">
-        <v>-29.41</v>
+        <v>-19.36</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>44110</v>
+        <v>44140</v>
       </c>
       <c r="B129">
-        <v>87.34</v>
+        <v>87.25</v>
       </c>
       <c r="C129">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D129">
-        <v>-26.23</v>
+        <v>-21.11</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>44111</v>
+        <v>44141</v>
       </c>
       <c r="B130">
-        <v>99.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="C130">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D130">
-        <v>-15.8</v>
+        <v>-26.85</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>44112</v>
+        <v>44142</v>
       </c>
       <c r="B131">
-        <v>103.88</v>
+        <v>73.41</v>
       </c>
       <c r="C131">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D131">
-        <v>-12.27</v>
+        <v>-33.63</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>44113</v>
+        <v>44143</v>
       </c>
       <c r="B132">
-        <v>120.94</v>
+        <v>70.88</v>
       </c>
       <c r="C132">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D132">
-        <v>2.14</v>
+        <v>-35.92</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>44114</v>
+        <v>44144</v>
       </c>
       <c r="B133">
-        <v>127.96</v>
+        <v>69.95</v>
       </c>
       <c r="C133">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D133">
-        <v>8.07</v>
+        <v>-36.75</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="B134">
-        <v>124.85</v>
+        <v>71.31</v>
       </c>
       <c r="C134">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D134">
-        <v>5.45</v>
+        <v>-35.52</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>44116</v>
+        <v>44146</v>
       </c>
       <c r="B135">
-        <v>120.96</v>
+        <v>101.54</v>
       </c>
       <c r="C135">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D135">
-        <v>2.16</v>
+        <v>-8.19</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>44117</v>
+        <v>44147</v>
       </c>
       <c r="B136">
-        <v>100.17</v>
+        <v>123.43</v>
       </c>
       <c r="C136">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D136">
-        <v>-15.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>44118</v>
+        <v>44148</v>
       </c>
       <c r="B137">
-        <v>87.8</v>
+        <v>121.72</v>
       </c>
       <c r="C137">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D137">
-        <v>-25.84</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>44119</v>
+        <v>44149</v>
       </c>
       <c r="B138">
-        <v>80.48999999999999</v>
+        <v>132.06</v>
       </c>
       <c r="C138">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D138">
-        <v>-32.02</v>
+        <v>19.41</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>44120</v>
+        <v>44150</v>
       </c>
       <c r="B139">
-        <v>76.62</v>
+        <v>131.73</v>
       </c>
       <c r="C139">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D139">
-        <v>-35.28</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>44121</v>
+        <v>44151</v>
       </c>
       <c r="B140">
-        <v>75.15000000000001</v>
+        <v>131</v>
       </c>
       <c r="C140">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D140">
-        <v>-36.53</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="B141">
-        <v>74.56999999999999</v>
+        <v>136.65</v>
       </c>
       <c r="C141">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D141">
-        <v>-37.02</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>44123</v>
+        <v>44153</v>
       </c>
       <c r="B142">
-        <v>74.76000000000001</v>
+        <v>150.31</v>
       </c>
       <c r="C142">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D142">
-        <v>-36.86</v>
+        <v>35.91</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>44124</v>
+        <v>44154</v>
       </c>
       <c r="B143">
-        <v>72.7</v>
+        <v>172.94</v>
       </c>
       <c r="C143">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D143">
-        <v>-38.6</v>
+        <v>56.37</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>44125</v>
+        <v>44155</v>
       </c>
       <c r="B144">
-        <v>72.06999999999999</v>
+        <v>178.18</v>
       </c>
       <c r="C144">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D144">
-        <v>-39.13</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>44126</v>
+        <v>44156</v>
       </c>
       <c r="B145">
-        <v>73.03</v>
+        <v>163.41</v>
       </c>
       <c r="C145">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D145">
-        <v>-38.32</v>
+        <v>47.75</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>44127</v>
+        <v>44157</v>
       </c>
       <c r="B146">
-        <v>72.93000000000001</v>
+        <v>156.15</v>
       </c>
       <c r="C146">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D146">
-        <v>-38.41</v>
+        <v>41.19</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>44128</v>
+        <v>44158</v>
       </c>
       <c r="B147">
-        <v>79.51000000000001</v>
+        <v>149.28</v>
       </c>
       <c r="C147">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D147">
-        <v>-32.85</v>
+        <v>34.98</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>44129</v>
+        <v>44159</v>
       </c>
       <c r="B148">
-        <v>91.14</v>
+        <v>123.38</v>
       </c>
       <c r="C148">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D148">
-        <v>-23.03</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>44130</v>
+        <v>44160</v>
       </c>
       <c r="B149">
-        <v>84.36</v>
+        <v>106</v>
       </c>
       <c r="C149">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D149">
-        <v>-28.75</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>44131</v>
+        <v>44161</v>
       </c>
       <c r="B150">
-        <v>81.12</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="C150">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D150">
-        <v>-31.48</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>44132</v>
+        <v>44162</v>
       </c>
       <c r="B151">
-        <v>73.16</v>
+        <v>117.14</v>
       </c>
       <c r="C151">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D151">
-        <v>-38.21</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>44133</v>
+        <v>44163</v>
       </c>
       <c r="B152">
-        <v>69.12</v>
+        <v>132.92</v>
       </c>
       <c r="C152">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D152">
-        <v>-41.62</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>44134</v>
+        <v>44164</v>
       </c>
       <c r="B153">
-        <v>84.55</v>
+        <v>143.1</v>
       </c>
       <c r="C153">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D153">
-        <v>-28.59</v>
+        <v>29.39</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B154">
-        <v>82.48999999999999</v>
+        <v>156.79</v>
       </c>
       <c r="C154">
-        <v>118.4</v>
+        <v>110.6</v>
       </c>
       <c r="D154">
-        <v>-30.33</v>
+        <v>41.77</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B155">
-        <v>97.92</v>
+        <v>158.92</v>
       </c>
       <c r="C155">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D155">
-        <v>-11.46</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>44137</v>
+        <v>44167</v>
       </c>
       <c r="B156">
-        <v>96.20999999999999</v>
+        <v>121.25</v>
       </c>
       <c r="C156">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D156">
-        <v>-13.01</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>44138</v>
+        <v>44168</v>
       </c>
       <c r="B157">
-        <v>85.81999999999999</v>
+        <v>114.91</v>
       </c>
       <c r="C157">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D157">
-        <v>-22.4</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>44139</v>
+        <v>44169</v>
       </c>
       <c r="B158">
-        <v>89.19</v>
+        <v>117.42</v>
       </c>
       <c r="C158">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D158">
-        <v>-19.36</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>44140</v>
+        <v>44170</v>
       </c>
       <c r="B159">
-        <v>87.25</v>
+        <v>147.08</v>
       </c>
       <c r="C159">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D159">
-        <v>-21.11</v>
+        <v>28.83</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>44141</v>
+        <v>44171</v>
       </c>
       <c r="B160">
-        <v>80.90000000000001</v>
+        <v>174.86</v>
       </c>
       <c r="C160">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D160">
-        <v>-26.85</v>
+        <v>53.17</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>44142</v>
+        <v>44172</v>
       </c>
       <c r="B161">
-        <v>73.41</v>
+        <v>183.38</v>
       </c>
       <c r="C161">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D161">
-        <v>-33.63</v>
+        <v>60.62</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>44143</v>
+        <v>44173</v>
       </c>
       <c r="B162">
-        <v>70.88</v>
+        <v>180.68</v>
       </c>
       <c r="C162">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D162">
-        <v>-35.92</v>
+        <v>58.26</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>44144</v>
+        <v>44174</v>
       </c>
       <c r="B163">
-        <v>69.95</v>
+        <v>218.32</v>
       </c>
       <c r="C163">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D163">
-        <v>-36.75</v>
+        <v>91.23</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>44145</v>
+        <v>44175</v>
       </c>
       <c r="B164">
-        <v>71.31</v>
+        <v>214.3</v>
       </c>
       <c r="C164">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D164">
-        <v>-35.52</v>
+        <v>87.70999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>44146</v>
+        <v>44176</v>
       </c>
       <c r="B165">
-        <v>101.54</v>
+        <v>195.34</v>
       </c>
       <c r="C165">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D165">
-        <v>-8.19</v>
+        <v>71.11</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>44147</v>
+        <v>44177</v>
       </c>
       <c r="B166">
-        <v>123.43</v>
+        <v>176.05</v>
       </c>
       <c r="C166">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D166">
-        <v>11.6</v>
+        <v>54.21</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>44148</v>
+        <v>44178</v>
       </c>
       <c r="B167">
-        <v>121.72</v>
+        <v>145.78</v>
       </c>
       <c r="C167">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D167">
-        <v>10.06</v>
+        <v>27.69</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>44149</v>
+        <v>44179</v>
       </c>
       <c r="B168">
-        <v>132.06</v>
+        <v>126.88</v>
       </c>
       <c r="C168">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D168">
-        <v>19.41</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>44150</v>
+        <v>44180</v>
       </c>
       <c r="B169">
-        <v>131.73</v>
+        <v>131.96</v>
       </c>
       <c r="C169">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D169">
-        <v>19.11</v>
+        <v>15.59</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>44151</v>
+        <v>44181</v>
       </c>
       <c r="B170">
-        <v>131</v>
+        <v>155.1</v>
       </c>
       <c r="C170">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D170">
-        <v>18.45</v>
+        <v>35.86</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44152</v>
+        <v>44182</v>
       </c>
       <c r="B171">
-        <v>136.65</v>
+        <v>171.08</v>
       </c>
       <c r="C171">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D171">
-        <v>23.56</v>
+        <v>49.86</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44153</v>
+        <v>44183</v>
       </c>
       <c r="B172">
-        <v>150.31</v>
+        <v>163.4</v>
       </c>
       <c r="C172">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D172">
-        <v>35.91</v>
+        <v>43.12</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44154</v>
+        <v>44184</v>
       </c>
       <c r="B173">
-        <v>172.94</v>
+        <v>169.88</v>
       </c>
       <c r="C173">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D173">
-        <v>56.37</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44155</v>
+        <v>44185</v>
       </c>
       <c r="B174">
-        <v>178.18</v>
+        <v>172.2</v>
       </c>
       <c r="C174">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D174">
-        <v>61.11</v>
+        <v>50.83</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44156</v>
+        <v>44186</v>
       </c>
       <c r="B175">
-        <v>163.41</v>
+        <v>154.51</v>
       </c>
       <c r="C175">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D175">
-        <v>47.75</v>
+        <v>35.34</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44157</v>
+        <v>44187</v>
       </c>
       <c r="B176">
-        <v>156.15</v>
+        <v>144.25</v>
       </c>
       <c r="C176">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D176">
-        <v>41.19</v>
+        <v>26.35</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44158</v>
+        <v>44188</v>
       </c>
       <c r="B177">
-        <v>149.28</v>
+        <v>143.75</v>
       </c>
       <c r="C177">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D177">
-        <v>34.98</v>
+        <v>25.91</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44159</v>
+        <v>44189</v>
       </c>
       <c r="B178">
-        <v>123.38</v>
+        <v>139.12</v>
       </c>
       <c r="C178">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D178">
-        <v>11.55</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44160</v>
+        <v>44190</v>
       </c>
       <c r="B179">
-        <v>106</v>
+        <v>130.01</v>
       </c>
       <c r="C179">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D179">
-        <v>-4.16</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44161</v>
+        <v>44191</v>
       </c>
       <c r="B180">
-        <v>98.54000000000001</v>
+        <v>129.23</v>
       </c>
       <c r="C180">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D180">
-        <v>-10.9</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44162</v>
+        <v>44192</v>
       </c>
       <c r="B181">
-        <v>117.14</v>
+        <v>126.26</v>
       </c>
       <c r="C181">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D181">
-        <v>5.92</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44163</v>
+        <v>44193</v>
       </c>
       <c r="B182">
-        <v>132.92</v>
+        <v>118.47</v>
       </c>
       <c r="C182">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D182">
-        <v>20.18</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44164</v>
+        <v>44194</v>
       </c>
       <c r="B183">
-        <v>143.1</v>
+        <v>114.98</v>
       </c>
       <c r="C183">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D183">
-        <v>29.39</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44165</v>
+        <v>44195</v>
       </c>
       <c r="B184">
-        <v>156.79</v>
+        <v>123.01</v>
       </c>
       <c r="C184">
-        <v>110.6</v>
+        <v>114.17</v>
       </c>
       <c r="D184">
-        <v>41.77</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="B185">
-        <v>158.92</v>
+        <v>136.88</v>
       </c>
       <c r="C185">
         <v>114.17</v>
       </c>
       <c r="D185">
-        <v>39.2</v>
+        <v>19.89</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44167</v>
+        <v>44197</v>
       </c>
       <c r="B186">
-        <v>121.25</v>
+        <v>151.58</v>
       </c>
       <c r="C186">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D186">
-        <v>6.21</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44168</v>
+        <v>44198</v>
       </c>
       <c r="B187">
-        <v>114.91</v>
+        <v>172.18</v>
       </c>
       <c r="C187">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D187">
-        <v>0.65</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44169</v>
+        <v>44199</v>
       </c>
       <c r="B188">
-        <v>117.42</v>
+        <v>168.95</v>
       </c>
       <c r="C188">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D188">
-        <v>2.85</v>
+        <v>27.85</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44170</v>
+        <v>44200</v>
       </c>
       <c r="B189">
-        <v>147.08</v>
+        <v>139.52</v>
       </c>
       <c r="C189">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D189">
-        <v>28.83</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44171</v>
+        <v>44201</v>
       </c>
       <c r="B190">
-        <v>174.86</v>
+        <v>128.86</v>
       </c>
       <c r="C190">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D190">
-        <v>53.17</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44172</v>
+        <v>44202</v>
       </c>
       <c r="B191">
-        <v>183.38</v>
+        <v>134.88</v>
       </c>
       <c r="C191">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D191">
-        <v>60.62</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44173</v>
+        <v>44203</v>
       </c>
       <c r="B192">
-        <v>180.68</v>
+        <v>121.97</v>
       </c>
       <c r="C192">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D192">
-        <v>58.26</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44174</v>
+        <v>44204</v>
       </c>
       <c r="B193">
-        <v>218.32</v>
+        <v>119.9</v>
       </c>
       <c r="C193">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D193">
-        <v>91.23</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44175</v>
+        <v>44205</v>
       </c>
       <c r="B194">
-        <v>214.3</v>
+        <v>117.12</v>
       </c>
       <c r="C194">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D194">
-        <v>87.70999999999999</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44176</v>
+        <v>44206</v>
       </c>
       <c r="B195">
-        <v>195.34</v>
+        <v>110.84</v>
       </c>
       <c r="C195">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D195">
-        <v>71.11</v>
+        <v>-16.12</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44177</v>
+        <v>44207</v>
       </c>
       <c r="B196">
-        <v>176.05</v>
+        <v>109.68</v>
       </c>
       <c r="C196">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D196">
-        <v>54.21</v>
+        <v>-17.01</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44178</v>
+        <v>44208</v>
       </c>
       <c r="B197">
-        <v>145.78</v>
+        <v>105.02</v>
       </c>
       <c r="C197">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D197">
-        <v>27.69</v>
+        <v>-20.53</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44179</v>
+        <v>44209</v>
       </c>
       <c r="B198">
-        <v>126.88</v>
+        <v>103.65</v>
       </c>
       <c r="C198">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D198">
-        <v>11.13</v>
+        <v>-21.57</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44180</v>
+        <v>44210</v>
       </c>
       <c r="B199">
-        <v>131.96</v>
+        <v>104.81</v>
       </c>
       <c r="C199">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D199">
-        <v>15.59</v>
+        <v>-20.69</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44181</v>
+        <v>44211</v>
       </c>
       <c r="B200">
-        <v>155.1</v>
+        <v>104.42</v>
       </c>
       <c r="C200">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D200">
-        <v>35.86</v>
+        <v>-20.99</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44182</v>
+        <v>44212</v>
       </c>
       <c r="B201">
-        <v>171.08</v>
+        <v>107.09</v>
       </c>
       <c r="C201">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D201">
-        <v>49.86</v>
+        <v>-18.96</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44183</v>
+        <v>44213</v>
       </c>
       <c r="B202">
-        <v>163.4</v>
+        <v>113.38</v>
       </c>
       <c r="C202">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D202">
-        <v>43.12</v>
+        <v>-14.21</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44184</v>
+        <v>44214</v>
       </c>
       <c r="B203">
-        <v>169.88</v>
+        <v>145.18</v>
       </c>
       <c r="C203">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D203">
-        <v>48.8</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44185</v>
+        <v>44215</v>
       </c>
       <c r="B204">
-        <v>172.2</v>
+        <v>179.54</v>
       </c>
       <c r="C204">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D204">
-        <v>50.83</v>
+        <v>35.86</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44186</v>
+        <v>44216</v>
       </c>
       <c r="B205">
-        <v>154.51</v>
+        <v>175.85</v>
       </c>
       <c r="C205">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D205">
-        <v>35.34</v>
+        <v>33.07</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44187</v>
+        <v>44217</v>
       </c>
       <c r="B206">
-        <v>144.25</v>
+        <v>201.51</v>
       </c>
       <c r="C206">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D206">
-        <v>26.35</v>
+        <v>52.49</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44218</v>
       </c>
       <c r="B207">
-        <v>143.75</v>
+        <v>209.03</v>
       </c>
       <c r="C207">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D207">
-        <v>25.91</v>
+        <v>58.18</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44189</v>
+        <v>44219</v>
       </c>
       <c r="B208">
-        <v>139.12</v>
+        <v>191.14</v>
       </c>
       <c r="C208">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D208">
-        <v>21.86</v>
+        <v>44.63</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44190</v>
+        <v>44220</v>
       </c>
       <c r="B209">
-        <v>130.01</v>
+        <v>173.05</v>
       </c>
       <c r="C209">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D209">
-        <v>13.88</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44191</v>
+        <v>44221</v>
       </c>
       <c r="B210">
-        <v>129.23</v>
+        <v>152.68</v>
       </c>
       <c r="C210">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D210">
-        <v>13.19</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44192</v>
+        <v>44222</v>
       </c>
       <c r="B211">
-        <v>126.26</v>
+        <v>138.14</v>
       </c>
       <c r="C211">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D211">
-        <v>10.59</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44193</v>
+        <v>44223</v>
       </c>
       <c r="B212">
-        <v>118.47</v>
+        <v>129.64</v>
       </c>
       <c r="C212">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D212">
-        <v>3.77</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="B213">
-        <v>114.98</v>
+        <v>139.52</v>
       </c>
       <c r="C213">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D213">
-        <v>0.71</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44195</v>
+        <v>44225</v>
       </c>
       <c r="B214">
-        <v>123.01</v>
+        <v>164.82</v>
       </c>
       <c r="C214">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D214">
-        <v>7.75</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44196</v>
+        <v>44226</v>
       </c>
       <c r="B215">
-        <v>136.88</v>
+        <v>173.56</v>
       </c>
       <c r="C215">
-        <v>114.17</v>
+        <v>132.15</v>
       </c>
       <c r="D215">
-        <v>19.89</v>
+        <v>31.34</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B216">
-        <v>151.58</v>
+        <v>160.47</v>
       </c>
       <c r="C216">
         <v>132.15</v>
       </c>
       <c r="D216">
-        <v>14.71</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44198</v>
+        <v>44228</v>
       </c>
       <c r="B217">
-        <v>172.18</v>
+        <v>143.48</v>
       </c>
       <c r="C217">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D217">
-        <v>30.29</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44199</v>
+        <v>44229</v>
       </c>
       <c r="B218">
-        <v>168.95</v>
+        <v>131.64</v>
       </c>
       <c r="C218">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D218">
-        <v>27.85</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44200</v>
+        <v>44230</v>
       </c>
       <c r="B219">
-        <v>139.52</v>
+        <v>122.02</v>
       </c>
       <c r="C219">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D219">
-        <v>5.58</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44201</v>
+        <v>44231</v>
       </c>
       <c r="B220">
-        <v>128.86</v>
+        <v>124.19</v>
       </c>
       <c r="C220">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D220">
-        <v>-2.49</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44202</v>
+        <v>44232</v>
       </c>
       <c r="B221">
-        <v>134.88</v>
+        <v>172.38</v>
       </c>
       <c r="C221">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D221">
-        <v>2.06</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44203</v>
+        <v>44233</v>
       </c>
       <c r="B222">
-        <v>121.97</v>
+        <v>178.33</v>
       </c>
       <c r="C222">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D222">
-        <v>-7.7</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44204</v>
+        <v>44234</v>
       </c>
       <c r="B223">
-        <v>119.9</v>
+        <v>173.14</v>
       </c>
       <c r="C223">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D223">
-        <v>-9.27</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44205</v>
+        <v>44235</v>
       </c>
       <c r="B224">
-        <v>117.12</v>
+        <v>172.26</v>
       </c>
       <c r="C224">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D224">
-        <v>-11.37</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44206</v>
+        <v>44236</v>
       </c>
       <c r="B225">
-        <v>110.84</v>
+        <v>158.59</v>
       </c>
       <c r="C225">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D225">
-        <v>-16.12</v>
+        <v>18.67</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44207</v>
+        <v>44237</v>
       </c>
       <c r="B226">
-        <v>109.68</v>
+        <v>122.06</v>
       </c>
       <c r="C226">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D226">
-        <v>-17.01</v>
+        <v>-8.67</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44208</v>
+        <v>44238</v>
       </c>
       <c r="B227">
-        <v>105.02</v>
+        <v>110.2</v>
       </c>
       <c r="C227">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D227">
-        <v>-20.53</v>
+        <v>-17.54</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44209</v>
+        <v>44239</v>
       </c>
       <c r="B228">
-        <v>103.65</v>
+        <v>110.67</v>
       </c>
       <c r="C228">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D228">
-        <v>-21.57</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44210</v>
+        <v>44240</v>
       </c>
       <c r="B229">
-        <v>104.81</v>
+        <v>116.28</v>
       </c>
       <c r="C229">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D229">
-        <v>-20.69</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44211</v>
+        <v>44241</v>
       </c>
       <c r="B230">
-        <v>104.42</v>
+        <v>109.77</v>
       </c>
       <c r="C230">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D230">
-        <v>-20.99</v>
+        <v>-17.86</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44212</v>
+        <v>44242</v>
       </c>
       <c r="B231">
-        <v>107.09</v>
+        <v>111.99</v>
       </c>
       <c r="C231">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D231">
-        <v>-18.96</v>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44213</v>
+        <v>44243</v>
       </c>
       <c r="B232">
-        <v>113.38</v>
+        <v>115.84</v>
       </c>
       <c r="C232">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D232">
-        <v>-14.21</v>
+        <v>-13.32</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44214</v>
+        <v>44244</v>
       </c>
       <c r="B233">
-        <v>145.18</v>
+        <v>111.05</v>
       </c>
       <c r="C233">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D233">
-        <v>9.859999999999999</v>
+        <v>-16.9</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44215</v>
+        <v>44245</v>
       </c>
       <c r="B234">
-        <v>179.54</v>
+        <v>100.91</v>
       </c>
       <c r="C234">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D234">
-        <v>35.86</v>
+        <v>-24.5</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44216</v>
+        <v>44246</v>
       </c>
       <c r="B235">
-        <v>175.85</v>
+        <v>95.14</v>
       </c>
       <c r="C235">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D235">
-        <v>33.07</v>
+        <v>-28.81</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44217</v>
+        <v>44247</v>
       </c>
       <c r="B236">
-        <v>201.51</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C236">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D236">
-        <v>52.49</v>
+        <v>-30.49</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44218</v>
+        <v>44248</v>
       </c>
       <c r="B237">
-        <v>209.03</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="C237">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D237">
-        <v>58.18</v>
+        <v>-32.31</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44219</v>
+        <v>44249</v>
       </c>
       <c r="B238">
-        <v>191.14</v>
+        <v>87.56</v>
       </c>
       <c r="C238">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D238">
-        <v>44.63</v>
+        <v>-34.48</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44220</v>
+        <v>44250</v>
       </c>
       <c r="B239">
-        <v>173.05</v>
+        <v>87.61</v>
       </c>
       <c r="C239">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D239">
-        <v>30.95</v>
+        <v>-34.44</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44221</v>
+        <v>44251</v>
       </c>
       <c r="B240">
-        <v>152.68</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="C240">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D240">
-        <v>15.53</v>
+        <v>-25.44</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="B241">
-        <v>138.14</v>
+        <v>104.4</v>
       </c>
       <c r="C241">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D241">
-        <v>4.53</v>
+        <v>-21.88</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44223</v>
+        <v>44253</v>
       </c>
       <c r="B242">
-        <v>129.64</v>
+        <v>104.41</v>
       </c>
       <c r="C242">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D242">
-        <v>-1.9</v>
+        <v>-21.88</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44224</v>
+        <v>44254</v>
       </c>
       <c r="B243">
-        <v>139.52</v>
+        <v>123.4</v>
       </c>
       <c r="C243">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D243">
-        <v>5.58</v>
+        <v>-7.67</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44225</v>
+        <v>44255</v>
       </c>
       <c r="B244">
-        <v>164.82</v>
+        <v>171.05</v>
       </c>
       <c r="C244">
-        <v>132.15</v>
+        <v>133.64</v>
       </c>
       <c r="D244">
-        <v>24.72</v>
+        <v>27.99</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44226</v>
+        <v>44256</v>
       </c>
       <c r="B245">
-        <v>173.56</v>
+        <v>196.8</v>
       </c>
       <c r="C245">
-        <v>132.15</v>
+        <v>113.77</v>
       </c>
       <c r="D245">
-        <v>31.34</v>
+        <v>72.98999999999999</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44227</v>
+        <v>44257</v>
       </c>
       <c r="B246">
-        <v>160.47</v>
+        <v>251.42</v>
       </c>
       <c r="C246">
-        <v>132.15</v>
+        <v>113.77</v>
       </c>
       <c r="D246">
-        <v>21.43</v>
+        <v>120.99</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44228</v>
+        <v>44258</v>
       </c>
       <c r="B247">
-        <v>143.48</v>
+        <v>256.05</v>
       </c>
       <c r="C247">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D247">
-        <v>7.36</v>
+        <v>125.07</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44229</v>
+        <v>44259</v>
       </c>
       <c r="B248">
-        <v>131.64</v>
+        <v>252.27</v>
       </c>
       <c r="C248">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D248">
-        <v>-1.5</v>
+        <v>121.74</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44230</v>
+        <v>44260</v>
       </c>
       <c r="B249">
-        <v>122.02</v>
+        <v>235.28</v>
       </c>
       <c r="C249">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D249">
-        <v>-8.699999999999999</v>
+        <v>106.81</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44231</v>
+        <v>44261</v>
       </c>
       <c r="B250">
-        <v>124.19</v>
+        <v>216.42</v>
       </c>
       <c r="C250">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D250">
-        <v>-7.08</v>
+        <v>90.23</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44232</v>
+        <v>44262</v>
       </c>
       <c r="B251">
-        <v>172.38</v>
+        <v>197.08</v>
       </c>
       <c r="C251">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D251">
-        <v>28.98</v>
+        <v>73.23</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44233</v>
+        <v>44263</v>
       </c>
       <c r="B252">
-        <v>178.33</v>
+        <v>182.56</v>
       </c>
       <c r="C252">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D252">
-        <v>33.44</v>
+        <v>60.47</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44234</v>
+        <v>44264</v>
       </c>
       <c r="B253">
-        <v>173.14</v>
+        <v>172.05</v>
       </c>
       <c r="C253">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D253">
-        <v>29.55</v>
+        <v>51.23</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44235</v>
+        <v>44265</v>
       </c>
       <c r="B254">
-        <v>172.26</v>
+        <v>165.08</v>
       </c>
       <c r="C254">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D254">
-        <v>28.9</v>
+        <v>45.11</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44236</v>
+        <v>44266</v>
       </c>
       <c r="B255">
-        <v>158.59</v>
+        <v>153.42</v>
       </c>
       <c r="C255">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D255">
-        <v>18.67</v>
+        <v>34.85</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44237</v>
+        <v>44267</v>
       </c>
       <c r="B256">
-        <v>122.06</v>
+        <v>143.57</v>
       </c>
       <c r="C256">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D256">
-        <v>-8.67</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44238</v>
+        <v>44268</v>
       </c>
       <c r="B257">
-        <v>110.2</v>
+        <v>135.24</v>
       </c>
       <c r="C257">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D257">
-        <v>-17.54</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44239</v>
+        <v>44269</v>
       </c>
       <c r="B258">
-        <v>110.67</v>
+        <v>126.2</v>
       </c>
       <c r="C258">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D258">
-        <v>-17.19</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44240</v>
+        <v>44270</v>
       </c>
       <c r="B259">
-        <v>116.28</v>
+        <v>160.78</v>
       </c>
       <c r="C259">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D259">
-        <v>-12.99</v>
+        <v>41.33</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44241</v>
+        <v>44271</v>
       </c>
       <c r="B260">
-        <v>109.77</v>
+        <v>152.81</v>
       </c>
       <c r="C260">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D260">
-        <v>-17.86</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44242</v>
+        <v>44272</v>
       </c>
       <c r="B261">
-        <v>111.99</v>
+        <v>143.8</v>
       </c>
       <c r="C261">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D261">
-        <v>-16.2</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44243</v>
+        <v>44273</v>
       </c>
       <c r="B262">
-        <v>115.84</v>
+        <v>136.05</v>
       </c>
       <c r="C262">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D262">
-        <v>-13.32</v>
+        <v>19.59</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44244</v>
+        <v>44274</v>
       </c>
       <c r="B263">
-        <v>111.05</v>
+        <v>126.32</v>
       </c>
       <c r="C263">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D263">
-        <v>-16.9</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44245</v>
+        <v>44275</v>
       </c>
       <c r="B264">
-        <v>100.91</v>
+        <v>118.44</v>
       </c>
       <c r="C264">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D264">
-        <v>-24.5</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44246</v>
+        <v>44276</v>
       </c>
       <c r="B265">
-        <v>95.14</v>
+        <v>114.57</v>
       </c>
       <c r="C265">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D265">
-        <v>-28.81</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44247</v>
+        <v>44277</v>
       </c>
       <c r="B266">
-        <v>92.90000000000001</v>
+        <v>112.9</v>
       </c>
       <c r="C266">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D266">
-        <v>-30.49</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44248</v>
+        <v>44278</v>
       </c>
       <c r="B267">
-        <v>90.45999999999999</v>
+        <v>110.45</v>
       </c>
       <c r="C267">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D267">
-        <v>-32.31</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44249</v>
+        <v>44279</v>
       </c>
       <c r="B268">
-        <v>87.56</v>
+        <v>108.48</v>
       </c>
       <c r="C268">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D268">
-        <v>-34.48</v>
+        <v>-4.65</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44250</v>
+        <v>44280</v>
       </c>
       <c r="B269">
-        <v>87.61</v>
+        <v>106.66</v>
       </c>
       <c r="C269">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D269">
-        <v>-34.44</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44251</v>
+        <v>44281</v>
       </c>
       <c r="B270">
-        <v>99.65000000000001</v>
+        <v>105.73</v>
       </c>
       <c r="C270">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D270">
-        <v>-25.44</v>
+        <v>-7.07</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44252</v>
+        <v>44282</v>
       </c>
       <c r="B271">
-        <v>104.4</v>
+        <v>122.07</v>
       </c>
       <c r="C271">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D271">
-        <v>-21.88</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44253</v>
+        <v>44283</v>
       </c>
       <c r="B272">
-        <v>104.41</v>
+        <v>162.02</v>
       </c>
       <c r="C272">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D272">
-        <v>-21.88</v>
+        <v>42.41</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44254</v>
+        <v>44284</v>
       </c>
       <c r="B273">
-        <v>123.4</v>
+        <v>131.41</v>
       </c>
       <c r="C273">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D273">
-        <v>-7.67</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44255</v>
+        <v>44285</v>
       </c>
       <c r="B274">
-        <v>171.05</v>
+        <v>127</v>
       </c>
       <c r="C274">
-        <v>133.64</v>
+        <v>113.77</v>
       </c>
       <c r="D274">
-        <v>27.99</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44256</v>
+        <v>44286</v>
       </c>
       <c r="B275">
-        <v>196.8</v>
+        <v>121.89</v>
       </c>
       <c r="C275">
         <v>113.77</v>
       </c>
       <c r="D275">
-        <v>72.98999999999999</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44257</v>
+        <v>44287</v>
       </c>
       <c r="B276">
-        <v>251.42</v>
+        <v>110.57</v>
       </c>
       <c r="C276">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D276">
-        <v>120.99</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44258</v>
+        <v>44288</v>
       </c>
       <c r="B277">
-        <v>256.05</v>
+        <v>104.15</v>
       </c>
       <c r="C277">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D277">
-        <v>125.07</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44259</v>
+        <v>44289</v>
       </c>
       <c r="B278">
-        <v>252.27</v>
+        <v>100.83</v>
       </c>
       <c r="C278">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D278">
-        <v>121.74</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44260</v>
+        <v>44290</v>
       </c>
       <c r="B279">
-        <v>235.28</v>
+        <v>99.22</v>
       </c>
       <c r="C279">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D279">
-        <v>106.81</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44261</v>
+        <v>44291</v>
       </c>
       <c r="B280">
-        <v>216.42</v>
+        <v>98.33</v>
       </c>
       <c r="C280">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D280">
-        <v>90.23</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44262</v>
+        <v>44292</v>
       </c>
       <c r="B281">
-        <v>197.08</v>
+        <v>98.95</v>
       </c>
       <c r="C281">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D281">
-        <v>73.23</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44263</v>
+        <v>44293</v>
       </c>
       <c r="B282">
-        <v>182.56</v>
+        <v>102.04</v>
       </c>
       <c r="C282">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D282">
-        <v>60.47</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44264</v>
+        <v>44294</v>
       </c>
       <c r="B283">
-        <v>172.05</v>
+        <v>107.93</v>
       </c>
       <c r="C283">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D283">
-        <v>51.23</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44265</v>
+        <v>44295</v>
       </c>
       <c r="B284">
-        <v>165.08</v>
+        <v>109.41</v>
       </c>
       <c r="C284">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D284">
-        <v>45.11</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44266</v>
+        <v>44296</v>
       </c>
       <c r="B285">
-        <v>153.42</v>
+        <v>112.44</v>
       </c>
       <c r="C285">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D285">
-        <v>34.85</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44267</v>
+        <v>44297</v>
       </c>
       <c r="B286">
-        <v>143.57</v>
+        <v>111.85</v>
       </c>
       <c r="C286">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D286">
-        <v>26.2</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44268</v>
+        <v>44298</v>
       </c>
       <c r="B287">
-        <v>135.24</v>
+        <v>100.3</v>
       </c>
       <c r="C287">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D287">
-        <v>18.87</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44269</v>
+        <v>44299</v>
       </c>
       <c r="B288">
-        <v>126.2</v>
+        <v>94.27</v>
       </c>
       <c r="C288">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D288">
-        <v>10.93</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44270</v>
+        <v>44300</v>
       </c>
       <c r="B289">
-        <v>160.78</v>
+        <v>92.53</v>
       </c>
       <c r="C289">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D289">
-        <v>41.33</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44271</v>
+        <v>44301</v>
       </c>
       <c r="B290">
-        <v>152.81</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C290">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D290">
-        <v>34.32</v>
+        <v>-7.43</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44272</v>
+        <v>44302</v>
       </c>
       <c r="B291">
-        <v>143.8</v>
+        <v>90.76000000000001</v>
       </c>
       <c r="C291">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D291">
-        <v>26.4</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44273</v>
+        <v>44303</v>
       </c>
       <c r="B292">
-        <v>136.05</v>
+        <v>89.59</v>
       </c>
       <c r="C292">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D292">
-        <v>19.59</v>
+        <v>-9.460000000000001</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44274</v>
+        <v>44304</v>
       </c>
       <c r="B293">
-        <v>126.32</v>
+        <v>90.34</v>
       </c>
       <c r="C293">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D293">
-        <v>11.04</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44275</v>
+        <v>44305</v>
       </c>
       <c r="B294">
-        <v>118.44</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="C294">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D294">
-        <v>4.11</v>
+        <v>-8.19</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44276</v>
+        <v>44306</v>
       </c>
       <c r="B295">
-        <v>114.57</v>
+        <v>89.95</v>
       </c>
       <c r="C295">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D295">
-        <v>0.71</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44277</v>
+        <v>44307</v>
       </c>
       <c r="B296">
-        <v>112.9</v>
+        <v>90.25</v>
       </c>
       <c r="C296">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D296">
-        <v>-0.77</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44278</v>
+        <v>44308</v>
       </c>
       <c r="B297">
-        <v>110.45</v>
+        <v>90.19</v>
       </c>
       <c r="C297">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D297">
-        <v>-2.92</v>
+        <v>-8.859999999999999</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44279</v>
+        <v>44309</v>
       </c>
       <c r="B298">
-        <v>108.48</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="C298">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D298">
-        <v>-4.65</v>
+        <v>-9.06</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44280</v>
+        <v>44310</v>
       </c>
       <c r="B299">
-        <v>106.66</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="C299">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D299">
-        <v>-6.25</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44281</v>
+        <v>44311</v>
       </c>
       <c r="B300">
-        <v>105.73</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="C300">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D300">
-        <v>-7.07</v>
+        <v>-13.96</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44282</v>
+        <v>44312</v>
       </c>
       <c r="B301">
-        <v>122.07</v>
+        <v>84.09</v>
       </c>
       <c r="C301">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D301">
-        <v>7.3</v>
+        <v>-15.02</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44283</v>
+        <v>44313</v>
       </c>
       <c r="B302">
-        <v>162.02</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="C302">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D302">
-        <v>42.41</v>
+        <v>-18.39</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44284</v>
+        <v>44314</v>
       </c>
       <c r="B303">
-        <v>131.41</v>
+        <v>80.29000000000001</v>
       </c>
       <c r="C303">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D303">
-        <v>15.5</v>
+        <v>-18.86</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44285</v>
+        <v>44315</v>
       </c>
       <c r="B304">
-        <v>127</v>
+        <v>79.7</v>
       </c>
       <c r="C304">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D304">
-        <v>11.63</v>
+        <v>-19.46</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B305">
-        <v>121.89</v>
+        <v>76.48</v>
       </c>
       <c r="C305">
-        <v>113.77</v>
+        <v>98.95999999999999</v>
       </c>
       <c r="D305">
-        <v>7.14</v>
+        <v>-22.71</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B306">
-        <v>110.57</v>
+        <v>74.38</v>
       </c>
       <c r="C306">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D306">
-        <v>11.74</v>
+        <v>-25.57</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44288</v>
+        <v>44318</v>
       </c>
       <c r="B307">
-        <v>104.15</v>
+        <v>74.64</v>
       </c>
       <c r="C307">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D307">
-        <v>5.25</v>
+        <v>-25.31</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44289</v>
+        <v>44319</v>
       </c>
       <c r="B308">
-        <v>100.83</v>
+        <v>72.34</v>
       </c>
       <c r="C308">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D308">
-        <v>1.9</v>
+        <v>-27.61</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44290</v>
+        <v>44320</v>
       </c>
       <c r="B309">
-        <v>99.22</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C309">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D309">
-        <v>0.27</v>
+        <v>-27.94</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="B310">
-        <v>98.33</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="C310">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D310">
-        <v>-0.63</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44292</v>
+        <v>44322</v>
       </c>
       <c r="B311">
-        <v>98.95</v>
+        <v>73.98</v>
       </c>
       <c r="C311">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D311">
-        <v>-0.01</v>
+        <v>-25.97</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44293</v>
+        <v>44323</v>
       </c>
       <c r="B312">
-        <v>102.04</v>
+        <v>99.03</v>
       </c>
       <c r="C312">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D312">
-        <v>3.12</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44294</v>
+        <v>44324</v>
       </c>
       <c r="B313">
-        <v>107.93</v>
+        <v>105.88</v>
       </c>
       <c r="C313">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D313">
-        <v>9.07</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44295</v>
+        <v>44325</v>
       </c>
       <c r="B314">
-        <v>109.41</v>
+        <v>103.49</v>
       </c>
       <c r="C314">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D314">
-        <v>10.56</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44296</v>
+        <v>44326</v>
       </c>
       <c r="B315">
-        <v>112.44</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="C315">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D315">
-        <v>13.62</v>
+        <v>-11.04</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44297</v>
+        <v>44327</v>
       </c>
       <c r="B316">
-        <v>111.85</v>
+        <v>84.56</v>
       </c>
       <c r="C316">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D316">
-        <v>13.03</v>
+        <v>-15.38</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="B317">
-        <v>100.3</v>
+        <v>127.33</v>
       </c>
       <c r="C317">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D317">
-        <v>1.36</v>
+        <v>27.42</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44299</v>
+        <v>44329</v>
       </c>
       <c r="B318">
-        <v>94.27</v>
+        <v>146.11</v>
       </c>
       <c r="C318">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D318">
-        <v>-4.73</v>
+        <v>46.21</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44300</v>
+        <v>44330</v>
       </c>
       <c r="B319">
-        <v>92.53</v>
+        <v>137.53</v>
       </c>
       <c r="C319">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D319">
-        <v>-6.49</v>
+        <v>37.62</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44301</v>
+        <v>44331</v>
       </c>
       <c r="B320">
-        <v>91.59999999999999</v>
+        <v>139.91</v>
       </c>
       <c r="C320">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D320">
-        <v>-7.43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44302</v>
+        <v>44332</v>
       </c>
       <c r="B321">
-        <v>90.76000000000001</v>
+        <v>142.14</v>
       </c>
       <c r="C321">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D321">
-        <v>-8.279999999999999</v>
+        <v>42.23</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44303</v>
+        <v>44333</v>
       </c>
       <c r="B322">
-        <v>89.59</v>
+        <v>117.59</v>
       </c>
       <c r="C322">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D322">
-        <v>-9.460000000000001</v>
+        <v>17.67</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44304</v>
+        <v>44334</v>
       </c>
       <c r="B323">
-        <v>90.34</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="C323">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D323">
-        <v>-8.699999999999999</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44305</v>
+        <v>44335</v>
       </c>
       <c r="B324">
-        <v>90.84999999999999</v>
+        <v>91.17</v>
       </c>
       <c r="C324">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D324">
-        <v>-8.19</v>
+        <v>-8.77</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44306</v>
+        <v>44336</v>
       </c>
       <c r="B325">
-        <v>89.95</v>
+        <v>86.92</v>
       </c>
       <c r="C325">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D325">
-        <v>-9.1</v>
+        <v>-13.02</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44307</v>
+        <v>44337</v>
       </c>
       <c r="B326">
-        <v>90.25</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C326">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D326">
-        <v>-8.800000000000001</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44308</v>
+        <v>44338</v>
       </c>
       <c r="B327">
-        <v>90.19</v>
+        <v>90.95</v>
       </c>
       <c r="C327">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D327">
-        <v>-8.859999999999999</v>
+        <v>-8.99</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44309</v>
+        <v>44339</v>
       </c>
       <c r="B328">
-        <v>89.98999999999999</v>
+        <v>92.64</v>
       </c>
       <c r="C328">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D328">
-        <v>-9.06</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44310</v>
+        <v>44340</v>
       </c>
       <c r="B329">
-        <v>87.93000000000001</v>
+        <v>90.05</v>
       </c>
       <c r="C329">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D329">
-        <v>-11.14</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44311</v>
+        <v>44341</v>
       </c>
       <c r="B330">
-        <v>85.15000000000001</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="C330">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D330">
-        <v>-13.96</v>
+        <v>-14.43</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44312</v>
+        <v>44342</v>
       </c>
       <c r="B331">
-        <v>84.09</v>
+        <v>81.19</v>
       </c>
       <c r="C331">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D331">
-        <v>-15.02</v>
+        <v>-18.76</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44313</v>
+        <v>44343</v>
       </c>
       <c r="B332">
-        <v>80.76000000000001</v>
+        <v>75.06</v>
       </c>
       <c r="C332">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D332">
-        <v>-18.39</v>
+        <v>-24.89</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44314</v>
+        <v>44344</v>
       </c>
       <c r="B333">
-        <v>80.29000000000001</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="C333">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D333">
-        <v>-18.86</v>
+        <v>-27.41</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44315</v>
+        <v>44345</v>
       </c>
       <c r="B334">
-        <v>79.7</v>
+        <v>71.5</v>
       </c>
       <c r="C334">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D334">
-        <v>-19.46</v>
+        <v>-28.45</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44316</v>
+        <v>44346</v>
       </c>
       <c r="B335">
-        <v>76.48</v>
+        <v>76.84</v>
       </c>
       <c r="C335">
-        <v>98.95999999999999</v>
+        <v>99.93000000000001</v>
       </c>
       <c r="D335">
-        <v>-22.71</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44317</v>
+        <v>44347</v>
       </c>
       <c r="B336">
-        <v>74.38</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="C336">
         <v>99.93000000000001</v>
       </c>
       <c r="D336">
-        <v>-25.57</v>
+        <v>-21.44</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44318</v>
+        <v>44348</v>
       </c>
       <c r="B337">
-        <v>74.64</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C337">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D337">
-        <v>-25.31</v>
+        <v>-41.26</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44319</v>
+        <v>44349</v>
       </c>
       <c r="B338">
-        <v>72.34</v>
+        <v>75.61</v>
       </c>
       <c r="C338">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D338">
-        <v>-27.61</v>
+        <v>-43.34</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44320</v>
+        <v>44350</v>
       </c>
       <c r="B339">
-        <v>72.01000000000001</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="C339">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D339">
-        <v>-27.94</v>
+        <v>-44.82</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44321</v>
+        <v>44351</v>
       </c>
       <c r="B340">
-        <v>73.15000000000001</v>
+        <v>74.22</v>
       </c>
       <c r="C340">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D340">
-        <v>-26.8</v>
+        <v>-44.39</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44322</v>
+        <v>44352</v>
       </c>
       <c r="B341">
-        <v>73.98</v>
+        <v>72.72</v>
       </c>
       <c r="C341">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D341">
-        <v>-25.97</v>
+        <v>-45.51</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44323</v>
+        <v>44353</v>
       </c>
       <c r="B342">
-        <v>99.03</v>
+        <v>72.31</v>
       </c>
       <c r="C342">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D342">
-        <v>-0.9</v>
+        <v>-45.82</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44324</v>
+        <v>44354</v>
       </c>
       <c r="B343">
-        <v>105.88</v>
+        <v>82.25</v>
       </c>
       <c r="C343">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D343">
-        <v>5.95</v>
+        <v>-38.37</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44325</v>
+        <v>44355</v>
       </c>
       <c r="B344">
-        <v>103.49</v>
+        <v>92.64</v>
       </c>
       <c r="C344">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D344">
-        <v>3.56</v>
+        <v>-30.59</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44326</v>
+        <v>44356</v>
       </c>
       <c r="B345">
-        <v>88.90000000000001</v>
+        <v>98.27</v>
       </c>
       <c r="C345">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D345">
-        <v>-11.04</v>
+        <v>-26.37</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44327</v>
+        <v>44357</v>
       </c>
       <c r="B346">
-        <v>84.56</v>
+        <v>91.14</v>
       </c>
       <c r="C346">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D346">
-        <v>-15.38</v>
+        <v>-31.71</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44328</v>
+        <v>44358</v>
       </c>
       <c r="B347">
-        <v>127.33</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="C347">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D347">
-        <v>27.42</v>
+        <v>-34.59</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44329</v>
+        <v>44359</v>
       </c>
       <c r="B348">
-        <v>146.11</v>
+        <v>78.67</v>
       </c>
       <c r="C348">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D348">
-        <v>46.21</v>
+        <v>-41.06</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44330</v>
+        <v>44360</v>
       </c>
       <c r="B349">
-        <v>137.53</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="C349">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D349">
-        <v>37.62</v>
+        <v>-44.94</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44331</v>
+        <v>44361</v>
       </c>
       <c r="B350">
-        <v>139.91</v>
+        <v>71.73</v>
       </c>
       <c r="C350">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D350">
-        <v>40</v>
+        <v>-46.26</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44332</v>
+        <v>44362</v>
       </c>
       <c r="B351">
-        <v>142.14</v>
+        <v>72.41</v>
       </c>
       <c r="C351">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D351">
-        <v>42.23</v>
+        <v>-45.75</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44333</v>
+        <v>44363</v>
       </c>
       <c r="B352">
-        <v>117.59</v>
+        <v>72.12</v>
       </c>
       <c r="C352">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D352">
-        <v>17.67</v>
+        <v>-45.96</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44334</v>
+        <v>44364</v>
       </c>
       <c r="B353">
-        <v>97.98999999999999</v>
+        <v>70.38</v>
       </c>
       <c r="C353">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D353">
-        <v>-1.94</v>
+        <v>-47.27</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44335</v>
+        <v>44365</v>
       </c>
       <c r="B354">
-        <v>91.17</v>
+        <v>70.11</v>
       </c>
       <c r="C354">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D354">
-        <v>-8.77</v>
+        <v>-47.46</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44336</v>
+        <v>44366</v>
       </c>
       <c r="B355">
-        <v>86.92</v>
+        <v>117.47</v>
       </c>
       <c r="C355">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D355">
-        <v>-13.02</v>
+        <v>-11.98</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44337</v>
+        <v>44367</v>
       </c>
       <c r="B356">
-        <v>83.54000000000001</v>
+        <v>154.24</v>
       </c>
       <c r="C356">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D356">
-        <v>-16.4</v>
+        <v>15.57</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44338</v>
+        <v>44368</v>
       </c>
       <c r="B357">
-        <v>90.95</v>
+        <v>144.37</v>
       </c>
       <c r="C357">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D357">
-        <v>-8.99</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44339</v>
+        <v>44369</v>
       </c>
       <c r="B358">
-        <v>92.64</v>
+        <v>157.46</v>
       </c>
       <c r="C358">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D358">
-        <v>-7.3</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44340</v>
+        <v>44370</v>
       </c>
       <c r="B359">
-        <v>90.05</v>
+        <v>161.47</v>
       </c>
       <c r="C359">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D359">
-        <v>-9.890000000000001</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44341</v>
+        <v>44371</v>
       </c>
       <c r="B360">
-        <v>85.51000000000001</v>
+        <v>154.92</v>
       </c>
       <c r="C360">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D360">
-        <v>-14.43</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44342</v>
+        <v>44372</v>
       </c>
       <c r="B361">
-        <v>81.19</v>
+        <v>131.01</v>
       </c>
       <c r="C361">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D361">
-        <v>-18.76</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44343</v>
+        <v>44373</v>
       </c>
       <c r="B362">
-        <v>75.06</v>
+        <v>119.24</v>
       </c>
       <c r="C362">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D362">
-        <v>-24.89</v>
+        <v>-10.66</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44344</v>
+        <v>44374</v>
       </c>
       <c r="B363">
-        <v>72.54000000000001</v>
+        <v>108.38</v>
       </c>
       <c r="C363">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D363">
-        <v>-27.41</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44345</v>
+        <v>44375</v>
       </c>
       <c r="B364">
-        <v>71.5</v>
+        <v>99.61</v>
       </c>
       <c r="C364">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D364">
-        <v>-28.45</v>
+        <v>-25.36</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44346</v>
+        <v>44376</v>
       </c>
       <c r="B365">
-        <v>76.84</v>
+        <v>121.35</v>
       </c>
       <c r="C365">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D365">
-        <v>-23.1</v>
+        <v>-9.07</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B366">
-        <v>78.51000000000001</v>
+        <v>115.68</v>
       </c>
       <c r="C366">
-        <v>99.93000000000001</v>
+        <v>133.46</v>
       </c>
       <c r="D366">
-        <v>-21.44</v>
+        <v>-13.33</v>
       </c>
     </row>
   </sheetData>
